--- a/exe/TSV/Excel/TH64_Fujie_UIList.xlsx
+++ b/exe/TSV/Excel/TH64_Fujie_UIList.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A089061A-9856-4554-8E05-43574D78203D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A669AF4A-0A21-4B82-A595-7B9933B48D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="5415" windowWidth="24225" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8025" yWindow="3975" windowWidth="24165" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="W19_赤山町駅_UIList" sheetId="1" r:id="rId1"/>
+    <sheet name="TH64_藤江駅_UIList" sheetId="1" r:id="rId1"/>
     <sheet name="入力規則" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -117,7 +117,7 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>X座標（幅方向）を指定する</t>
+          <t>操作可能判定に用いる鍵名称</t>
         </r>
       </text>
     </comment>
@@ -130,11 +130,24 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
+          <t>X座標（幅方向）を指定する</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
           <t>Y座標（高さ方向）を指定する</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -148,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -189,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -203,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -220,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -237,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -254,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -271,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -285,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -317,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -330,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -359,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -391,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -410,7 +423,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Type</t>
   </si>
@@ -428,6 +441,9 @@
   </si>
   <si>
     <t>PointValue</t>
+  </si>
+  <si>
+    <t>KeyName</t>
   </si>
   <si>
     <t>X</t>
@@ -562,14 +578,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Yu Gothic&quot;"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Yu Gothic&quot;"/>
     </font>
     <font>
       <sz val="10"/>
@@ -632,18 +647,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -655,22 +683,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -688,7 +704,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -909,7 +925,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE200"/>
+  <dimension ref="A1:AF200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -922,14 +938,14 @@
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="20" width="15.140625" customWidth="1"/>
-    <col min="21" max="21" width="37.5703125" customWidth="1"/>
-    <col min="22" max="22" width="100.140625" customWidth="1"/>
-    <col min="23" max="23" width="62.5703125" customWidth="1"/>
-    <col min="24" max="31" width="14.7109375" customWidth="1"/>
+    <col min="3" max="21" width="15.140625" customWidth="1"/>
+    <col min="22" max="22" width="37.5703125" customWidth="1"/>
+    <col min="23" max="23" width="100.140625" customWidth="1"/>
+    <col min="24" max="24" width="62.5703125" customWidth="1"/>
+    <col min="25" max="32" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,13 +1009,15 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3"/>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
@@ -1007,25 +1025,26 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
-    </row>
-    <row r="2" spans="1:31">
+      <c r="AF1" s="3"/>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -1038,172 +1057,176 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
-      <c r="V2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" s="5" t="s">
+      <c r="V2" s="4"/>
+      <c r="W2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5">
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6">
         <v>1035</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="6">
         <v>78</v>
       </c>
-      <c r="I3" s="5">
+      <c r="J3" s="6">
         <v>79</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="6">
         <v>110</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="7" t="s">
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+    </row>
+    <row r="4" spans="1:32" ht="25.5">
+      <c r="A4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-    </row>
-    <row r="4" spans="1:31" ht="25.5">
-      <c r="A4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6">
         <v>6</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="6">
         <v>37</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="6">
         <v>63</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="6">
         <v>63</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
       <c r="V4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-    </row>
-    <row r="5" spans="1:31">
-      <c r="A5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="W4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5">
-        <f>G3+11</f>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6">
+        <f>H3+11</f>
         <v>1046</v>
       </c>
-      <c r="H5" s="5">
-        <f>H3-68</f>
+      <c r="I5" s="6">
+        <f>I3-68</f>
         <v>10</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="7" t="s">
-        <v>34</v>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="8" t="s">
+        <v>35</v>
       </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-    </row>
-    <row r="6" spans="1:31">
+      <c r="X5" s="7"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" s="4"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -1212,31 +1235,32 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="8"/>
+      <c r="R6" s="4"/>
       <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
+      <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="11"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-    </row>
-    <row r="7" spans="1:31">
+      <c r="W6" s="12"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" s="4"/>
-      <c r="B7" s="8"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -1245,31 +1269,32 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="8"/>
+      <c r="R7" s="4"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
+      <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="11"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-    </row>
-    <row r="8" spans="1:31">
+      <c r="W7" s="12"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" s="4"/>
-      <c r="B8" s="8"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -1278,31 +1303,32 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="8"/>
+      <c r="R8" s="4"/>
       <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
+      <c r="T8" s="10"/>
       <c r="U8" s="10"/>
       <c r="V8" s="11"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-    </row>
-    <row r="9" spans="1:31">
+      <c r="W8" s="12"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" s="4"/>
-      <c r="B9" s="8"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -1311,31 +1337,32 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="8"/>
+      <c r="R9" s="4"/>
       <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
+      <c r="T9" s="10"/>
       <c r="U9" s="10"/>
       <c r="V9" s="11"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-    </row>
-    <row r="10" spans="1:31">
+      <c r="W9" s="12"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" s="4"/>
-      <c r="B10" s="8"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -1344,31 +1371,32 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="8"/>
+      <c r="R10" s="4"/>
       <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
+      <c r="T10" s="10"/>
       <c r="U10" s="10"/>
       <c r="V10" s="11"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-    </row>
-    <row r="11" spans="1:31">
+      <c r="W10" s="12"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" s="4"/>
-      <c r="B11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -1377,31 +1405,32 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="8"/>
+      <c r="R11" s="4"/>
       <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
+      <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="11"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31">
+      <c r="W11" s="12"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" s="4"/>
-      <c r="B12" s="8"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -1410,31 +1439,32 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="8"/>
+      <c r="R12" s="4"/>
       <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
+      <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="11"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-    </row>
-    <row r="13" spans="1:31">
+      <c r="W12" s="12"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" s="4"/>
-      <c r="B13" s="8"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="13"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -1443,31 +1473,32 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="8"/>
+      <c r="R13" s="4"/>
       <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
+      <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="11"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-    </row>
-    <row r="14" spans="1:31">
+      <c r="W13" s="12"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14" s="4"/>
-      <c r="B14" s="12"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -1476,31 +1507,32 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="10"/>
       <c r="U14" s="10"/>
       <c r="V14" s="11"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-    </row>
-    <row r="15" spans="1:31">
+      <c r="W14" s="12"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+    </row>
+    <row r="15" spans="1:32">
       <c r="A15" s="4"/>
-      <c r="B15" s="12"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -1509,31 +1541,32 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="11"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-    </row>
-    <row r="16" spans="1:31">
+      <c r="W15" s="12"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16" s="4"/>
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -1542,31 +1575,32 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="8"/>
+      <c r="R16" s="4"/>
       <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
+      <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="11"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="1:31">
+      <c r="W16" s="12"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17" s="4"/>
-      <c r="B17" s="8"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1575,31 +1609,32 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="8"/>
+      <c r="R17" s="4"/>
       <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
+      <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="11"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-    </row>
-    <row r="18" spans="1:31">
+      <c r="W17" s="12"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+    </row>
+    <row r="18" spans="1:32">
       <c r="A18" s="4"/>
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -1608,31 +1643,32 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="8"/>
+      <c r="R18" s="4"/>
       <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
+      <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="11"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-    </row>
-    <row r="19" spans="1:31">
+      <c r="W18" s="12"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+    </row>
+    <row r="19" spans="1:32">
       <c r="A19" s="4"/>
-      <c r="B19" s="8"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -1641,31 +1677,32 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="8"/>
+      <c r="R19" s="4"/>
       <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
+      <c r="T19" s="10"/>
       <c r="U19" s="10"/>
       <c r="V19" s="11"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="1:31">
+      <c r="W19" s="12"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+    </row>
+    <row r="20" spans="1:32">
       <c r="A20" s="4"/>
-      <c r="B20" s="8"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -1674,31 +1711,32 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="8"/>
+      <c r="R20" s="4"/>
       <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
+      <c r="T20" s="10"/>
       <c r="U20" s="10"/>
       <c r="V20" s="11"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-    </row>
-    <row r="21" spans="1:31">
+      <c r="W20" s="12"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+    </row>
+    <row r="21" spans="1:32">
       <c r="A21" s="4"/>
-      <c r="B21" s="8"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -1707,31 +1745,32 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="8"/>
+      <c r="R21" s="4"/>
       <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
+      <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="11"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-    </row>
-    <row r="22" spans="1:31">
+      <c r="W21" s="12"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+    </row>
+    <row r="22" spans="1:32">
       <c r="A22" s="4"/>
-      <c r="B22" s="8"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -1740,31 +1779,32 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
-      <c r="R22" s="8"/>
+      <c r="R22" s="4"/>
       <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
+      <c r="T22" s="10"/>
       <c r="U22" s="10"/>
       <c r="V22" s="11"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-    </row>
-    <row r="23" spans="1:31">
+      <c r="W22" s="12"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+    </row>
+    <row r="23" spans="1:32">
       <c r="A23" s="4"/>
-      <c r="B23" s="12"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -1773,31 +1813,32 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="11"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-    </row>
-    <row r="24" spans="1:31">
+      <c r="W23" s="12"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+    </row>
+    <row r="24" spans="1:32">
       <c r="A24" s="4"/>
-      <c r="B24" s="12"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -1806,31 +1847,32 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="10"/>
       <c r="U24" s="10"/>
       <c r="V24" s="11"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-    </row>
-    <row r="25" spans="1:31">
+      <c r="W24" s="12"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+    </row>
+    <row r="25" spans="1:32">
       <c r="A25" s="4"/>
-      <c r="B25" s="8"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -1839,31 +1881,32 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="8"/>
+      <c r="R25" s="4"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
+      <c r="T25" s="10"/>
       <c r="U25" s="10"/>
       <c r="V25" s="11"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-    </row>
-    <row r="26" spans="1:31">
+      <c r="W25" s="12"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+    </row>
+    <row r="26" spans="1:32">
       <c r="A26" s="4"/>
-      <c r="B26" s="8"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -1872,31 +1915,32 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
-      <c r="R26" s="8"/>
+      <c r="R26" s="4"/>
       <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
+      <c r="T26" s="10"/>
       <c r="U26" s="10"/>
       <c r="V26" s="11"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-    </row>
-    <row r="27" spans="1:31">
+      <c r="W26" s="12"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+    </row>
+    <row r="27" spans="1:32">
       <c r="A27" s="4"/>
-      <c r="B27" s="8"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -1906,30 +1950,31 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="10"/>
       <c r="U27" s="10"/>
       <c r="V27" s="11"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-    </row>
-    <row r="28" spans="1:31">
+      <c r="W27" s="12"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+    </row>
+    <row r="28" spans="1:32">
       <c r="A28" s="4"/>
-      <c r="B28" s="8"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -1939,30 +1984,31 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="10"/>
       <c r="U28" s="10"/>
       <c r="V28" s="11"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-    </row>
-    <row r="29" spans="1:31">
+      <c r="W28" s="12"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+    </row>
+    <row r="29" spans="1:32">
       <c r="A29" s="4"/>
-      <c r="B29" s="8"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -1971,31 +2017,32 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
-      <c r="R29" s="8"/>
+      <c r="R29" s="4"/>
       <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
+      <c r="T29" s="10"/>
       <c r="U29" s="10"/>
       <c r="V29" s="11"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-    </row>
-    <row r="30" spans="1:31">
+      <c r="W29" s="12"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+    </row>
+    <row r="30" spans="1:32">
       <c r="A30" s="4"/>
-      <c r="B30" s="8"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -2005,30 +2052,31 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="10"/>
       <c r="U30" s="10"/>
       <c r="V30" s="11"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-    </row>
-    <row r="31" spans="1:31">
+      <c r="W30" s="12"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+    </row>
+    <row r="31" spans="1:32">
       <c r="A31" s="4"/>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="9"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -2038,30 +2086,31 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="11"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-    </row>
-    <row r="32" spans="1:31">
+      <c r="W31" s="12"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+    </row>
+    <row r="32" spans="1:32">
       <c r="A32" s="4"/>
-      <c r="B32" s="8"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -2070,31 +2119,32 @@
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
-      <c r="R32" s="8"/>
+      <c r="R32" s="4"/>
       <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
+      <c r="T32" s="10"/>
       <c r="U32" s="10"/>
       <c r="V32" s="11"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
-    </row>
-    <row r="33" spans="1:31">
+      <c r="W32" s="12"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+    </row>
+    <row r="33" spans="1:32">
       <c r="A33" s="4"/>
-      <c r="B33" s="8"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -2104,30 +2154,31 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="10"/>
       <c r="U33" s="10"/>
       <c r="V33" s="11"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-    </row>
-    <row r="34" spans="1:31">
+      <c r="W33" s="12"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+    </row>
+    <row r="34" spans="1:32">
       <c r="A34" s="4"/>
-      <c r="B34" s="8"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -2137,30 +2188,31 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="10"/>
       <c r="U34" s="10"/>
       <c r="V34" s="11"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-    </row>
-    <row r="35" spans="1:31">
+      <c r="W34" s="12"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+    </row>
+    <row r="35" spans="1:32">
       <c r="A35" s="4"/>
-      <c r="B35" s="8"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -2169,31 +2221,32 @@
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
-      <c r="R35" s="8"/>
+      <c r="R35" s="4"/>
       <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
+      <c r="T35" s="10"/>
       <c r="U35" s="10"/>
       <c r="V35" s="11"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-    </row>
-    <row r="36" spans="1:31">
+      <c r="W35" s="12"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+    </row>
+    <row r="36" spans="1:32">
       <c r="A36" s="4"/>
-      <c r="B36" s="8"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -2203,30 +2256,31 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="10"/>
       <c r="U36" s="10"/>
       <c r="V36" s="11"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-    </row>
-    <row r="37" spans="1:31">
+      <c r="W36" s="12"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+    </row>
+    <row r="37" spans="1:32">
       <c r="A37" s="4"/>
-      <c r="B37" s="8"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -2236,30 +2290,31 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="10"/>
       <c r="U37" s="10"/>
       <c r="V37" s="11"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-      <c r="AB37" s="3"/>
-      <c r="AC37" s="3"/>
-      <c r="AD37" s="3"/>
-      <c r="AE37" s="3"/>
-    </row>
-    <row r="38" spans="1:31">
+      <c r="W37" s="12"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+    </row>
+    <row r="38" spans="1:32">
       <c r="A38" s="4"/>
-      <c r="B38" s="8"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -2268,31 +2323,32 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
-      <c r="R38" s="8"/>
+      <c r="R38" s="4"/>
       <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
+      <c r="T38" s="10"/>
       <c r="U38" s="10"/>
       <c r="V38" s="11"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AC38" s="3"/>
-      <c r="AD38" s="3"/>
-      <c r="AE38" s="3"/>
-    </row>
-    <row r="39" spans="1:31">
+      <c r="W38" s="12"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+    </row>
+    <row r="39" spans="1:32">
       <c r="A39" s="4"/>
-      <c r="B39" s="8"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -2302,30 +2358,31 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="10"/>
       <c r="U39" s="10"/>
       <c r="V39" s="11"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AC39" s="3"/>
-      <c r="AD39" s="3"/>
-      <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="1:31">
+      <c r="W39" s="12"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+    </row>
+    <row r="40" spans="1:32">
       <c r="A40" s="4"/>
-      <c r="B40" s="8"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -2335,30 +2392,31 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="10"/>
       <c r="U40" s="10"/>
       <c r="V40" s="11"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
-      <c r="AD40" s="3"/>
-      <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="1:31">
+      <c r="W40" s="12"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+    </row>
+    <row r="41" spans="1:32">
       <c r="A41" s="4"/>
-      <c r="B41" s="8"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -2367,31 +2425,32 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
-      <c r="R41" s="8"/>
+      <c r="R41" s="4"/>
       <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
+      <c r="T41" s="10"/>
       <c r="U41" s="10"/>
       <c r="V41" s="11"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
-      <c r="AD41" s="3"/>
-      <c r="AE41" s="3"/>
-    </row>
-    <row r="42" spans="1:31">
+      <c r="W41" s="12"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+    </row>
+    <row r="42" spans="1:32">
       <c r="A42" s="4"/>
-      <c r="B42" s="8"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -2401,30 +2460,31 @@
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="10"/>
       <c r="U42" s="10"/>
       <c r="V42" s="11"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AC42" s="3"/>
-      <c r="AD42" s="3"/>
-      <c r="AE42" s="3"/>
-    </row>
-    <row r="43" spans="1:31">
+      <c r="W42" s="12"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+    </row>
+    <row r="43" spans="1:32">
       <c r="A43" s="4"/>
-      <c r="B43" s="8"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -2434,30 +2494,31 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="10"/>
       <c r="U43" s="10"/>
       <c r="V43" s="11"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="3"/>
-    </row>
-    <row r="44" spans="1:31">
+      <c r="W43" s="12"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+    </row>
+    <row r="44" spans="1:32">
       <c r="A44" s="4"/>
-      <c r="B44" s="8"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -2466,31 +2527,32 @@
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
-      <c r="R44" s="8"/>
+      <c r="R44" s="4"/>
       <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
+      <c r="T44" s="10"/>
       <c r="U44" s="10"/>
       <c r="V44" s="11"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AC44" s="3"/>
-      <c r="AD44" s="3"/>
-      <c r="AE44" s="3"/>
-    </row>
-    <row r="45" spans="1:31">
+      <c r="W44" s="12"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+    </row>
+    <row r="45" spans="1:32">
       <c r="A45" s="4"/>
-      <c r="B45" s="8"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
@@ -2500,30 +2562,31 @@
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="10"/>
       <c r="U45" s="10"/>
       <c r="V45" s="11"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
-      <c r="AB45" s="3"/>
-      <c r="AC45" s="3"/>
-      <c r="AD45" s="3"/>
-      <c r="AE45" s="3"/>
-    </row>
-    <row r="46" spans="1:31">
+      <c r="W45" s="12"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+    </row>
+    <row r="46" spans="1:32">
       <c r="A46" s="4"/>
-      <c r="B46" s="8"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -2532,31 +2595,32 @@
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
-      <c r="R46" s="8"/>
+      <c r="R46" s="4"/>
       <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
+      <c r="T46" s="10"/>
       <c r="U46" s="10"/>
       <c r="V46" s="11"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="3"/>
-      <c r="AB46" s="3"/>
-      <c r="AC46" s="3"/>
-      <c r="AD46" s="3"/>
-      <c r="AE46" s="3"/>
-    </row>
-    <row r="47" spans="1:31">
+      <c r="W46" s="12"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
+    </row>
+    <row r="47" spans="1:32">
       <c r="A47" s="4"/>
-      <c r="B47" s="8"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -2566,30 +2630,31 @@
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="10"/>
       <c r="U47" s="10"/>
       <c r="V47" s="11"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
-      <c r="AB47" s="3"/>
-      <c r="AC47" s="3"/>
-      <c r="AD47" s="3"/>
-      <c r="AE47" s="3"/>
-    </row>
-    <row r="48" spans="1:31">
+      <c r="W47" s="12"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
+    </row>
+    <row r="48" spans="1:32">
       <c r="A48" s="4"/>
-      <c r="B48" s="8"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -2599,30 +2664,31 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="10"/>
       <c r="U48" s="10"/>
       <c r="V48" s="11"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
-    </row>
-    <row r="49" spans="1:31">
+      <c r="W48" s="12"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+    </row>
+    <row r="49" spans="1:32">
       <c r="A49" s="4"/>
-      <c r="B49" s="8"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="13"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -2632,30 +2698,31 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="10"/>
       <c r="U49" s="10"/>
       <c r="V49" s="11"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
-      <c r="AD49" s="3"/>
-      <c r="AE49" s="3"/>
-    </row>
-    <row r="50" spans="1:31">
+      <c r="W49" s="12"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+    </row>
+    <row r="50" spans="1:32">
       <c r="A50" s="4"/>
-      <c r="B50" s="8"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -2665,30 +2732,31 @@
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="10"/>
       <c r="U50" s="10"/>
       <c r="V50" s="11"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="3"/>
-      <c r="AC50" s="3"/>
-      <c r="AD50" s="3"/>
-      <c r="AE50" s="3"/>
-    </row>
-    <row r="51" spans="1:31">
+      <c r="W50" s="12"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+    </row>
+    <row r="51" spans="1:32">
       <c r="A51" s="4"/>
-      <c r="B51" s="8"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -2698,30 +2766,31 @@
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="10"/>
       <c r="U51" s="10"/>
       <c r="V51" s="11"/>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
-      <c r="AA51" s="3"/>
-      <c r="AB51" s="3"/>
-      <c r="AC51" s="3"/>
-      <c r="AD51" s="3"/>
-      <c r="AE51" s="3"/>
-    </row>
-    <row r="52" spans="1:31">
+      <c r="W51" s="12"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+    </row>
+    <row r="52" spans="1:32">
       <c r="A52" s="4"/>
-      <c r="B52" s="8"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -2731,30 +2800,31 @@
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="10"/>
       <c r="U52" s="10"/>
       <c r="V52" s="11"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="3"/>
-      <c r="AC52" s="3"/>
-      <c r="AD52" s="3"/>
-      <c r="AE52" s="3"/>
-    </row>
-    <row r="53" spans="1:31">
+      <c r="W52" s="12"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+    </row>
+    <row r="53" spans="1:32">
       <c r="A53" s="4"/>
-      <c r="B53" s="8"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="13"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -2764,30 +2834,31 @@
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="10"/>
       <c r="U53" s="10"/>
       <c r="V53" s="11"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-      <c r="AA53" s="3"/>
-      <c r="AB53" s="3"/>
-      <c r="AC53" s="3"/>
-      <c r="AD53" s="3"/>
-      <c r="AE53" s="3"/>
-    </row>
-    <row r="54" spans="1:31">
+      <c r="W53" s="12"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+    </row>
+    <row r="54" spans="1:32">
       <c r="A54" s="4"/>
-      <c r="B54" s="8"/>
+      <c r="B54" s="9"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -2797,30 +2868,31 @@
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="10"/>
       <c r="U54" s="10"/>
       <c r="V54" s="11"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-      <c r="AA54" s="3"/>
-      <c r="AB54" s="3"/>
-      <c r="AC54" s="3"/>
-      <c r="AD54" s="3"/>
-      <c r="AE54" s="3"/>
-    </row>
-    <row r="55" spans="1:31">
+      <c r="W54" s="12"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+    </row>
+    <row r="55" spans="1:32">
       <c r="A55" s="4"/>
-      <c r="B55" s="8"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -2830,30 +2902,31 @@
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="10"/>
       <c r="U55" s="10"/>
       <c r="V55" s="11"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-      <c r="AA55" s="3"/>
-      <c r="AB55" s="3"/>
-      <c r="AC55" s="3"/>
-      <c r="AD55" s="3"/>
-      <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="1:31">
+      <c r="W55" s="12"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5"/>
+    </row>
+    <row r="56" spans="1:32">
       <c r="A56" s="4"/>
-      <c r="B56" s="12"/>
+      <c r="B56" s="13"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
@@ -2863,30 +2936,31 @@
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="10"/>
       <c r="U56" s="10"/>
       <c r="V56" s="11"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="3"/>
-      <c r="AC56" s="3"/>
-      <c r="AD56" s="3"/>
-      <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="1:31">
+      <c r="W56" s="12"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+    </row>
+    <row r="57" spans="1:32">
       <c r="A57" s="4"/>
-      <c r="B57" s="12"/>
+      <c r="B57" s="13"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
@@ -2896,30 +2970,31 @@
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="10"/>
       <c r="U57" s="10"/>
       <c r="V57" s="11"/>
-      <c r="W57" s="3"/>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
-      <c r="AA57" s="3"/>
-      <c r="AB57" s="3"/>
-      <c r="AC57" s="3"/>
-      <c r="AD57" s="3"/>
-      <c r="AE57" s="3"/>
-    </row>
-    <row r="58" spans="1:31">
+      <c r="W57" s="12"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5"/>
+    </row>
+    <row r="58" spans="1:32">
       <c r="A58" s="4"/>
-      <c r="B58" s="12"/>
+      <c r="B58" s="13"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
@@ -2929,30 +3004,31 @@
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="10"/>
       <c r="U58" s="10"/>
       <c r="V58" s="11"/>
-      <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-      <c r="AA58" s="3"/>
-      <c r="AB58" s="3"/>
-      <c r="AC58" s="3"/>
-      <c r="AD58" s="3"/>
-      <c r="AE58" s="3"/>
-    </row>
-    <row r="59" spans="1:31">
+      <c r="W58" s="12"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+    </row>
+    <row r="59" spans="1:32">
       <c r="A59" s="4"/>
-      <c r="B59" s="8"/>
+      <c r="B59" s="9"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
@@ -2962,30 +3038,31 @@
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="9"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="10"/>
       <c r="U59" s="10"/>
       <c r="V59" s="11"/>
-      <c r="W59" s="13"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
-      <c r="AA59" s="3"/>
-      <c r="AB59" s="3"/>
-      <c r="AC59" s="3"/>
-      <c r="AD59" s="3"/>
-      <c r="AE59" s="3"/>
-    </row>
-    <row r="60" spans="1:31">
+      <c r="W59" s="12"/>
+      <c r="X59" s="14"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5"/>
+    </row>
+    <row r="60" spans="1:32">
       <c r="A60" s="4"/>
-      <c r="B60" s="8"/>
+      <c r="B60" s="9"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -2995,30 +3072,31 @@
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
-      <c r="S60" s="9"/>
-      <c r="T60" s="9"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="10"/>
       <c r="U60" s="10"/>
       <c r="V60" s="11"/>
-      <c r="W60" s="13"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
-      <c r="AA60" s="3"/>
-      <c r="AB60" s="3"/>
-      <c r="AC60" s="3"/>
-      <c r="AD60" s="3"/>
-      <c r="AE60" s="3"/>
-    </row>
-    <row r="61" spans="1:31">
+      <c r="W60" s="12"/>
+      <c r="X60" s="14"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="5"/>
+    </row>
+    <row r="61" spans="1:32">
       <c r="A61" s="4"/>
-      <c r="B61" s="8"/>
+      <c r="B61" s="9"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
@@ -3028,30 +3106,31 @@
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="10"/>
       <c r="U61" s="10"/>
       <c r="V61" s="11"/>
-      <c r="W61" s="13"/>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="3"/>
-      <c r="AA61" s="3"/>
-      <c r="AB61" s="3"/>
-      <c r="AC61" s="3"/>
-      <c r="AD61" s="3"/>
-      <c r="AE61" s="3"/>
-    </row>
-    <row r="62" spans="1:31">
+      <c r="W61" s="12"/>
+      <c r="X61" s="14"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="5"/>
+      <c r="AF61" s="5"/>
+    </row>
+    <row r="62" spans="1:32">
       <c r="A62" s="4"/>
-      <c r="B62" s="8"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
@@ -3061,30 +3140,31 @@
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="9"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="10"/>
       <c r="U62" s="10"/>
       <c r="V62" s="11"/>
-      <c r="W62" s="13"/>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="3"/>
-      <c r="AA62" s="3"/>
-      <c r="AB62" s="3"/>
-      <c r="AC62" s="3"/>
-      <c r="AD62" s="3"/>
-      <c r="AE62" s="3"/>
-    </row>
-    <row r="63" spans="1:31">
+      <c r="W62" s="12"/>
+      <c r="X62" s="14"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="5"/>
+      <c r="AE62" s="5"/>
+      <c r="AF62" s="5"/>
+    </row>
+    <row r="63" spans="1:32">
       <c r="A63" s="4"/>
-      <c r="B63" s="8"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
@@ -3094,30 +3174,31 @@
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
-      <c r="S63" s="9"/>
-      <c r="T63" s="9"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="10"/>
       <c r="U63" s="10"/>
       <c r="V63" s="11"/>
-      <c r="W63" s="13"/>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-      <c r="AA63" s="3"/>
-      <c r="AB63" s="3"/>
-      <c r="AC63" s="3"/>
-      <c r="AD63" s="3"/>
-      <c r="AE63" s="3"/>
-    </row>
-    <row r="64" spans="1:31">
+      <c r="W63" s="12"/>
+      <c r="X63" s="14"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
+      <c r="AE63" s="5"/>
+      <c r="AF63" s="5"/>
+    </row>
+    <row r="64" spans="1:32">
       <c r="A64" s="4"/>
-      <c r="B64" s="8"/>
+      <c r="B64" s="9"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
@@ -3127,30 +3208,31 @@
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
-      <c r="S64" s="9"/>
-      <c r="T64" s="9"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="10"/>
       <c r="U64" s="10"/>
       <c r="V64" s="11"/>
-      <c r="W64" s="13"/>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="3"/>
-      <c r="AA64" s="3"/>
-      <c r="AB64" s="3"/>
-      <c r="AC64" s="3"/>
-      <c r="AD64" s="3"/>
-      <c r="AE64" s="3"/>
-    </row>
-    <row r="65" spans="1:31">
+      <c r="W64" s="12"/>
+      <c r="X64" s="14"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5"/>
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="5"/>
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="5"/>
+      <c r="AF64" s="5"/>
+    </row>
+    <row r="65" spans="1:32">
       <c r="A65" s="4"/>
-      <c r="B65" s="8"/>
+      <c r="B65" s="9"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -3160,30 +3242,31 @@
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="10"/>
       <c r="U65" s="10"/>
       <c r="V65" s="11"/>
-      <c r="W65" s="13"/>
-      <c r="X65" s="3"/>
-      <c r="Y65" s="3"/>
-      <c r="Z65" s="3"/>
-      <c r="AA65" s="3"/>
-      <c r="AB65" s="3"/>
-      <c r="AC65" s="3"/>
-      <c r="AD65" s="3"/>
-      <c r="AE65" s="3"/>
-    </row>
-    <row r="66" spans="1:31">
+      <c r="W65" s="12"/>
+      <c r="X65" s="14"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5"/>
+      <c r="AE65" s="5"/>
+      <c r="AF65" s="5"/>
+    </row>
+    <row r="66" spans="1:32">
       <c r="A66" s="4"/>
-      <c r="B66" s="8"/>
+      <c r="B66" s="9"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -3193,30 +3276,31 @@
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="10"/>
       <c r="U66" s="10"/>
       <c r="V66" s="11"/>
-      <c r="W66" s="13"/>
-      <c r="X66" s="3"/>
-      <c r="Y66" s="3"/>
-      <c r="Z66" s="3"/>
-      <c r="AA66" s="3"/>
-      <c r="AB66" s="3"/>
-      <c r="AC66" s="3"/>
-      <c r="AD66" s="3"/>
-      <c r="AE66" s="3"/>
-    </row>
-    <row r="67" spans="1:31">
+      <c r="W66" s="12"/>
+      <c r="X66" s="14"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="5"/>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="5"/>
+      <c r="AF66" s="5"/>
+    </row>
+    <row r="67" spans="1:32">
       <c r="A67" s="4"/>
-      <c r="B67" s="8"/>
+      <c r="B67" s="9"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
@@ -3226,30 +3310,31 @@
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="10"/>
       <c r="U67" s="10"/>
       <c r="V67" s="11"/>
-      <c r="W67" s="13"/>
-      <c r="X67" s="3"/>
-      <c r="Y67" s="3"/>
-      <c r="Z67" s="3"/>
-      <c r="AA67" s="3"/>
-      <c r="AB67" s="3"/>
-      <c r="AC67" s="3"/>
-      <c r="AD67" s="3"/>
-      <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="1:31">
+      <c r="W67" s="12"/>
+      <c r="X67" s="14"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5"/>
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
+      <c r="AE67" s="5"/>
+      <c r="AF67" s="5"/>
+    </row>
+    <row r="68" spans="1:32">
       <c r="A68" s="4"/>
-      <c r="B68" s="8"/>
+      <c r="B68" s="9"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
@@ -3259,30 +3344,31 @@
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="10"/>
       <c r="U68" s="10"/>
       <c r="V68" s="11"/>
-      <c r="W68" s="13"/>
-      <c r="X68" s="3"/>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="3"/>
-      <c r="AA68" s="3"/>
-      <c r="AB68" s="3"/>
-      <c r="AC68" s="3"/>
-      <c r="AD68" s="3"/>
-      <c r="AE68" s="3"/>
-    </row>
-    <row r="69" spans="1:31">
+      <c r="W68" s="12"/>
+      <c r="X68" s="14"/>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5"/>
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="5"/>
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="5"/>
+      <c r="AF68" s="5"/>
+    </row>
+    <row r="69" spans="1:32">
       <c r="A69" s="4"/>
-      <c r="B69" s="8"/>
+      <c r="B69" s="9"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
@@ -3292,30 +3378,31 @@
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="10"/>
       <c r="U69" s="10"/>
       <c r="V69" s="11"/>
-      <c r="W69" s="13"/>
-      <c r="X69" s="3"/>
-      <c r="Y69" s="3"/>
-      <c r="Z69" s="3"/>
-      <c r="AA69" s="3"/>
-      <c r="AB69" s="3"/>
-      <c r="AC69" s="3"/>
-      <c r="AD69" s="3"/>
-      <c r="AE69" s="3"/>
-    </row>
-    <row r="70" spans="1:31">
+      <c r="W69" s="12"/>
+      <c r="X69" s="14"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5"/>
+      <c r="AA69" s="5"/>
+      <c r="AB69" s="5"/>
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="5"/>
+      <c r="AE69" s="5"/>
+      <c r="AF69" s="5"/>
+    </row>
+    <row r="70" spans="1:32">
       <c r="A70" s="4"/>
-      <c r="B70" s="8"/>
+      <c r="B70" s="9"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
@@ -3325,30 +3412,31 @@
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
-      <c r="S70" s="9"/>
-      <c r="T70" s="9"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="10"/>
       <c r="U70" s="10"/>
       <c r="V70" s="11"/>
-      <c r="W70" s="13"/>
-      <c r="X70" s="3"/>
-      <c r="Y70" s="3"/>
-      <c r="Z70" s="3"/>
-      <c r="AA70" s="3"/>
-      <c r="AB70" s="3"/>
-      <c r="AC70" s="3"/>
-      <c r="AD70" s="3"/>
-      <c r="AE70" s="3"/>
-    </row>
-    <row r="71" spans="1:31">
+      <c r="W70" s="12"/>
+      <c r="X70" s="14"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5"/>
+      <c r="AA70" s="5"/>
+      <c r="AB70" s="5"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
+      <c r="AE70" s="5"/>
+      <c r="AF70" s="5"/>
+    </row>
+    <row r="71" spans="1:32">
       <c r="A71" s="4"/>
-      <c r="B71" s="8"/>
+      <c r="B71" s="9"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
@@ -3358,30 +3446,31 @@
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="10"/>
       <c r="U71" s="10"/>
       <c r="V71" s="11"/>
-      <c r="W71" s="13"/>
-      <c r="X71" s="3"/>
-      <c r="Y71" s="3"/>
-      <c r="Z71" s="3"/>
-      <c r="AA71" s="3"/>
-      <c r="AB71" s="3"/>
-      <c r="AC71" s="3"/>
-      <c r="AD71" s="3"/>
-      <c r="AE71" s="3"/>
-    </row>
-    <row r="72" spans="1:31">
+      <c r="W71" s="12"/>
+      <c r="X71" s="14"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5"/>
+      <c r="AF71" s="5"/>
+    </row>
+    <row r="72" spans="1:32">
       <c r="A72" s="4"/>
-      <c r="B72" s="8"/>
+      <c r="B72" s="9"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
@@ -3391,30 +3480,31 @@
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
-      <c r="S72" s="9"/>
-      <c r="T72" s="9"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="10"/>
       <c r="U72" s="10"/>
       <c r="V72" s="11"/>
-      <c r="W72" s="13"/>
-      <c r="X72" s="3"/>
-      <c r="Y72" s="3"/>
-      <c r="Z72" s="3"/>
-      <c r="AA72" s="3"/>
-      <c r="AB72" s="3"/>
-      <c r="AC72" s="3"/>
-      <c r="AD72" s="3"/>
-      <c r="AE72" s="3"/>
-    </row>
-    <row r="73" spans="1:31">
+      <c r="W72" s="12"/>
+      <c r="X72" s="14"/>
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="5"/>
+      <c r="AA72" s="5"/>
+      <c r="AB72" s="5"/>
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="5"/>
+      <c r="AE72" s="5"/>
+      <c r="AF72" s="5"/>
+    </row>
+    <row r="73" spans="1:32">
       <c r="A73" s="4"/>
-      <c r="B73" s="8"/>
+      <c r="B73" s="9"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
@@ -3424,30 +3514,31 @@
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
-      <c r="S73" s="9"/>
-      <c r="T73" s="9"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="10"/>
       <c r="U73" s="10"/>
       <c r="V73" s="11"/>
-      <c r="W73" s="13"/>
-      <c r="X73" s="3"/>
-      <c r="Y73" s="3"/>
-      <c r="Z73" s="3"/>
-      <c r="AA73" s="3"/>
-      <c r="AB73" s="3"/>
-      <c r="AC73" s="3"/>
-      <c r="AD73" s="3"/>
-      <c r="AE73" s="3"/>
-    </row>
-    <row r="74" spans="1:31">
+      <c r="W73" s="12"/>
+      <c r="X73" s="14"/>
+      <c r="Y73" s="5"/>
+      <c r="Z73" s="5"/>
+      <c r="AA73" s="5"/>
+      <c r="AB73" s="5"/>
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5"/>
+      <c r="AE73" s="5"/>
+      <c r="AF73" s="5"/>
+    </row>
+    <row r="74" spans="1:32">
       <c r="A74" s="4"/>
-      <c r="B74" s="8"/>
+      <c r="B74" s="9"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
@@ -3457,30 +3548,31 @@
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="10"/>
       <c r="U74" s="10"/>
       <c r="V74" s="11"/>
-      <c r="W74" s="13"/>
-      <c r="X74" s="3"/>
-      <c r="Y74" s="3"/>
-      <c r="Z74" s="3"/>
-      <c r="AA74" s="3"/>
-      <c r="AB74" s="3"/>
-      <c r="AC74" s="3"/>
-      <c r="AD74" s="3"/>
-      <c r="AE74" s="3"/>
-    </row>
-    <row r="75" spans="1:31">
+      <c r="W74" s="12"/>
+      <c r="X74" s="14"/>
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="5"/>
+      <c r="AA74" s="5"/>
+      <c r="AB74" s="5"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
+      <c r="AE74" s="5"/>
+      <c r="AF74" s="5"/>
+    </row>
+    <row r="75" spans="1:32">
       <c r="A75" s="4"/>
-      <c r="B75" s="8"/>
+      <c r="B75" s="9"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
@@ -3490,30 +3582,31 @@
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
-      <c r="S75" s="9"/>
-      <c r="T75" s="9"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="10"/>
       <c r="U75" s="10"/>
       <c r="V75" s="11"/>
-      <c r="W75" s="13"/>
-      <c r="X75" s="3"/>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="3"/>
-      <c r="AA75" s="3"/>
-      <c r="AB75" s="3"/>
-      <c r="AC75" s="3"/>
-      <c r="AD75" s="3"/>
-      <c r="AE75" s="3"/>
-    </row>
-    <row r="76" spans="1:31">
+      <c r="W75" s="12"/>
+      <c r="X75" s="14"/>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5"/>
+      <c r="AA75" s="5"/>
+      <c r="AB75" s="5"/>
+      <c r="AC75" s="5"/>
+      <c r="AD75" s="5"/>
+      <c r="AE75" s="5"/>
+      <c r="AF75" s="5"/>
+    </row>
+    <row r="76" spans="1:32">
       <c r="A76" s="4"/>
-      <c r="B76" s="8"/>
+      <c r="B76" s="9"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
@@ -3523,30 +3616,31 @@
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
-      <c r="S76" s="9"/>
-      <c r="T76" s="9"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="10"/>
       <c r="U76" s="10"/>
       <c r="V76" s="11"/>
-      <c r="W76" s="13"/>
-      <c r="X76" s="3"/>
-      <c r="Y76" s="3"/>
-      <c r="Z76" s="3"/>
-      <c r="AA76" s="3"/>
-      <c r="AB76" s="3"/>
-      <c r="AC76" s="3"/>
-      <c r="AD76" s="3"/>
-      <c r="AE76" s="3"/>
-    </row>
-    <row r="77" spans="1:31">
+      <c r="W76" s="12"/>
+      <c r="X76" s="14"/>
+      <c r="Y76" s="5"/>
+      <c r="Z76" s="5"/>
+      <c r="AA76" s="5"/>
+      <c r="AB76" s="5"/>
+      <c r="AC76" s="5"/>
+      <c r="AD76" s="5"/>
+      <c r="AE76" s="5"/>
+      <c r="AF76" s="5"/>
+    </row>
+    <row r="77" spans="1:32">
       <c r="A77" s="4"/>
-      <c r="B77" s="8"/>
+      <c r="B77" s="9"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
@@ -3556,30 +3650,31 @@
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
-      <c r="S77" s="9"/>
-      <c r="T77" s="9"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="10"/>
       <c r="U77" s="10"/>
       <c r="V77" s="11"/>
-      <c r="W77" s="13"/>
-      <c r="X77" s="3"/>
-      <c r="Y77" s="3"/>
-      <c r="Z77" s="3"/>
-      <c r="AA77" s="3"/>
-      <c r="AB77" s="3"/>
-      <c r="AC77" s="3"/>
-      <c r="AD77" s="3"/>
-      <c r="AE77" s="3"/>
-    </row>
-    <row r="78" spans="1:31">
+      <c r="W77" s="12"/>
+      <c r="X77" s="14"/>
+      <c r="Y77" s="5"/>
+      <c r="Z77" s="5"/>
+      <c r="AA77" s="5"/>
+      <c r="AB77" s="5"/>
+      <c r="AC77" s="5"/>
+      <c r="AD77" s="5"/>
+      <c r="AE77" s="5"/>
+      <c r="AF77" s="5"/>
+    </row>
+    <row r="78" spans="1:32">
       <c r="A78" s="4"/>
-      <c r="B78" s="8"/>
+      <c r="B78" s="9"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
@@ -3589,30 +3684,31 @@
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
-      <c r="S78" s="9"/>
-      <c r="T78" s="9"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="10"/>
       <c r="U78" s="10"/>
       <c r="V78" s="11"/>
-      <c r="W78" s="13"/>
-      <c r="X78" s="3"/>
-      <c r="Y78" s="3"/>
-      <c r="Z78" s="3"/>
-      <c r="AA78" s="3"/>
-      <c r="AB78" s="3"/>
-      <c r="AC78" s="3"/>
-      <c r="AD78" s="3"/>
-      <c r="AE78" s="3"/>
-    </row>
-    <row r="79" spans="1:31">
+      <c r="W78" s="12"/>
+      <c r="X78" s="14"/>
+      <c r="Y78" s="5"/>
+      <c r="Z78" s="5"/>
+      <c r="AA78" s="5"/>
+      <c r="AB78" s="5"/>
+      <c r="AC78" s="5"/>
+      <c r="AD78" s="5"/>
+      <c r="AE78" s="5"/>
+      <c r="AF78" s="5"/>
+    </row>
+    <row r="79" spans="1:32">
       <c r="A79" s="4"/>
-      <c r="B79" s="8"/>
+      <c r="B79" s="9"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
@@ -3622,30 +3718,31 @@
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
-      <c r="S79" s="9"/>
-      <c r="T79" s="9"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="10"/>
       <c r="U79" s="10"/>
       <c r="V79" s="11"/>
-      <c r="W79" s="13"/>
-      <c r="X79" s="3"/>
-      <c r="Y79" s="3"/>
-      <c r="Z79" s="3"/>
-      <c r="AA79" s="3"/>
-      <c r="AB79" s="3"/>
-      <c r="AC79" s="3"/>
-      <c r="AD79" s="3"/>
-      <c r="AE79" s="3"/>
-    </row>
-    <row r="80" spans="1:31">
+      <c r="W79" s="12"/>
+      <c r="X79" s="14"/>
+      <c r="Y79" s="5"/>
+      <c r="Z79" s="5"/>
+      <c r="AA79" s="5"/>
+      <c r="AB79" s="5"/>
+      <c r="AC79" s="5"/>
+      <c r="AD79" s="5"/>
+      <c r="AE79" s="5"/>
+      <c r="AF79" s="5"/>
+    </row>
+    <row r="80" spans="1:32">
       <c r="A80" s="4"/>
-      <c r="B80" s="8"/>
+      <c r="B80" s="9"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
@@ -3655,30 +3752,31 @@
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
-      <c r="S80" s="9"/>
-      <c r="T80" s="9"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="10"/>
       <c r="U80" s="10"/>
       <c r="V80" s="11"/>
-      <c r="W80" s="13"/>
-      <c r="X80" s="3"/>
-      <c r="Y80" s="3"/>
-      <c r="Z80" s="3"/>
-      <c r="AA80" s="3"/>
-      <c r="AB80" s="3"/>
-      <c r="AC80" s="3"/>
-      <c r="AD80" s="3"/>
-      <c r="AE80" s="3"/>
-    </row>
-    <row r="81" spans="1:31">
+      <c r="W80" s="12"/>
+      <c r="X80" s="14"/>
+      <c r="Y80" s="5"/>
+      <c r="Z80" s="5"/>
+      <c r="AA80" s="5"/>
+      <c r="AB80" s="5"/>
+      <c r="AC80" s="5"/>
+      <c r="AD80" s="5"/>
+      <c r="AE80" s="5"/>
+      <c r="AF80" s="5"/>
+    </row>
+    <row r="81" spans="1:32">
       <c r="A81" s="4"/>
-      <c r="B81" s="8"/>
+      <c r="B81" s="9"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
@@ -3688,30 +3786,31 @@
       <c r="P81" s="4"/>
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
-      <c r="S81" s="9"/>
-      <c r="T81" s="9"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="10"/>
       <c r="U81" s="10"/>
       <c r="V81" s="11"/>
-      <c r="W81" s="13"/>
-      <c r="X81" s="3"/>
-      <c r="Y81" s="3"/>
-      <c r="Z81" s="3"/>
-      <c r="AA81" s="3"/>
-      <c r="AB81" s="3"/>
-      <c r="AC81" s="3"/>
-      <c r="AD81" s="3"/>
-      <c r="AE81" s="3"/>
-    </row>
-    <row r="82" spans="1:31">
+      <c r="W81" s="12"/>
+      <c r="X81" s="14"/>
+      <c r="Y81" s="5"/>
+      <c r="Z81" s="5"/>
+      <c r="AA81" s="5"/>
+      <c r="AB81" s="5"/>
+      <c r="AC81" s="5"/>
+      <c r="AD81" s="5"/>
+      <c r="AE81" s="5"/>
+      <c r="AF81" s="5"/>
+    </row>
+    <row r="82" spans="1:32">
       <c r="A82" s="4"/>
-      <c r="B82" s="8"/>
+      <c r="B82" s="9"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
@@ -3721,30 +3820,31 @@
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
-      <c r="S82" s="9"/>
-      <c r="T82" s="9"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="10"/>
       <c r="U82" s="10"/>
       <c r="V82" s="11"/>
-      <c r="W82" s="13"/>
-      <c r="X82" s="3"/>
-      <c r="Y82" s="3"/>
-      <c r="Z82" s="3"/>
-      <c r="AA82" s="3"/>
-      <c r="AB82" s="3"/>
-      <c r="AC82" s="3"/>
-      <c r="AD82" s="3"/>
-      <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="1:31">
+      <c r="W82" s="12"/>
+      <c r="X82" s="14"/>
+      <c r="Y82" s="5"/>
+      <c r="Z82" s="5"/>
+      <c r="AA82" s="5"/>
+      <c r="AB82" s="5"/>
+      <c r="AC82" s="5"/>
+      <c r="AD82" s="5"/>
+      <c r="AE82" s="5"/>
+      <c r="AF82" s="5"/>
+    </row>
+    <row r="83" spans="1:32">
       <c r="A83" s="4"/>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
@@ -3754,30 +3854,31 @@
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
-      <c r="S83" s="9"/>
-      <c r="T83" s="9"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="10"/>
       <c r="U83" s="10"/>
       <c r="V83" s="11"/>
-      <c r="W83" s="13"/>
-      <c r="X83" s="3"/>
-      <c r="Y83" s="3"/>
-      <c r="Z83" s="3"/>
-      <c r="AA83" s="3"/>
-      <c r="AB83" s="3"/>
-      <c r="AC83" s="3"/>
-      <c r="AD83" s="3"/>
-      <c r="AE83" s="3"/>
-    </row>
-    <row r="84" spans="1:31">
+      <c r="W83" s="12"/>
+      <c r="X83" s="14"/>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="5"/>
+      <c r="AA83" s="5"/>
+      <c r="AB83" s="5"/>
+      <c r="AC83" s="5"/>
+      <c r="AD83" s="5"/>
+      <c r="AE83" s="5"/>
+      <c r="AF83" s="5"/>
+    </row>
+    <row r="84" spans="1:32">
       <c r="A84" s="4"/>
-      <c r="B84" s="8"/>
+      <c r="B84" s="9"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
@@ -3787,30 +3888,31 @@
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
-      <c r="S84" s="9"/>
-      <c r="T84" s="9"/>
+      <c r="S84" s="4"/>
+      <c r="T84" s="10"/>
       <c r="U84" s="10"/>
       <c r="V84" s="11"/>
-      <c r="W84" s="13"/>
-      <c r="X84" s="3"/>
-      <c r="Y84" s="3"/>
-      <c r="Z84" s="3"/>
-      <c r="AA84" s="3"/>
-      <c r="AB84" s="3"/>
-      <c r="AC84" s="3"/>
-      <c r="AD84" s="3"/>
-      <c r="AE84" s="3"/>
-    </row>
-    <row r="85" spans="1:31">
+      <c r="W84" s="12"/>
+      <c r="X84" s="14"/>
+      <c r="Y84" s="5"/>
+      <c r="Z84" s="5"/>
+      <c r="AA84" s="5"/>
+      <c r="AB84" s="5"/>
+      <c r="AC84" s="5"/>
+      <c r="AD84" s="5"/>
+      <c r="AE84" s="5"/>
+      <c r="AF84" s="5"/>
+    </row>
+    <row r="85" spans="1:32">
       <c r="A85" s="4"/>
-      <c r="B85" s="8"/>
+      <c r="B85" s="9"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
@@ -3820,30 +3922,31 @@
       <c r="P85" s="4"/>
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
-      <c r="S85" s="9"/>
-      <c r="T85" s="9"/>
+      <c r="S85" s="4"/>
+      <c r="T85" s="10"/>
       <c r="U85" s="10"/>
       <c r="V85" s="11"/>
-      <c r="W85" s="13"/>
-      <c r="X85" s="3"/>
-      <c r="Y85" s="3"/>
-      <c r="Z85" s="3"/>
-      <c r="AA85" s="3"/>
-      <c r="AB85" s="3"/>
-      <c r="AC85" s="3"/>
-      <c r="AD85" s="3"/>
-      <c r="AE85" s="3"/>
-    </row>
-    <row r="86" spans="1:31">
+      <c r="W85" s="12"/>
+      <c r="X85" s="14"/>
+      <c r="Y85" s="5"/>
+      <c r="Z85" s="5"/>
+      <c r="AA85" s="5"/>
+      <c r="AB85" s="5"/>
+      <c r="AC85" s="5"/>
+      <c r="AD85" s="5"/>
+      <c r="AE85" s="5"/>
+      <c r="AF85" s="5"/>
+    </row>
+    <row r="86" spans="1:32">
       <c r="A86" s="4"/>
-      <c r="B86" s="8"/>
+      <c r="B86" s="9"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
@@ -3853,30 +3956,31 @@
       <c r="P86" s="4"/>
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
-      <c r="S86" s="9"/>
-      <c r="T86" s="9"/>
+      <c r="S86" s="4"/>
+      <c r="T86" s="10"/>
       <c r="U86" s="10"/>
       <c r="V86" s="11"/>
-      <c r="W86" s="13"/>
-      <c r="X86" s="3"/>
-      <c r="Y86" s="3"/>
-      <c r="Z86" s="3"/>
-      <c r="AA86" s="3"/>
-      <c r="AB86" s="3"/>
-      <c r="AC86" s="3"/>
-      <c r="AD86" s="3"/>
-      <c r="AE86" s="3"/>
-    </row>
-    <row r="87" spans="1:31">
+      <c r="W86" s="12"/>
+      <c r="X86" s="14"/>
+      <c r="Y86" s="5"/>
+      <c r="Z86" s="5"/>
+      <c r="AA86" s="5"/>
+      <c r="AB86" s="5"/>
+      <c r="AC86" s="5"/>
+      <c r="AD86" s="5"/>
+      <c r="AE86" s="5"/>
+      <c r="AF86" s="5"/>
+    </row>
+    <row r="87" spans="1:32">
       <c r="A87" s="4"/>
-      <c r="B87" s="8"/>
+      <c r="B87" s="9"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
@@ -3886,30 +3990,31 @@
       <c r="P87" s="4"/>
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
-      <c r="S87" s="9"/>
-      <c r="T87" s="9"/>
+      <c r="S87" s="4"/>
+      <c r="T87" s="10"/>
       <c r="U87" s="10"/>
       <c r="V87" s="11"/>
-      <c r="W87" s="13"/>
-      <c r="X87" s="3"/>
-      <c r="Y87" s="3"/>
-      <c r="Z87" s="3"/>
-      <c r="AA87" s="3"/>
-      <c r="AB87" s="3"/>
-      <c r="AC87" s="3"/>
-      <c r="AD87" s="3"/>
-      <c r="AE87" s="3"/>
-    </row>
-    <row r="88" spans="1:31">
+      <c r="W87" s="12"/>
+      <c r="X87" s="14"/>
+      <c r="Y87" s="5"/>
+      <c r="Z87" s="5"/>
+      <c r="AA87" s="5"/>
+      <c r="AB87" s="5"/>
+      <c r="AC87" s="5"/>
+      <c r="AD87" s="5"/>
+      <c r="AE87" s="5"/>
+      <c r="AF87" s="5"/>
+    </row>
+    <row r="88" spans="1:32">
       <c r="A88" s="4"/>
-      <c r="B88" s="8"/>
+      <c r="B88" s="9"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
@@ -3919,30 +4024,31 @@
       <c r="P88" s="4"/>
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
-      <c r="S88" s="9"/>
-      <c r="T88" s="9"/>
+      <c r="S88" s="4"/>
+      <c r="T88" s="10"/>
       <c r="U88" s="10"/>
       <c r="V88" s="11"/>
-      <c r="W88" s="13"/>
-      <c r="X88" s="3"/>
-      <c r="Y88" s="3"/>
-      <c r="Z88" s="3"/>
-      <c r="AA88" s="3"/>
-      <c r="AB88" s="3"/>
-      <c r="AC88" s="3"/>
-      <c r="AD88" s="3"/>
-      <c r="AE88" s="3"/>
-    </row>
-    <row r="89" spans="1:31">
+      <c r="W88" s="12"/>
+      <c r="X88" s="14"/>
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="5"/>
+      <c r="AA88" s="5"/>
+      <c r="AB88" s="5"/>
+      <c r="AC88" s="5"/>
+      <c r="AD88" s="5"/>
+      <c r="AE88" s="5"/>
+      <c r="AF88" s="5"/>
+    </row>
+    <row r="89" spans="1:32">
       <c r="A89" s="4"/>
-      <c r="B89" s="8"/>
+      <c r="B89" s="9"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
@@ -3952,30 +4058,31 @@
       <c r="P89" s="4"/>
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
-      <c r="S89" s="9"/>
-      <c r="T89" s="9"/>
+      <c r="S89" s="4"/>
+      <c r="T89" s="10"/>
       <c r="U89" s="10"/>
       <c r="V89" s="11"/>
-      <c r="W89" s="13"/>
-      <c r="X89" s="3"/>
-      <c r="Y89" s="3"/>
-      <c r="Z89" s="3"/>
-      <c r="AA89" s="3"/>
-      <c r="AB89" s="3"/>
-      <c r="AC89" s="3"/>
-      <c r="AD89" s="3"/>
-      <c r="AE89" s="3"/>
-    </row>
-    <row r="90" spans="1:31">
+      <c r="W89" s="12"/>
+      <c r="X89" s="14"/>
+      <c r="Y89" s="5"/>
+      <c r="Z89" s="5"/>
+      <c r="AA89" s="5"/>
+      <c r="AB89" s="5"/>
+      <c r="AC89" s="5"/>
+      <c r="AD89" s="5"/>
+      <c r="AE89" s="5"/>
+      <c r="AF89" s="5"/>
+    </row>
+    <row r="90" spans="1:32">
       <c r="A90" s="4"/>
-      <c r="B90" s="8"/>
+      <c r="B90" s="9"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
@@ -3985,30 +4092,31 @@
       <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
-      <c r="S90" s="9"/>
-      <c r="T90" s="9"/>
+      <c r="S90" s="4"/>
+      <c r="T90" s="10"/>
       <c r="U90" s="10"/>
       <c r="V90" s="11"/>
-      <c r="W90" s="13"/>
-      <c r="X90" s="3"/>
-      <c r="Y90" s="3"/>
-      <c r="Z90" s="3"/>
-      <c r="AA90" s="3"/>
-      <c r="AB90" s="3"/>
-      <c r="AC90" s="3"/>
-      <c r="AD90" s="3"/>
-      <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="1:31">
+      <c r="W90" s="12"/>
+      <c r="X90" s="14"/>
+      <c r="Y90" s="5"/>
+      <c r="Z90" s="5"/>
+      <c r="AA90" s="5"/>
+      <c r="AB90" s="5"/>
+      <c r="AC90" s="5"/>
+      <c r="AD90" s="5"/>
+      <c r="AE90" s="5"/>
+      <c r="AF90" s="5"/>
+    </row>
+    <row r="91" spans="1:32">
       <c r="A91" s="4"/>
-      <c r="B91" s="8"/>
+      <c r="B91" s="9"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
@@ -4018,30 +4126,31 @@
       <c r="P91" s="4"/>
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
-      <c r="S91" s="9"/>
-      <c r="T91" s="9"/>
+      <c r="S91" s="4"/>
+      <c r="T91" s="10"/>
       <c r="U91" s="10"/>
       <c r="V91" s="11"/>
-      <c r="W91" s="13"/>
-      <c r="X91" s="3"/>
-      <c r="Y91" s="3"/>
-      <c r="Z91" s="3"/>
-      <c r="AA91" s="3"/>
-      <c r="AB91" s="3"/>
-      <c r="AC91" s="3"/>
-      <c r="AD91" s="3"/>
-      <c r="AE91" s="3"/>
-    </row>
-    <row r="92" spans="1:31">
+      <c r="W91" s="12"/>
+      <c r="X91" s="14"/>
+      <c r="Y91" s="5"/>
+      <c r="Z91" s="5"/>
+      <c r="AA91" s="5"/>
+      <c r="AB91" s="5"/>
+      <c r="AC91" s="5"/>
+      <c r="AD91" s="5"/>
+      <c r="AE91" s="5"/>
+      <c r="AF91" s="5"/>
+    </row>
+    <row r="92" spans="1:32">
       <c r="A92" s="4"/>
-      <c r="B92" s="8"/>
+      <c r="B92" s="9"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
@@ -4051,30 +4160,31 @@
       <c r="P92" s="4"/>
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
-      <c r="S92" s="9"/>
-      <c r="T92" s="9"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="10"/>
       <c r="U92" s="10"/>
       <c r="V92" s="11"/>
-      <c r="W92" s="13"/>
-      <c r="X92" s="3"/>
-      <c r="Y92" s="3"/>
-      <c r="Z92" s="3"/>
-      <c r="AA92" s="3"/>
-      <c r="AB92" s="3"/>
-      <c r="AC92" s="3"/>
-      <c r="AD92" s="3"/>
-      <c r="AE92" s="3"/>
-    </row>
-    <row r="93" spans="1:31">
+      <c r="W92" s="12"/>
+      <c r="X92" s="14"/>
+      <c r="Y92" s="5"/>
+      <c r="Z92" s="5"/>
+      <c r="AA92" s="5"/>
+      <c r="AB92" s="5"/>
+      <c r="AC92" s="5"/>
+      <c r="AD92" s="5"/>
+      <c r="AE92" s="5"/>
+      <c r="AF92" s="5"/>
+    </row>
+    <row r="93" spans="1:32">
       <c r="A93" s="4"/>
-      <c r="B93" s="8"/>
+      <c r="B93" s="9"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
@@ -4084,30 +4194,31 @@
       <c r="P93" s="4"/>
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
-      <c r="S93" s="9"/>
-      <c r="T93" s="9"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="10"/>
       <c r="U93" s="10"/>
       <c r="V93" s="11"/>
-      <c r="W93" s="13"/>
-      <c r="X93" s="3"/>
-      <c r="Y93" s="3"/>
-      <c r="Z93" s="3"/>
-      <c r="AA93" s="3"/>
-      <c r="AB93" s="3"/>
-      <c r="AC93" s="3"/>
-      <c r="AD93" s="3"/>
-      <c r="AE93" s="3"/>
-    </row>
-    <row r="94" spans="1:31">
+      <c r="W93" s="12"/>
+      <c r="X93" s="14"/>
+      <c r="Y93" s="5"/>
+      <c r="Z93" s="5"/>
+      <c r="AA93" s="5"/>
+      <c r="AB93" s="5"/>
+      <c r="AC93" s="5"/>
+      <c r="AD93" s="5"/>
+      <c r="AE93" s="5"/>
+      <c r="AF93" s="5"/>
+    </row>
+    <row r="94" spans="1:32">
       <c r="A94" s="4"/>
-      <c r="B94" s="8"/>
+      <c r="B94" s="9"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
@@ -4117,30 +4228,31 @@
       <c r="P94" s="4"/>
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
-      <c r="S94" s="9"/>
-      <c r="T94" s="9"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="10"/>
       <c r="U94" s="10"/>
       <c r="V94" s="11"/>
-      <c r="W94" s="13"/>
-      <c r="X94" s="3"/>
-      <c r="Y94" s="3"/>
-      <c r="Z94" s="3"/>
-      <c r="AA94" s="3"/>
-      <c r="AB94" s="3"/>
-      <c r="AC94" s="3"/>
-      <c r="AD94" s="3"/>
-      <c r="AE94" s="3"/>
-    </row>
-    <row r="95" spans="1:31">
+      <c r="W94" s="12"/>
+      <c r="X94" s="14"/>
+      <c r="Y94" s="5"/>
+      <c r="Z94" s="5"/>
+      <c r="AA94" s="5"/>
+      <c r="AB94" s="5"/>
+      <c r="AC94" s="5"/>
+      <c r="AD94" s="5"/>
+      <c r="AE94" s="5"/>
+      <c r="AF94" s="5"/>
+    </row>
+    <row r="95" spans="1:32">
       <c r="A95" s="4"/>
-      <c r="B95" s="8"/>
+      <c r="B95" s="9"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
@@ -4150,30 +4262,31 @@
       <c r="P95" s="4"/>
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
-      <c r="S95" s="9"/>
-      <c r="T95" s="9"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="10"/>
       <c r="U95" s="10"/>
       <c r="V95" s="11"/>
-      <c r="W95" s="13"/>
-      <c r="X95" s="3"/>
-      <c r="Y95" s="3"/>
-      <c r="Z95" s="3"/>
-      <c r="AA95" s="3"/>
-      <c r="AB95" s="3"/>
-      <c r="AC95" s="3"/>
-      <c r="AD95" s="3"/>
-      <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="1:31">
+      <c r="W95" s="12"/>
+      <c r="X95" s="14"/>
+      <c r="Y95" s="5"/>
+      <c r="Z95" s="5"/>
+      <c r="AA95" s="5"/>
+      <c r="AB95" s="5"/>
+      <c r="AC95" s="5"/>
+      <c r="AD95" s="5"/>
+      <c r="AE95" s="5"/>
+      <c r="AF95" s="5"/>
+    </row>
+    <row r="96" spans="1:32">
       <c r="A96" s="4"/>
-      <c r="B96" s="8"/>
+      <c r="B96" s="9"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
@@ -4183,30 +4296,31 @@
       <c r="P96" s="4"/>
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
-      <c r="S96" s="9"/>
-      <c r="T96" s="9"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="10"/>
       <c r="U96" s="10"/>
       <c r="V96" s="11"/>
-      <c r="W96" s="13"/>
-      <c r="X96" s="3"/>
-      <c r="Y96" s="3"/>
-      <c r="Z96" s="3"/>
-      <c r="AA96" s="3"/>
-      <c r="AB96" s="3"/>
-      <c r="AC96" s="3"/>
-      <c r="AD96" s="3"/>
-      <c r="AE96" s="3"/>
-    </row>
-    <row r="97" spans="1:31">
+      <c r="W96" s="12"/>
+      <c r="X96" s="14"/>
+      <c r="Y96" s="5"/>
+      <c r="Z96" s="5"/>
+      <c r="AA96" s="5"/>
+      <c r="AB96" s="5"/>
+      <c r="AC96" s="5"/>
+      <c r="AD96" s="5"/>
+      <c r="AE96" s="5"/>
+      <c r="AF96" s="5"/>
+    </row>
+    <row r="97" spans="1:32">
       <c r="A97" s="4"/>
-      <c r="B97" s="8"/>
+      <c r="B97" s="9"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
@@ -4216,30 +4330,31 @@
       <c r="P97" s="4"/>
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
-      <c r="S97" s="9"/>
-      <c r="T97" s="9"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="10"/>
       <c r="U97" s="10"/>
       <c r="V97" s="11"/>
-      <c r="W97" s="13"/>
-      <c r="X97" s="3"/>
-      <c r="Y97" s="3"/>
-      <c r="Z97" s="3"/>
-      <c r="AA97" s="3"/>
-      <c r="AB97" s="3"/>
-      <c r="AC97" s="3"/>
-      <c r="AD97" s="3"/>
-      <c r="AE97" s="3"/>
-    </row>
-    <row r="98" spans="1:31">
+      <c r="W97" s="12"/>
+      <c r="X97" s="14"/>
+      <c r="Y97" s="5"/>
+      <c r="Z97" s="5"/>
+      <c r="AA97" s="5"/>
+      <c r="AB97" s="5"/>
+      <c r="AC97" s="5"/>
+      <c r="AD97" s="5"/>
+      <c r="AE97" s="5"/>
+      <c r="AF97" s="5"/>
+    </row>
+    <row r="98" spans="1:32">
       <c r="A98" s="4"/>
-      <c r="B98" s="8"/>
+      <c r="B98" s="9"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
@@ -4249,30 +4364,31 @@
       <c r="P98" s="4"/>
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
-      <c r="S98" s="9"/>
-      <c r="T98" s="9"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="10"/>
       <c r="U98" s="10"/>
       <c r="V98" s="11"/>
-      <c r="W98" s="13"/>
-      <c r="X98" s="3"/>
-      <c r="Y98" s="3"/>
-      <c r="Z98" s="3"/>
-      <c r="AA98" s="3"/>
-      <c r="AB98" s="3"/>
-      <c r="AC98" s="3"/>
-      <c r="AD98" s="3"/>
-      <c r="AE98" s="3"/>
-    </row>
-    <row r="99" spans="1:31">
+      <c r="W98" s="12"/>
+      <c r="X98" s="14"/>
+      <c r="Y98" s="5"/>
+      <c r="Z98" s="5"/>
+      <c r="AA98" s="5"/>
+      <c r="AB98" s="5"/>
+      <c r="AC98" s="5"/>
+      <c r="AD98" s="5"/>
+      <c r="AE98" s="5"/>
+      <c r="AF98" s="5"/>
+    </row>
+    <row r="99" spans="1:32">
       <c r="A99" s="4"/>
-      <c r="B99" s="8"/>
+      <c r="B99" s="9"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
@@ -4282,30 +4398,31 @@
       <c r="P99" s="4"/>
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
-      <c r="S99" s="9"/>
-      <c r="T99" s="9"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="10"/>
       <c r="U99" s="10"/>
       <c r="V99" s="11"/>
-      <c r="W99" s="13"/>
-      <c r="X99" s="3"/>
-      <c r="Y99" s="3"/>
-      <c r="Z99" s="3"/>
-      <c r="AA99" s="3"/>
-      <c r="AB99" s="3"/>
-      <c r="AC99" s="3"/>
-      <c r="AD99" s="3"/>
-      <c r="AE99" s="3"/>
-    </row>
-    <row r="100" spans="1:31">
+      <c r="W99" s="12"/>
+      <c r="X99" s="14"/>
+      <c r="Y99" s="5"/>
+      <c r="Z99" s="5"/>
+      <c r="AA99" s="5"/>
+      <c r="AB99" s="5"/>
+      <c r="AC99" s="5"/>
+      <c r="AD99" s="5"/>
+      <c r="AE99" s="5"/>
+      <c r="AF99" s="5"/>
+    </row>
+    <row r="100" spans="1:32">
       <c r="A100" s="4"/>
-      <c r="B100" s="8"/>
+      <c r="B100" s="9"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
@@ -4315,30 +4432,31 @@
       <c r="P100" s="4"/>
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
-      <c r="S100" s="9"/>
-      <c r="T100" s="9"/>
+      <c r="S100" s="4"/>
+      <c r="T100" s="10"/>
       <c r="U100" s="10"/>
       <c r="V100" s="11"/>
-      <c r="W100" s="13"/>
-      <c r="X100" s="3"/>
-      <c r="Y100" s="3"/>
-      <c r="Z100" s="3"/>
-      <c r="AA100" s="3"/>
-      <c r="AB100" s="3"/>
-      <c r="AC100" s="3"/>
-      <c r="AD100" s="3"/>
-      <c r="AE100" s="3"/>
-    </row>
-    <row r="101" spans="1:31">
+      <c r="W100" s="12"/>
+      <c r="X100" s="14"/>
+      <c r="Y100" s="5"/>
+      <c r="Z100" s="5"/>
+      <c r="AA100" s="5"/>
+      <c r="AB100" s="5"/>
+      <c r="AC100" s="5"/>
+      <c r="AD100" s="5"/>
+      <c r="AE100" s="5"/>
+      <c r="AF100" s="5"/>
+    </row>
+    <row r="101" spans="1:32">
       <c r="A101" s="4"/>
-      <c r="B101" s="8"/>
+      <c r="B101" s="9"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
@@ -4348,30 +4466,31 @@
       <c r="P101" s="4"/>
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
-      <c r="S101" s="9"/>
-      <c r="T101" s="9"/>
+      <c r="S101" s="4"/>
+      <c r="T101" s="10"/>
       <c r="U101" s="10"/>
       <c r="V101" s="11"/>
-      <c r="W101" s="13"/>
-      <c r="X101" s="3"/>
-      <c r="Y101" s="3"/>
-      <c r="Z101" s="3"/>
-      <c r="AA101" s="3"/>
-      <c r="AB101" s="3"/>
-      <c r="AC101" s="3"/>
-      <c r="AD101" s="3"/>
-      <c r="AE101" s="3"/>
-    </row>
-    <row r="102" spans="1:31">
+      <c r="W101" s="12"/>
+      <c r="X101" s="14"/>
+      <c r="Y101" s="5"/>
+      <c r="Z101" s="5"/>
+      <c r="AA101" s="5"/>
+      <c r="AB101" s="5"/>
+      <c r="AC101" s="5"/>
+      <c r="AD101" s="5"/>
+      <c r="AE101" s="5"/>
+      <c r="AF101" s="5"/>
+    </row>
+    <row r="102" spans="1:32">
       <c r="A102" s="4"/>
-      <c r="B102" s="8"/>
+      <c r="B102" s="9"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
@@ -4381,30 +4500,31 @@
       <c r="P102" s="4"/>
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
-      <c r="S102" s="9"/>
-      <c r="T102" s="9"/>
+      <c r="S102" s="4"/>
+      <c r="T102" s="10"/>
       <c r="U102" s="10"/>
       <c r="V102" s="11"/>
-      <c r="W102" s="13"/>
-      <c r="X102" s="3"/>
-      <c r="Y102" s="3"/>
-      <c r="Z102" s="3"/>
-      <c r="AA102" s="3"/>
-      <c r="AB102" s="3"/>
-      <c r="AC102" s="3"/>
-      <c r="AD102" s="3"/>
-      <c r="AE102" s="3"/>
-    </row>
-    <row r="103" spans="1:31">
+      <c r="W102" s="12"/>
+      <c r="X102" s="14"/>
+      <c r="Y102" s="5"/>
+      <c r="Z102" s="5"/>
+      <c r="AA102" s="5"/>
+      <c r="AB102" s="5"/>
+      <c r="AC102" s="5"/>
+      <c r="AD102" s="5"/>
+      <c r="AE102" s="5"/>
+      <c r="AF102" s="5"/>
+    </row>
+    <row r="103" spans="1:32">
       <c r="A103" s="4"/>
-      <c r="B103" s="8"/>
+      <c r="B103" s="9"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
@@ -4414,30 +4534,31 @@
       <c r="P103" s="4"/>
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
-      <c r="S103" s="9"/>
-      <c r="T103" s="9"/>
+      <c r="S103" s="4"/>
+      <c r="T103" s="10"/>
       <c r="U103" s="10"/>
       <c r="V103" s="11"/>
-      <c r="W103" s="13"/>
-      <c r="X103" s="3"/>
-      <c r="Y103" s="3"/>
-      <c r="Z103" s="3"/>
-      <c r="AA103" s="3"/>
-      <c r="AB103" s="3"/>
-      <c r="AC103" s="3"/>
-      <c r="AD103" s="3"/>
-      <c r="AE103" s="3"/>
-    </row>
-    <row r="104" spans="1:31">
+      <c r="W103" s="12"/>
+      <c r="X103" s="14"/>
+      <c r="Y103" s="5"/>
+      <c r="Z103" s="5"/>
+      <c r="AA103" s="5"/>
+      <c r="AB103" s="5"/>
+      <c r="AC103" s="5"/>
+      <c r="AD103" s="5"/>
+      <c r="AE103" s="5"/>
+      <c r="AF103" s="5"/>
+    </row>
+    <row r="104" spans="1:32">
       <c r="A104" s="4"/>
-      <c r="B104" s="8"/>
+      <c r="B104" s="9"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
@@ -4447,30 +4568,31 @@
       <c r="P104" s="4"/>
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
-      <c r="S104" s="9"/>
-      <c r="T104" s="9"/>
+      <c r="S104" s="4"/>
+      <c r="T104" s="10"/>
       <c r="U104" s="10"/>
       <c r="V104" s="11"/>
-      <c r="W104" s="13"/>
-      <c r="X104" s="3"/>
-      <c r="Y104" s="3"/>
-      <c r="Z104" s="3"/>
-      <c r="AA104" s="3"/>
-      <c r="AB104" s="3"/>
-      <c r="AC104" s="3"/>
-      <c r="AD104" s="3"/>
-      <c r="AE104" s="3"/>
-    </row>
-    <row r="105" spans="1:31">
+      <c r="W104" s="12"/>
+      <c r="X104" s="14"/>
+      <c r="Y104" s="5"/>
+      <c r="Z104" s="5"/>
+      <c r="AA104" s="5"/>
+      <c r="AB104" s="5"/>
+      <c r="AC104" s="5"/>
+      <c r="AD104" s="5"/>
+      <c r="AE104" s="5"/>
+      <c r="AF104" s="5"/>
+    </row>
+    <row r="105" spans="1:32">
       <c r="A105" s="4"/>
-      <c r="B105" s="8"/>
+      <c r="B105" s="9"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
@@ -4480,30 +4602,31 @@
       <c r="P105" s="4"/>
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
-      <c r="S105" s="9"/>
-      <c r="T105" s="9"/>
+      <c r="S105" s="4"/>
+      <c r="T105" s="10"/>
       <c r="U105" s="10"/>
       <c r="V105" s="11"/>
-      <c r="W105" s="13"/>
-      <c r="X105" s="3"/>
-      <c r="Y105" s="3"/>
-      <c r="Z105" s="3"/>
-      <c r="AA105" s="3"/>
-      <c r="AB105" s="3"/>
-      <c r="AC105" s="3"/>
-      <c r="AD105" s="3"/>
-      <c r="AE105" s="3"/>
-    </row>
-    <row r="106" spans="1:31">
+      <c r="W105" s="12"/>
+      <c r="X105" s="14"/>
+      <c r="Y105" s="5"/>
+      <c r="Z105" s="5"/>
+      <c r="AA105" s="5"/>
+      <c r="AB105" s="5"/>
+      <c r="AC105" s="5"/>
+      <c r="AD105" s="5"/>
+      <c r="AE105" s="5"/>
+      <c r="AF105" s="5"/>
+    </row>
+    <row r="106" spans="1:32">
       <c r="A106" s="4"/>
-      <c r="B106" s="8"/>
+      <c r="B106" s="9"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
@@ -4513,30 +4636,31 @@
       <c r="P106" s="4"/>
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
-      <c r="S106" s="9"/>
-      <c r="T106" s="9"/>
+      <c r="S106" s="4"/>
+      <c r="T106" s="10"/>
       <c r="U106" s="10"/>
       <c r="V106" s="11"/>
-      <c r="W106" s="13"/>
-      <c r="X106" s="3"/>
-      <c r="Y106" s="3"/>
-      <c r="Z106" s="3"/>
-      <c r="AA106" s="3"/>
-      <c r="AB106" s="3"/>
-      <c r="AC106" s="3"/>
-      <c r="AD106" s="3"/>
-      <c r="AE106" s="3"/>
-    </row>
-    <row r="107" spans="1:31">
+      <c r="W106" s="12"/>
+      <c r="X106" s="14"/>
+      <c r="Y106" s="5"/>
+      <c r="Z106" s="5"/>
+      <c r="AA106" s="5"/>
+      <c r="AB106" s="5"/>
+      <c r="AC106" s="5"/>
+      <c r="AD106" s="5"/>
+      <c r="AE106" s="5"/>
+      <c r="AF106" s="5"/>
+    </row>
+    <row r="107" spans="1:32">
       <c r="A107" s="4"/>
-      <c r="B107" s="8"/>
+      <c r="B107" s="9"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
@@ -4546,96 +4670,99 @@
       <c r="P107" s="4"/>
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
-      <c r="S107" s="9"/>
-      <c r="T107" s="9"/>
+      <c r="S107" s="4"/>
+      <c r="T107" s="10"/>
       <c r="U107" s="10"/>
       <c r="V107" s="11"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="3"/>
-      <c r="Y107" s="3"/>
-      <c r="Z107" s="3"/>
-      <c r="AA107" s="3"/>
-      <c r="AB107" s="3"/>
-      <c r="AC107" s="3"/>
-      <c r="AD107" s="3"/>
-      <c r="AE107" s="3"/>
-    </row>
-    <row r="108" spans="1:31">
+      <c r="W107" s="12"/>
+      <c r="X107" s="14"/>
+      <c r="Y107" s="5"/>
+      <c r="Z107" s="5"/>
+      <c r="AA107" s="5"/>
+      <c r="AB107" s="5"/>
+      <c r="AC107" s="5"/>
+      <c r="AD107" s="5"/>
+      <c r="AE107" s="5"/>
+      <c r="AF107" s="5"/>
+    </row>
+    <row r="108" spans="1:32">
       <c r="A108" s="4"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="14"/>
-      <c r="K108" s="14"/>
-      <c r="L108" s="14"/>
-      <c r="M108" s="14"/>
-      <c r="N108" s="14"/>
-      <c r="O108" s="14"/>
-      <c r="P108" s="14"/>
-      <c r="Q108" s="14"/>
-      <c r="R108" s="14"/>
-      <c r="S108" s="9"/>
-      <c r="T108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="15"/>
+      <c r="L108" s="15"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="15"/>
+      <c r="O108" s="15"/>
+      <c r="P108" s="15"/>
+      <c r="Q108" s="15"/>
+      <c r="R108" s="15"/>
+      <c r="S108" s="15"/>
+      <c r="T108" s="10"/>
       <c r="U108" s="10"/>
       <c r="V108" s="11"/>
-      <c r="W108" s="13"/>
+      <c r="W108" s="12"/>
       <c r="X108" s="14"/>
-      <c r="Y108" s="14"/>
-      <c r="Z108" s="14"/>
-      <c r="AA108" s="14"/>
-      <c r="AB108" s="14"/>
-      <c r="AC108" s="14"/>
-      <c r="AD108" s="14"/>
-      <c r="AE108" s="14"/>
-    </row>
-    <row r="109" spans="1:31">
+      <c r="Y108" s="15"/>
+      <c r="Z108" s="15"/>
+      <c r="AA108" s="15"/>
+      <c r="AB108" s="15"/>
+      <c r="AC108" s="15"/>
+      <c r="AD108" s="15"/>
+      <c r="AE108" s="15"/>
+      <c r="AF108" s="15"/>
+    </row>
+    <row r="109" spans="1:32">
       <c r="A109" s="4"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="14"/>
-      <c r="J109" s="14"/>
-      <c r="K109" s="14"/>
-      <c r="L109" s="14"/>
-      <c r="M109" s="14"/>
-      <c r="N109" s="14"/>
-      <c r="O109" s="14"/>
-      <c r="P109" s="14"/>
-      <c r="Q109" s="14"/>
-      <c r="R109" s="14"/>
-      <c r="S109" s="9"/>
-      <c r="T109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="15"/>
+      <c r="L109" s="15"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="15"/>
+      <c r="O109" s="15"/>
+      <c r="P109" s="15"/>
+      <c r="Q109" s="15"/>
+      <c r="R109" s="15"/>
+      <c r="S109" s="15"/>
+      <c r="T109" s="10"/>
       <c r="U109" s="10"/>
       <c r="V109" s="11"/>
-      <c r="W109" s="13"/>
+      <c r="W109" s="12"/>
       <c r="X109" s="14"/>
-      <c r="Y109" s="14"/>
-      <c r="Z109" s="14"/>
-      <c r="AA109" s="14"/>
-      <c r="AB109" s="14"/>
-      <c r="AC109" s="14"/>
-      <c r="AD109" s="14"/>
-      <c r="AE109" s="14"/>
-    </row>
-    <row r="110" spans="1:31">
+      <c r="Y109" s="15"/>
+      <c r="Z109" s="15"/>
+      <c r="AA109" s="15"/>
+      <c r="AB109" s="15"/>
+      <c r="AC109" s="15"/>
+      <c r="AD109" s="15"/>
+      <c r="AE109" s="15"/>
+      <c r="AF109" s="15"/>
+    </row>
+    <row r="110" spans="1:32">
       <c r="A110" s="4"/>
-      <c r="B110" s="8"/>
+      <c r="B110" s="9"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
@@ -4645,30 +4772,31 @@
       <c r="P110" s="4"/>
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
-      <c r="S110" s="9"/>
-      <c r="T110" s="9"/>
+      <c r="S110" s="4"/>
+      <c r="T110" s="10"/>
       <c r="U110" s="10"/>
       <c r="V110" s="11"/>
-      <c r="W110" s="13"/>
-      <c r="X110" s="3"/>
-      <c r="Y110" s="3"/>
-      <c r="Z110" s="3"/>
-      <c r="AA110" s="3"/>
-      <c r="AB110" s="3"/>
-      <c r="AC110" s="3"/>
-      <c r="AD110" s="3"/>
-      <c r="AE110" s="3"/>
-    </row>
-    <row r="111" spans="1:31">
+      <c r="W110" s="12"/>
+      <c r="X110" s="14"/>
+      <c r="Y110" s="5"/>
+      <c r="Z110" s="5"/>
+      <c r="AA110" s="5"/>
+      <c r="AB110" s="5"/>
+      <c r="AC110" s="5"/>
+      <c r="AD110" s="5"/>
+      <c r="AE110" s="5"/>
+      <c r="AF110" s="5"/>
+    </row>
+    <row r="111" spans="1:32">
       <c r="A111" s="4"/>
-      <c r="B111" s="8"/>
+      <c r="B111" s="9"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
@@ -4678,30 +4806,31 @@
       <c r="P111" s="4"/>
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
-      <c r="S111" s="9"/>
-      <c r="T111" s="9"/>
+      <c r="S111" s="4"/>
+      <c r="T111" s="10"/>
       <c r="U111" s="10"/>
       <c r="V111" s="11"/>
-      <c r="W111" s="13"/>
-      <c r="X111" s="3"/>
-      <c r="Y111" s="3"/>
-      <c r="Z111" s="3"/>
-      <c r="AA111" s="3"/>
-      <c r="AB111" s="3"/>
-      <c r="AC111" s="3"/>
-      <c r="AD111" s="3"/>
-      <c r="AE111" s="3"/>
-    </row>
-    <row r="112" spans="1:31">
+      <c r="W111" s="12"/>
+      <c r="X111" s="14"/>
+      <c r="Y111" s="5"/>
+      <c r="Z111" s="5"/>
+      <c r="AA111" s="5"/>
+      <c r="AB111" s="5"/>
+      <c r="AC111" s="5"/>
+      <c r="AD111" s="5"/>
+      <c r="AE111" s="5"/>
+      <c r="AF111" s="5"/>
+    </row>
+    <row r="112" spans="1:32">
       <c r="A112" s="4"/>
-      <c r="B112" s="8"/>
+      <c r="B112" s="9"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
@@ -4711,30 +4840,31 @@
       <c r="P112" s="4"/>
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
-      <c r="S112" s="9"/>
-      <c r="T112" s="9"/>
+      <c r="S112" s="4"/>
+      <c r="T112" s="10"/>
       <c r="U112" s="10"/>
       <c r="V112" s="11"/>
-      <c r="W112" s="13"/>
-      <c r="X112" s="3"/>
-      <c r="Y112" s="3"/>
-      <c r="Z112" s="3"/>
-      <c r="AA112" s="3"/>
-      <c r="AB112" s="3"/>
-      <c r="AC112" s="3"/>
-      <c r="AD112" s="3"/>
-      <c r="AE112" s="3"/>
-    </row>
-    <row r="113" spans="1:31">
+      <c r="W112" s="12"/>
+      <c r="X112" s="14"/>
+      <c r="Y112" s="5"/>
+      <c r="Z112" s="5"/>
+      <c r="AA112" s="5"/>
+      <c r="AB112" s="5"/>
+      <c r="AC112" s="5"/>
+      <c r="AD112" s="5"/>
+      <c r="AE112" s="5"/>
+      <c r="AF112" s="5"/>
+    </row>
+    <row r="113" spans="1:32">
       <c r="A113" s="4"/>
-      <c r="B113" s="8"/>
+      <c r="B113" s="9"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
@@ -4744,30 +4874,31 @@
       <c r="P113" s="4"/>
       <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
-      <c r="S113" s="9"/>
-      <c r="T113" s="9"/>
+      <c r="S113" s="4"/>
+      <c r="T113" s="10"/>
       <c r="U113" s="10"/>
       <c r="V113" s="11"/>
-      <c r="W113" s="13"/>
-      <c r="X113" s="3"/>
-      <c r="Y113" s="3"/>
-      <c r="Z113" s="3"/>
-      <c r="AA113" s="3"/>
-      <c r="AB113" s="3"/>
-      <c r="AC113" s="3"/>
-      <c r="AD113" s="3"/>
-      <c r="AE113" s="3"/>
-    </row>
-    <row r="114" spans="1:31">
+      <c r="W113" s="12"/>
+      <c r="X113" s="14"/>
+      <c r="Y113" s="5"/>
+      <c r="Z113" s="5"/>
+      <c r="AA113" s="5"/>
+      <c r="AB113" s="5"/>
+      <c r="AC113" s="5"/>
+      <c r="AD113" s="5"/>
+      <c r="AE113" s="5"/>
+      <c r="AF113" s="5"/>
+    </row>
+    <row r="114" spans="1:32">
       <c r="A114" s="4"/>
-      <c r="B114" s="8"/>
+      <c r="B114" s="9"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
@@ -4777,30 +4908,31 @@
       <c r="P114" s="4"/>
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
-      <c r="S114" s="9"/>
-      <c r="T114" s="9"/>
+      <c r="S114" s="4"/>
+      <c r="T114" s="10"/>
       <c r="U114" s="10"/>
       <c r="V114" s="11"/>
-      <c r="W114" s="13"/>
-      <c r="X114" s="3"/>
-      <c r="Y114" s="3"/>
-      <c r="Z114" s="3"/>
-      <c r="AA114" s="3"/>
-      <c r="AB114" s="3"/>
-      <c r="AC114" s="3"/>
-      <c r="AD114" s="3"/>
-      <c r="AE114" s="3"/>
-    </row>
-    <row r="115" spans="1:31">
+      <c r="W114" s="12"/>
+      <c r="X114" s="14"/>
+      <c r="Y114" s="5"/>
+      <c r="Z114" s="5"/>
+      <c r="AA114" s="5"/>
+      <c r="AB114" s="5"/>
+      <c r="AC114" s="5"/>
+      <c r="AD114" s="5"/>
+      <c r="AE114" s="5"/>
+      <c r="AF114" s="5"/>
+    </row>
+    <row r="115" spans="1:32">
       <c r="A115" s="4"/>
-      <c r="B115" s="8"/>
+      <c r="B115" s="9"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
@@ -4810,30 +4942,31 @@
       <c r="P115" s="4"/>
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
-      <c r="S115" s="9"/>
-      <c r="T115" s="9"/>
+      <c r="S115" s="4"/>
+      <c r="T115" s="10"/>
       <c r="U115" s="10"/>
       <c r="V115" s="11"/>
-      <c r="W115" s="13"/>
-      <c r="X115" s="3"/>
-      <c r="Y115" s="3"/>
-      <c r="Z115" s="3"/>
-      <c r="AA115" s="3"/>
-      <c r="AB115" s="3"/>
-      <c r="AC115" s="3"/>
-      <c r="AD115" s="3"/>
-      <c r="AE115" s="3"/>
-    </row>
-    <row r="116" spans="1:31">
+      <c r="W115" s="12"/>
+      <c r="X115" s="14"/>
+      <c r="Y115" s="5"/>
+      <c r="Z115" s="5"/>
+      <c r="AA115" s="5"/>
+      <c r="AB115" s="5"/>
+      <c r="AC115" s="5"/>
+      <c r="AD115" s="5"/>
+      <c r="AE115" s="5"/>
+      <c r="AF115" s="5"/>
+    </row>
+    <row r="116" spans="1:32">
       <c r="A116" s="4"/>
-      <c r="B116" s="12"/>
+      <c r="B116" s="13"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
@@ -4843,30 +4976,31 @@
       <c r="P116" s="4"/>
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
-      <c r="S116" s="9"/>
-      <c r="T116" s="9"/>
+      <c r="S116" s="4"/>
+      <c r="T116" s="10"/>
       <c r="U116" s="10"/>
       <c r="V116" s="11"/>
-      <c r="W116" s="13"/>
-      <c r="X116" s="3"/>
-      <c r="Y116" s="3"/>
-      <c r="Z116" s="3"/>
-      <c r="AA116" s="3"/>
-      <c r="AB116" s="3"/>
-      <c r="AC116" s="3"/>
-      <c r="AD116" s="3"/>
-      <c r="AE116" s="3"/>
-    </row>
-    <row r="117" spans="1:31">
+      <c r="W116" s="12"/>
+      <c r="X116" s="14"/>
+      <c r="Y116" s="5"/>
+      <c r="Z116" s="5"/>
+      <c r="AA116" s="5"/>
+      <c r="AB116" s="5"/>
+      <c r="AC116" s="5"/>
+      <c r="AD116" s="5"/>
+      <c r="AE116" s="5"/>
+      <c r="AF116" s="5"/>
+    </row>
+    <row r="117" spans="1:32">
       <c r="A117" s="4"/>
-      <c r="B117" s="8"/>
+      <c r="B117" s="9"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
@@ -4876,30 +5010,31 @@
       <c r="P117" s="4"/>
       <c r="Q117" s="4"/>
       <c r="R117" s="4"/>
-      <c r="S117" s="9"/>
-      <c r="T117" s="9"/>
+      <c r="S117" s="4"/>
+      <c r="T117" s="10"/>
       <c r="U117" s="10"/>
       <c r="V117" s="11"/>
-      <c r="W117" s="13"/>
-      <c r="X117" s="3"/>
-      <c r="Y117" s="3"/>
-      <c r="Z117" s="3"/>
-      <c r="AA117" s="3"/>
-      <c r="AB117" s="3"/>
-      <c r="AC117" s="3"/>
-      <c r="AD117" s="3"/>
-      <c r="AE117" s="3"/>
-    </row>
-    <row r="118" spans="1:31">
+      <c r="W117" s="12"/>
+      <c r="X117" s="14"/>
+      <c r="Y117" s="5"/>
+      <c r="Z117" s="5"/>
+      <c r="AA117" s="5"/>
+      <c r="AB117" s="5"/>
+      <c r="AC117" s="5"/>
+      <c r="AD117" s="5"/>
+      <c r="AE117" s="5"/>
+      <c r="AF117" s="5"/>
+    </row>
+    <row r="118" spans="1:32">
       <c r="A118" s="4"/>
-      <c r="B118" s="8"/>
+      <c r="B118" s="9"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
@@ -4909,30 +5044,31 @@
       <c r="P118" s="4"/>
       <c r="Q118" s="4"/>
       <c r="R118" s="4"/>
-      <c r="S118" s="9"/>
-      <c r="T118" s="9"/>
+      <c r="S118" s="4"/>
+      <c r="T118" s="10"/>
       <c r="U118" s="10"/>
       <c r="V118" s="11"/>
-      <c r="W118" s="15"/>
-      <c r="X118" s="3"/>
-      <c r="Y118" s="3"/>
-      <c r="Z118" s="3"/>
-      <c r="AA118" s="3"/>
-      <c r="AB118" s="3"/>
-      <c r="AC118" s="3"/>
-      <c r="AD118" s="3"/>
-      <c r="AE118" s="3"/>
-    </row>
-    <row r="119" spans="1:31">
+      <c r="W118" s="12"/>
+      <c r="X118" s="16"/>
+      <c r="Y118" s="5"/>
+      <c r="Z118" s="5"/>
+      <c r="AA118" s="5"/>
+      <c r="AB118" s="5"/>
+      <c r="AC118" s="5"/>
+      <c r="AD118" s="5"/>
+      <c r="AE118" s="5"/>
+      <c r="AF118" s="5"/>
+    </row>
+    <row r="119" spans="1:32">
       <c r="A119" s="4"/>
-      <c r="B119" s="8"/>
+      <c r="B119" s="9"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
@@ -4942,30 +5078,31 @@
       <c r="P119" s="4"/>
       <c r="Q119" s="4"/>
       <c r="R119" s="4"/>
-      <c r="S119" s="9"/>
-      <c r="T119" s="9"/>
+      <c r="S119" s="4"/>
+      <c r="T119" s="10"/>
       <c r="U119" s="10"/>
       <c r="V119" s="11"/>
-      <c r="W119" s="15"/>
-      <c r="X119" s="3"/>
-      <c r="Y119" s="3"/>
-      <c r="Z119" s="3"/>
-      <c r="AA119" s="3"/>
-      <c r="AB119" s="3"/>
-      <c r="AC119" s="3"/>
-      <c r="AD119" s="3"/>
-      <c r="AE119" s="3"/>
-    </row>
-    <row r="120" spans="1:31">
+      <c r="W119" s="12"/>
+      <c r="X119" s="16"/>
+      <c r="Y119" s="5"/>
+      <c r="Z119" s="5"/>
+      <c r="AA119" s="5"/>
+      <c r="AB119" s="5"/>
+      <c r="AC119" s="5"/>
+      <c r="AD119" s="5"/>
+      <c r="AE119" s="5"/>
+      <c r="AF119" s="5"/>
+    </row>
+    <row r="120" spans="1:32">
       <c r="A120" s="4"/>
-      <c r="B120" s="8"/>
+      <c r="B120" s="9"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
@@ -4975,30 +5112,31 @@
       <c r="P120" s="4"/>
       <c r="Q120" s="4"/>
       <c r="R120" s="4"/>
-      <c r="S120" s="9"/>
-      <c r="T120" s="9"/>
+      <c r="S120" s="4"/>
+      <c r="T120" s="10"/>
       <c r="U120" s="10"/>
       <c r="V120" s="11"/>
-      <c r="W120" s="15"/>
-      <c r="X120" s="3"/>
-      <c r="Y120" s="3"/>
-      <c r="Z120" s="3"/>
-      <c r="AA120" s="3"/>
-      <c r="AB120" s="3"/>
-      <c r="AC120" s="3"/>
-      <c r="AD120" s="3"/>
-      <c r="AE120" s="3"/>
-    </row>
-    <row r="121" spans="1:31">
+      <c r="W120" s="12"/>
+      <c r="X120" s="16"/>
+      <c r="Y120" s="5"/>
+      <c r="Z120" s="5"/>
+      <c r="AA120" s="5"/>
+      <c r="AB120" s="5"/>
+      <c r="AC120" s="5"/>
+      <c r="AD120" s="5"/>
+      <c r="AE120" s="5"/>
+      <c r="AF120" s="5"/>
+    </row>
+    <row r="121" spans="1:32">
       <c r="A121" s="4"/>
-      <c r="B121" s="8"/>
+      <c r="B121" s="9"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
@@ -5008,30 +5146,31 @@
       <c r="P121" s="4"/>
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
-      <c r="S121" s="9"/>
-      <c r="T121" s="9"/>
+      <c r="S121" s="4"/>
+      <c r="T121" s="10"/>
       <c r="U121" s="10"/>
       <c r="V121" s="11"/>
-      <c r="W121" s="15"/>
-      <c r="X121" s="3"/>
-      <c r="Y121" s="3"/>
-      <c r="Z121" s="3"/>
-      <c r="AA121" s="3"/>
-      <c r="AB121" s="3"/>
-      <c r="AC121" s="3"/>
-      <c r="AD121" s="3"/>
-      <c r="AE121" s="3"/>
-    </row>
-    <row r="122" spans="1:31">
+      <c r="W121" s="12"/>
+      <c r="X121" s="16"/>
+      <c r="Y121" s="5"/>
+      <c r="Z121" s="5"/>
+      <c r="AA121" s="5"/>
+      <c r="AB121" s="5"/>
+      <c r="AC121" s="5"/>
+      <c r="AD121" s="5"/>
+      <c r="AE121" s="5"/>
+      <c r="AF121" s="5"/>
+    </row>
+    <row r="122" spans="1:32">
       <c r="A122" s="4"/>
-      <c r="B122" s="8"/>
+      <c r="B122" s="9"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
@@ -5041,30 +5180,31 @@
       <c r="P122" s="4"/>
       <c r="Q122" s="4"/>
       <c r="R122" s="4"/>
-      <c r="S122" s="9"/>
-      <c r="T122" s="9"/>
+      <c r="S122" s="4"/>
+      <c r="T122" s="10"/>
       <c r="U122" s="10"/>
       <c r="V122" s="11"/>
-      <c r="W122" s="13"/>
-      <c r="X122" s="3"/>
-      <c r="Y122" s="3"/>
-      <c r="Z122" s="3"/>
-      <c r="AA122" s="3"/>
-      <c r="AB122" s="3"/>
-      <c r="AC122" s="3"/>
-      <c r="AD122" s="3"/>
-      <c r="AE122" s="3"/>
-    </row>
-    <row r="123" spans="1:31">
+      <c r="W122" s="12"/>
+      <c r="X122" s="14"/>
+      <c r="Y122" s="5"/>
+      <c r="Z122" s="5"/>
+      <c r="AA122" s="5"/>
+      <c r="AB122" s="5"/>
+      <c r="AC122" s="5"/>
+      <c r="AD122" s="5"/>
+      <c r="AE122" s="5"/>
+      <c r="AF122" s="5"/>
+    </row>
+    <row r="123" spans="1:32">
       <c r="A123" s="4"/>
-      <c r="B123" s="8"/>
+      <c r="B123" s="9"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
@@ -5074,30 +5214,31 @@
       <c r="P123" s="4"/>
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
-      <c r="S123" s="9"/>
-      <c r="T123" s="9"/>
+      <c r="S123" s="4"/>
+      <c r="T123" s="10"/>
       <c r="U123" s="10"/>
       <c r="V123" s="11"/>
-      <c r="W123" s="13"/>
-      <c r="X123" s="3"/>
-      <c r="Y123" s="3"/>
-      <c r="Z123" s="3"/>
-      <c r="AA123" s="3"/>
-      <c r="AB123" s="3"/>
-      <c r="AC123" s="3"/>
-      <c r="AD123" s="3"/>
-      <c r="AE123" s="3"/>
-    </row>
-    <row r="124" spans="1:31">
+      <c r="W123" s="12"/>
+      <c r="X123" s="14"/>
+      <c r="Y123" s="5"/>
+      <c r="Z123" s="5"/>
+      <c r="AA123" s="5"/>
+      <c r="AB123" s="5"/>
+      <c r="AC123" s="5"/>
+      <c r="AD123" s="5"/>
+      <c r="AE123" s="5"/>
+      <c r="AF123" s="5"/>
+    </row>
+    <row r="124" spans="1:32">
       <c r="A124" s="4"/>
-      <c r="B124" s="8"/>
+      <c r="B124" s="9"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
@@ -5107,30 +5248,31 @@
       <c r="P124" s="4"/>
       <c r="Q124" s="4"/>
       <c r="R124" s="4"/>
-      <c r="S124" s="9"/>
-      <c r="T124" s="9"/>
+      <c r="S124" s="4"/>
+      <c r="T124" s="10"/>
       <c r="U124" s="10"/>
       <c r="V124" s="11"/>
-      <c r="W124" s="13"/>
-      <c r="X124" s="3"/>
-      <c r="Y124" s="3"/>
-      <c r="Z124" s="3"/>
-      <c r="AA124" s="3"/>
-      <c r="AB124" s="3"/>
-      <c r="AC124" s="3"/>
-      <c r="AD124" s="3"/>
-      <c r="AE124" s="3"/>
-    </row>
-    <row r="125" spans="1:31">
+      <c r="W124" s="12"/>
+      <c r="X124" s="14"/>
+      <c r="Y124" s="5"/>
+      <c r="Z124" s="5"/>
+      <c r="AA124" s="5"/>
+      <c r="AB124" s="5"/>
+      <c r="AC124" s="5"/>
+      <c r="AD124" s="5"/>
+      <c r="AE124" s="5"/>
+      <c r="AF124" s="5"/>
+    </row>
+    <row r="125" spans="1:32">
       <c r="A125" s="4"/>
-      <c r="B125" s="8"/>
+      <c r="B125" s="9"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
-      <c r="I125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
@@ -5140,30 +5282,31 @@
       <c r="P125" s="4"/>
       <c r="Q125" s="4"/>
       <c r="R125" s="4"/>
-      <c r="S125" s="9"/>
-      <c r="T125" s="9"/>
+      <c r="S125" s="4"/>
+      <c r="T125" s="10"/>
       <c r="U125" s="10"/>
       <c r="V125" s="11"/>
-      <c r="W125" s="13"/>
-      <c r="X125" s="3"/>
-      <c r="Y125" s="3"/>
-      <c r="Z125" s="3"/>
-      <c r="AA125" s="3"/>
-      <c r="AB125" s="3"/>
-      <c r="AC125" s="3"/>
-      <c r="AD125" s="3"/>
-      <c r="AE125" s="3"/>
-    </row>
-    <row r="126" spans="1:31">
+      <c r="W125" s="12"/>
+      <c r="X125" s="14"/>
+      <c r="Y125" s="5"/>
+      <c r="Z125" s="5"/>
+      <c r="AA125" s="5"/>
+      <c r="AB125" s="5"/>
+      <c r="AC125" s="5"/>
+      <c r="AD125" s="5"/>
+      <c r="AE125" s="5"/>
+      <c r="AF125" s="5"/>
+    </row>
+    <row r="126" spans="1:32">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
-      <c r="I126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
@@ -5173,30 +5316,31 @@
       <c r="P126" s="4"/>
       <c r="Q126" s="4"/>
       <c r="R126" s="4"/>
-      <c r="S126" s="9"/>
-      <c r="T126" s="9"/>
+      <c r="S126" s="4"/>
+      <c r="T126" s="10"/>
       <c r="U126" s="10"/>
       <c r="V126" s="11"/>
-      <c r="W126" s="3"/>
-      <c r="X126" s="3"/>
-      <c r="Y126" s="3"/>
-      <c r="Z126" s="3"/>
-      <c r="AA126" s="3"/>
-      <c r="AB126" s="3"/>
-      <c r="AC126" s="3"/>
-      <c r="AD126" s="3"/>
-      <c r="AE126" s="3"/>
-    </row>
-    <row r="127" spans="1:31">
+      <c r="W126" s="12"/>
+      <c r="X126" s="5"/>
+      <c r="Y126" s="5"/>
+      <c r="Z126" s="5"/>
+      <c r="AA126" s="5"/>
+      <c r="AB126" s="5"/>
+      <c r="AC126" s="5"/>
+      <c r="AD126" s="5"/>
+      <c r="AE126" s="5"/>
+      <c r="AF126" s="5"/>
+    </row>
+    <row r="127" spans="1:32">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
@@ -5206,30 +5350,31 @@
       <c r="P127" s="4"/>
       <c r="Q127" s="4"/>
       <c r="R127" s="4"/>
-      <c r="S127" s="9"/>
-      <c r="T127" s="9"/>
+      <c r="S127" s="4"/>
+      <c r="T127" s="10"/>
       <c r="U127" s="10"/>
       <c r="V127" s="11"/>
-      <c r="W127" s="3"/>
-      <c r="X127" s="3"/>
-      <c r="Y127" s="3"/>
-      <c r="Z127" s="3"/>
-      <c r="AA127" s="3"/>
-      <c r="AB127" s="3"/>
-      <c r="AC127" s="3"/>
-      <c r="AD127" s="3"/>
-      <c r="AE127" s="3"/>
-    </row>
-    <row r="128" spans="1:31">
+      <c r="W127" s="12"/>
+      <c r="X127" s="5"/>
+      <c r="Y127" s="5"/>
+      <c r="Z127" s="5"/>
+      <c r="AA127" s="5"/>
+      <c r="AB127" s="5"/>
+      <c r="AC127" s="5"/>
+      <c r="AD127" s="5"/>
+      <c r="AE127" s="5"/>
+      <c r="AF127" s="5"/>
+    </row>
+    <row r="128" spans="1:32">
       <c r="A128" s="4"/>
-      <c r="B128" s="8"/>
+      <c r="B128" s="9"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
@@ -5242,27 +5387,28 @@
       <c r="S128" s="4"/>
       <c r="T128" s="4"/>
       <c r="U128" s="4"/>
-      <c r="V128" s="16"/>
-      <c r="W128" s="3"/>
-      <c r="X128" s="3"/>
-      <c r="Y128" s="3"/>
-      <c r="Z128" s="3"/>
-      <c r="AA128" s="3"/>
-      <c r="AB128" s="3"/>
-      <c r="AC128" s="3"/>
-      <c r="AD128" s="3"/>
-      <c r="AE128" s="3"/>
-    </row>
-    <row r="129" spans="1:31">
+      <c r="V128" s="4"/>
+      <c r="W128" s="17"/>
+      <c r="X128" s="5"/>
+      <c r="Y128" s="5"/>
+      <c r="Z128" s="5"/>
+      <c r="AA128" s="5"/>
+      <c r="AB128" s="5"/>
+      <c r="AC128" s="5"/>
+      <c r="AD128" s="5"/>
+      <c r="AE128" s="5"/>
+      <c r="AF128" s="5"/>
+    </row>
+    <row r="129" spans="1:32">
       <c r="A129" s="4"/>
-      <c r="B129" s="8"/>
+      <c r="B129" s="9"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="8"/>
-      <c r="I129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
@@ -5275,27 +5421,28 @@
       <c r="S129" s="4"/>
       <c r="T129" s="4"/>
       <c r="U129" s="4"/>
-      <c r="V129" s="16"/>
-      <c r="W129" s="3"/>
-      <c r="X129" s="3"/>
-      <c r="Y129" s="3"/>
-      <c r="Z129" s="3"/>
-      <c r="AA129" s="3"/>
-      <c r="AB129" s="3"/>
-      <c r="AC129" s="3"/>
-      <c r="AD129" s="3"/>
-      <c r="AE129" s="3"/>
-    </row>
-    <row r="130" spans="1:31">
+      <c r="V129" s="4"/>
+      <c r="W129" s="17"/>
+      <c r="X129" s="5"/>
+      <c r="Y129" s="5"/>
+      <c r="Z129" s="5"/>
+      <c r="AA129" s="5"/>
+      <c r="AB129" s="5"/>
+      <c r="AC129" s="5"/>
+      <c r="AD129" s="5"/>
+      <c r="AE129" s="5"/>
+      <c r="AF129" s="5"/>
+    </row>
+    <row r="130" spans="1:32">
       <c r="A130" s="4"/>
-      <c r="B130" s="8"/>
+      <c r="B130" s="9"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
@@ -5308,27 +5455,28 @@
       <c r="S130" s="4"/>
       <c r="T130" s="4"/>
       <c r="U130" s="4"/>
-      <c r="V130" s="16"/>
-      <c r="W130" s="3"/>
-      <c r="X130" s="3"/>
-      <c r="Y130" s="3"/>
-      <c r="Z130" s="3"/>
-      <c r="AA130" s="3"/>
-      <c r="AB130" s="3"/>
-      <c r="AC130" s="3"/>
-      <c r="AD130" s="3"/>
-      <c r="AE130" s="3"/>
-    </row>
-    <row r="131" spans="1:31">
+      <c r="V130" s="4"/>
+      <c r="W130" s="17"/>
+      <c r="X130" s="5"/>
+      <c r="Y130" s="5"/>
+      <c r="Z130" s="5"/>
+      <c r="AA130" s="5"/>
+      <c r="AB130" s="5"/>
+      <c r="AC130" s="5"/>
+      <c r="AD130" s="5"/>
+      <c r="AE130" s="5"/>
+      <c r="AF130" s="5"/>
+    </row>
+    <row r="131" spans="1:32">
       <c r="A131" s="4"/>
-      <c r="B131" s="8"/>
+      <c r="B131" s="9"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="12"/>
-      <c r="I131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="13"/>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
@@ -5341,27 +5489,28 @@
       <c r="S131" s="4"/>
       <c r="T131" s="4"/>
       <c r="U131" s="4"/>
-      <c r="V131" s="16"/>
-      <c r="W131" s="3"/>
-      <c r="X131" s="3"/>
-      <c r="Y131" s="3"/>
-      <c r="Z131" s="3"/>
-      <c r="AA131" s="3"/>
-      <c r="AB131" s="3"/>
-      <c r="AC131" s="3"/>
-      <c r="AD131" s="3"/>
-      <c r="AE131" s="3"/>
-    </row>
-    <row r="132" spans="1:31">
+      <c r="V131" s="4"/>
+      <c r="W131" s="17"/>
+      <c r="X131" s="5"/>
+      <c r="Y131" s="5"/>
+      <c r="Z131" s="5"/>
+      <c r="AA131" s="5"/>
+      <c r="AB131" s="5"/>
+      <c r="AC131" s="5"/>
+      <c r="AD131" s="5"/>
+      <c r="AE131" s="5"/>
+      <c r="AF131" s="5"/>
+    </row>
+    <row r="132" spans="1:32">
       <c r="A132" s="4"/>
-      <c r="B132" s="8"/>
+      <c r="B132" s="9"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
@@ -5374,27 +5523,28 @@
       <c r="S132" s="4"/>
       <c r="T132" s="4"/>
       <c r="U132" s="4"/>
-      <c r="V132" s="16"/>
-      <c r="W132" s="3"/>
-      <c r="X132" s="3"/>
-      <c r="Y132" s="3"/>
-      <c r="Z132" s="3"/>
-      <c r="AA132" s="3"/>
-      <c r="AB132" s="3"/>
-      <c r="AC132" s="3"/>
-      <c r="AD132" s="3"/>
-      <c r="AE132" s="3"/>
-    </row>
-    <row r="133" spans="1:31">
+      <c r="V132" s="4"/>
+      <c r="W132" s="17"/>
+      <c r="X132" s="5"/>
+      <c r="Y132" s="5"/>
+      <c r="Z132" s="5"/>
+      <c r="AA132" s="5"/>
+      <c r="AB132" s="5"/>
+      <c r="AC132" s="5"/>
+      <c r="AD132" s="5"/>
+      <c r="AE132" s="5"/>
+      <c r="AF132" s="5"/>
+    </row>
+    <row r="133" spans="1:32">
       <c r="A133" s="4"/>
-      <c r="B133" s="8"/>
+      <c r="B133" s="9"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
@@ -5407,27 +5557,28 @@
       <c r="S133" s="4"/>
       <c r="T133" s="4"/>
       <c r="U133" s="4"/>
-      <c r="V133" s="16"/>
-      <c r="W133" s="3"/>
-      <c r="X133" s="3"/>
-      <c r="Y133" s="3"/>
-      <c r="Z133" s="3"/>
-      <c r="AA133" s="3"/>
-      <c r="AB133" s="3"/>
-      <c r="AC133" s="3"/>
-      <c r="AD133" s="3"/>
-      <c r="AE133" s="3"/>
-    </row>
-    <row r="134" spans="1:31">
+      <c r="V133" s="4"/>
+      <c r="W133" s="17"/>
+      <c r="X133" s="5"/>
+      <c r="Y133" s="5"/>
+      <c r="Z133" s="5"/>
+      <c r="AA133" s="5"/>
+      <c r="AB133" s="5"/>
+      <c r="AC133" s="5"/>
+      <c r="AD133" s="5"/>
+      <c r="AE133" s="5"/>
+      <c r="AF133" s="5"/>
+    </row>
+    <row r="134" spans="1:32">
       <c r="A134" s="4"/>
-      <c r="B134" s="8"/>
+      <c r="B134" s="9"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
@@ -5440,27 +5591,28 @@
       <c r="S134" s="4"/>
       <c r="T134" s="4"/>
       <c r="U134" s="4"/>
-      <c r="V134" s="16"/>
-      <c r="W134" s="3"/>
-      <c r="X134" s="3"/>
-      <c r="Y134" s="3"/>
-      <c r="Z134" s="3"/>
-      <c r="AA134" s="3"/>
-      <c r="AB134" s="3"/>
-      <c r="AC134" s="3"/>
-      <c r="AD134" s="3"/>
-      <c r="AE134" s="3"/>
-    </row>
-    <row r="135" spans="1:31">
+      <c r="V134" s="4"/>
+      <c r="W134" s="17"/>
+      <c r="X134" s="5"/>
+      <c r="Y134" s="5"/>
+      <c r="Z134" s="5"/>
+      <c r="AA134" s="5"/>
+      <c r="AB134" s="5"/>
+      <c r="AC134" s="5"/>
+      <c r="AD134" s="5"/>
+      <c r="AE134" s="5"/>
+      <c r="AF134" s="5"/>
+    </row>
+    <row r="135" spans="1:32">
       <c r="A135" s="4"/>
-      <c r="B135" s="8"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="12"/>
-      <c r="I135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="13"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
@@ -5473,27 +5625,28 @@
       <c r="S135" s="4"/>
       <c r="T135" s="4"/>
       <c r="U135" s="4"/>
-      <c r="V135" s="16"/>
-      <c r="W135" s="3"/>
-      <c r="X135" s="3"/>
-      <c r="Y135" s="3"/>
-      <c r="Z135" s="3"/>
-      <c r="AA135" s="3"/>
-      <c r="AB135" s="3"/>
-      <c r="AC135" s="3"/>
-      <c r="AD135" s="3"/>
-      <c r="AE135" s="3"/>
-    </row>
-    <row r="136" spans="1:31">
+      <c r="V135" s="4"/>
+      <c r="W135" s="17"/>
+      <c r="X135" s="5"/>
+      <c r="Y135" s="5"/>
+      <c r="Z135" s="5"/>
+      <c r="AA135" s="5"/>
+      <c r="AB135" s="5"/>
+      <c r="AC135" s="5"/>
+      <c r="AD135" s="5"/>
+      <c r="AE135" s="5"/>
+      <c r="AF135" s="5"/>
+    </row>
+    <row r="136" spans="1:32">
       <c r="A136" s="4"/>
-      <c r="B136" s="8"/>
+      <c r="B136" s="9"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="12"/>
-      <c r="I136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="13"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
@@ -5506,27 +5659,28 @@
       <c r="S136" s="4"/>
       <c r="T136" s="4"/>
       <c r="U136" s="4"/>
-      <c r="V136" s="16"/>
-      <c r="W136" s="3"/>
-      <c r="X136" s="3"/>
-      <c r="Y136" s="3"/>
-      <c r="Z136" s="3"/>
-      <c r="AA136" s="3"/>
-      <c r="AB136" s="3"/>
-      <c r="AC136" s="3"/>
-      <c r="AD136" s="3"/>
-      <c r="AE136" s="3"/>
-    </row>
-    <row r="137" spans="1:31">
+      <c r="V136" s="4"/>
+      <c r="W136" s="17"/>
+      <c r="X136" s="5"/>
+      <c r="Y136" s="5"/>
+      <c r="Z136" s="5"/>
+      <c r="AA136" s="5"/>
+      <c r="AB136" s="5"/>
+      <c r="AC136" s="5"/>
+      <c r="AD136" s="5"/>
+      <c r="AE136" s="5"/>
+      <c r="AF136" s="5"/>
+    </row>
+    <row r="137" spans="1:32">
       <c r="A137" s="4"/>
-      <c r="B137" s="8"/>
+      <c r="B137" s="9"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
-      <c r="G137" s="8"/>
-      <c r="H137" s="12"/>
-      <c r="I137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="13"/>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
@@ -5539,27 +5693,28 @@
       <c r="S137" s="4"/>
       <c r="T137" s="4"/>
       <c r="U137" s="4"/>
-      <c r="V137" s="16"/>
-      <c r="W137" s="3"/>
-      <c r="X137" s="3"/>
-      <c r="Y137" s="3"/>
-      <c r="Z137" s="3"/>
-      <c r="AA137" s="3"/>
-      <c r="AB137" s="3"/>
-      <c r="AC137" s="3"/>
-      <c r="AD137" s="3"/>
-      <c r="AE137" s="3"/>
-    </row>
-    <row r="138" spans="1:31">
+      <c r="V137" s="4"/>
+      <c r="W137" s="17"/>
+      <c r="X137" s="5"/>
+      <c r="Y137" s="5"/>
+      <c r="Z137" s="5"/>
+      <c r="AA137" s="5"/>
+      <c r="AB137" s="5"/>
+      <c r="AC137" s="5"/>
+      <c r="AD137" s="5"/>
+      <c r="AE137" s="5"/>
+      <c r="AF137" s="5"/>
+    </row>
+    <row r="138" spans="1:32">
       <c r="A138" s="4"/>
-      <c r="B138" s="8"/>
+      <c r="B138" s="9"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
-      <c r="G138" s="8"/>
-      <c r="H138" s="8"/>
-      <c r="I138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
@@ -5569,30 +5724,31 @@
       <c r="P138" s="4"/>
       <c r="Q138" s="4"/>
       <c r="R138" s="4"/>
-      <c r="S138" s="9"/>
-      <c r="T138" s="9"/>
+      <c r="S138" s="4"/>
+      <c r="T138" s="10"/>
       <c r="U138" s="10"/>
       <c r="V138" s="11"/>
-      <c r="W138" s="3"/>
-      <c r="X138" s="3"/>
-      <c r="Y138" s="3"/>
-      <c r="Z138" s="3"/>
-      <c r="AA138" s="3"/>
-      <c r="AB138" s="3"/>
-      <c r="AC138" s="3"/>
-      <c r="AD138" s="3"/>
-      <c r="AE138" s="3"/>
-    </row>
-    <row r="139" spans="1:31">
+      <c r="W138" s="12"/>
+      <c r="X138" s="5"/>
+      <c r="Y138" s="5"/>
+      <c r="Z138" s="5"/>
+      <c r="AA138" s="5"/>
+      <c r="AB138" s="5"/>
+      <c r="AC138" s="5"/>
+      <c r="AD138" s="5"/>
+      <c r="AE138" s="5"/>
+      <c r="AF138" s="5"/>
+    </row>
+    <row r="139" spans="1:32">
       <c r="A139" s="4"/>
-      <c r="B139" s="8"/>
+      <c r="B139" s="9"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
@@ -5602,30 +5758,31 @@
       <c r="P139" s="4"/>
       <c r="Q139" s="4"/>
       <c r="R139" s="4"/>
-      <c r="S139" s="9"/>
-      <c r="T139" s="9"/>
+      <c r="S139" s="4"/>
+      <c r="T139" s="10"/>
       <c r="U139" s="10"/>
       <c r="V139" s="11"/>
-      <c r="W139" s="3"/>
-      <c r="X139" s="3"/>
-      <c r="Y139" s="3"/>
-      <c r="Z139" s="3"/>
-      <c r="AA139" s="3"/>
-      <c r="AB139" s="3"/>
-      <c r="AC139" s="3"/>
-      <c r="AD139" s="3"/>
-      <c r="AE139" s="3"/>
-    </row>
-    <row r="140" spans="1:31">
+      <c r="W139" s="12"/>
+      <c r="X139" s="5"/>
+      <c r="Y139" s="5"/>
+      <c r="Z139" s="5"/>
+      <c r="AA139" s="5"/>
+      <c r="AB139" s="5"/>
+      <c r="AC139" s="5"/>
+      <c r="AD139" s="5"/>
+      <c r="AE139" s="5"/>
+      <c r="AF139" s="5"/>
+    </row>
+    <row r="140" spans="1:32">
       <c r="A140" s="4"/>
-      <c r="B140" s="8"/>
+      <c r="B140" s="9"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
@@ -5635,30 +5792,31 @@
       <c r="P140" s="4"/>
       <c r="Q140" s="4"/>
       <c r="R140" s="4"/>
-      <c r="S140" s="9"/>
-      <c r="T140" s="9"/>
+      <c r="S140" s="4"/>
+      <c r="T140" s="10"/>
       <c r="U140" s="10"/>
       <c r="V140" s="11"/>
-      <c r="W140" s="3"/>
-      <c r="X140" s="3"/>
-      <c r="Y140" s="3"/>
-      <c r="Z140" s="3"/>
-      <c r="AA140" s="3"/>
-      <c r="AB140" s="3"/>
-      <c r="AC140" s="3"/>
-      <c r="AD140" s="3"/>
-      <c r="AE140" s="3"/>
-    </row>
-    <row r="141" spans="1:31">
+      <c r="W140" s="12"/>
+      <c r="X140" s="5"/>
+      <c r="Y140" s="5"/>
+      <c r="Z140" s="5"/>
+      <c r="AA140" s="5"/>
+      <c r="AB140" s="5"/>
+      <c r="AC140" s="5"/>
+      <c r="AD140" s="5"/>
+      <c r="AE140" s="5"/>
+      <c r="AF140" s="5"/>
+    </row>
+    <row r="141" spans="1:32">
       <c r="A141" s="4"/>
-      <c r="B141" s="12"/>
+      <c r="B141" s="13"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
@@ -5668,846 +5826,872 @@
       <c r="P141" s="4"/>
       <c r="Q141" s="4"/>
       <c r="R141" s="4"/>
-      <c r="S141" s="9"/>
-      <c r="T141" s="9"/>
+      <c r="S141" s="4"/>
+      <c r="T141" s="10"/>
       <c r="U141" s="10"/>
       <c r="V141" s="11"/>
-      <c r="W141" s="3"/>
-      <c r="X141" s="3"/>
-      <c r="Y141" s="3"/>
-      <c r="Z141" s="3"/>
-      <c r="AA141" s="3"/>
-      <c r="AB141" s="3"/>
-      <c r="AC141" s="3"/>
-      <c r="AD141" s="3"/>
-      <c r="AE141" s="3"/>
-    </row>
-    <row r="142" spans="1:31" ht="16.5">
+      <c r="W141" s="12"/>
+      <c r="X141" s="5"/>
+      <c r="Y141" s="5"/>
+      <c r="Z141" s="5"/>
+      <c r="AA141" s="5"/>
+      <c r="AB141" s="5"/>
+      <c r="AC141" s="5"/>
+      <c r="AD141" s="5"/>
+      <c r="AE141" s="5"/>
+      <c r="AF141" s="5"/>
+    </row>
+    <row r="142" spans="1:32" ht="16.5">
       <c r="A142" s="4"/>
-      <c r="B142" s="17"/>
+      <c r="B142" s="18"/>
       <c r="C142" s="4"/>
-      <c r="D142" s="18"/>
+      <c r="D142" s="19"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
-      <c r="K142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
-      <c r="N142" s="5"/>
-      <c r="O142" s="5"/>
-      <c r="P142" s="5"/>
-      <c r="Q142" s="5"/>
-      <c r="R142" s="5"/>
-      <c r="S142" s="4"/>
+      <c r="N142" s="4"/>
+      <c r="O142" s="6"/>
+      <c r="P142" s="6"/>
+      <c r="Q142" s="6"/>
+      <c r="R142" s="6"/>
+      <c r="S142" s="6"/>
       <c r="T142" s="4"/>
       <c r="U142" s="4"/>
-      <c r="V142" s="3"/>
-      <c r="W142" s="3"/>
-      <c r="X142" s="3"/>
-      <c r="Y142" s="3"/>
-      <c r="Z142" s="3"/>
-      <c r="AA142" s="3"/>
-      <c r="AB142" s="3"/>
-      <c r="AC142" s="3"/>
-      <c r="AD142" s="3"/>
-      <c r="AE142" s="3"/>
-    </row>
-    <row r="143" spans="1:31" ht="16.5">
+      <c r="V142" s="4"/>
+      <c r="W142" s="5"/>
+      <c r="X142" s="5"/>
+      <c r="Y142" s="5"/>
+      <c r="Z142" s="5"/>
+      <c r="AA142" s="5"/>
+      <c r="AB142" s="5"/>
+      <c r="AC142" s="5"/>
+      <c r="AD142" s="5"/>
+      <c r="AE142" s="5"/>
+      <c r="AF142" s="5"/>
+    </row>
+    <row r="143" spans="1:32" ht="16.5">
       <c r="A143" s="4"/>
-      <c r="B143" s="17"/>
+      <c r="B143" s="18"/>
       <c r="C143" s="4"/>
-      <c r="D143" s="18"/>
+      <c r="D143" s="19"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
-      <c r="I143" s="5"/>
-      <c r="J143" s="5"/>
-      <c r="K143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
-      <c r="N143" s="5"/>
-      <c r="O143" s="5"/>
-      <c r="P143" s="5"/>
-      <c r="Q143" s="5"/>
-      <c r="R143" s="17"/>
-      <c r="S143" s="4"/>
+      <c r="N143" s="4"/>
+      <c r="O143" s="6"/>
+      <c r="P143" s="6"/>
+      <c r="Q143" s="6"/>
+      <c r="R143" s="6"/>
+      <c r="S143" s="18"/>
       <c r="T143" s="4"/>
       <c r="U143" s="4"/>
-      <c r="V143" s="3"/>
-      <c r="W143" s="3"/>
-      <c r="X143" s="3"/>
-      <c r="Y143" s="3"/>
-      <c r="Z143" s="3"/>
-      <c r="AA143" s="3"/>
-      <c r="AB143" s="3"/>
-      <c r="AC143" s="3"/>
-      <c r="AD143" s="3"/>
-      <c r="AE143" s="3"/>
-    </row>
-    <row r="144" spans="1:31" ht="16.5">
+      <c r="V143" s="4"/>
+      <c r="W143" s="5"/>
+      <c r="X143" s="5"/>
+      <c r="Y143" s="5"/>
+      <c r="Z143" s="5"/>
+      <c r="AA143" s="5"/>
+      <c r="AB143" s="5"/>
+      <c r="AC143" s="5"/>
+      <c r="AD143" s="5"/>
+      <c r="AE143" s="5"/>
+      <c r="AF143" s="5"/>
+    </row>
+    <row r="144" spans="1:32" ht="16.5">
       <c r="A144" s="4"/>
-      <c r="B144" s="17"/>
+      <c r="B144" s="18"/>
       <c r="C144" s="4"/>
-      <c r="D144" s="18"/>
+      <c r="D144" s="19"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5"/>
-      <c r="K144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
       <c r="L144" s="4"/>
       <c r="M144" s="4"/>
-      <c r="N144" s="5"/>
-      <c r="O144" s="5"/>
-      <c r="P144" s="5"/>
-      <c r="Q144" s="5"/>
-      <c r="R144" s="17"/>
-      <c r="S144" s="4"/>
+      <c r="N144" s="4"/>
+      <c r="O144" s="6"/>
+      <c r="P144" s="6"/>
+      <c r="Q144" s="6"/>
+      <c r="R144" s="6"/>
+      <c r="S144" s="18"/>
       <c r="T144" s="4"/>
       <c r="U144" s="4"/>
-      <c r="V144" s="3"/>
-      <c r="W144" s="3"/>
-      <c r="X144" s="3"/>
-      <c r="Y144" s="3"/>
-      <c r="Z144" s="3"/>
-      <c r="AA144" s="3"/>
-      <c r="AB144" s="3"/>
-      <c r="AC144" s="3"/>
-      <c r="AD144" s="3"/>
-      <c r="AE144" s="3"/>
-    </row>
-    <row r="145" spans="1:31" ht="16.5">
+      <c r="V144" s="4"/>
+      <c r="W144" s="5"/>
+      <c r="X144" s="5"/>
+      <c r="Y144" s="5"/>
+      <c r="Z144" s="5"/>
+      <c r="AA144" s="5"/>
+      <c r="AB144" s="5"/>
+      <c r="AC144" s="5"/>
+      <c r="AD144" s="5"/>
+      <c r="AE144" s="5"/>
+      <c r="AF144" s="5"/>
+    </row>
+    <row r="145" spans="1:32" ht="16.5">
       <c r="A145" s="4"/>
-      <c r="B145" s="17"/>
+      <c r="B145" s="18"/>
       <c r="C145" s="4"/>
-      <c r="D145" s="18"/>
+      <c r="D145" s="19"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5"/>
-      <c r="K145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
       <c r="L145" s="4"/>
       <c r="M145" s="4"/>
-      <c r="N145" s="5"/>
-      <c r="O145" s="5"/>
-      <c r="P145" s="5"/>
-      <c r="Q145" s="5"/>
-      <c r="R145" s="17"/>
-      <c r="S145" s="4"/>
+      <c r="N145" s="4"/>
+      <c r="O145" s="6"/>
+      <c r="P145" s="6"/>
+      <c r="Q145" s="6"/>
+      <c r="R145" s="6"/>
+      <c r="S145" s="18"/>
       <c r="T145" s="4"/>
       <c r="U145" s="4"/>
-      <c r="V145" s="3"/>
-      <c r="W145" s="3"/>
-      <c r="X145" s="3"/>
-      <c r="Y145" s="3"/>
-      <c r="Z145" s="3"/>
-      <c r="AA145" s="3"/>
-      <c r="AB145" s="3"/>
-      <c r="AC145" s="3"/>
-      <c r="AD145" s="3"/>
-      <c r="AE145" s="3"/>
-    </row>
-    <row r="146" spans="1:31" ht="16.5">
+      <c r="V145" s="4"/>
+      <c r="W145" s="5"/>
+      <c r="X145" s="5"/>
+      <c r="Y145" s="5"/>
+      <c r="Z145" s="5"/>
+      <c r="AA145" s="5"/>
+      <c r="AB145" s="5"/>
+      <c r="AC145" s="5"/>
+      <c r="AD145" s="5"/>
+      <c r="AE145" s="5"/>
+      <c r="AF145" s="5"/>
+    </row>
+    <row r="146" spans="1:32" ht="16.5">
       <c r="A146" s="4"/>
-      <c r="B146" s="17"/>
+      <c r="B146" s="18"/>
       <c r="C146" s="4"/>
-      <c r="D146" s="18"/>
+      <c r="D146" s="19"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5"/>
-      <c r="K146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="6"/>
       <c r="L146" s="4"/>
       <c r="M146" s="4"/>
-      <c r="N146" s="5"/>
-      <c r="O146" s="5"/>
-      <c r="P146" s="5"/>
-      <c r="Q146" s="5"/>
-      <c r="R146" s="17"/>
-      <c r="S146" s="4"/>
+      <c r="N146" s="4"/>
+      <c r="O146" s="6"/>
+      <c r="P146" s="6"/>
+      <c r="Q146" s="6"/>
+      <c r="R146" s="6"/>
+      <c r="S146" s="18"/>
       <c r="T146" s="4"/>
       <c r="U146" s="4"/>
-      <c r="V146" s="3"/>
-      <c r="W146" s="3"/>
-      <c r="X146" s="3"/>
-      <c r="Y146" s="3"/>
-      <c r="Z146" s="3"/>
-      <c r="AA146" s="3"/>
-      <c r="AB146" s="3"/>
-      <c r="AC146" s="3"/>
-      <c r="AD146" s="3"/>
-      <c r="AE146" s="3"/>
-    </row>
-    <row r="147" spans="1:31" ht="16.5">
+      <c r="V146" s="4"/>
+      <c r="W146" s="5"/>
+      <c r="X146" s="5"/>
+      <c r="Y146" s="5"/>
+      <c r="Z146" s="5"/>
+      <c r="AA146" s="5"/>
+      <c r="AB146" s="5"/>
+      <c r="AC146" s="5"/>
+      <c r="AD146" s="5"/>
+      <c r="AE146" s="5"/>
+      <c r="AF146" s="5"/>
+    </row>
+    <row r="147" spans="1:32" ht="16.5">
       <c r="A147" s="4"/>
-      <c r="B147" s="17"/>
+      <c r="B147" s="18"/>
       <c r="C147" s="4"/>
-      <c r="D147" s="18"/>
+      <c r="D147" s="19"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
-      <c r="J147" s="5"/>
-      <c r="K147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6"/>
       <c r="L147" s="4"/>
       <c r="M147" s="4"/>
-      <c r="N147" s="5"/>
-      <c r="O147" s="5"/>
-      <c r="P147" s="5"/>
-      <c r="Q147" s="5"/>
-      <c r="R147" s="17"/>
-      <c r="S147" s="4"/>
+      <c r="N147" s="4"/>
+      <c r="O147" s="6"/>
+      <c r="P147" s="6"/>
+      <c r="Q147" s="6"/>
+      <c r="R147" s="6"/>
+      <c r="S147" s="18"/>
       <c r="T147" s="4"/>
       <c r="U147" s="4"/>
-      <c r="V147" s="3"/>
-      <c r="W147" s="3"/>
-      <c r="X147" s="3"/>
-      <c r="Y147" s="3"/>
-      <c r="Z147" s="3"/>
-      <c r="AA147" s="3"/>
-      <c r="AB147" s="3"/>
-      <c r="AC147" s="3"/>
-      <c r="AD147" s="3"/>
-      <c r="AE147" s="3"/>
-    </row>
-    <row r="148" spans="1:31" ht="16.5">
+      <c r="V147" s="4"/>
+      <c r="W147" s="5"/>
+      <c r="X147" s="5"/>
+      <c r="Y147" s="5"/>
+      <c r="Z147" s="5"/>
+      <c r="AA147" s="5"/>
+      <c r="AB147" s="5"/>
+      <c r="AC147" s="5"/>
+      <c r="AD147" s="5"/>
+      <c r="AE147" s="5"/>
+      <c r="AF147" s="5"/>
+    </row>
+    <row r="148" spans="1:32" ht="16.5">
       <c r="A148" s="4"/>
-      <c r="B148" s="17"/>
+      <c r="B148" s="18"/>
       <c r="C148" s="4"/>
-      <c r="D148" s="18"/>
+      <c r="D148" s="19"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="5"/>
-      <c r="J148" s="5"/>
-      <c r="K148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
       <c r="L148" s="4"/>
       <c r="M148" s="4"/>
-      <c r="N148" s="5"/>
-      <c r="O148" s="5"/>
-      <c r="P148" s="5"/>
-      <c r="Q148" s="5"/>
-      <c r="R148" s="17"/>
-      <c r="S148" s="4"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="6"/>
+      <c r="P148" s="6"/>
+      <c r="Q148" s="6"/>
+      <c r="R148" s="6"/>
+      <c r="S148" s="18"/>
       <c r="T148" s="4"/>
       <c r="U148" s="4"/>
-      <c r="V148" s="3"/>
-      <c r="W148" s="3"/>
-      <c r="X148" s="3"/>
-      <c r="Y148" s="3"/>
-      <c r="Z148" s="3"/>
-      <c r="AA148" s="3"/>
-      <c r="AB148" s="3"/>
-      <c r="AC148" s="3"/>
-      <c r="AD148" s="3"/>
-      <c r="AE148" s="3"/>
-    </row>
-    <row r="149" spans="1:31" ht="16.5">
+      <c r="V148" s="4"/>
+      <c r="W148" s="5"/>
+      <c r="X148" s="5"/>
+      <c r="Y148" s="5"/>
+      <c r="Z148" s="5"/>
+      <c r="AA148" s="5"/>
+      <c r="AB148" s="5"/>
+      <c r="AC148" s="5"/>
+      <c r="AD148" s="5"/>
+      <c r="AE148" s="5"/>
+      <c r="AF148" s="5"/>
+    </row>
+    <row r="149" spans="1:32" ht="16.5">
       <c r="A149" s="4"/>
-      <c r="B149" s="17"/>
+      <c r="B149" s="18"/>
       <c r="C149" s="4"/>
-      <c r="D149" s="18"/>
+      <c r="D149" s="19"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
-      <c r="G149" s="5"/>
-      <c r="H149" s="5"/>
-      <c r="I149" s="5"/>
-      <c r="J149" s="5"/>
-      <c r="K149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
       <c r="L149" s="4"/>
       <c r="M149" s="4"/>
-      <c r="N149" s="5"/>
-      <c r="O149" s="5"/>
-      <c r="P149" s="5"/>
-      <c r="Q149" s="5"/>
-      <c r="R149" s="17"/>
-      <c r="S149" s="4"/>
+      <c r="N149" s="4"/>
+      <c r="O149" s="6"/>
+      <c r="P149" s="6"/>
+      <c r="Q149" s="6"/>
+      <c r="R149" s="6"/>
+      <c r="S149" s="18"/>
       <c r="T149" s="4"/>
       <c r="U149" s="4"/>
-      <c r="V149" s="3"/>
-      <c r="W149" s="3"/>
-      <c r="X149" s="3"/>
-      <c r="Y149" s="3"/>
-      <c r="Z149" s="3"/>
-      <c r="AA149" s="3"/>
-      <c r="AB149" s="3"/>
-      <c r="AC149" s="3"/>
-      <c r="AD149" s="3"/>
-      <c r="AE149" s="3"/>
-    </row>
-    <row r="150" spans="1:31">
+      <c r="V149" s="4"/>
+      <c r="W149" s="5"/>
+      <c r="X149" s="5"/>
+      <c r="Y149" s="5"/>
+      <c r="Z149" s="5"/>
+      <c r="AA149" s="5"/>
+      <c r="AB149" s="5"/>
+      <c r="AC149" s="5"/>
+      <c r="AD149" s="5"/>
+      <c r="AE149" s="5"/>
+      <c r="AF149" s="5"/>
+    </row>
+    <row r="150" spans="1:32">
       <c r="A150" s="4"/>
-      <c r="B150" s="5"/>
+      <c r="B150" s="6"/>
       <c r="C150" s="4"/>
-      <c r="D150" s="9"/>
+      <c r="D150" s="10"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="5"/>
-      <c r="K150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="6"/>
+      <c r="I150" s="6"/>
+      <c r="J150" s="6"/>
+      <c r="K150" s="6"/>
       <c r="L150" s="4"/>
       <c r="M150" s="4"/>
-      <c r="N150" s="5"/>
-      <c r="O150" s="5"/>
-      <c r="P150" s="5"/>
-      <c r="Q150" s="5"/>
-      <c r="R150" s="5"/>
-      <c r="S150" s="4"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="6"/>
+      <c r="P150" s="6"/>
+      <c r="Q150" s="6"/>
+      <c r="R150" s="6"/>
+      <c r="S150" s="6"/>
       <c r="T150" s="4"/>
       <c r="U150" s="4"/>
-      <c r="V150" s="3"/>
-      <c r="W150" s="3"/>
-      <c r="X150" s="3"/>
-      <c r="Y150" s="3"/>
-      <c r="Z150" s="3"/>
-      <c r="AA150" s="3"/>
-      <c r="AB150" s="3"/>
-      <c r="AC150" s="3"/>
-      <c r="AD150" s="3"/>
-      <c r="AE150" s="3"/>
-    </row>
-    <row r="151" spans="1:31">
+      <c r="V150" s="4"/>
+      <c r="W150" s="5"/>
+      <c r="X150" s="5"/>
+      <c r="Y150" s="5"/>
+      <c r="Z150" s="5"/>
+      <c r="AA150" s="5"/>
+      <c r="AB150" s="5"/>
+      <c r="AC150" s="5"/>
+      <c r="AD150" s="5"/>
+      <c r="AE150" s="5"/>
+      <c r="AF150" s="5"/>
+    </row>
+    <row r="151" spans="1:32">
       <c r="A151" s="4"/>
-      <c r="B151" s="5"/>
+      <c r="B151" s="6"/>
       <c r="C151" s="4"/>
-      <c r="D151" s="9"/>
+      <c r="D151" s="10"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5"/>
-      <c r="J151" s="5"/>
-      <c r="K151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="6"/>
       <c r="L151" s="4"/>
       <c r="M151" s="4"/>
-      <c r="N151" s="5"/>
-      <c r="O151" s="5"/>
-      <c r="P151" s="5"/>
-      <c r="Q151" s="5"/>
-      <c r="R151" s="5"/>
-      <c r="S151" s="4"/>
+      <c r="N151" s="4"/>
+      <c r="O151" s="6"/>
+      <c r="P151" s="6"/>
+      <c r="Q151" s="6"/>
+      <c r="R151" s="6"/>
+      <c r="S151" s="6"/>
       <c r="T151" s="4"/>
       <c r="U151" s="4"/>
-      <c r="V151" s="3"/>
-      <c r="W151" s="3"/>
-      <c r="X151" s="3"/>
-      <c r="Y151" s="3"/>
-      <c r="Z151" s="3"/>
-      <c r="AA151" s="3"/>
-      <c r="AB151" s="3"/>
-      <c r="AC151" s="3"/>
-      <c r="AD151" s="3"/>
-      <c r="AE151" s="3"/>
-    </row>
-    <row r="152" spans="1:31" ht="16.5">
+      <c r="V151" s="4"/>
+      <c r="W151" s="5"/>
+      <c r="X151" s="5"/>
+      <c r="Y151" s="5"/>
+      <c r="Z151" s="5"/>
+      <c r="AA151" s="5"/>
+      <c r="AB151" s="5"/>
+      <c r="AC151" s="5"/>
+      <c r="AD151" s="5"/>
+      <c r="AE151" s="5"/>
+      <c r="AF151" s="5"/>
+    </row>
+    <row r="152" spans="1:32" ht="16.5">
       <c r="A152" s="4"/>
-      <c r="B152" s="17"/>
+      <c r="B152" s="18"/>
       <c r="C152" s="4"/>
-      <c r="D152" s="18"/>
+      <c r="D152" s="19"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
-      <c r="J152" s="5"/>
-      <c r="K152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6"/>
+      <c r="K152" s="6"/>
       <c r="L152" s="4"/>
       <c r="M152" s="4"/>
-      <c r="N152" s="5"/>
-      <c r="O152" s="5"/>
-      <c r="P152" s="5"/>
-      <c r="Q152" s="5"/>
-      <c r="R152" s="17"/>
-      <c r="S152" s="4"/>
+      <c r="N152" s="4"/>
+      <c r="O152" s="6"/>
+      <c r="P152" s="6"/>
+      <c r="Q152" s="6"/>
+      <c r="R152" s="6"/>
+      <c r="S152" s="18"/>
       <c r="T152" s="4"/>
       <c r="U152" s="4"/>
-      <c r="V152" s="3"/>
-      <c r="W152" s="3"/>
-      <c r="X152" s="3"/>
-      <c r="Y152" s="3"/>
-      <c r="Z152" s="3"/>
-      <c r="AA152" s="3"/>
-      <c r="AB152" s="3"/>
-      <c r="AC152" s="3"/>
-      <c r="AD152" s="3"/>
-      <c r="AE152" s="3"/>
-    </row>
-    <row r="153" spans="1:31" ht="16.5">
+      <c r="V152" s="4"/>
+      <c r="W152" s="5"/>
+      <c r="X152" s="5"/>
+      <c r="Y152" s="5"/>
+      <c r="Z152" s="5"/>
+      <c r="AA152" s="5"/>
+      <c r="AB152" s="5"/>
+      <c r="AC152" s="5"/>
+      <c r="AD152" s="5"/>
+      <c r="AE152" s="5"/>
+      <c r="AF152" s="5"/>
+    </row>
+    <row r="153" spans="1:32" ht="16.5">
       <c r="A153" s="4"/>
-      <c r="B153" s="17"/>
+      <c r="B153" s="18"/>
       <c r="C153" s="4"/>
-      <c r="D153" s="18"/>
+      <c r="D153" s="19"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
-      <c r="J153" s="5"/>
-      <c r="K153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="6"/>
       <c r="L153" s="4"/>
       <c r="M153" s="4"/>
-      <c r="N153" s="5"/>
-      <c r="O153" s="5"/>
-      <c r="P153" s="5"/>
-      <c r="Q153" s="5"/>
-      <c r="R153" s="17"/>
-      <c r="S153" s="4"/>
+      <c r="N153" s="4"/>
+      <c r="O153" s="6"/>
+      <c r="P153" s="6"/>
+      <c r="Q153" s="6"/>
+      <c r="R153" s="6"/>
+      <c r="S153" s="18"/>
       <c r="T153" s="4"/>
       <c r="U153" s="4"/>
-      <c r="V153" s="3"/>
-      <c r="W153" s="3"/>
-      <c r="X153" s="3"/>
-      <c r="Y153" s="3"/>
-      <c r="Z153" s="3"/>
-      <c r="AA153" s="3"/>
-      <c r="AB153" s="3"/>
-      <c r="AC153" s="3"/>
-      <c r="AD153" s="3"/>
-      <c r="AE153" s="3"/>
-    </row>
-    <row r="154" spans="1:31" ht="16.5">
+      <c r="V153" s="4"/>
+      <c r="W153" s="5"/>
+      <c r="X153" s="5"/>
+      <c r="Y153" s="5"/>
+      <c r="Z153" s="5"/>
+      <c r="AA153" s="5"/>
+      <c r="AB153" s="5"/>
+      <c r="AC153" s="5"/>
+      <c r="AD153" s="5"/>
+      <c r="AE153" s="5"/>
+      <c r="AF153" s="5"/>
+    </row>
+    <row r="154" spans="1:32" ht="16.5">
       <c r="A154" s="4"/>
-      <c r="B154" s="17"/>
+      <c r="B154" s="18"/>
       <c r="C154" s="4"/>
-      <c r="D154" s="18"/>
+      <c r="D154" s="19"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="5"/>
-      <c r="J154" s="5"/>
-      <c r="K154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
       <c r="L154" s="4"/>
       <c r="M154" s="4"/>
-      <c r="N154" s="5"/>
-      <c r="O154" s="5"/>
-      <c r="P154" s="5"/>
-      <c r="Q154" s="5"/>
-      <c r="R154" s="17"/>
-      <c r="S154" s="4"/>
+      <c r="N154" s="4"/>
+      <c r="O154" s="6"/>
+      <c r="P154" s="6"/>
+      <c r="Q154" s="6"/>
+      <c r="R154" s="6"/>
+      <c r="S154" s="18"/>
       <c r="T154" s="4"/>
       <c r="U154" s="4"/>
-      <c r="V154" s="3"/>
-      <c r="W154" s="3"/>
-      <c r="X154" s="3"/>
-      <c r="Y154" s="3"/>
-      <c r="Z154" s="3"/>
-      <c r="AA154" s="3"/>
-      <c r="AB154" s="3"/>
-      <c r="AC154" s="3"/>
-      <c r="AD154" s="3"/>
-      <c r="AE154" s="3"/>
-    </row>
-    <row r="155" spans="1:31" ht="16.5">
+      <c r="V154" s="4"/>
+      <c r="W154" s="5"/>
+      <c r="X154" s="5"/>
+      <c r="Y154" s="5"/>
+      <c r="Z154" s="5"/>
+      <c r="AA154" s="5"/>
+      <c r="AB154" s="5"/>
+      <c r="AC154" s="5"/>
+      <c r="AD154" s="5"/>
+      <c r="AE154" s="5"/>
+      <c r="AF154" s="5"/>
+    </row>
+    <row r="155" spans="1:32" ht="16.5">
       <c r="A155" s="4"/>
-      <c r="B155" s="17"/>
+      <c r="B155" s="18"/>
       <c r="C155" s="4"/>
-      <c r="D155" s="18"/>
+      <c r="D155" s="19"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="5"/>
-      <c r="K155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
       <c r="L155" s="4"/>
       <c r="M155" s="4"/>
-      <c r="N155" s="17"/>
-      <c r="O155" s="5"/>
-      <c r="P155" s="5"/>
-      <c r="Q155" s="5"/>
-      <c r="R155" s="17"/>
-      <c r="S155" s="4"/>
+      <c r="N155" s="4"/>
+      <c r="O155" s="18"/>
+      <c r="P155" s="6"/>
+      <c r="Q155" s="6"/>
+      <c r="R155" s="6"/>
+      <c r="S155" s="18"/>
       <c r="T155" s="4"/>
       <c r="U155" s="4"/>
-      <c r="V155" s="3"/>
-      <c r="W155" s="3"/>
-      <c r="X155" s="3"/>
-      <c r="Y155" s="3"/>
-      <c r="Z155" s="3"/>
-      <c r="AA155" s="3"/>
-      <c r="AB155" s="3"/>
-      <c r="AC155" s="3"/>
-      <c r="AD155" s="3"/>
-      <c r="AE155" s="3"/>
-    </row>
-    <row r="156" spans="1:31" ht="16.5">
+      <c r="V155" s="4"/>
+      <c r="W155" s="5"/>
+      <c r="X155" s="5"/>
+      <c r="Y155" s="5"/>
+      <c r="Z155" s="5"/>
+      <c r="AA155" s="5"/>
+      <c r="AB155" s="5"/>
+      <c r="AC155" s="5"/>
+      <c r="AD155" s="5"/>
+      <c r="AE155" s="5"/>
+      <c r="AF155" s="5"/>
+    </row>
+    <row r="156" spans="1:32" ht="16.5">
       <c r="A156" s="4"/>
-      <c r="B156" s="17"/>
+      <c r="B156" s="18"/>
       <c r="C156" s="4"/>
-      <c r="D156" s="18"/>
+      <c r="D156" s="19"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
-      <c r="J156" s="5"/>
-      <c r="K156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
       <c r="L156" s="4"/>
       <c r="M156" s="4"/>
-      <c r="N156" s="17"/>
-      <c r="O156" s="5"/>
-      <c r="P156" s="5"/>
-      <c r="Q156" s="5"/>
-      <c r="R156" s="17"/>
-      <c r="S156" s="4"/>
+      <c r="N156" s="4"/>
+      <c r="O156" s="18"/>
+      <c r="P156" s="6"/>
+      <c r="Q156" s="6"/>
+      <c r="R156" s="6"/>
+      <c r="S156" s="18"/>
       <c r="T156" s="4"/>
       <c r="U156" s="4"/>
-      <c r="V156" s="3"/>
-      <c r="W156" s="3"/>
-      <c r="X156" s="3"/>
-      <c r="Y156" s="3"/>
-      <c r="Z156" s="3"/>
-      <c r="AA156" s="3"/>
-      <c r="AB156" s="3"/>
-      <c r="AC156" s="3"/>
-      <c r="AD156" s="3"/>
-      <c r="AE156" s="3"/>
-    </row>
-    <row r="157" spans="1:31" ht="16.5">
+      <c r="V156" s="4"/>
+      <c r="W156" s="5"/>
+      <c r="X156" s="5"/>
+      <c r="Y156" s="5"/>
+      <c r="Z156" s="5"/>
+      <c r="AA156" s="5"/>
+      <c r="AB156" s="5"/>
+      <c r="AC156" s="5"/>
+      <c r="AD156" s="5"/>
+      <c r="AE156" s="5"/>
+      <c r="AF156" s="5"/>
+    </row>
+    <row r="157" spans="1:32" ht="16.5">
       <c r="A157" s="4"/>
-      <c r="B157" s="17"/>
+      <c r="B157" s="18"/>
       <c r="C157" s="4"/>
-      <c r="D157" s="18"/>
+      <c r="D157" s="19"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="5"/>
-      <c r="J157" s="5"/>
-      <c r="K157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6"/>
       <c r="L157" s="4"/>
       <c r="M157" s="4"/>
-      <c r="N157" s="17"/>
-      <c r="O157" s="5"/>
-      <c r="P157" s="5"/>
-      <c r="Q157" s="5"/>
-      <c r="R157" s="17"/>
-      <c r="S157" s="4"/>
+      <c r="N157" s="4"/>
+      <c r="O157" s="18"/>
+      <c r="P157" s="6"/>
+      <c r="Q157" s="6"/>
+      <c r="R157" s="6"/>
+      <c r="S157" s="18"/>
       <c r="T157" s="4"/>
       <c r="U157" s="4"/>
-      <c r="V157" s="3"/>
-      <c r="W157" s="3"/>
-      <c r="X157" s="3"/>
-      <c r="Y157" s="3"/>
-      <c r="Z157" s="3"/>
-      <c r="AA157" s="3"/>
-      <c r="AB157" s="3"/>
-      <c r="AC157" s="3"/>
-      <c r="AD157" s="3"/>
-      <c r="AE157" s="3"/>
-    </row>
-    <row r="158" spans="1:31" ht="16.5">
+      <c r="V157" s="4"/>
+      <c r="W157" s="5"/>
+      <c r="X157" s="5"/>
+      <c r="Y157" s="5"/>
+      <c r="Z157" s="5"/>
+      <c r="AA157" s="5"/>
+      <c r="AB157" s="5"/>
+      <c r="AC157" s="5"/>
+      <c r="AD157" s="5"/>
+      <c r="AE157" s="5"/>
+      <c r="AF157" s="5"/>
+    </row>
+    <row r="158" spans="1:32" ht="16.5">
       <c r="A158" s="4"/>
-      <c r="B158" s="17"/>
+      <c r="B158" s="18"/>
       <c r="C158" s="4"/>
-      <c r="D158" s="18"/>
+      <c r="D158" s="19"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
-      <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
-      <c r="I158" s="5"/>
-      <c r="J158" s="5"/>
-      <c r="K158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
+      <c r="K158" s="6"/>
       <c r="L158" s="4"/>
       <c r="M158" s="4"/>
-      <c r="N158" s="17"/>
-      <c r="O158" s="5"/>
-      <c r="P158" s="5"/>
-      <c r="Q158" s="5"/>
-      <c r="R158" s="17"/>
-      <c r="S158" s="4"/>
+      <c r="N158" s="4"/>
+      <c r="O158" s="18"/>
+      <c r="P158" s="6"/>
+      <c r="Q158" s="6"/>
+      <c r="R158" s="6"/>
+      <c r="S158" s="18"/>
       <c r="T158" s="4"/>
       <c r="U158" s="4"/>
-      <c r="V158" s="3"/>
-      <c r="W158" s="3"/>
-      <c r="X158" s="3"/>
-      <c r="Y158" s="3"/>
-      <c r="Z158" s="3"/>
-      <c r="AA158" s="3"/>
-      <c r="AB158" s="3"/>
-      <c r="AC158" s="3"/>
-      <c r="AD158" s="3"/>
-      <c r="AE158" s="3"/>
-    </row>
-    <row r="159" spans="1:31">
+      <c r="V158" s="4"/>
+      <c r="W158" s="5"/>
+      <c r="X158" s="5"/>
+      <c r="Y158" s="5"/>
+      <c r="Z158" s="5"/>
+      <c r="AA158" s="5"/>
+      <c r="AB158" s="5"/>
+      <c r="AC158" s="5"/>
+      <c r="AD158" s="5"/>
+      <c r="AE158" s="5"/>
+      <c r="AF158" s="5"/>
+    </row>
+    <row r="159" spans="1:32">
       <c r="A159" s="4"/>
-      <c r="B159" s="5"/>
+      <c r="B159" s="6"/>
       <c r="C159" s="4"/>
-      <c r="D159" s="9"/>
+      <c r="D159" s="10"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="5"/>
-      <c r="J159" s="5"/>
-      <c r="K159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="6"/>
       <c r="L159" s="4"/>
       <c r="M159" s="4"/>
-      <c r="N159" s="5"/>
-      <c r="O159" s="5"/>
-      <c r="P159" s="5"/>
-      <c r="Q159" s="5"/>
-      <c r="R159" s="5"/>
-      <c r="S159" s="4"/>
+      <c r="N159" s="4"/>
+      <c r="O159" s="6"/>
+      <c r="P159" s="6"/>
+      <c r="Q159" s="6"/>
+      <c r="R159" s="6"/>
+      <c r="S159" s="6"/>
       <c r="T159" s="4"/>
       <c r="U159" s="4"/>
-      <c r="V159" s="3"/>
-      <c r="W159" s="3"/>
-      <c r="X159" s="3"/>
-      <c r="Y159" s="3"/>
-      <c r="Z159" s="3"/>
-      <c r="AA159" s="3"/>
-      <c r="AB159" s="3"/>
-      <c r="AC159" s="3"/>
-      <c r="AD159" s="3"/>
-      <c r="AE159" s="3"/>
-    </row>
-    <row r="160" spans="1:31">
+      <c r="V159" s="4"/>
+      <c r="W159" s="5"/>
+      <c r="X159" s="5"/>
+      <c r="Y159" s="5"/>
+      <c r="Z159" s="5"/>
+      <c r="AA159" s="5"/>
+      <c r="AB159" s="5"/>
+      <c r="AC159" s="5"/>
+      <c r="AD159" s="5"/>
+      <c r="AE159" s="5"/>
+      <c r="AF159" s="5"/>
+    </row>
+    <row r="160" spans="1:32">
       <c r="A160" s="4"/>
-      <c r="B160" s="5"/>
+      <c r="B160" s="6"/>
       <c r="C160" s="4"/>
-      <c r="D160" s="9"/>
+      <c r="D160" s="10"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="5"/>
-      <c r="J160" s="5"/>
-      <c r="K160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="6"/>
       <c r="L160" s="4"/>
       <c r="M160" s="4"/>
-      <c r="N160" s="5"/>
-      <c r="O160" s="5"/>
-      <c r="P160" s="5"/>
-      <c r="Q160" s="5"/>
-      <c r="R160" s="5"/>
-      <c r="S160" s="4"/>
+      <c r="N160" s="4"/>
+      <c r="O160" s="6"/>
+      <c r="P160" s="6"/>
+      <c r="Q160" s="6"/>
+      <c r="R160" s="6"/>
+      <c r="S160" s="6"/>
       <c r="T160" s="4"/>
       <c r="U160" s="4"/>
-      <c r="V160" s="3"/>
-      <c r="W160" s="3"/>
-      <c r="X160" s="3"/>
-      <c r="Y160" s="3"/>
-      <c r="Z160" s="3"/>
-      <c r="AA160" s="3"/>
-      <c r="AB160" s="3"/>
-      <c r="AC160" s="3"/>
-      <c r="AD160" s="3"/>
-      <c r="AE160" s="3"/>
-    </row>
-    <row r="161" spans="1:31" ht="16.5">
+      <c r="V160" s="4"/>
+      <c r="W160" s="5"/>
+      <c r="X160" s="5"/>
+      <c r="Y160" s="5"/>
+      <c r="Z160" s="5"/>
+      <c r="AA160" s="5"/>
+      <c r="AB160" s="5"/>
+      <c r="AC160" s="5"/>
+      <c r="AD160" s="5"/>
+      <c r="AE160" s="5"/>
+      <c r="AF160" s="5"/>
+    </row>
+    <row r="161" spans="1:32" ht="16.5">
       <c r="A161" s="4"/>
-      <c r="B161" s="17"/>
+      <c r="B161" s="18"/>
       <c r="C161" s="4"/>
-      <c r="D161" s="18"/>
+      <c r="D161" s="19"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
-      <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
-      <c r="I161" s="5"/>
-      <c r="J161" s="5"/>
-      <c r="K161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="6"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="6"/>
       <c r="L161" s="4"/>
       <c r="M161" s="4"/>
-      <c r="N161" s="17"/>
-      <c r="O161" s="5"/>
-      <c r="P161" s="5"/>
-      <c r="Q161" s="5"/>
-      <c r="R161" s="17"/>
-      <c r="S161" s="4"/>
+      <c r="N161" s="4"/>
+      <c r="O161" s="18"/>
+      <c r="P161" s="6"/>
+      <c r="Q161" s="6"/>
+      <c r="R161" s="6"/>
+      <c r="S161" s="18"/>
       <c r="T161" s="4"/>
       <c r="U161" s="4"/>
-      <c r="V161" s="3"/>
-      <c r="W161" s="3"/>
-      <c r="X161" s="3"/>
-      <c r="Y161" s="3"/>
-      <c r="Z161" s="3"/>
-      <c r="AA161" s="3"/>
-      <c r="AB161" s="3"/>
-      <c r="AC161" s="3"/>
-      <c r="AD161" s="3"/>
-      <c r="AE161" s="3"/>
-    </row>
-    <row r="162" spans="1:31" ht="16.5">
+      <c r="V161" s="4"/>
+      <c r="W161" s="5"/>
+      <c r="X161" s="5"/>
+      <c r="Y161" s="5"/>
+      <c r="Z161" s="5"/>
+      <c r="AA161" s="5"/>
+      <c r="AB161" s="5"/>
+      <c r="AC161" s="5"/>
+      <c r="AD161" s="5"/>
+      <c r="AE161" s="5"/>
+      <c r="AF161" s="5"/>
+    </row>
+    <row r="162" spans="1:32" ht="16.5">
       <c r="A162" s="4"/>
-      <c r="B162" s="17"/>
+      <c r="B162" s="18"/>
       <c r="C162" s="4"/>
-      <c r="D162" s="18"/>
+      <c r="D162" s="19"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="5"/>
-      <c r="J162" s="5"/>
-      <c r="K162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="6"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="6"/>
       <c r="L162" s="4"/>
       <c r="M162" s="4"/>
-      <c r="N162" s="5"/>
-      <c r="O162" s="5"/>
-      <c r="P162" s="5"/>
-      <c r="Q162" s="5"/>
-      <c r="R162" s="17"/>
-      <c r="S162" s="4"/>
+      <c r="N162" s="4"/>
+      <c r="O162" s="6"/>
+      <c r="P162" s="6"/>
+      <c r="Q162" s="6"/>
+      <c r="R162" s="6"/>
+      <c r="S162" s="18"/>
       <c r="T162" s="4"/>
       <c r="U162" s="4"/>
-      <c r="V162" s="3"/>
-      <c r="W162" s="3"/>
-      <c r="X162" s="3"/>
-      <c r="Y162" s="3"/>
-      <c r="Z162" s="3"/>
-      <c r="AA162" s="3"/>
-      <c r="AB162" s="3"/>
-      <c r="AC162" s="3"/>
-      <c r="AD162" s="3"/>
-      <c r="AE162" s="3"/>
-    </row>
-    <row r="163" spans="1:31" ht="16.5">
+      <c r="V162" s="4"/>
+      <c r="W162" s="5"/>
+      <c r="X162" s="5"/>
+      <c r="Y162" s="5"/>
+      <c r="Z162" s="5"/>
+      <c r="AA162" s="5"/>
+      <c r="AB162" s="5"/>
+      <c r="AC162" s="5"/>
+      <c r="AD162" s="5"/>
+      <c r="AE162" s="5"/>
+      <c r="AF162" s="5"/>
+    </row>
+    <row r="163" spans="1:32" ht="16.5">
       <c r="A163" s="4"/>
-      <c r="B163" s="17"/>
+      <c r="B163" s="18"/>
       <c r="C163" s="4"/>
-      <c r="D163" s="18"/>
+      <c r="D163" s="19"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="5"/>
-      <c r="J163" s="5"/>
-      <c r="K163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="6"/>
+      <c r="J163" s="6"/>
+      <c r="K163" s="6"/>
       <c r="L163" s="4"/>
       <c r="M163" s="4"/>
-      <c r="N163" s="5"/>
-      <c r="O163" s="5"/>
-      <c r="P163" s="5"/>
-      <c r="Q163" s="5"/>
-      <c r="R163" s="17"/>
-      <c r="S163" s="4"/>
+      <c r="N163" s="4"/>
+      <c r="O163" s="6"/>
+      <c r="P163" s="6"/>
+      <c r="Q163" s="6"/>
+      <c r="R163" s="6"/>
+      <c r="S163" s="18"/>
       <c r="T163" s="4"/>
       <c r="U163" s="4"/>
-      <c r="V163" s="3"/>
-      <c r="W163" s="3"/>
-      <c r="X163" s="3"/>
-      <c r="Y163" s="3"/>
-      <c r="Z163" s="3"/>
-      <c r="AA163" s="3"/>
-      <c r="AB163" s="3"/>
-      <c r="AC163" s="3"/>
-      <c r="AD163" s="3"/>
-      <c r="AE163" s="3"/>
-    </row>
-    <row r="164" spans="1:31" ht="16.5">
+      <c r="V163" s="4"/>
+      <c r="W163" s="5"/>
+      <c r="X163" s="5"/>
+      <c r="Y163" s="5"/>
+      <c r="Z163" s="5"/>
+      <c r="AA163" s="5"/>
+      <c r="AB163" s="5"/>
+      <c r="AC163" s="5"/>
+      <c r="AD163" s="5"/>
+      <c r="AE163" s="5"/>
+      <c r="AF163" s="5"/>
+    </row>
+    <row r="164" spans="1:32" ht="16.5">
       <c r="A164" s="4"/>
-      <c r="B164" s="17"/>
+      <c r="B164" s="18"/>
       <c r="C164" s="4"/>
-      <c r="D164" s="18"/>
+      <c r="D164" s="19"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
-      <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
-      <c r="I164" s="5"/>
-      <c r="J164" s="5"/>
-      <c r="K164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+      <c r="K164" s="6"/>
       <c r="L164" s="4"/>
       <c r="M164" s="4"/>
-      <c r="N164" s="5"/>
-      <c r="O164" s="5"/>
-      <c r="P164" s="5"/>
-      <c r="Q164" s="5"/>
-      <c r="R164" s="17"/>
-      <c r="S164" s="4"/>
+      <c r="N164" s="4"/>
+      <c r="O164" s="6"/>
+      <c r="P164" s="6"/>
+      <c r="Q164" s="6"/>
+      <c r="R164" s="6"/>
+      <c r="S164" s="18"/>
       <c r="T164" s="4"/>
       <c r="U164" s="4"/>
-      <c r="V164" s="3"/>
-      <c r="W164" s="3"/>
-      <c r="X164" s="3"/>
-      <c r="Y164" s="3"/>
-      <c r="Z164" s="3"/>
-      <c r="AA164" s="3"/>
-      <c r="AB164" s="3"/>
-      <c r="AC164" s="3"/>
-      <c r="AD164" s="3"/>
-      <c r="AE164" s="3"/>
-    </row>
-    <row r="165" spans="1:31" ht="16.5">
+      <c r="V164" s="4"/>
+      <c r="W164" s="5"/>
+      <c r="X164" s="5"/>
+      <c r="Y164" s="5"/>
+      <c r="Z164" s="5"/>
+      <c r="AA164" s="5"/>
+      <c r="AB164" s="5"/>
+      <c r="AC164" s="5"/>
+      <c r="AD164" s="5"/>
+      <c r="AE164" s="5"/>
+      <c r="AF164" s="5"/>
+    </row>
+    <row r="165" spans="1:32" ht="16.5">
       <c r="A165" s="4"/>
-      <c r="B165" s="17"/>
+      <c r="B165" s="18"/>
       <c r="C165" s="4"/>
-      <c r="D165" s="18"/>
+      <c r="D165" s="19"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
-      <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
-      <c r="I165" s="5"/>
-      <c r="J165" s="5"/>
-      <c r="K165" s="4"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="6"/>
+      <c r="I165" s="6"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="6"/>
       <c r="L165" s="4"/>
       <c r="M165" s="4"/>
-      <c r="N165" s="5"/>
-      <c r="O165" s="5"/>
-      <c r="P165" s="5"/>
-      <c r="Q165" s="5"/>
-      <c r="R165" s="17"/>
-      <c r="S165" s="4"/>
+      <c r="N165" s="4"/>
+      <c r="O165" s="6"/>
+      <c r="P165" s="6"/>
+      <c r="Q165" s="6"/>
+      <c r="R165" s="6"/>
+      <c r="S165" s="18"/>
       <c r="T165" s="4"/>
       <c r="U165" s="4"/>
-      <c r="V165" s="3"/>
-      <c r="W165" s="3"/>
-      <c r="X165" s="3"/>
-      <c r="Y165" s="3"/>
-      <c r="Z165" s="3"/>
-      <c r="AA165" s="3"/>
-      <c r="AB165" s="3"/>
-      <c r="AC165" s="3"/>
-      <c r="AD165" s="3"/>
-      <c r="AE165" s="3"/>
-    </row>
-    <row r="166" spans="1:31" ht="16.5">
+      <c r="V165" s="4"/>
+      <c r="W165" s="5"/>
+      <c r="X165" s="5"/>
+      <c r="Y165" s="5"/>
+      <c r="Z165" s="5"/>
+      <c r="AA165" s="5"/>
+      <c r="AB165" s="5"/>
+      <c r="AC165" s="5"/>
+      <c r="AD165" s="5"/>
+      <c r="AE165" s="5"/>
+      <c r="AF165" s="5"/>
+    </row>
+    <row r="166" spans="1:32" ht="16.5">
       <c r="A166" s="4"/>
-      <c r="B166" s="17"/>
+      <c r="B166" s="18"/>
       <c r="C166" s="4"/>
-      <c r="D166" s="18"/>
+      <c r="D166" s="19"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="5"/>
-      <c r="K166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="6"/>
+      <c r="I166" s="6"/>
+      <c r="J166" s="6"/>
+      <c r="K166" s="6"/>
       <c r="L166" s="4"/>
       <c r="M166" s="4"/>
-      <c r="N166" s="5"/>
-      <c r="O166" s="5"/>
-      <c r="P166" s="5"/>
-      <c r="Q166" s="5"/>
-      <c r="R166" s="17"/>
-      <c r="S166" s="4"/>
+      <c r="N166" s="4"/>
+      <c r="O166" s="6"/>
+      <c r="P166" s="6"/>
+      <c r="Q166" s="6"/>
+      <c r="R166" s="6"/>
+      <c r="S166" s="18"/>
       <c r="T166" s="4"/>
       <c r="U166" s="4"/>
-      <c r="V166" s="3"/>
-      <c r="W166" s="3"/>
-      <c r="X166" s="3"/>
-      <c r="Y166" s="3"/>
-      <c r="Z166" s="3"/>
-      <c r="AA166" s="3"/>
-      <c r="AB166" s="3"/>
-      <c r="AC166" s="3"/>
-      <c r="AD166" s="3"/>
-      <c r="AE166" s="3"/>
-    </row>
-    <row r="167" spans="1:31">
+      <c r="V166" s="4"/>
+      <c r="W166" s="5"/>
+      <c r="X166" s="5"/>
+      <c r="Y166" s="5"/>
+      <c r="Z166" s="5"/>
+      <c r="AA166" s="5"/>
+      <c r="AB166" s="5"/>
+      <c r="AC166" s="5"/>
+      <c r="AD166" s="5"/>
+      <c r="AE166" s="5"/>
+      <c r="AF166" s="5"/>
+    </row>
+    <row r="167" spans="1:32">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -6529,18 +6713,19 @@
       <c r="S167" s="4"/>
       <c r="T167" s="4"/>
       <c r="U167" s="4"/>
-      <c r="V167" s="3"/>
-      <c r="W167" s="3"/>
-      <c r="X167" s="3"/>
-      <c r="Y167" s="3"/>
-      <c r="Z167" s="3"/>
-      <c r="AA167" s="3"/>
-      <c r="AB167" s="3"/>
-      <c r="AC167" s="3"/>
-      <c r="AD167" s="3"/>
-      <c r="AE167" s="3"/>
-    </row>
-    <row r="168" spans="1:31">
+      <c r="V167" s="4"/>
+      <c r="W167" s="5"/>
+      <c r="X167" s="5"/>
+      <c r="Y167" s="5"/>
+      <c r="Z167" s="5"/>
+      <c r="AA167" s="5"/>
+      <c r="AB167" s="5"/>
+      <c r="AC167" s="5"/>
+      <c r="AD167" s="5"/>
+      <c r="AE167" s="5"/>
+      <c r="AF167" s="5"/>
+    </row>
+    <row r="168" spans="1:32">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -6562,18 +6747,19 @@
       <c r="S168" s="4"/>
       <c r="T168" s="4"/>
       <c r="U168" s="4"/>
-      <c r="V168" s="3"/>
-      <c r="W168" s="3"/>
-      <c r="X168" s="3"/>
-      <c r="Y168" s="3"/>
-      <c r="Z168" s="3"/>
-      <c r="AA168" s="3"/>
-      <c r="AB168" s="3"/>
-      <c r="AC168" s="3"/>
-      <c r="AD168" s="3"/>
-      <c r="AE168" s="3"/>
-    </row>
-    <row r="169" spans="1:31">
+      <c r="V168" s="4"/>
+      <c r="W168" s="5"/>
+      <c r="X168" s="5"/>
+      <c r="Y168" s="5"/>
+      <c r="Z168" s="5"/>
+      <c r="AA168" s="5"/>
+      <c r="AB168" s="5"/>
+      <c r="AC168" s="5"/>
+      <c r="AD168" s="5"/>
+      <c r="AE168" s="5"/>
+      <c r="AF168" s="5"/>
+    </row>
+    <row r="169" spans="1:32">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -6595,18 +6781,19 @@
       <c r="S169" s="4"/>
       <c r="T169" s="4"/>
       <c r="U169" s="4"/>
-      <c r="V169" s="3"/>
-      <c r="W169" s="3"/>
-      <c r="X169" s="3"/>
-      <c r="Y169" s="3"/>
-      <c r="Z169" s="3"/>
-      <c r="AA169" s="3"/>
-      <c r="AB169" s="3"/>
-      <c r="AC169" s="3"/>
-      <c r="AD169" s="3"/>
-      <c r="AE169" s="3"/>
-    </row>
-    <row r="170" spans="1:31">
+      <c r="V169" s="4"/>
+      <c r="W169" s="5"/>
+      <c r="X169" s="5"/>
+      <c r="Y169" s="5"/>
+      <c r="Z169" s="5"/>
+      <c r="AA169" s="5"/>
+      <c r="AB169" s="5"/>
+      <c r="AC169" s="5"/>
+      <c r="AD169" s="5"/>
+      <c r="AE169" s="5"/>
+      <c r="AF169" s="5"/>
+    </row>
+    <row r="170" spans="1:32">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -6628,18 +6815,19 @@
       <c r="S170" s="4"/>
       <c r="T170" s="4"/>
       <c r="U170" s="4"/>
-      <c r="V170" s="3"/>
-      <c r="W170" s="3"/>
-      <c r="X170" s="3"/>
-      <c r="Y170" s="3"/>
-      <c r="Z170" s="3"/>
-      <c r="AA170" s="3"/>
-      <c r="AB170" s="3"/>
-      <c r="AC170" s="3"/>
-      <c r="AD170" s="3"/>
-      <c r="AE170" s="3"/>
-    </row>
-    <row r="171" spans="1:31">
+      <c r="V170" s="4"/>
+      <c r="W170" s="5"/>
+      <c r="X170" s="5"/>
+      <c r="Y170" s="5"/>
+      <c r="Z170" s="5"/>
+      <c r="AA170" s="5"/>
+      <c r="AB170" s="5"/>
+      <c r="AC170" s="5"/>
+      <c r="AD170" s="5"/>
+      <c r="AE170" s="5"/>
+      <c r="AF170" s="5"/>
+    </row>
+    <row r="171" spans="1:32">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -6661,18 +6849,19 @@
       <c r="S171" s="4"/>
       <c r="T171" s="4"/>
       <c r="U171" s="4"/>
-      <c r="V171" s="3"/>
-      <c r="W171" s="3"/>
-      <c r="X171" s="3"/>
-      <c r="Y171" s="3"/>
-      <c r="Z171" s="3"/>
-      <c r="AA171" s="3"/>
-      <c r="AB171" s="3"/>
-      <c r="AC171" s="3"/>
-      <c r="AD171" s="3"/>
-      <c r="AE171" s="3"/>
-    </row>
-    <row r="172" spans="1:31">
+      <c r="V171" s="4"/>
+      <c r="W171" s="5"/>
+      <c r="X171" s="5"/>
+      <c r="Y171" s="5"/>
+      <c r="Z171" s="5"/>
+      <c r="AA171" s="5"/>
+      <c r="AB171" s="5"/>
+      <c r="AC171" s="5"/>
+      <c r="AD171" s="5"/>
+      <c r="AE171" s="5"/>
+      <c r="AF171" s="5"/>
+    </row>
+    <row r="172" spans="1:32">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -6694,18 +6883,19 @@
       <c r="S172" s="4"/>
       <c r="T172" s="4"/>
       <c r="U172" s="4"/>
-      <c r="V172" s="3"/>
-      <c r="W172" s="3"/>
-      <c r="X172" s="3"/>
-      <c r="Y172" s="3"/>
-      <c r="Z172" s="3"/>
-      <c r="AA172" s="3"/>
-      <c r="AB172" s="3"/>
-      <c r="AC172" s="3"/>
-      <c r="AD172" s="3"/>
-      <c r="AE172" s="3"/>
-    </row>
-    <row r="173" spans="1:31">
+      <c r="V172" s="4"/>
+      <c r="W172" s="5"/>
+      <c r="X172" s="5"/>
+      <c r="Y172" s="5"/>
+      <c r="Z172" s="5"/>
+      <c r="AA172" s="5"/>
+      <c r="AB172" s="5"/>
+      <c r="AC172" s="5"/>
+      <c r="AD172" s="5"/>
+      <c r="AE172" s="5"/>
+      <c r="AF172" s="5"/>
+    </row>
+    <row r="173" spans="1:32">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -6727,18 +6917,19 @@
       <c r="S173" s="4"/>
       <c r="T173" s="4"/>
       <c r="U173" s="4"/>
-      <c r="V173" s="3"/>
-      <c r="W173" s="3"/>
-      <c r="X173" s="3"/>
-      <c r="Y173" s="3"/>
-      <c r="Z173" s="3"/>
-      <c r="AA173" s="3"/>
-      <c r="AB173" s="3"/>
-      <c r="AC173" s="3"/>
-      <c r="AD173" s="3"/>
-      <c r="AE173" s="3"/>
-    </row>
-    <row r="174" spans="1:31">
+      <c r="V173" s="4"/>
+      <c r="W173" s="5"/>
+      <c r="X173" s="5"/>
+      <c r="Y173" s="5"/>
+      <c r="Z173" s="5"/>
+      <c r="AA173" s="5"/>
+      <c r="AB173" s="5"/>
+      <c r="AC173" s="5"/>
+      <c r="AD173" s="5"/>
+      <c r="AE173" s="5"/>
+      <c r="AF173" s="5"/>
+    </row>
+    <row r="174" spans="1:32">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -6760,18 +6951,19 @@
       <c r="S174" s="4"/>
       <c r="T174" s="4"/>
       <c r="U174" s="4"/>
-      <c r="V174" s="3"/>
-      <c r="W174" s="3"/>
-      <c r="X174" s="3"/>
-      <c r="Y174" s="3"/>
-      <c r="Z174" s="3"/>
-      <c r="AA174" s="3"/>
-      <c r="AB174" s="3"/>
-      <c r="AC174" s="3"/>
-      <c r="AD174" s="3"/>
-      <c r="AE174" s="3"/>
-    </row>
-    <row r="175" spans="1:31">
+      <c r="V174" s="4"/>
+      <c r="W174" s="5"/>
+      <c r="X174" s="5"/>
+      <c r="Y174" s="5"/>
+      <c r="Z174" s="5"/>
+      <c r="AA174" s="5"/>
+      <c r="AB174" s="5"/>
+      <c r="AC174" s="5"/>
+      <c r="AD174" s="5"/>
+      <c r="AE174" s="5"/>
+      <c r="AF174" s="5"/>
+    </row>
+    <row r="175" spans="1:32">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -6793,18 +6985,19 @@
       <c r="S175" s="4"/>
       <c r="T175" s="4"/>
       <c r="U175" s="4"/>
-      <c r="V175" s="3"/>
-      <c r="W175" s="3"/>
-      <c r="X175" s="3"/>
-      <c r="Y175" s="3"/>
-      <c r="Z175" s="3"/>
-      <c r="AA175" s="3"/>
-      <c r="AB175" s="3"/>
-      <c r="AC175" s="3"/>
-      <c r="AD175" s="3"/>
-      <c r="AE175" s="3"/>
-    </row>
-    <row r="176" spans="1:31">
+      <c r="V175" s="4"/>
+      <c r="W175" s="5"/>
+      <c r="X175" s="5"/>
+      <c r="Y175" s="5"/>
+      <c r="Z175" s="5"/>
+      <c r="AA175" s="5"/>
+      <c r="AB175" s="5"/>
+      <c r="AC175" s="5"/>
+      <c r="AD175" s="5"/>
+      <c r="AE175" s="5"/>
+      <c r="AF175" s="5"/>
+    </row>
+    <row r="176" spans="1:32">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -6826,18 +7019,19 @@
       <c r="S176" s="4"/>
       <c r="T176" s="4"/>
       <c r="U176" s="4"/>
-      <c r="V176" s="3"/>
-      <c r="W176" s="3"/>
-      <c r="X176" s="3"/>
-      <c r="Y176" s="3"/>
-      <c r="Z176" s="3"/>
-      <c r="AA176" s="3"/>
-      <c r="AB176" s="3"/>
-      <c r="AC176" s="3"/>
-      <c r="AD176" s="3"/>
-      <c r="AE176" s="3"/>
-    </row>
-    <row r="177" spans="1:31">
+      <c r="V176" s="4"/>
+      <c r="W176" s="5"/>
+      <c r="X176" s="5"/>
+      <c r="Y176" s="5"/>
+      <c r="Z176" s="5"/>
+      <c r="AA176" s="5"/>
+      <c r="AB176" s="5"/>
+      <c r="AC176" s="5"/>
+      <c r="AD176" s="5"/>
+      <c r="AE176" s="5"/>
+      <c r="AF176" s="5"/>
+    </row>
+    <row r="177" spans="1:32">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -6859,18 +7053,19 @@
       <c r="S177" s="4"/>
       <c r="T177" s="4"/>
       <c r="U177" s="4"/>
-      <c r="V177" s="3"/>
-      <c r="W177" s="3"/>
-      <c r="X177" s="3"/>
-      <c r="Y177" s="3"/>
-      <c r="Z177" s="3"/>
-      <c r="AA177" s="3"/>
-      <c r="AB177" s="3"/>
-      <c r="AC177" s="3"/>
-      <c r="AD177" s="3"/>
-      <c r="AE177" s="3"/>
-    </row>
-    <row r="178" spans="1:31">
+      <c r="V177" s="4"/>
+      <c r="W177" s="5"/>
+      <c r="X177" s="5"/>
+      <c r="Y177" s="5"/>
+      <c r="Z177" s="5"/>
+      <c r="AA177" s="5"/>
+      <c r="AB177" s="5"/>
+      <c r="AC177" s="5"/>
+      <c r="AD177" s="5"/>
+      <c r="AE177" s="5"/>
+      <c r="AF177" s="5"/>
+    </row>
+    <row r="178" spans="1:32">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -6892,18 +7087,19 @@
       <c r="S178" s="4"/>
       <c r="T178" s="4"/>
       <c r="U178" s="4"/>
-      <c r="V178" s="3"/>
-      <c r="W178" s="3"/>
-      <c r="X178" s="3"/>
-      <c r="Y178" s="3"/>
-      <c r="Z178" s="3"/>
-      <c r="AA178" s="3"/>
-      <c r="AB178" s="3"/>
-      <c r="AC178" s="3"/>
-      <c r="AD178" s="3"/>
-      <c r="AE178" s="3"/>
-    </row>
-    <row r="179" spans="1:31">
+      <c r="V178" s="4"/>
+      <c r="W178" s="5"/>
+      <c r="X178" s="5"/>
+      <c r="Y178" s="5"/>
+      <c r="Z178" s="5"/>
+      <c r="AA178" s="5"/>
+      <c r="AB178" s="5"/>
+      <c r="AC178" s="5"/>
+      <c r="AD178" s="5"/>
+      <c r="AE178" s="5"/>
+      <c r="AF178" s="5"/>
+    </row>
+    <row r="179" spans="1:32">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -6925,18 +7121,19 @@
       <c r="S179" s="4"/>
       <c r="T179" s="4"/>
       <c r="U179" s="4"/>
-      <c r="V179" s="3"/>
-      <c r="W179" s="3"/>
-      <c r="X179" s="3"/>
-      <c r="Y179" s="3"/>
-      <c r="Z179" s="3"/>
-      <c r="AA179" s="3"/>
-      <c r="AB179" s="3"/>
-      <c r="AC179" s="3"/>
-      <c r="AD179" s="3"/>
-      <c r="AE179" s="3"/>
-    </row>
-    <row r="180" spans="1:31">
+      <c r="V179" s="4"/>
+      <c r="W179" s="5"/>
+      <c r="X179" s="5"/>
+      <c r="Y179" s="5"/>
+      <c r="Z179" s="5"/>
+      <c r="AA179" s="5"/>
+      <c r="AB179" s="5"/>
+      <c r="AC179" s="5"/>
+      <c r="AD179" s="5"/>
+      <c r="AE179" s="5"/>
+      <c r="AF179" s="5"/>
+    </row>
+    <row r="180" spans="1:32">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -6958,18 +7155,19 @@
       <c r="S180" s="4"/>
       <c r="T180" s="4"/>
       <c r="U180" s="4"/>
-      <c r="V180" s="3"/>
-      <c r="W180" s="3"/>
-      <c r="X180" s="3"/>
-      <c r="Y180" s="3"/>
-      <c r="Z180" s="3"/>
-      <c r="AA180" s="3"/>
-      <c r="AB180" s="3"/>
-      <c r="AC180" s="3"/>
-      <c r="AD180" s="3"/>
-      <c r="AE180" s="3"/>
-    </row>
-    <row r="181" spans="1:31">
+      <c r="V180" s="4"/>
+      <c r="W180" s="5"/>
+      <c r="X180" s="5"/>
+      <c r="Y180" s="5"/>
+      <c r="Z180" s="5"/>
+      <c r="AA180" s="5"/>
+      <c r="AB180" s="5"/>
+      <c r="AC180" s="5"/>
+      <c r="AD180" s="5"/>
+      <c r="AE180" s="5"/>
+      <c r="AF180" s="5"/>
+    </row>
+    <row r="181" spans="1:32">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -6991,18 +7189,19 @@
       <c r="S181" s="4"/>
       <c r="T181" s="4"/>
       <c r="U181" s="4"/>
-      <c r="V181" s="3"/>
-      <c r="W181" s="3"/>
-      <c r="X181" s="3"/>
-      <c r="Y181" s="3"/>
-      <c r="Z181" s="3"/>
-      <c r="AA181" s="3"/>
-      <c r="AB181" s="3"/>
-      <c r="AC181" s="3"/>
-      <c r="AD181" s="3"/>
-      <c r="AE181" s="3"/>
-    </row>
-    <row r="182" spans="1:31">
+      <c r="V181" s="4"/>
+      <c r="W181" s="5"/>
+      <c r="X181" s="5"/>
+      <c r="Y181" s="5"/>
+      <c r="Z181" s="5"/>
+      <c r="AA181" s="5"/>
+      <c r="AB181" s="5"/>
+      <c r="AC181" s="5"/>
+      <c r="AD181" s="5"/>
+      <c r="AE181" s="5"/>
+      <c r="AF181" s="5"/>
+    </row>
+    <row r="182" spans="1:32">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -7024,18 +7223,19 @@
       <c r="S182" s="4"/>
       <c r="T182" s="4"/>
       <c r="U182" s="4"/>
-      <c r="V182" s="3"/>
-      <c r="W182" s="3"/>
-      <c r="X182" s="3"/>
-      <c r="Y182" s="3"/>
-      <c r="Z182" s="3"/>
-      <c r="AA182" s="3"/>
-      <c r="AB182" s="3"/>
-      <c r="AC182" s="3"/>
-      <c r="AD182" s="3"/>
-      <c r="AE182" s="3"/>
-    </row>
-    <row r="183" spans="1:31">
+      <c r="V182" s="4"/>
+      <c r="W182" s="5"/>
+      <c r="X182" s="5"/>
+      <c r="Y182" s="5"/>
+      <c r="Z182" s="5"/>
+      <c r="AA182" s="5"/>
+      <c r="AB182" s="5"/>
+      <c r="AC182" s="5"/>
+      <c r="AD182" s="5"/>
+      <c r="AE182" s="5"/>
+      <c r="AF182" s="5"/>
+    </row>
+    <row r="183" spans="1:32">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -7057,18 +7257,19 @@
       <c r="S183" s="4"/>
       <c r="T183" s="4"/>
       <c r="U183" s="4"/>
-      <c r="V183" s="3"/>
-      <c r="W183" s="3"/>
-      <c r="X183" s="3"/>
-      <c r="Y183" s="3"/>
-      <c r="Z183" s="3"/>
-      <c r="AA183" s="3"/>
-      <c r="AB183" s="3"/>
-      <c r="AC183" s="3"/>
-      <c r="AD183" s="3"/>
-      <c r="AE183" s="3"/>
-    </row>
-    <row r="184" spans="1:31">
+      <c r="V183" s="4"/>
+      <c r="W183" s="5"/>
+      <c r="X183" s="5"/>
+      <c r="Y183" s="5"/>
+      <c r="Z183" s="5"/>
+      <c r="AA183" s="5"/>
+      <c r="AB183" s="5"/>
+      <c r="AC183" s="5"/>
+      <c r="AD183" s="5"/>
+      <c r="AE183" s="5"/>
+      <c r="AF183" s="5"/>
+    </row>
+    <row r="184" spans="1:32">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -7090,18 +7291,19 @@
       <c r="S184" s="4"/>
       <c r="T184" s="4"/>
       <c r="U184" s="4"/>
-      <c r="V184" s="3"/>
-      <c r="W184" s="3"/>
-      <c r="X184" s="3"/>
-      <c r="Y184" s="3"/>
-      <c r="Z184" s="3"/>
-      <c r="AA184" s="3"/>
-      <c r="AB184" s="3"/>
-      <c r="AC184" s="3"/>
-      <c r="AD184" s="3"/>
-      <c r="AE184" s="3"/>
-    </row>
-    <row r="185" spans="1:31">
+      <c r="V184" s="4"/>
+      <c r="W184" s="5"/>
+      <c r="X184" s="5"/>
+      <c r="Y184" s="5"/>
+      <c r="Z184" s="5"/>
+      <c r="AA184" s="5"/>
+      <c r="AB184" s="5"/>
+      <c r="AC184" s="5"/>
+      <c r="AD184" s="5"/>
+      <c r="AE184" s="5"/>
+      <c r="AF184" s="5"/>
+    </row>
+    <row r="185" spans="1:32">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -7123,18 +7325,19 @@
       <c r="S185" s="4"/>
       <c r="T185" s="4"/>
       <c r="U185" s="4"/>
-      <c r="V185" s="3"/>
-      <c r="W185" s="3"/>
-      <c r="X185" s="3"/>
-      <c r="Y185" s="3"/>
-      <c r="Z185" s="3"/>
-      <c r="AA185" s="3"/>
-      <c r="AB185" s="3"/>
-      <c r="AC185" s="3"/>
-      <c r="AD185" s="3"/>
-      <c r="AE185" s="3"/>
-    </row>
-    <row r="186" spans="1:31">
+      <c r="V185" s="4"/>
+      <c r="W185" s="5"/>
+      <c r="X185" s="5"/>
+      <c r="Y185" s="5"/>
+      <c r="Z185" s="5"/>
+      <c r="AA185" s="5"/>
+      <c r="AB185" s="5"/>
+      <c r="AC185" s="5"/>
+      <c r="AD185" s="5"/>
+      <c r="AE185" s="5"/>
+      <c r="AF185" s="5"/>
+    </row>
+    <row r="186" spans="1:32">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -7156,18 +7359,19 @@
       <c r="S186" s="4"/>
       <c r="T186" s="4"/>
       <c r="U186" s="4"/>
-      <c r="V186" s="3"/>
-      <c r="W186" s="3"/>
-      <c r="X186" s="3"/>
-      <c r="Y186" s="3"/>
-      <c r="Z186" s="3"/>
-      <c r="AA186" s="3"/>
-      <c r="AB186" s="3"/>
-      <c r="AC186" s="3"/>
-      <c r="AD186" s="3"/>
-      <c r="AE186" s="3"/>
-    </row>
-    <row r="187" spans="1:31">
+      <c r="V186" s="4"/>
+      <c r="W186" s="5"/>
+      <c r="X186" s="5"/>
+      <c r="Y186" s="5"/>
+      <c r="Z186" s="5"/>
+      <c r="AA186" s="5"/>
+      <c r="AB186" s="5"/>
+      <c r="AC186" s="5"/>
+      <c r="AD186" s="5"/>
+      <c r="AE186" s="5"/>
+      <c r="AF186" s="5"/>
+    </row>
+    <row r="187" spans="1:32">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -7189,18 +7393,19 @@
       <c r="S187" s="4"/>
       <c r="T187" s="4"/>
       <c r="U187" s="4"/>
-      <c r="V187" s="3"/>
-      <c r="W187" s="3"/>
-      <c r="X187" s="3"/>
-      <c r="Y187" s="3"/>
-      <c r="Z187" s="3"/>
-      <c r="AA187" s="3"/>
-      <c r="AB187" s="3"/>
-      <c r="AC187" s="3"/>
-      <c r="AD187" s="3"/>
-      <c r="AE187" s="3"/>
-    </row>
-    <row r="188" spans="1:31">
+      <c r="V187" s="4"/>
+      <c r="W187" s="5"/>
+      <c r="X187" s="5"/>
+      <c r="Y187" s="5"/>
+      <c r="Z187" s="5"/>
+      <c r="AA187" s="5"/>
+      <c r="AB187" s="5"/>
+      <c r="AC187" s="5"/>
+      <c r="AD187" s="5"/>
+      <c r="AE187" s="5"/>
+      <c r="AF187" s="5"/>
+    </row>
+    <row r="188" spans="1:32">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -7222,18 +7427,19 @@
       <c r="S188" s="4"/>
       <c r="T188" s="4"/>
       <c r="U188" s="4"/>
-      <c r="V188" s="3"/>
-      <c r="W188" s="3"/>
-      <c r="X188" s="3"/>
-      <c r="Y188" s="3"/>
-      <c r="Z188" s="3"/>
-      <c r="AA188" s="3"/>
-      <c r="AB188" s="3"/>
-      <c r="AC188" s="3"/>
-      <c r="AD188" s="3"/>
-      <c r="AE188" s="3"/>
-    </row>
-    <row r="189" spans="1:31">
+      <c r="V188" s="4"/>
+      <c r="W188" s="5"/>
+      <c r="X188" s="5"/>
+      <c r="Y188" s="5"/>
+      <c r="Z188" s="5"/>
+      <c r="AA188" s="5"/>
+      <c r="AB188" s="5"/>
+      <c r="AC188" s="5"/>
+      <c r="AD188" s="5"/>
+      <c r="AE188" s="5"/>
+      <c r="AF188" s="5"/>
+    </row>
+    <row r="189" spans="1:32">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -7255,18 +7461,19 @@
       <c r="S189" s="4"/>
       <c r="T189" s="4"/>
       <c r="U189" s="4"/>
-      <c r="V189" s="3"/>
-      <c r="W189" s="3"/>
-      <c r="X189" s="3"/>
-      <c r="Y189" s="3"/>
-      <c r="Z189" s="3"/>
-      <c r="AA189" s="3"/>
-      <c r="AB189" s="3"/>
-      <c r="AC189" s="3"/>
-      <c r="AD189" s="3"/>
-      <c r="AE189" s="3"/>
-    </row>
-    <row r="190" spans="1:31">
+      <c r="V189" s="4"/>
+      <c r="W189" s="5"/>
+      <c r="X189" s="5"/>
+      <c r="Y189" s="5"/>
+      <c r="Z189" s="5"/>
+      <c r="AA189" s="5"/>
+      <c r="AB189" s="5"/>
+      <c r="AC189" s="5"/>
+      <c r="AD189" s="5"/>
+      <c r="AE189" s="5"/>
+      <c r="AF189" s="5"/>
+    </row>
+    <row r="190" spans="1:32">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -7288,18 +7495,19 @@
       <c r="S190" s="4"/>
       <c r="T190" s="4"/>
       <c r="U190" s="4"/>
-      <c r="V190" s="3"/>
-      <c r="W190" s="3"/>
-      <c r="X190" s="3"/>
-      <c r="Y190" s="3"/>
-      <c r="Z190" s="3"/>
-      <c r="AA190" s="3"/>
-      <c r="AB190" s="3"/>
-      <c r="AC190" s="3"/>
-      <c r="AD190" s="3"/>
-      <c r="AE190" s="3"/>
-    </row>
-    <row r="191" spans="1:31">
+      <c r="V190" s="4"/>
+      <c r="W190" s="5"/>
+      <c r="X190" s="5"/>
+      <c r="Y190" s="5"/>
+      <c r="Z190" s="5"/>
+      <c r="AA190" s="5"/>
+      <c r="AB190" s="5"/>
+      <c r="AC190" s="5"/>
+      <c r="AD190" s="5"/>
+      <c r="AE190" s="5"/>
+      <c r="AF190" s="5"/>
+    </row>
+    <row r="191" spans="1:32">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -7321,18 +7529,19 @@
       <c r="S191" s="4"/>
       <c r="T191" s="4"/>
       <c r="U191" s="4"/>
-      <c r="V191" s="3"/>
-      <c r="W191" s="3"/>
-      <c r="X191" s="3"/>
-      <c r="Y191" s="3"/>
-      <c r="Z191" s="3"/>
-      <c r="AA191" s="3"/>
-      <c r="AB191" s="3"/>
-      <c r="AC191" s="3"/>
-      <c r="AD191" s="3"/>
-      <c r="AE191" s="3"/>
-    </row>
-    <row r="192" spans="1:31">
+      <c r="V191" s="4"/>
+      <c r="W191" s="5"/>
+      <c r="X191" s="5"/>
+      <c r="Y191" s="5"/>
+      <c r="Z191" s="5"/>
+      <c r="AA191" s="5"/>
+      <c r="AB191" s="5"/>
+      <c r="AC191" s="5"/>
+      <c r="AD191" s="5"/>
+      <c r="AE191" s="5"/>
+      <c r="AF191" s="5"/>
+    </row>
+    <row r="192" spans="1:32">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -7354,18 +7563,19 @@
       <c r="S192" s="4"/>
       <c r="T192" s="4"/>
       <c r="U192" s="4"/>
-      <c r="V192" s="3"/>
-      <c r="W192" s="3"/>
-      <c r="X192" s="3"/>
-      <c r="Y192" s="3"/>
-      <c r="Z192" s="3"/>
-      <c r="AA192" s="3"/>
-      <c r="AB192" s="3"/>
-      <c r="AC192" s="3"/>
-      <c r="AD192" s="3"/>
-      <c r="AE192" s="3"/>
-    </row>
-    <row r="193" spans="1:31">
+      <c r="V192" s="4"/>
+      <c r="W192" s="5"/>
+      <c r="X192" s="5"/>
+      <c r="Y192" s="5"/>
+      <c r="Z192" s="5"/>
+      <c r="AA192" s="5"/>
+      <c r="AB192" s="5"/>
+      <c r="AC192" s="5"/>
+      <c r="AD192" s="5"/>
+      <c r="AE192" s="5"/>
+      <c r="AF192" s="5"/>
+    </row>
+    <row r="193" spans="1:32">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -7387,18 +7597,19 @@
       <c r="S193" s="4"/>
       <c r="T193" s="4"/>
       <c r="U193" s="4"/>
-      <c r="V193" s="3"/>
-      <c r="W193" s="3"/>
-      <c r="X193" s="3"/>
-      <c r="Y193" s="3"/>
-      <c r="Z193" s="3"/>
-      <c r="AA193" s="3"/>
-      <c r="AB193" s="3"/>
-      <c r="AC193" s="3"/>
-      <c r="AD193" s="3"/>
-      <c r="AE193" s="3"/>
-    </row>
-    <row r="194" spans="1:31">
+      <c r="V193" s="4"/>
+      <c r="W193" s="5"/>
+      <c r="X193" s="5"/>
+      <c r="Y193" s="5"/>
+      <c r="Z193" s="5"/>
+      <c r="AA193" s="5"/>
+      <c r="AB193" s="5"/>
+      <c r="AC193" s="5"/>
+      <c r="AD193" s="5"/>
+      <c r="AE193" s="5"/>
+      <c r="AF193" s="5"/>
+    </row>
+    <row r="194" spans="1:32">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -7420,18 +7631,19 @@
       <c r="S194" s="4"/>
       <c r="T194" s="4"/>
       <c r="U194" s="4"/>
-      <c r="V194" s="3"/>
-      <c r="W194" s="3"/>
-      <c r="X194" s="3"/>
-      <c r="Y194" s="3"/>
-      <c r="Z194" s="3"/>
-      <c r="AA194" s="3"/>
-      <c r="AB194" s="3"/>
-      <c r="AC194" s="3"/>
-      <c r="AD194" s="3"/>
-      <c r="AE194" s="3"/>
-    </row>
-    <row r="195" spans="1:31">
+      <c r="V194" s="4"/>
+      <c r="W194" s="5"/>
+      <c r="X194" s="5"/>
+      <c r="Y194" s="5"/>
+      <c r="Z194" s="5"/>
+      <c r="AA194" s="5"/>
+      <c r="AB194" s="5"/>
+      <c r="AC194" s="5"/>
+      <c r="AD194" s="5"/>
+      <c r="AE194" s="5"/>
+      <c r="AF194" s="5"/>
+    </row>
+    <row r="195" spans="1:32">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -7453,18 +7665,19 @@
       <c r="S195" s="4"/>
       <c r="T195" s="4"/>
       <c r="U195" s="4"/>
-      <c r="V195" s="3"/>
-      <c r="W195" s="3"/>
-      <c r="X195" s="3"/>
-      <c r="Y195" s="3"/>
-      <c r="Z195" s="3"/>
-      <c r="AA195" s="3"/>
-      <c r="AB195" s="3"/>
-      <c r="AC195" s="3"/>
-      <c r="AD195" s="3"/>
-      <c r="AE195" s="3"/>
-    </row>
-    <row r="196" spans="1:31">
+      <c r="V195" s="4"/>
+      <c r="W195" s="5"/>
+      <c r="X195" s="5"/>
+      <c r="Y195" s="5"/>
+      <c r="Z195" s="5"/>
+      <c r="AA195" s="5"/>
+      <c r="AB195" s="5"/>
+      <c r="AC195" s="5"/>
+      <c r="AD195" s="5"/>
+      <c r="AE195" s="5"/>
+      <c r="AF195" s="5"/>
+    </row>
+    <row r="196" spans="1:32">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -7486,18 +7699,19 @@
       <c r="S196" s="4"/>
       <c r="T196" s="4"/>
       <c r="U196" s="4"/>
-      <c r="V196" s="3"/>
-      <c r="W196" s="3"/>
-      <c r="X196" s="3"/>
-      <c r="Y196" s="3"/>
-      <c r="Z196" s="3"/>
-      <c r="AA196" s="3"/>
-      <c r="AB196" s="3"/>
-      <c r="AC196" s="3"/>
-      <c r="AD196" s="3"/>
-      <c r="AE196" s="3"/>
-    </row>
-    <row r="197" spans="1:31">
+      <c r="V196" s="4"/>
+      <c r="W196" s="5"/>
+      <c r="X196" s="5"/>
+      <c r="Y196" s="5"/>
+      <c r="Z196" s="5"/>
+      <c r="AA196" s="5"/>
+      <c r="AB196" s="5"/>
+      <c r="AC196" s="5"/>
+      <c r="AD196" s="5"/>
+      <c r="AE196" s="5"/>
+      <c r="AF196" s="5"/>
+    </row>
+    <row r="197" spans="1:32">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -7519,18 +7733,19 @@
       <c r="S197" s="4"/>
       <c r="T197" s="4"/>
       <c r="U197" s="4"/>
-      <c r="V197" s="3"/>
-      <c r="W197" s="3"/>
-      <c r="X197" s="3"/>
-      <c r="Y197" s="3"/>
-      <c r="Z197" s="3"/>
-      <c r="AA197" s="3"/>
-      <c r="AB197" s="3"/>
-      <c r="AC197" s="3"/>
-      <c r="AD197" s="3"/>
-      <c r="AE197" s="3"/>
-    </row>
-    <row r="198" spans="1:31">
+      <c r="V197" s="4"/>
+      <c r="W197" s="5"/>
+      <c r="X197" s="5"/>
+      <c r="Y197" s="5"/>
+      <c r="Z197" s="5"/>
+      <c r="AA197" s="5"/>
+      <c r="AB197" s="5"/>
+      <c r="AC197" s="5"/>
+      <c r="AD197" s="5"/>
+      <c r="AE197" s="5"/>
+      <c r="AF197" s="5"/>
+    </row>
+    <row r="198" spans="1:32">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -7552,18 +7767,19 @@
       <c r="S198" s="4"/>
       <c r="T198" s="4"/>
       <c r="U198" s="4"/>
-      <c r="V198" s="3"/>
-      <c r="W198" s="3"/>
-      <c r="X198" s="3"/>
-      <c r="Y198" s="3"/>
-      <c r="Z198" s="3"/>
-      <c r="AA198" s="3"/>
-      <c r="AB198" s="3"/>
-      <c r="AC198" s="3"/>
-      <c r="AD198" s="3"/>
-      <c r="AE198" s="3"/>
-    </row>
-    <row r="199" spans="1:31">
+      <c r="V198" s="4"/>
+      <c r="W198" s="5"/>
+      <c r="X198" s="5"/>
+      <c r="Y198" s="5"/>
+      <c r="Z198" s="5"/>
+      <c r="AA198" s="5"/>
+      <c r="AB198" s="5"/>
+      <c r="AC198" s="5"/>
+      <c r="AD198" s="5"/>
+      <c r="AE198" s="5"/>
+      <c r="AF198" s="5"/>
+    </row>
+    <row r="199" spans="1:32">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -7585,18 +7801,19 @@
       <c r="S199" s="4"/>
       <c r="T199" s="4"/>
       <c r="U199" s="4"/>
-      <c r="V199" s="3"/>
-      <c r="W199" s="3"/>
-      <c r="X199" s="3"/>
-      <c r="Y199" s="3"/>
-      <c r="Z199" s="3"/>
-      <c r="AA199" s="3"/>
-      <c r="AB199" s="3"/>
-      <c r="AC199" s="3"/>
-      <c r="AD199" s="3"/>
-      <c r="AE199" s="3"/>
-    </row>
-    <row r="200" spans="1:31">
+      <c r="V199" s="4"/>
+      <c r="W199" s="5"/>
+      <c r="X199" s="5"/>
+      <c r="Y199" s="5"/>
+      <c r="Z199" s="5"/>
+      <c r="AA199" s="5"/>
+      <c r="AB199" s="5"/>
+      <c r="AC199" s="5"/>
+      <c r="AD199" s="5"/>
+      <c r="AE199" s="5"/>
+      <c r="AF199" s="5"/>
+    </row>
+    <row r="200" spans="1:32">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -7618,16 +7835,17 @@
       <c r="S200" s="4"/>
       <c r="T200" s="4"/>
       <c r="U200" s="4"/>
-      <c r="V200" s="3"/>
-      <c r="W200" s="3"/>
-      <c r="X200" s="3"/>
-      <c r="Y200" s="3"/>
-      <c r="Z200" s="3"/>
-      <c r="AA200" s="3"/>
-      <c r="AB200" s="3"/>
-      <c r="AC200" s="3"/>
-      <c r="AD200" s="3"/>
-      <c r="AE200" s="3"/>
+      <c r="V200" s="4"/>
+      <c r="W200" s="5"/>
+      <c r="X200" s="5"/>
+      <c r="Y200" s="5"/>
+      <c r="Z200" s="5"/>
+      <c r="AA200" s="5"/>
+      <c r="AB200" s="5"/>
+      <c r="AC200" s="5"/>
+      <c r="AD200" s="5"/>
+      <c r="AE200" s="5"/>
+      <c r="AF200" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
@@ -7660,53 +7878,53 @@
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="19" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="19" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="19" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="19" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="20" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="19" t="s">
-        <v>41</v>
+      <c r="A10" s="20" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/TH64_Fujie_UIList.xlsx
+++ b/exe/TSV/Excel/TH64_Fujie_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A669AF4A-0A21-4B82-A595-7B9933B48D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D309FDFE-BCED-491E-B521-649CCC8F9229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8025" yWindow="3975" windowWidth="24165" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6375" yWindow="3630" windowWidth="24165" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH64_藤江駅_UIList" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>配置する画像の種類を選択</t>
@@ -46,6 +47,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>シート内で重複しない名称を指定</t>
@@ -59,6 +61,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>サーバー側名称（未記入で良い）</t>
@@ -72,6 +75,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>親となる画像がある場合に指定
@@ -87,6 +91,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">制御条件に含む転てつ器名称（省略可）
@@ -101,6 +106,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>制御条件に含む転てつ器の定位・反位（省略可）
@@ -115,6 +121,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>操作可能判定に用いる鍵名称</t>
@@ -128,6 +135,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>X座標（幅方向）を指定する</t>
@@ -141,6 +149,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Y座標（高さ方向）を指定する</t>
@@ -154,6 +163,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>画像の幅を指定（省略可）
@@ -168,6 +178,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>画像の高さを指定（省略可）
@@ -182,6 +193,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>画像の回転角度を指定する（省略可）</t>
@@ -195,6 +207,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>回転させる中心点を指定する
@@ -209,6 +222,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>回転させる中心点を指定する
@@ -223,6 +237,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>表示したい文字列を指定
@@ -240,6 +255,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>表示したい文字列のサイズを指定
@@ -257,6 +273,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>背景色を指定
@@ -274,6 +291,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>文字色を指定
@@ -291,6 +309,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>マウスクリック動作を行う場合に設定
@@ -305,6 +324,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Base画像以外の差分用数値（カンマ区切り）
@@ -337,6 +357,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>ImagePattenの中から表示する画像番号を指定</t>
@@ -350,6 +371,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>読み込むBase画像の相対パスを記入
@@ -379,6 +401,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>読み込む画像の相対パスを記入
@@ -411,6 +434,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>備考欄
@@ -558,7 +582,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -618,6 +642,13 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -931,7 +962,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
@@ -1084,7 +1115,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="6">
-        <v>1035</v>
+        <v>1100</v>
       </c>
       <c r="I3" s="6">
         <v>78</v>
@@ -1185,7 +1216,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="6">
         <f>H3+11</f>
-        <v>1046</v>
+        <v>1111</v>
       </c>
       <c r="I5" s="6">
         <f>I3-68</f>

--- a/exe/TSV/Excel/TH64_Fujie_UIList.xlsx
+++ b/exe/TSV/Excel/TH64_Fujie_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D309FDFE-BCED-491E-B521-649CCC8F9229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD597E5C-7452-4A88-BD34-B1AF8D41240C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="3630" windowWidth="24165" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9255" yWindow="4995" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH64_藤江駅_UIList" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>配置する画像の種類を選択</t>
@@ -47,7 +46,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>シート内で重複しない名称を指定</t>
@@ -61,7 +59,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>サーバー側名称（未記入で良い）</t>
@@ -75,7 +72,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>親となる画像がある場合に指定
@@ -91,7 +87,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">制御条件に含む転てつ器名称（省略可）
@@ -106,7 +101,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>制御条件に含む転てつ器の定位・反位（省略可）
@@ -121,10 +115,9 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>操作可能判定に用いる鍵名称</t>
+          <t>てこの種類</t>
         </r>
       </text>
     </comment>
@@ -135,10 +128,9 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>X座標（幅方向）を指定する</t>
+          <t>操作可能判定に用いる鍵名称</t>
         </r>
       </text>
     </comment>
@@ -149,10 +141,9 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Y座標（高さ方向）を指定する</t>
+          <t>この盤以外で連動する場合に指定する駅名</t>
         </r>
       </text>
     </comment>
@@ -163,11 +154,9 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>画像の幅を指定（省略可）
-省略した場合、ImagePathに指定した画像の幅を参照する</t>
+          <t>この盤以外で連動する場合に指定するユニーク名</t>
         </r>
       </text>
     </comment>
@@ -178,11 +167,9 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>画像の高さを指定（省略可）
-省略した場合、ImagePathに指定した画像の高さを参照する</t>
+          <t>X座標（幅方向）を指定する</t>
         </r>
       </text>
     </comment>
@@ -193,10 +180,9 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>画像の回転角度を指定する（省略可）</t>
+          <t>Y座標（高さ方向）を指定する</t>
         </r>
       </text>
     </comment>
@@ -207,11 +193,10 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>回転させる中心点を指定する
-画像の全体幅を1とした0～1の数値で設定</t>
+          <t>画像の幅を指定（省略可）
+省略した場合、ImagePathに指定した画像の幅を参照する</t>
         </r>
       </text>
     </comment>
@@ -222,11 +207,10 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>回転させる中心点を指定する
-画像の全体高さを1とした0～1の数値で設定</t>
+          <t>画像の高さを指定（省略可）
+省略した場合、ImagePathに指定した画像の高さを参照する</t>
         </r>
       </text>
     </comment>
@@ -237,14 +221,9 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>表示したい文字列を指定
-以下のTypeのみ対応
-・Button
-・Label
-・TextBlock</t>
+          <t>画像の回転角度を指定する（省略可）</t>
         </r>
       </text>
     </comment>
@@ -255,14 +234,10 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>表示したい文字列のサイズを指定
-以下のTypeのみ対応
-・Button
-・Label
-・TextBlock</t>
+          <t>回転させる中心点を指定する
+画像の全体幅を1とした0～1の数値で設定</t>
         </r>
       </text>
     </comment>
@@ -273,14 +248,10 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>背景色を指定
-以下のTypeのみ対応
-・Button
-・Label
-・TextBlock</t>
+          <t>回転させる中心点を指定する
+画像の全体高さを1とした0～1の数値で設定</t>
         </r>
       </text>
     </comment>
@@ -291,10 +262,9 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>文字色を指定
+          <t>表示したい文字列を指定
 以下のTypeのみ対応
 ・Button
 ・Label
@@ -309,11 +279,13 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>マウスクリック動作を行う場合に設定
-指定した名称のイベントが発生</t>
+          <t>表示したい文字列のサイズを指定
+以下のTypeのみ対応
+・Button
+・Label
+・TextBlock</t>
         </r>
       </text>
     </comment>
@@ -324,7 +296,54 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>背景色を指定
+以下のTypeのみ対応
+・Button
+・Label
+・TextBlock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>文字色を指定
+以下のTypeのみ対応
+・Button
+・Label
+・TextBlock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>マウスクリック動作を行う場合に設定
+指定した名称のイベントが発生</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
           <t>Base画像以外の差分用数値（カンマ区切り）
@@ -350,28 +369,26 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>ImagePattenの中から表示する画像番号を指定</t>
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>読み込むBase画像の相対パスを記入
@@ -394,14 +411,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>読み込む画像の相対パスを記入
@@ -427,14 +443,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>備考欄
@@ -447,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>Type</t>
   </si>
@@ -467,7 +482,16 @@
     <t>PointValue</t>
   </si>
   <si>
+    <t>LeverType</t>
+  </si>
+  <si>
     <t>KeyName</t>
+  </si>
+  <si>
+    <t>LinkedStationName</t>
+  </si>
+  <si>
+    <t>LinkedUniqueName</t>
   </si>
   <si>
     <t>X</t>
@@ -582,7 +606,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -642,13 +666,6 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -956,27 +973,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AF200"/>
+  <dimension ref="A1:AI200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="21" width="15.140625" customWidth="1"/>
-    <col min="22" max="22" width="37.5703125" customWidth="1"/>
-    <col min="23" max="23" width="100.140625" customWidth="1"/>
-    <col min="24" max="24" width="62.5703125" customWidth="1"/>
-    <col min="25" max="32" width="14.7109375" customWidth="1"/>
+    <col min="3" max="24" width="15.140625" customWidth="1"/>
+    <col min="25" max="25" width="37.5703125" customWidth="1"/>
+    <col min="26" max="26" width="100.140625" customWidth="1"/>
+    <col min="27" max="27" width="62.5703125" customWidth="1"/>
+    <col min="28" max="35" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,42 +1060,51 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
-    </row>
-    <row r="2" spans="1:32">
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="4">
+      <c r="L2" s="4">
         <v>0</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -1089,46 +1115,49 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
-      <c r="W2" s="5" t="s">
-        <v>26</v>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="5" t="s">
+        <v>29</v>
       </c>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
-    </row>
-    <row r="3" spans="1:32">
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+    </row>
+    <row r="3" spans="1:35">
       <c r="A3" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="6">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="6">
         <v>1100</v>
       </c>
-      <c r="I3" s="6">
+      <c r="L3" s="6">
         <v>78</v>
       </c>
-      <c r="J3" s="6">
+      <c r="M3" s="6">
         <v>79</v>
       </c>
-      <c r="K3" s="6">
+      <c r="N3" s="6">
         <v>110</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -1137,48 +1166,51 @@
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
-      <c r="W3" s="8" t="s">
-        <v>29</v>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="8" t="s">
+        <v>32</v>
       </c>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
-    </row>
-    <row r="4" spans="1:32" ht="25.5">
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+    </row>
+    <row r="4" spans="1:35" ht="25.5">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6">
         <v>6</v>
       </c>
-      <c r="I4" s="6">
+      <c r="L4" s="6">
         <v>37</v>
       </c>
-      <c r="J4" s="6">
+      <c r="M4" s="6">
         <v>63</v>
       </c>
-      <c r="K4" s="6">
+      <c r="N4" s="6">
         <v>63</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -1186,45 +1218,48 @@
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="7" t="s">
-        <v>32</v>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7" t="s">
+        <v>35</v>
       </c>
-      <c r="W4" s="8" t="s">
-        <v>33</v>
+      <c r="Z4" s="8" t="s">
+        <v>36</v>
       </c>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
-    </row>
-    <row r="5" spans="1:32">
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+    </row>
+    <row r="5" spans="1:35">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="6">
-        <f>H3+11</f>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="6">
+        <f>K3+11</f>
         <v>1111</v>
       </c>
-      <c r="I5" s="6">
-        <f>I3-68</f>
+      <c r="L5" s="6">
+        <f>L3-68</f>
         <v>10</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -1235,20 +1270,23 @@
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
-      <c r="W5" s="8" t="s">
-        <v>35</v>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="8" t="s">
+        <v>38</v>
       </c>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
+      <c r="AA5" s="7"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
-    </row>
-    <row r="6" spans="1:32">
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+    </row>
+    <row r="6" spans="1:35">
       <c r="A6" s="4"/>
       <c r="B6" s="9"/>
       <c r="C6" s="4"/>
@@ -1256,33 +1294,36 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="12"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+    </row>
+    <row r="7" spans="1:35">
       <c r="A7" s="4"/>
       <c r="B7" s="9"/>
       <c r="C7" s="4"/>
@@ -1290,33 +1331,36 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="12"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
-    </row>
-    <row r="8" spans="1:32">
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+    </row>
+    <row r="8" spans="1:35">
       <c r="A8" s="4"/>
       <c r="B8" s="9"/>
       <c r="C8" s="4"/>
@@ -1324,33 +1368,36 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="12"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
-    </row>
-    <row r="9" spans="1:32">
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+    </row>
+    <row r="9" spans="1:35">
       <c r="A9" s="4"/>
       <c r="B9" s="9"/>
       <c r="C9" s="4"/>
@@ -1358,33 +1405,36 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="12"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
-    </row>
-    <row r="10" spans="1:32">
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+    </row>
+    <row r="10" spans="1:35">
       <c r="A10" s="4"/>
       <c r="B10" s="9"/>
       <c r="C10" s="4"/>
@@ -1392,33 +1442,36 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="12"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
-    </row>
-    <row r="11" spans="1:32">
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+    </row>
+    <row r="11" spans="1:35">
       <c r="A11" s="4"/>
       <c r="B11" s="9"/>
       <c r="C11" s="4"/>
@@ -1426,33 +1479,36 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="12"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
-    </row>
-    <row r="12" spans="1:32">
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+    </row>
+    <row r="12" spans="1:35">
       <c r="A12" s="4"/>
       <c r="B12" s="9"/>
       <c r="C12" s="4"/>
@@ -1460,33 +1516,36 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="12"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+    </row>
+    <row r="13" spans="1:35">
       <c r="A13" s="4"/>
       <c r="B13" s="9"/>
       <c r="C13" s="4"/>
@@ -1494,33 +1553,36 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="13"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="13"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="12"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
-    </row>
-    <row r="14" spans="1:32">
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+    </row>
+    <row r="14" spans="1:35">
       <c r="A14" s="4"/>
       <c r="B14" s="13"/>
       <c r="C14" s="4"/>
@@ -1528,33 +1590,36 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="9"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="9"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="12"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
-    </row>
-    <row r="15" spans="1:32">
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+    </row>
+    <row r="15" spans="1:35">
       <c r="A15" s="4"/>
       <c r="B15" s="13"/>
       <c r="C15" s="4"/>
@@ -1562,33 +1627,36 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="12"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
-    </row>
-    <row r="16" spans="1:32">
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+    </row>
+    <row r="16" spans="1:35">
       <c r="A16" s="4"/>
       <c r="B16" s="9"/>
       <c r="C16" s="4"/>
@@ -1596,33 +1664,36 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="12"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+    </row>
+    <row r="17" spans="1:35">
       <c r="A17" s="4"/>
       <c r="B17" s="9"/>
       <c r="C17" s="4"/>
@@ -1630,33 +1701,36 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="12"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+    </row>
+    <row r="18" spans="1:35">
       <c r="A18" s="4"/>
       <c r="B18" s="9"/>
       <c r="C18" s="4"/>
@@ -1664,33 +1738,36 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="12"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+    </row>
+    <row r="19" spans="1:35">
       <c r="A19" s="4"/>
       <c r="B19" s="9"/>
       <c r="C19" s="4"/>
@@ -1698,33 +1775,36 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="12"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+    </row>
+    <row r="20" spans="1:35">
       <c r="A20" s="4"/>
       <c r="B20" s="9"/>
       <c r="C20" s="4"/>
@@ -1732,33 +1812,36 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="12"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+    </row>
+    <row r="21" spans="1:35">
       <c r="A21" s="4"/>
       <c r="B21" s="9"/>
       <c r="C21" s="4"/>
@@ -1766,33 +1849,36 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="12"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+    </row>
+    <row r="22" spans="1:35">
       <c r="A22" s="4"/>
       <c r="B22" s="9"/>
       <c r="C22" s="4"/>
@@ -1800,33 +1886,36 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="12"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+    </row>
+    <row r="23" spans="1:35">
       <c r="A23" s="4"/>
       <c r="B23" s="13"/>
       <c r="C23" s="4"/>
@@ -1834,33 +1923,36 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="12"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+    </row>
+    <row r="24" spans="1:35">
       <c r="A24" s="4"/>
       <c r="B24" s="13"/>
       <c r="C24" s="4"/>
@@ -1868,33 +1960,36 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="12"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+    </row>
+    <row r="25" spans="1:35">
       <c r="A25" s="4"/>
       <c r="B25" s="9"/>
       <c r="C25" s="4"/>
@@ -1902,33 +1997,36 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="12"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+    </row>
+    <row r="26" spans="1:35">
       <c r="A26" s="4"/>
       <c r="B26" s="9"/>
       <c r="C26" s="4"/>
@@ -1936,33 +2034,36 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="12"/>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+    </row>
+    <row r="27" spans="1:35">
       <c r="A27" s="4"/>
       <c r="B27" s="9"/>
       <c r="C27" s="4"/>
@@ -1970,11 +2071,11 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -1982,21 +2083,24 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="12"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
-    </row>
-    <row r="28" spans="1:32">
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+    </row>
+    <row r="28" spans="1:35">
       <c r="A28" s="4"/>
       <c r="B28" s="9"/>
       <c r="C28" s="4"/>
@@ -2004,11 +2108,11 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="9"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="9"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -2016,21 +2120,24 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="12"/>
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
-    </row>
-    <row r="29" spans="1:32">
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+    </row>
+    <row r="29" spans="1:35">
       <c r="A29" s="4"/>
       <c r="B29" s="9"/>
       <c r="C29" s="4"/>
@@ -2038,33 +2145,36 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="12"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
-    </row>
-    <row r="30" spans="1:32">
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+    </row>
+    <row r="30" spans="1:35">
       <c r="A30" s="4"/>
       <c r="B30" s="9"/>
       <c r="C30" s="4"/>
@@ -2072,11 +2182,11 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -2084,21 +2194,24 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="12"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
-    </row>
-    <row r="31" spans="1:32">
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+    </row>
+    <row r="31" spans="1:35">
       <c r="A31" s="4"/>
       <c r="B31" s="9"/>
       <c r="C31" s="4"/>
@@ -2106,11 +2219,11 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="9"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="9"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -2118,21 +2231,24 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="12"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
-    </row>
-    <row r="32" spans="1:32">
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+    </row>
+    <row r="32" spans="1:35">
       <c r="A32" s="4"/>
       <c r="B32" s="9"/>
       <c r="C32" s="4"/>
@@ -2140,33 +2256,36 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="12"/>
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
-    </row>
-    <row r="33" spans="1:32">
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+    </row>
+    <row r="33" spans="1:35">
       <c r="A33" s="4"/>
       <c r="B33" s="9"/>
       <c r="C33" s="4"/>
@@ -2174,11 +2293,11 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -2186,21 +2305,24 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="12"/>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
-    </row>
-    <row r="34" spans="1:32">
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+    </row>
+    <row r="34" spans="1:35">
       <c r="A34" s="4"/>
       <c r="B34" s="9"/>
       <c r="C34" s="4"/>
@@ -2208,11 +2330,11 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -2220,21 +2342,24 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="12"/>
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
-    </row>
-    <row r="35" spans="1:32">
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+    </row>
+    <row r="35" spans="1:35">
       <c r="A35" s="4"/>
       <c r="B35" s="9"/>
       <c r="C35" s="4"/>
@@ -2242,33 +2367,36 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="12"/>
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
-    </row>
-    <row r="36" spans="1:32">
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+    </row>
+    <row r="36" spans="1:35">
       <c r="A36" s="4"/>
       <c r="B36" s="9"/>
       <c r="C36" s="4"/>
@@ -2276,11 +2404,11 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -2288,21 +2416,24 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="12"/>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
-    </row>
-    <row r="37" spans="1:32">
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+    </row>
+    <row r="37" spans="1:35">
       <c r="A37" s="4"/>
       <c r="B37" s="9"/>
       <c r="C37" s="4"/>
@@ -2310,11 +2441,11 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
@@ -2322,21 +2453,24 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="12"/>
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
       <c r="AF37" s="5"/>
-    </row>
-    <row r="38" spans="1:32">
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+    </row>
+    <row r="38" spans="1:35">
       <c r="A38" s="4"/>
       <c r="B38" s="9"/>
       <c r="C38" s="4"/>
@@ -2344,33 +2478,36 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="12"/>
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
-    </row>
-    <row r="39" spans="1:32">
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+    </row>
+    <row r="39" spans="1:35">
       <c r="A39" s="4"/>
       <c r="B39" s="9"/>
       <c r="C39" s="4"/>
@@ -2378,11 +2515,11 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -2390,21 +2527,24 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="12"/>
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
-    </row>
-    <row r="40" spans="1:32">
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+    </row>
+    <row r="40" spans="1:35">
       <c r="A40" s="4"/>
       <c r="B40" s="9"/>
       <c r="C40" s="4"/>
@@ -2412,11 +2552,11 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
@@ -2424,21 +2564,24 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="12"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="12"/>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
-    </row>
-    <row r="41" spans="1:32">
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+    </row>
+    <row r="41" spans="1:35">
       <c r="A41" s="4"/>
       <c r="B41" s="9"/>
       <c r="C41" s="4"/>
@@ -2446,33 +2589,36 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="12"/>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
-    </row>
-    <row r="42" spans="1:32">
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+    </row>
+    <row r="42" spans="1:35">
       <c r="A42" s="4"/>
       <c r="B42" s="9"/>
       <c r="C42" s="4"/>
@@ -2480,11 +2626,11 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
@@ -2492,21 +2638,24 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="12"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
-    </row>
-    <row r="43" spans="1:32">
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="5"/>
+    </row>
+    <row r="43" spans="1:35">
       <c r="A43" s="4"/>
       <c r="B43" s="9"/>
       <c r="C43" s="4"/>
@@ -2514,11 +2663,11 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
@@ -2526,21 +2675,24 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="12"/>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
-    </row>
-    <row r="44" spans="1:32">
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+    </row>
+    <row r="44" spans="1:35">
       <c r="A44" s="4"/>
       <c r="B44" s="9"/>
       <c r="C44" s="4"/>
@@ -2548,33 +2700,36 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="11"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="12"/>
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
       <c r="AF44" s="5"/>
-    </row>
-    <row r="45" spans="1:32">
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+    </row>
+    <row r="45" spans="1:35">
       <c r="A45" s="4"/>
       <c r="B45" s="9"/>
       <c r="C45" s="4"/>
@@ -2582,11 +2737,11 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
@@ -2594,21 +2749,24 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="12"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="12"/>
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
-    </row>
-    <row r="46" spans="1:32">
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+    </row>
+    <row r="46" spans="1:35">
       <c r="A46" s="4"/>
       <c r="B46" s="9"/>
       <c r="C46" s="4"/>
@@ -2616,33 +2774,36 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="12"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="12"/>
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
       <c r="AE46" s="5"/>
       <c r="AF46" s="5"/>
-    </row>
-    <row r="47" spans="1:32">
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="5"/>
+    </row>
+    <row r="47" spans="1:35">
       <c r="A47" s="4"/>
       <c r="B47" s="9"/>
       <c r="C47" s="4"/>
@@ -2650,11 +2811,11 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
@@ -2662,21 +2823,24 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="12"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="12"/>
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
       <c r="AF47" s="5"/>
-    </row>
-    <row r="48" spans="1:32">
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="5"/>
+    </row>
+    <row r="48" spans="1:35">
       <c r="A48" s="4"/>
       <c r="B48" s="9"/>
       <c r="C48" s="4"/>
@@ -2684,11 +2848,11 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -2696,21 +2860,24 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="12"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="12"/>
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
       <c r="AF48" s="5"/>
-    </row>
-    <row r="49" spans="1:32">
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+    </row>
+    <row r="49" spans="1:35">
       <c r="A49" s="4"/>
       <c r="B49" s="9"/>
       <c r="C49" s="4"/>
@@ -2718,11 +2885,11 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="13"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="13"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
@@ -2730,21 +2897,24 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="12"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="12"/>
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
       <c r="AF49" s="5"/>
-    </row>
-    <row r="50" spans="1:32">
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="5"/>
+    </row>
+    <row r="50" spans="1:35">
       <c r="A50" s="4"/>
       <c r="B50" s="9"/>
       <c r="C50" s="4"/>
@@ -2752,11 +2922,11 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
@@ -2764,21 +2934,24 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="12"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="12"/>
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
-    </row>
-    <row r="51" spans="1:32">
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="5"/>
+      <c r="AI50" s="5"/>
+    </row>
+    <row r="51" spans="1:35">
       <c r="A51" s="4"/>
       <c r="B51" s="9"/>
       <c r="C51" s="4"/>
@@ -2786,11 +2959,11 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
@@ -2798,21 +2971,24 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="11"/>
-      <c r="W51" s="12"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="12"/>
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
-    </row>
-    <row r="52" spans="1:32">
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="5"/>
+      <c r="AI51" s="5"/>
+    </row>
+    <row r="52" spans="1:35">
       <c r="A52" s="4"/>
       <c r="B52" s="9"/>
       <c r="C52" s="4"/>
@@ -2820,11 +2996,11 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -2832,21 +3008,24 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
-      <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="11"/>
-      <c r="W52" s="12"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="12"/>
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
-    </row>
-    <row r="53" spans="1:32">
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="5"/>
+    </row>
+    <row r="53" spans="1:35">
       <c r="A53" s="4"/>
       <c r="B53" s="9"/>
       <c r="C53" s="4"/>
@@ -2854,11 +3033,11 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="13"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="13"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
@@ -2866,21 +3045,24 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="12"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="12"/>
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
-    </row>
-    <row r="54" spans="1:32">
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="5"/>
+      <c r="AI53" s="5"/>
+    </row>
+    <row r="54" spans="1:35">
       <c r="A54" s="4"/>
       <c r="B54" s="9"/>
       <c r="C54" s="4"/>
@@ -2888,11 +3070,11 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
@@ -2900,21 +3082,24 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="11"/>
-      <c r="W54" s="12"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="12"/>
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
       <c r="AF54" s="5"/>
-    </row>
-    <row r="55" spans="1:32">
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="5"/>
+    </row>
+    <row r="55" spans="1:35">
       <c r="A55" s="4"/>
       <c r="B55" s="9"/>
       <c r="C55" s="4"/>
@@ -2922,11 +3107,11 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
@@ -2934,21 +3119,24 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="11"/>
-      <c r="W55" s="12"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="12"/>
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
       <c r="AF55" s="5"/>
-    </row>
-    <row r="56" spans="1:32">
+      <c r="AG55" s="5"/>
+      <c r="AH55" s="5"/>
+      <c r="AI55" s="5"/>
+    </row>
+    <row r="56" spans="1:35">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
       <c r="C56" s="4"/>
@@ -2956,11 +3144,11 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
@@ -2968,21 +3156,24 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="11"/>
-      <c r="W56" s="12"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="12"/>
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
-    </row>
-    <row r="57" spans="1:32">
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="5"/>
+      <c r="AI56" s="5"/>
+    </row>
+    <row r="57" spans="1:35">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
       <c r="C57" s="4"/>
@@ -2990,11 +3181,11 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
@@ -3002,21 +3193,24 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="11"/>
-      <c r="W57" s="12"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="12"/>
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
       <c r="AF57" s="5"/>
-    </row>
-    <row r="58" spans="1:32">
+      <c r="AG57" s="5"/>
+      <c r="AH57" s="5"/>
+      <c r="AI57" s="5"/>
+    </row>
+    <row r="58" spans="1:35">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
       <c r="C58" s="4"/>
@@ -3024,11 +3218,11 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
@@ -3036,21 +3230,24 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="12"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="12"/>
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
       <c r="AD58" s="5"/>
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
-    </row>
-    <row r="59" spans="1:32">
+      <c r="AG58" s="5"/>
+      <c r="AH58" s="5"/>
+      <c r="AI58" s="5"/>
+    </row>
+    <row r="59" spans="1:35">
       <c r="A59" s="4"/>
       <c r="B59" s="9"/>
       <c r="C59" s="4"/>
@@ -3058,11 +3255,11 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
@@ -3070,21 +3267,24 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="11"/>
-      <c r="W59" s="12"/>
-      <c r="X59" s="14"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-      <c r="AA59" s="5"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="12"/>
+      <c r="AA59" s="14"/>
       <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
-    </row>
-    <row r="60" spans="1:32">
+      <c r="AG59" s="5"/>
+      <c r="AH59" s="5"/>
+      <c r="AI59" s="5"/>
+    </row>
+    <row r="60" spans="1:35">
       <c r="A60" s="4"/>
       <c r="B60" s="9"/>
       <c r="C60" s="4"/>
@@ -3092,11 +3292,11 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
@@ -3104,21 +3304,24 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="11"/>
-      <c r="W60" s="12"/>
-      <c r="X60" s="14"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-      <c r="AA60" s="5"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="12"/>
+      <c r="AA60" s="14"/>
       <c r="AB60" s="5"/>
       <c r="AC60" s="5"/>
       <c r="AD60" s="5"/>
       <c r="AE60" s="5"/>
       <c r="AF60" s="5"/>
-    </row>
-    <row r="61" spans="1:32">
+      <c r="AG60" s="5"/>
+      <c r="AH60" s="5"/>
+      <c r="AI60" s="5"/>
+    </row>
+    <row r="61" spans="1:35">
       <c r="A61" s="4"/>
       <c r="B61" s="9"/>
       <c r="C61" s="4"/>
@@ -3126,11 +3329,11 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
@@ -3138,21 +3341,24 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
-      <c r="V61" s="11"/>
-      <c r="W61" s="12"/>
-      <c r="X61" s="14"/>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-      <c r="AA61" s="5"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="11"/>
+      <c r="Z61" s="12"/>
+      <c r="AA61" s="14"/>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
       <c r="AD61" s="5"/>
       <c r="AE61" s="5"/>
       <c r="AF61" s="5"/>
-    </row>
-    <row r="62" spans="1:32">
+      <c r="AG61" s="5"/>
+      <c r="AH61" s="5"/>
+      <c r="AI61" s="5"/>
+    </row>
+    <row r="62" spans="1:35">
       <c r="A62" s="4"/>
       <c r="B62" s="9"/>
       <c r="C62" s="4"/>
@@ -3160,11 +3366,11 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
@@ -3172,21 +3378,24 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
-      <c r="T62" s="10"/>
-      <c r="U62" s="10"/>
-      <c r="V62" s="11"/>
-      <c r="W62" s="12"/>
-      <c r="X62" s="14"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
-      <c r="AA62" s="5"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="11"/>
+      <c r="Z62" s="12"/>
+      <c r="AA62" s="14"/>
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
       <c r="AD62" s="5"/>
       <c r="AE62" s="5"/>
       <c r="AF62" s="5"/>
-    </row>
-    <row r="63" spans="1:32">
+      <c r="AG62" s="5"/>
+      <c r="AH62" s="5"/>
+      <c r="AI62" s="5"/>
+    </row>
+    <row r="63" spans="1:35">
       <c r="A63" s="4"/>
       <c r="B63" s="9"/>
       <c r="C63" s="4"/>
@@ -3194,11 +3403,11 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
@@ -3206,21 +3415,24 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
-      <c r="T63" s="10"/>
-      <c r="U63" s="10"/>
-      <c r="V63" s="11"/>
-      <c r="W63" s="12"/>
-      <c r="X63" s="14"/>
-      <c r="Y63" s="5"/>
-      <c r="Z63" s="5"/>
-      <c r="AA63" s="5"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="11"/>
+      <c r="Z63" s="12"/>
+      <c r="AA63" s="14"/>
       <c r="AB63" s="5"/>
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
       <c r="AE63" s="5"/>
       <c r="AF63" s="5"/>
-    </row>
-    <row r="64" spans="1:32">
+      <c r="AG63" s="5"/>
+      <c r="AH63" s="5"/>
+      <c r="AI63" s="5"/>
+    </row>
+    <row r="64" spans="1:35">
       <c r="A64" s="4"/>
       <c r="B64" s="9"/>
       <c r="C64" s="4"/>
@@ -3228,11 +3440,11 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
@@ -3240,21 +3452,24 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="10"/>
-      <c r="V64" s="11"/>
-      <c r="W64" s="12"/>
-      <c r="X64" s="14"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-      <c r="AA64" s="5"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="12"/>
+      <c r="AA64" s="14"/>
       <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
       <c r="AD64" s="5"/>
       <c r="AE64" s="5"/>
       <c r="AF64" s="5"/>
-    </row>
-    <row r="65" spans="1:32">
+      <c r="AG64" s="5"/>
+      <c r="AH64" s="5"/>
+      <c r="AI64" s="5"/>
+    </row>
+    <row r="65" spans="1:35">
       <c r="A65" s="4"/>
       <c r="B65" s="9"/>
       <c r="C65" s="4"/>
@@ -3262,11 +3477,11 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
@@ -3274,21 +3489,24 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
-      <c r="V65" s="11"/>
-      <c r="W65" s="12"/>
-      <c r="X65" s="14"/>
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
-      <c r="AA65" s="5"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+      <c r="Y65" s="11"/>
+      <c r="Z65" s="12"/>
+      <c r="AA65" s="14"/>
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
       <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
       <c r="AF65" s="5"/>
-    </row>
-    <row r="66" spans="1:32">
+      <c r="AG65" s="5"/>
+      <c r="AH65" s="5"/>
+      <c r="AI65" s="5"/>
+    </row>
+    <row r="66" spans="1:35">
       <c r="A66" s="4"/>
       <c r="B66" s="9"/>
       <c r="C66" s="4"/>
@@ -3296,11 +3514,11 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
@@ -3308,21 +3526,24 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
-      <c r="V66" s="11"/>
-      <c r="W66" s="12"/>
-      <c r="X66" s="14"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-      <c r="AA66" s="5"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
+      <c r="Y66" s="11"/>
+      <c r="Z66" s="12"/>
+      <c r="AA66" s="14"/>
       <c r="AB66" s="5"/>
       <c r="AC66" s="5"/>
       <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
       <c r="AF66" s="5"/>
-    </row>
-    <row r="67" spans="1:32">
+      <c r="AG66" s="5"/>
+      <c r="AH66" s="5"/>
+      <c r="AI66" s="5"/>
+    </row>
+    <row r="67" spans="1:35">
       <c r="A67" s="4"/>
       <c r="B67" s="9"/>
       <c r="C67" s="4"/>
@@ -3330,11 +3551,11 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
@@ -3342,21 +3563,24 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="11"/>
-      <c r="W67" s="12"/>
-      <c r="X67" s="14"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-      <c r="AA67" s="5"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="11"/>
+      <c r="Z67" s="12"/>
+      <c r="AA67" s="14"/>
       <c r="AB67" s="5"/>
       <c r="AC67" s="5"/>
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
       <c r="AF67" s="5"/>
-    </row>
-    <row r="68" spans="1:32">
+      <c r="AG67" s="5"/>
+      <c r="AH67" s="5"/>
+      <c r="AI67" s="5"/>
+    </row>
+    <row r="68" spans="1:35">
       <c r="A68" s="4"/>
       <c r="B68" s="9"/>
       <c r="C68" s="4"/>
@@ -3364,11 +3588,11 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
@@ -3376,21 +3600,24 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="11"/>
-      <c r="W68" s="12"/>
-      <c r="X68" s="14"/>
-      <c r="Y68" s="5"/>
-      <c r="Z68" s="5"/>
-      <c r="AA68" s="5"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+      <c r="Y68" s="11"/>
+      <c r="Z68" s="12"/>
+      <c r="AA68" s="14"/>
       <c r="AB68" s="5"/>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
       <c r="AF68" s="5"/>
-    </row>
-    <row r="69" spans="1:32">
+      <c r="AG68" s="5"/>
+      <c r="AH68" s="5"/>
+      <c r="AI68" s="5"/>
+    </row>
+    <row r="69" spans="1:35">
       <c r="A69" s="4"/>
       <c r="B69" s="9"/>
       <c r="C69" s="4"/>
@@ -3398,11 +3625,11 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
@@ -3410,21 +3637,24 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="10"/>
-      <c r="V69" s="11"/>
-      <c r="W69" s="12"/>
-      <c r="X69" s="14"/>
-      <c r="Y69" s="5"/>
-      <c r="Z69" s="5"/>
-      <c r="AA69" s="5"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="11"/>
+      <c r="Z69" s="12"/>
+      <c r="AA69" s="14"/>
       <c r="AB69" s="5"/>
       <c r="AC69" s="5"/>
       <c r="AD69" s="5"/>
       <c r="AE69" s="5"/>
       <c r="AF69" s="5"/>
-    </row>
-    <row r="70" spans="1:32">
+      <c r="AG69" s="5"/>
+      <c r="AH69" s="5"/>
+      <c r="AI69" s="5"/>
+    </row>
+    <row r="70" spans="1:35">
       <c r="A70" s="4"/>
       <c r="B70" s="9"/>
       <c r="C70" s="4"/>
@@ -3432,11 +3662,11 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
@@ -3444,21 +3674,24 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
-      <c r="T70" s="10"/>
-      <c r="U70" s="10"/>
-      <c r="V70" s="11"/>
-      <c r="W70" s="12"/>
-      <c r="X70" s="14"/>
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
-      <c r="AA70" s="5"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="11"/>
+      <c r="Z70" s="12"/>
+      <c r="AA70" s="14"/>
       <c r="AB70" s="5"/>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
       <c r="AE70" s="5"/>
       <c r="AF70" s="5"/>
-    </row>
-    <row r="71" spans="1:32">
+      <c r="AG70" s="5"/>
+      <c r="AH70" s="5"/>
+      <c r="AI70" s="5"/>
+    </row>
+    <row r="71" spans="1:35">
       <c r="A71" s="4"/>
       <c r="B71" s="9"/>
       <c r="C71" s="4"/>
@@ -3466,11 +3699,11 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
@@ -3478,21 +3711,24 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="10"/>
-      <c r="V71" s="11"/>
-      <c r="W71" s="12"/>
-      <c r="X71" s="14"/>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
-      <c r="AA71" s="5"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="11"/>
+      <c r="Z71" s="12"/>
+      <c r="AA71" s="14"/>
       <c r="AB71" s="5"/>
       <c r="AC71" s="5"/>
       <c r="AD71" s="5"/>
       <c r="AE71" s="5"/>
       <c r="AF71" s="5"/>
-    </row>
-    <row r="72" spans="1:32">
+      <c r="AG71" s="5"/>
+      <c r="AH71" s="5"/>
+      <c r="AI71" s="5"/>
+    </row>
+    <row r="72" spans="1:35">
       <c r="A72" s="4"/>
       <c r="B72" s="9"/>
       <c r="C72" s="4"/>
@@ -3500,11 +3736,11 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
@@ -3512,21 +3748,24 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
-      <c r="T72" s="10"/>
-      <c r="U72" s="10"/>
-      <c r="V72" s="11"/>
-      <c r="W72" s="12"/>
-      <c r="X72" s="14"/>
-      <c r="Y72" s="5"/>
-      <c r="Z72" s="5"/>
-      <c r="AA72" s="5"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="10"/>
+      <c r="Y72" s="11"/>
+      <c r="Z72" s="12"/>
+      <c r="AA72" s="14"/>
       <c r="AB72" s="5"/>
       <c r="AC72" s="5"/>
       <c r="AD72" s="5"/>
       <c r="AE72" s="5"/>
       <c r="AF72" s="5"/>
-    </row>
-    <row r="73" spans="1:32">
+      <c r="AG72" s="5"/>
+      <c r="AH72" s="5"/>
+      <c r="AI72" s="5"/>
+    </row>
+    <row r="73" spans="1:35">
       <c r="A73" s="4"/>
       <c r="B73" s="9"/>
       <c r="C73" s="4"/>
@@ -3534,11 +3773,11 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
@@ -3546,21 +3785,24 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
-      <c r="T73" s="10"/>
-      <c r="U73" s="10"/>
-      <c r="V73" s="11"/>
-      <c r="W73" s="12"/>
-      <c r="X73" s="14"/>
-      <c r="Y73" s="5"/>
-      <c r="Z73" s="5"/>
-      <c r="AA73" s="5"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="10"/>
+      <c r="X73" s="10"/>
+      <c r="Y73" s="11"/>
+      <c r="Z73" s="12"/>
+      <c r="AA73" s="14"/>
       <c r="AB73" s="5"/>
       <c r="AC73" s="5"/>
       <c r="AD73" s="5"/>
       <c r="AE73" s="5"/>
       <c r="AF73" s="5"/>
-    </row>
-    <row r="74" spans="1:32">
+      <c r="AG73" s="5"/>
+      <c r="AH73" s="5"/>
+      <c r="AI73" s="5"/>
+    </row>
+    <row r="74" spans="1:35">
       <c r="A74" s="4"/>
       <c r="B74" s="9"/>
       <c r="C74" s="4"/>
@@ -3568,11 +3810,11 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
@@ -3580,21 +3822,24 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
-      <c r="T74" s="10"/>
-      <c r="U74" s="10"/>
-      <c r="V74" s="11"/>
-      <c r="W74" s="12"/>
-      <c r="X74" s="14"/>
-      <c r="Y74" s="5"/>
-      <c r="Z74" s="5"/>
-      <c r="AA74" s="5"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="11"/>
+      <c r="Z74" s="12"/>
+      <c r="AA74" s="14"/>
       <c r="AB74" s="5"/>
       <c r="AC74" s="5"/>
       <c r="AD74" s="5"/>
       <c r="AE74" s="5"/>
       <c r="AF74" s="5"/>
-    </row>
-    <row r="75" spans="1:32">
+      <c r="AG74" s="5"/>
+      <c r="AH74" s="5"/>
+      <c r="AI74" s="5"/>
+    </row>
+    <row r="75" spans="1:35">
       <c r="A75" s="4"/>
       <c r="B75" s="9"/>
       <c r="C75" s="4"/>
@@ -3602,11 +3847,11 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
@@ -3614,21 +3859,24 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
-      <c r="T75" s="10"/>
-      <c r="U75" s="10"/>
-      <c r="V75" s="11"/>
-      <c r="W75" s="12"/>
-      <c r="X75" s="14"/>
-      <c r="Y75" s="5"/>
-      <c r="Z75" s="5"/>
-      <c r="AA75" s="5"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="11"/>
+      <c r="Z75" s="12"/>
+      <c r="AA75" s="14"/>
       <c r="AB75" s="5"/>
       <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
       <c r="AE75" s="5"/>
       <c r="AF75" s="5"/>
-    </row>
-    <row r="76" spans="1:32">
+      <c r="AG75" s="5"/>
+      <c r="AH75" s="5"/>
+      <c r="AI75" s="5"/>
+    </row>
+    <row r="76" spans="1:35">
       <c r="A76" s="4"/>
       <c r="B76" s="9"/>
       <c r="C76" s="4"/>
@@ -3636,11 +3884,11 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
@@ -3648,21 +3896,24 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
-      <c r="T76" s="10"/>
-      <c r="U76" s="10"/>
-      <c r="V76" s="11"/>
-      <c r="W76" s="12"/>
-      <c r="X76" s="14"/>
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
-      <c r="AA76" s="5"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="10"/>
+      <c r="Y76" s="11"/>
+      <c r="Z76" s="12"/>
+      <c r="AA76" s="14"/>
       <c r="AB76" s="5"/>
       <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
       <c r="AE76" s="5"/>
       <c r="AF76" s="5"/>
-    </row>
-    <row r="77" spans="1:32">
+      <c r="AG76" s="5"/>
+      <c r="AH76" s="5"/>
+      <c r="AI76" s="5"/>
+    </row>
+    <row r="77" spans="1:35">
       <c r="A77" s="4"/>
       <c r="B77" s="9"/>
       <c r="C77" s="4"/>
@@ -3670,11 +3921,11 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
@@ -3682,21 +3933,24 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
-      <c r="T77" s="10"/>
-      <c r="U77" s="10"/>
-      <c r="V77" s="11"/>
-      <c r="W77" s="12"/>
-      <c r="X77" s="14"/>
-      <c r="Y77" s="5"/>
-      <c r="Z77" s="5"/>
-      <c r="AA77" s="5"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="11"/>
+      <c r="Z77" s="12"/>
+      <c r="AA77" s="14"/>
       <c r="AB77" s="5"/>
       <c r="AC77" s="5"/>
       <c r="AD77" s="5"/>
       <c r="AE77" s="5"/>
       <c r="AF77" s="5"/>
-    </row>
-    <row r="78" spans="1:32">
+      <c r="AG77" s="5"/>
+      <c r="AH77" s="5"/>
+      <c r="AI77" s="5"/>
+    </row>
+    <row r="78" spans="1:35">
       <c r="A78" s="4"/>
       <c r="B78" s="9"/>
       <c r="C78" s="4"/>
@@ -3704,11 +3958,11 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
@@ -3716,21 +3970,24 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
-      <c r="T78" s="10"/>
-      <c r="U78" s="10"/>
-      <c r="V78" s="11"/>
-      <c r="W78" s="12"/>
-      <c r="X78" s="14"/>
-      <c r="Y78" s="5"/>
-      <c r="Z78" s="5"/>
-      <c r="AA78" s="5"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="10"/>
+      <c r="X78" s="10"/>
+      <c r="Y78" s="11"/>
+      <c r="Z78" s="12"/>
+      <c r="AA78" s="14"/>
       <c r="AB78" s="5"/>
       <c r="AC78" s="5"/>
       <c r="AD78" s="5"/>
       <c r="AE78" s="5"/>
       <c r="AF78" s="5"/>
-    </row>
-    <row r="79" spans="1:32">
+      <c r="AG78" s="5"/>
+      <c r="AH78" s="5"/>
+      <c r="AI78" s="5"/>
+    </row>
+    <row r="79" spans="1:35">
       <c r="A79" s="4"/>
       <c r="B79" s="9"/>
       <c r="C79" s="4"/>
@@ -3738,11 +3995,11 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
@@ -3750,21 +4007,24 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
-      <c r="T79" s="10"/>
-      <c r="U79" s="10"/>
-      <c r="V79" s="11"/>
-      <c r="W79" s="12"/>
-      <c r="X79" s="14"/>
-      <c r="Y79" s="5"/>
-      <c r="Z79" s="5"/>
-      <c r="AA79" s="5"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="10"/>
+      <c r="X79" s="10"/>
+      <c r="Y79" s="11"/>
+      <c r="Z79" s="12"/>
+      <c r="AA79" s="14"/>
       <c r="AB79" s="5"/>
       <c r="AC79" s="5"/>
       <c r="AD79" s="5"/>
       <c r="AE79" s="5"/>
       <c r="AF79" s="5"/>
-    </row>
-    <row r="80" spans="1:32">
+      <c r="AG79" s="5"/>
+      <c r="AH79" s="5"/>
+      <c r="AI79" s="5"/>
+    </row>
+    <row r="80" spans="1:35">
       <c r="A80" s="4"/>
       <c r="B80" s="9"/>
       <c r="C80" s="4"/>
@@ -3772,11 +4032,11 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
@@ -3784,21 +4044,24 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
-      <c r="T80" s="10"/>
-      <c r="U80" s="10"/>
-      <c r="V80" s="11"/>
-      <c r="W80" s="12"/>
-      <c r="X80" s="14"/>
-      <c r="Y80" s="5"/>
-      <c r="Z80" s="5"/>
-      <c r="AA80" s="5"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="10"/>
+      <c r="X80" s="10"/>
+      <c r="Y80" s="11"/>
+      <c r="Z80" s="12"/>
+      <c r="AA80" s="14"/>
       <c r="AB80" s="5"/>
       <c r="AC80" s="5"/>
       <c r="AD80" s="5"/>
       <c r="AE80" s="5"/>
       <c r="AF80" s="5"/>
-    </row>
-    <row r="81" spans="1:32">
+      <c r="AG80" s="5"/>
+      <c r="AH80" s="5"/>
+      <c r="AI80" s="5"/>
+    </row>
+    <row r="81" spans="1:35">
       <c r="A81" s="4"/>
       <c r="B81" s="9"/>
       <c r="C81" s="4"/>
@@ -3806,11 +4069,11 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
@@ -3818,21 +4081,24 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
-      <c r="T81" s="10"/>
-      <c r="U81" s="10"/>
-      <c r="V81" s="11"/>
-      <c r="W81" s="12"/>
-      <c r="X81" s="14"/>
-      <c r="Y81" s="5"/>
-      <c r="Z81" s="5"/>
-      <c r="AA81" s="5"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="10"/>
+      <c r="X81" s="10"/>
+      <c r="Y81" s="11"/>
+      <c r="Z81" s="12"/>
+      <c r="AA81" s="14"/>
       <c r="AB81" s="5"/>
       <c r="AC81" s="5"/>
       <c r="AD81" s="5"/>
       <c r="AE81" s="5"/>
       <c r="AF81" s="5"/>
-    </row>
-    <row r="82" spans="1:32">
+      <c r="AG81" s="5"/>
+      <c r="AH81" s="5"/>
+      <c r="AI81" s="5"/>
+    </row>
+    <row r="82" spans="1:35">
       <c r="A82" s="4"/>
       <c r="B82" s="9"/>
       <c r="C82" s="4"/>
@@ -3840,11 +4106,11 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
@@ -3852,21 +4118,24 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
-      <c r="T82" s="10"/>
-      <c r="U82" s="10"/>
-      <c r="V82" s="11"/>
-      <c r="W82" s="12"/>
-      <c r="X82" s="14"/>
-      <c r="Y82" s="5"/>
-      <c r="Z82" s="5"/>
-      <c r="AA82" s="5"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="10"/>
+      <c r="X82" s="10"/>
+      <c r="Y82" s="11"/>
+      <c r="Z82" s="12"/>
+      <c r="AA82" s="14"/>
       <c r="AB82" s="5"/>
       <c r="AC82" s="5"/>
       <c r="AD82" s="5"/>
       <c r="AE82" s="5"/>
       <c r="AF82" s="5"/>
-    </row>
-    <row r="83" spans="1:32">
+      <c r="AG82" s="5"/>
+      <c r="AH82" s="5"/>
+      <c r="AI82" s="5"/>
+    </row>
+    <row r="83" spans="1:35">
       <c r="A83" s="4"/>
       <c r="B83" s="9"/>
       <c r="C83" s="4"/>
@@ -3874,11 +4143,11 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
@@ -3886,21 +4155,24 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
-      <c r="T83" s="10"/>
-      <c r="U83" s="10"/>
-      <c r="V83" s="11"/>
-      <c r="W83" s="12"/>
-      <c r="X83" s="14"/>
-      <c r="Y83" s="5"/>
-      <c r="Z83" s="5"/>
-      <c r="AA83" s="5"/>
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="10"/>
+      <c r="X83" s="10"/>
+      <c r="Y83" s="11"/>
+      <c r="Z83" s="12"/>
+      <c r="AA83" s="14"/>
       <c r="AB83" s="5"/>
       <c r="AC83" s="5"/>
       <c r="AD83" s="5"/>
       <c r="AE83" s="5"/>
       <c r="AF83" s="5"/>
-    </row>
-    <row r="84" spans="1:32">
+      <c r="AG83" s="5"/>
+      <c r="AH83" s="5"/>
+      <c r="AI83" s="5"/>
+    </row>
+    <row r="84" spans="1:35">
       <c r="A84" s="4"/>
       <c r="B84" s="9"/>
       <c r="C84" s="4"/>
@@ -3908,11 +4180,11 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
@@ -3920,21 +4192,24 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
       <c r="S84" s="4"/>
-      <c r="T84" s="10"/>
-      <c r="U84" s="10"/>
-      <c r="V84" s="11"/>
-      <c r="W84" s="12"/>
-      <c r="X84" s="14"/>
-      <c r="Y84" s="5"/>
-      <c r="Z84" s="5"/>
-      <c r="AA84" s="5"/>
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="4"/>
+      <c r="W84" s="10"/>
+      <c r="X84" s="10"/>
+      <c r="Y84" s="11"/>
+      <c r="Z84" s="12"/>
+      <c r="AA84" s="14"/>
       <c r="AB84" s="5"/>
       <c r="AC84" s="5"/>
       <c r="AD84" s="5"/>
       <c r="AE84" s="5"/>
       <c r="AF84" s="5"/>
-    </row>
-    <row r="85" spans="1:32">
+      <c r="AG84" s="5"/>
+      <c r="AH84" s="5"/>
+      <c r="AI84" s="5"/>
+    </row>
+    <row r="85" spans="1:35">
       <c r="A85" s="4"/>
       <c r="B85" s="9"/>
       <c r="C85" s="4"/>
@@ -3942,11 +4217,11 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
@@ -3954,21 +4229,24 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
       <c r="S85" s="4"/>
-      <c r="T85" s="10"/>
-      <c r="U85" s="10"/>
-      <c r="V85" s="11"/>
-      <c r="W85" s="12"/>
-      <c r="X85" s="14"/>
-      <c r="Y85" s="5"/>
-      <c r="Z85" s="5"/>
-      <c r="AA85" s="5"/>
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="10"/>
+      <c r="X85" s="10"/>
+      <c r="Y85" s="11"/>
+      <c r="Z85" s="12"/>
+      <c r="AA85" s="14"/>
       <c r="AB85" s="5"/>
       <c r="AC85" s="5"/>
       <c r="AD85" s="5"/>
       <c r="AE85" s="5"/>
       <c r="AF85" s="5"/>
-    </row>
-    <row r="86" spans="1:32">
+      <c r="AG85" s="5"/>
+      <c r="AH85" s="5"/>
+      <c r="AI85" s="5"/>
+    </row>
+    <row r="86" spans="1:35">
       <c r="A86" s="4"/>
       <c r="B86" s="9"/>
       <c r="C86" s="4"/>
@@ -3976,11 +4254,11 @@
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
@@ -3988,21 +4266,24 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
       <c r="S86" s="4"/>
-      <c r="T86" s="10"/>
-      <c r="U86" s="10"/>
-      <c r="V86" s="11"/>
-      <c r="W86" s="12"/>
-      <c r="X86" s="14"/>
-      <c r="Y86" s="5"/>
-      <c r="Z86" s="5"/>
-      <c r="AA86" s="5"/>
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="10"/>
+      <c r="X86" s="10"/>
+      <c r="Y86" s="11"/>
+      <c r="Z86" s="12"/>
+      <c r="AA86" s="14"/>
       <c r="AB86" s="5"/>
       <c r="AC86" s="5"/>
       <c r="AD86" s="5"/>
       <c r="AE86" s="5"/>
       <c r="AF86" s="5"/>
-    </row>
-    <row r="87" spans="1:32">
+      <c r="AG86" s="5"/>
+      <c r="AH86" s="5"/>
+      <c r="AI86" s="5"/>
+    </row>
+    <row r="87" spans="1:35">
       <c r="A87" s="4"/>
       <c r="B87" s="9"/>
       <c r="C87" s="4"/>
@@ -4010,11 +4291,11 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
@@ -4022,21 +4303,24 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
       <c r="S87" s="4"/>
-      <c r="T87" s="10"/>
-      <c r="U87" s="10"/>
-      <c r="V87" s="11"/>
-      <c r="W87" s="12"/>
-      <c r="X87" s="14"/>
-      <c r="Y87" s="5"/>
-      <c r="Z87" s="5"/>
-      <c r="AA87" s="5"/>
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+      <c r="V87" s="4"/>
+      <c r="W87" s="10"/>
+      <c r="X87" s="10"/>
+      <c r="Y87" s="11"/>
+      <c r="Z87" s="12"/>
+      <c r="AA87" s="14"/>
       <c r="AB87" s="5"/>
       <c r="AC87" s="5"/>
       <c r="AD87" s="5"/>
       <c r="AE87" s="5"/>
       <c r="AF87" s="5"/>
-    </row>
-    <row r="88" spans="1:32">
+      <c r="AG87" s="5"/>
+      <c r="AH87" s="5"/>
+      <c r="AI87" s="5"/>
+    </row>
+    <row r="88" spans="1:35">
       <c r="A88" s="4"/>
       <c r="B88" s="9"/>
       <c r="C88" s="4"/>
@@ -4044,11 +4328,11 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
@@ -4056,21 +4340,24 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
       <c r="S88" s="4"/>
-      <c r="T88" s="10"/>
-      <c r="U88" s="10"/>
-      <c r="V88" s="11"/>
-      <c r="W88" s="12"/>
-      <c r="X88" s="14"/>
-      <c r="Y88" s="5"/>
-      <c r="Z88" s="5"/>
-      <c r="AA88" s="5"/>
+      <c r="T88" s="4"/>
+      <c r="U88" s="4"/>
+      <c r="V88" s="4"/>
+      <c r="W88" s="10"/>
+      <c r="X88" s="10"/>
+      <c r="Y88" s="11"/>
+      <c r="Z88" s="12"/>
+      <c r="AA88" s="14"/>
       <c r="AB88" s="5"/>
       <c r="AC88" s="5"/>
       <c r="AD88" s="5"/>
       <c r="AE88" s="5"/>
       <c r="AF88" s="5"/>
-    </row>
-    <row r="89" spans="1:32">
+      <c r="AG88" s="5"/>
+      <c r="AH88" s="5"/>
+      <c r="AI88" s="5"/>
+    </row>
+    <row r="89" spans="1:35">
       <c r="A89" s="4"/>
       <c r="B89" s="9"/>
       <c r="C89" s="4"/>
@@ -4078,11 +4365,11 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
@@ -4090,21 +4377,24 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
       <c r="S89" s="4"/>
-      <c r="T89" s="10"/>
-      <c r="U89" s="10"/>
-      <c r="V89" s="11"/>
-      <c r="W89" s="12"/>
-      <c r="X89" s="14"/>
-      <c r="Y89" s="5"/>
-      <c r="Z89" s="5"/>
-      <c r="AA89" s="5"/>
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="10"/>
+      <c r="X89" s="10"/>
+      <c r="Y89" s="11"/>
+      <c r="Z89" s="12"/>
+      <c r="AA89" s="14"/>
       <c r="AB89" s="5"/>
       <c r="AC89" s="5"/>
       <c r="AD89" s="5"/>
       <c r="AE89" s="5"/>
       <c r="AF89" s="5"/>
-    </row>
-    <row r="90" spans="1:32">
+      <c r="AG89" s="5"/>
+      <c r="AH89" s="5"/>
+      <c r="AI89" s="5"/>
+    </row>
+    <row r="90" spans="1:35">
       <c r="A90" s="4"/>
       <c r="B90" s="9"/>
       <c r="C90" s="4"/>
@@ -4112,11 +4402,11 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
@@ -4124,21 +4414,24 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
       <c r="S90" s="4"/>
-      <c r="T90" s="10"/>
-      <c r="U90" s="10"/>
-      <c r="V90" s="11"/>
-      <c r="W90" s="12"/>
-      <c r="X90" s="14"/>
-      <c r="Y90" s="5"/>
-      <c r="Z90" s="5"/>
-      <c r="AA90" s="5"/>
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+      <c r="V90" s="4"/>
+      <c r="W90" s="10"/>
+      <c r="X90" s="10"/>
+      <c r="Y90" s="11"/>
+      <c r="Z90" s="12"/>
+      <c r="AA90" s="14"/>
       <c r="AB90" s="5"/>
       <c r="AC90" s="5"/>
       <c r="AD90" s="5"/>
       <c r="AE90" s="5"/>
       <c r="AF90" s="5"/>
-    </row>
-    <row r="91" spans="1:32">
+      <c r="AG90" s="5"/>
+      <c r="AH90" s="5"/>
+      <c r="AI90" s="5"/>
+    </row>
+    <row r="91" spans="1:35">
       <c r="A91" s="4"/>
       <c r="B91" s="9"/>
       <c r="C91" s="4"/>
@@ -4146,11 +4439,11 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
@@ -4158,21 +4451,24 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
       <c r="S91" s="4"/>
-      <c r="T91" s="10"/>
-      <c r="U91" s="10"/>
-      <c r="V91" s="11"/>
-      <c r="W91" s="12"/>
-      <c r="X91" s="14"/>
-      <c r="Y91" s="5"/>
-      <c r="Z91" s="5"/>
-      <c r="AA91" s="5"/>
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+      <c r="V91" s="4"/>
+      <c r="W91" s="10"/>
+      <c r="X91" s="10"/>
+      <c r="Y91" s="11"/>
+      <c r="Z91" s="12"/>
+      <c r="AA91" s="14"/>
       <c r="AB91" s="5"/>
       <c r="AC91" s="5"/>
       <c r="AD91" s="5"/>
       <c r="AE91" s="5"/>
       <c r="AF91" s="5"/>
-    </row>
-    <row r="92" spans="1:32">
+      <c r="AG91" s="5"/>
+      <c r="AH91" s="5"/>
+      <c r="AI91" s="5"/>
+    </row>
+    <row r="92" spans="1:35">
       <c r="A92" s="4"/>
       <c r="B92" s="9"/>
       <c r="C92" s="4"/>
@@ -4180,11 +4476,11 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
@@ -4192,21 +4488,24 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
       <c r="S92" s="4"/>
-      <c r="T92" s="10"/>
-      <c r="U92" s="10"/>
-      <c r="V92" s="11"/>
-      <c r="W92" s="12"/>
-      <c r="X92" s="14"/>
-      <c r="Y92" s="5"/>
-      <c r="Z92" s="5"/>
-      <c r="AA92" s="5"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="10"/>
+      <c r="X92" s="10"/>
+      <c r="Y92" s="11"/>
+      <c r="Z92" s="12"/>
+      <c r="AA92" s="14"/>
       <c r="AB92" s="5"/>
       <c r="AC92" s="5"/>
       <c r="AD92" s="5"/>
       <c r="AE92" s="5"/>
       <c r="AF92" s="5"/>
-    </row>
-    <row r="93" spans="1:32">
+      <c r="AG92" s="5"/>
+      <c r="AH92" s="5"/>
+      <c r="AI92" s="5"/>
+    </row>
+    <row r="93" spans="1:35">
       <c r="A93" s="4"/>
       <c r="B93" s="9"/>
       <c r="C93" s="4"/>
@@ -4214,11 +4513,11 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
@@ -4226,21 +4525,24 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
       <c r="S93" s="4"/>
-      <c r="T93" s="10"/>
-      <c r="U93" s="10"/>
-      <c r="V93" s="11"/>
-      <c r="W93" s="12"/>
-      <c r="X93" s="14"/>
-      <c r="Y93" s="5"/>
-      <c r="Z93" s="5"/>
-      <c r="AA93" s="5"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="10"/>
+      <c r="X93" s="10"/>
+      <c r="Y93" s="11"/>
+      <c r="Z93" s="12"/>
+      <c r="AA93" s="14"/>
       <c r="AB93" s="5"/>
       <c r="AC93" s="5"/>
       <c r="AD93" s="5"/>
       <c r="AE93" s="5"/>
       <c r="AF93" s="5"/>
-    </row>
-    <row r="94" spans="1:32">
+      <c r="AG93" s="5"/>
+      <c r="AH93" s="5"/>
+      <c r="AI93" s="5"/>
+    </row>
+    <row r="94" spans="1:35">
       <c r="A94" s="4"/>
       <c r="B94" s="9"/>
       <c r="C94" s="4"/>
@@ -4248,11 +4550,11 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
       <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
@@ -4260,21 +4562,24 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
       <c r="S94" s="4"/>
-      <c r="T94" s="10"/>
-      <c r="U94" s="10"/>
-      <c r="V94" s="11"/>
-      <c r="W94" s="12"/>
-      <c r="X94" s="14"/>
-      <c r="Y94" s="5"/>
-      <c r="Z94" s="5"/>
-      <c r="AA94" s="5"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="4"/>
+      <c r="W94" s="10"/>
+      <c r="X94" s="10"/>
+      <c r="Y94" s="11"/>
+      <c r="Z94" s="12"/>
+      <c r="AA94" s="14"/>
       <c r="AB94" s="5"/>
       <c r="AC94" s="5"/>
       <c r="AD94" s="5"/>
       <c r="AE94" s="5"/>
       <c r="AF94" s="5"/>
-    </row>
-    <row r="95" spans="1:32">
+      <c r="AG94" s="5"/>
+      <c r="AH94" s="5"/>
+      <c r="AI94" s="5"/>
+    </row>
+    <row r="95" spans="1:35">
       <c r="A95" s="4"/>
       <c r="B95" s="9"/>
       <c r="C95" s="4"/>
@@ -4282,11 +4587,11 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
       <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
@@ -4294,21 +4599,24 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
       <c r="S95" s="4"/>
-      <c r="T95" s="10"/>
-      <c r="U95" s="10"/>
-      <c r="V95" s="11"/>
-      <c r="W95" s="12"/>
-      <c r="X95" s="14"/>
-      <c r="Y95" s="5"/>
-      <c r="Z95" s="5"/>
-      <c r="AA95" s="5"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="10"/>
+      <c r="X95" s="10"/>
+      <c r="Y95" s="11"/>
+      <c r="Z95" s="12"/>
+      <c r="AA95" s="14"/>
       <c r="AB95" s="5"/>
       <c r="AC95" s="5"/>
       <c r="AD95" s="5"/>
       <c r="AE95" s="5"/>
       <c r="AF95" s="5"/>
-    </row>
-    <row r="96" spans="1:32">
+      <c r="AG95" s="5"/>
+      <c r="AH95" s="5"/>
+      <c r="AI95" s="5"/>
+    </row>
+    <row r="96" spans="1:35">
       <c r="A96" s="4"/>
       <c r="B96" s="9"/>
       <c r="C96" s="4"/>
@@ -4316,11 +4624,11 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
       <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -4328,21 +4636,24 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
       <c r="S96" s="4"/>
-      <c r="T96" s="10"/>
-      <c r="U96" s="10"/>
-      <c r="V96" s="11"/>
-      <c r="W96" s="12"/>
-      <c r="X96" s="14"/>
-      <c r="Y96" s="5"/>
-      <c r="Z96" s="5"/>
-      <c r="AA96" s="5"/>
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="4"/>
+      <c r="W96" s="10"/>
+      <c r="X96" s="10"/>
+      <c r="Y96" s="11"/>
+      <c r="Z96" s="12"/>
+      <c r="AA96" s="14"/>
       <c r="AB96" s="5"/>
       <c r="AC96" s="5"/>
       <c r="AD96" s="5"/>
       <c r="AE96" s="5"/>
       <c r="AF96" s="5"/>
-    </row>
-    <row r="97" spans="1:32">
+      <c r="AG96" s="5"/>
+      <c r="AH96" s="5"/>
+      <c r="AI96" s="5"/>
+    </row>
+    <row r="97" spans="1:35">
       <c r="A97" s="4"/>
       <c r="B97" s="9"/>
       <c r="C97" s="4"/>
@@ -4350,11 +4661,11 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
@@ -4362,21 +4673,24 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
       <c r="S97" s="4"/>
-      <c r="T97" s="10"/>
-      <c r="U97" s="10"/>
-      <c r="V97" s="11"/>
-      <c r="W97" s="12"/>
-      <c r="X97" s="14"/>
-      <c r="Y97" s="5"/>
-      <c r="Z97" s="5"/>
-      <c r="AA97" s="5"/>
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="10"/>
+      <c r="X97" s="10"/>
+      <c r="Y97" s="11"/>
+      <c r="Z97" s="12"/>
+      <c r="AA97" s="14"/>
       <c r="AB97" s="5"/>
       <c r="AC97" s="5"/>
       <c r="AD97" s="5"/>
       <c r="AE97" s="5"/>
       <c r="AF97" s="5"/>
-    </row>
-    <row r="98" spans="1:32">
+      <c r="AG97" s="5"/>
+      <c r="AH97" s="5"/>
+      <c r="AI97" s="5"/>
+    </row>
+    <row r="98" spans="1:35">
       <c r="A98" s="4"/>
       <c r="B98" s="9"/>
       <c r="C98" s="4"/>
@@ -4384,11 +4698,11 @@
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
       <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
@@ -4396,21 +4710,24 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
-      <c r="T98" s="10"/>
-      <c r="U98" s="10"/>
-      <c r="V98" s="11"/>
-      <c r="W98" s="12"/>
-      <c r="X98" s="14"/>
-      <c r="Y98" s="5"/>
-      <c r="Z98" s="5"/>
-      <c r="AA98" s="5"/>
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+      <c r="V98" s="4"/>
+      <c r="W98" s="10"/>
+      <c r="X98" s="10"/>
+      <c r="Y98" s="11"/>
+      <c r="Z98" s="12"/>
+      <c r="AA98" s="14"/>
       <c r="AB98" s="5"/>
       <c r="AC98" s="5"/>
       <c r="AD98" s="5"/>
       <c r="AE98" s="5"/>
       <c r="AF98" s="5"/>
-    </row>
-    <row r="99" spans="1:32">
+      <c r="AG98" s="5"/>
+      <c r="AH98" s="5"/>
+      <c r="AI98" s="5"/>
+    </row>
+    <row r="99" spans="1:35">
       <c r="A99" s="4"/>
       <c r="B99" s="9"/>
       <c r="C99" s="4"/>
@@ -4418,11 +4735,11 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
       <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
@@ -4430,21 +4747,24 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
       <c r="S99" s="4"/>
-      <c r="T99" s="10"/>
-      <c r="U99" s="10"/>
-      <c r="V99" s="11"/>
-      <c r="W99" s="12"/>
-      <c r="X99" s="14"/>
-      <c r="Y99" s="5"/>
-      <c r="Z99" s="5"/>
-      <c r="AA99" s="5"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="4"/>
+      <c r="W99" s="10"/>
+      <c r="X99" s="10"/>
+      <c r="Y99" s="11"/>
+      <c r="Z99" s="12"/>
+      <c r="AA99" s="14"/>
       <c r="AB99" s="5"/>
       <c r="AC99" s="5"/>
       <c r="AD99" s="5"/>
       <c r="AE99" s="5"/>
       <c r="AF99" s="5"/>
-    </row>
-    <row r="100" spans="1:32">
+      <c r="AG99" s="5"/>
+      <c r="AH99" s="5"/>
+      <c r="AI99" s="5"/>
+    </row>
+    <row r="100" spans="1:35">
       <c r="A100" s="4"/>
       <c r="B100" s="9"/>
       <c r="C100" s="4"/>
@@ -4452,11 +4772,11 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
@@ -4464,21 +4784,24 @@
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
       <c r="S100" s="4"/>
-      <c r="T100" s="10"/>
-      <c r="U100" s="10"/>
-      <c r="V100" s="11"/>
-      <c r="W100" s="12"/>
-      <c r="X100" s="14"/>
-      <c r="Y100" s="5"/>
-      <c r="Z100" s="5"/>
-      <c r="AA100" s="5"/>
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+      <c r="V100" s="4"/>
+      <c r="W100" s="10"/>
+      <c r="X100" s="10"/>
+      <c r="Y100" s="11"/>
+      <c r="Z100" s="12"/>
+      <c r="AA100" s="14"/>
       <c r="AB100" s="5"/>
       <c r="AC100" s="5"/>
       <c r="AD100" s="5"/>
       <c r="AE100" s="5"/>
       <c r="AF100" s="5"/>
-    </row>
-    <row r="101" spans="1:32">
+      <c r="AG100" s="5"/>
+      <c r="AH100" s="5"/>
+      <c r="AI100" s="5"/>
+    </row>
+    <row r="101" spans="1:35">
       <c r="A101" s="4"/>
       <c r="B101" s="9"/>
       <c r="C101" s="4"/>
@@ -4486,11 +4809,11 @@
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
       <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
@@ -4498,21 +4821,24 @@
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
       <c r="S101" s="4"/>
-      <c r="T101" s="10"/>
-      <c r="U101" s="10"/>
-      <c r="V101" s="11"/>
-      <c r="W101" s="12"/>
-      <c r="X101" s="14"/>
-      <c r="Y101" s="5"/>
-      <c r="Z101" s="5"/>
-      <c r="AA101" s="5"/>
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="4"/>
+      <c r="W101" s="10"/>
+      <c r="X101" s="10"/>
+      <c r="Y101" s="11"/>
+      <c r="Z101" s="12"/>
+      <c r="AA101" s="14"/>
       <c r="AB101" s="5"/>
       <c r="AC101" s="5"/>
       <c r="AD101" s="5"/>
       <c r="AE101" s="5"/>
       <c r="AF101" s="5"/>
-    </row>
-    <row r="102" spans="1:32">
+      <c r="AG101" s="5"/>
+      <c r="AH101" s="5"/>
+      <c r="AI101" s="5"/>
+    </row>
+    <row r="102" spans="1:35">
       <c r="A102" s="4"/>
       <c r="B102" s="9"/>
       <c r="C102" s="4"/>
@@ -4520,11 +4846,11 @@
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
       <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
@@ -4532,21 +4858,24 @@
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
       <c r="S102" s="4"/>
-      <c r="T102" s="10"/>
-      <c r="U102" s="10"/>
-      <c r="V102" s="11"/>
-      <c r="W102" s="12"/>
-      <c r="X102" s="14"/>
-      <c r="Y102" s="5"/>
-      <c r="Z102" s="5"/>
-      <c r="AA102" s="5"/>
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="4"/>
+      <c r="W102" s="10"/>
+      <c r="X102" s="10"/>
+      <c r="Y102" s="11"/>
+      <c r="Z102" s="12"/>
+      <c r="AA102" s="14"/>
       <c r="AB102" s="5"/>
       <c r="AC102" s="5"/>
       <c r="AD102" s="5"/>
       <c r="AE102" s="5"/>
       <c r="AF102" s="5"/>
-    </row>
-    <row r="103" spans="1:32">
+      <c r="AG102" s="5"/>
+      <c r="AH102" s="5"/>
+      <c r="AI102" s="5"/>
+    </row>
+    <row r="103" spans="1:35">
       <c r="A103" s="4"/>
       <c r="B103" s="9"/>
       <c r="C103" s="4"/>
@@ -4554,11 +4883,11 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
       <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
@@ -4566,21 +4895,24 @@
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
-      <c r="T103" s="10"/>
-      <c r="U103" s="10"/>
-      <c r="V103" s="11"/>
-      <c r="W103" s="12"/>
-      <c r="X103" s="14"/>
-      <c r="Y103" s="5"/>
-      <c r="Z103" s="5"/>
-      <c r="AA103" s="5"/>
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="4"/>
+      <c r="W103" s="10"/>
+      <c r="X103" s="10"/>
+      <c r="Y103" s="11"/>
+      <c r="Z103" s="12"/>
+      <c r="AA103" s="14"/>
       <c r="AB103" s="5"/>
       <c r="AC103" s="5"/>
       <c r="AD103" s="5"/>
       <c r="AE103" s="5"/>
       <c r="AF103" s="5"/>
-    </row>
-    <row r="104" spans="1:32">
+      <c r="AG103" s="5"/>
+      <c r="AH103" s="5"/>
+      <c r="AI103" s="5"/>
+    </row>
+    <row r="104" spans="1:35">
       <c r="A104" s="4"/>
       <c r="B104" s="9"/>
       <c r="C104" s="4"/>
@@ -4588,11 +4920,11 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
       <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
@@ -4600,21 +4932,24 @@
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
       <c r="S104" s="4"/>
-      <c r="T104" s="10"/>
-      <c r="U104" s="10"/>
-      <c r="V104" s="11"/>
-      <c r="W104" s="12"/>
-      <c r="X104" s="14"/>
-      <c r="Y104" s="5"/>
-      <c r="Z104" s="5"/>
-      <c r="AA104" s="5"/>
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+      <c r="V104" s="4"/>
+      <c r="W104" s="10"/>
+      <c r="X104" s="10"/>
+      <c r="Y104" s="11"/>
+      <c r="Z104" s="12"/>
+      <c r="AA104" s="14"/>
       <c r="AB104" s="5"/>
       <c r="AC104" s="5"/>
       <c r="AD104" s="5"/>
       <c r="AE104" s="5"/>
       <c r="AF104" s="5"/>
-    </row>
-    <row r="105" spans="1:32">
+      <c r="AG104" s="5"/>
+      <c r="AH104" s="5"/>
+      <c r="AI104" s="5"/>
+    </row>
+    <row r="105" spans="1:35">
       <c r="A105" s="4"/>
       <c r="B105" s="9"/>
       <c r="C105" s="4"/>
@@ -4622,11 +4957,11 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
       <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
@@ -4634,21 +4969,24 @@
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
       <c r="S105" s="4"/>
-      <c r="T105" s="10"/>
-      <c r="U105" s="10"/>
-      <c r="V105" s="11"/>
-      <c r="W105" s="12"/>
-      <c r="X105" s="14"/>
-      <c r="Y105" s="5"/>
-      <c r="Z105" s="5"/>
-      <c r="AA105" s="5"/>
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+      <c r="V105" s="4"/>
+      <c r="W105" s="10"/>
+      <c r="X105" s="10"/>
+      <c r="Y105" s="11"/>
+      <c r="Z105" s="12"/>
+      <c r="AA105" s="14"/>
       <c r="AB105" s="5"/>
       <c r="AC105" s="5"/>
       <c r="AD105" s="5"/>
       <c r="AE105" s="5"/>
       <c r="AF105" s="5"/>
-    </row>
-    <row r="106" spans="1:32">
+      <c r="AG105" s="5"/>
+      <c r="AH105" s="5"/>
+      <c r="AI105" s="5"/>
+    </row>
+    <row r="106" spans="1:35">
       <c r="A106" s="4"/>
       <c r="B106" s="9"/>
       <c r="C106" s="4"/>
@@ -4656,11 +4994,11 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
       <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
@@ -4668,21 +5006,24 @@
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
       <c r="S106" s="4"/>
-      <c r="T106" s="10"/>
-      <c r="U106" s="10"/>
-      <c r="V106" s="11"/>
-      <c r="W106" s="12"/>
-      <c r="X106" s="14"/>
-      <c r="Y106" s="5"/>
-      <c r="Z106" s="5"/>
-      <c r="AA106" s="5"/>
+      <c r="T106" s="4"/>
+      <c r="U106" s="4"/>
+      <c r="V106" s="4"/>
+      <c r="W106" s="10"/>
+      <c r="X106" s="10"/>
+      <c r="Y106" s="11"/>
+      <c r="Z106" s="12"/>
+      <c r="AA106" s="14"/>
       <c r="AB106" s="5"/>
       <c r="AC106" s="5"/>
       <c r="AD106" s="5"/>
       <c r="AE106" s="5"/>
       <c r="AF106" s="5"/>
-    </row>
-    <row r="107" spans="1:32">
+      <c r="AG106" s="5"/>
+      <c r="AH106" s="5"/>
+      <c r="AI106" s="5"/>
+    </row>
+    <row r="107" spans="1:35">
       <c r="A107" s="4"/>
       <c r="B107" s="9"/>
       <c r="C107" s="4"/>
@@ -4690,11 +5031,11 @@
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
       <c r="J107" s="4"/>
-      <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
@@ -4702,21 +5043,24 @@
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
       <c r="S107" s="4"/>
-      <c r="T107" s="10"/>
-      <c r="U107" s="10"/>
-      <c r="V107" s="11"/>
-      <c r="W107" s="12"/>
-      <c r="X107" s="14"/>
-      <c r="Y107" s="5"/>
-      <c r="Z107" s="5"/>
-      <c r="AA107" s="5"/>
+      <c r="T107" s="4"/>
+      <c r="U107" s="4"/>
+      <c r="V107" s="4"/>
+      <c r="W107" s="10"/>
+      <c r="X107" s="10"/>
+      <c r="Y107" s="11"/>
+      <c r="Z107" s="12"/>
+      <c r="AA107" s="14"/>
       <c r="AB107" s="5"/>
       <c r="AC107" s="5"/>
       <c r="AD107" s="5"/>
       <c r="AE107" s="5"/>
       <c r="AF107" s="5"/>
-    </row>
-    <row r="108" spans="1:32">
+      <c r="AG107" s="5"/>
+      <c r="AH107" s="5"/>
+      <c r="AI107" s="5"/>
+    </row>
+    <row r="108" spans="1:35">
       <c r="A108" s="4"/>
       <c r="B108" s="9"/>
       <c r="C108" s="15"/>
@@ -4724,11 +5068,11 @@
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
       <c r="G108" s="15"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="9"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
       <c r="J108" s="15"/>
-      <c r="K108" s="15"/>
-      <c r="L108" s="15"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
       <c r="M108" s="15"/>
       <c r="N108" s="15"/>
       <c r="O108" s="15"/>
@@ -4736,21 +5080,24 @@
       <c r="Q108" s="15"/>
       <c r="R108" s="15"/>
       <c r="S108" s="15"/>
-      <c r="T108" s="10"/>
-      <c r="U108" s="10"/>
-      <c r="V108" s="11"/>
-      <c r="W108" s="12"/>
-      <c r="X108" s="14"/>
-      <c r="Y108" s="15"/>
-      <c r="Z108" s="15"/>
-      <c r="AA108" s="15"/>
+      <c r="T108" s="15"/>
+      <c r="U108" s="15"/>
+      <c r="V108" s="15"/>
+      <c r="W108" s="10"/>
+      <c r="X108" s="10"/>
+      <c r="Y108" s="11"/>
+      <c r="Z108" s="12"/>
+      <c r="AA108" s="14"/>
       <c r="AB108" s="15"/>
       <c r="AC108" s="15"/>
       <c r="AD108" s="15"/>
       <c r="AE108" s="15"/>
       <c r="AF108" s="15"/>
-    </row>
-    <row r="109" spans="1:32">
+      <c r="AG108" s="15"/>
+      <c r="AH108" s="15"/>
+      <c r="AI108" s="15"/>
+    </row>
+    <row r="109" spans="1:35">
       <c r="A109" s="4"/>
       <c r="B109" s="9"/>
       <c r="C109" s="15"/>
@@ -4758,11 +5105,11 @@
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
       <c r="G109" s="15"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
       <c r="J109" s="15"/>
-      <c r="K109" s="15"/>
-      <c r="L109" s="15"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
       <c r="M109" s="15"/>
       <c r="N109" s="15"/>
       <c r="O109" s="15"/>
@@ -4770,21 +5117,24 @@
       <c r="Q109" s="15"/>
       <c r="R109" s="15"/>
       <c r="S109" s="15"/>
-      <c r="T109" s="10"/>
-      <c r="U109" s="10"/>
-      <c r="V109" s="11"/>
-      <c r="W109" s="12"/>
-      <c r="X109" s="14"/>
-      <c r="Y109" s="15"/>
-      <c r="Z109" s="15"/>
-      <c r="AA109" s="15"/>
+      <c r="T109" s="15"/>
+      <c r="U109" s="15"/>
+      <c r="V109" s="15"/>
+      <c r="W109" s="10"/>
+      <c r="X109" s="10"/>
+      <c r="Y109" s="11"/>
+      <c r="Z109" s="12"/>
+      <c r="AA109" s="14"/>
       <c r="AB109" s="15"/>
       <c r="AC109" s="15"/>
       <c r="AD109" s="15"/>
       <c r="AE109" s="15"/>
       <c r="AF109" s="15"/>
-    </row>
-    <row r="110" spans="1:32">
+      <c r="AG109" s="15"/>
+      <c r="AH109" s="15"/>
+      <c r="AI109" s="15"/>
+    </row>
+    <row r="110" spans="1:35">
       <c r="A110" s="4"/>
       <c r="B110" s="9"/>
       <c r="C110" s="4"/>
@@ -4792,11 +5142,11 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="9"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
       <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
@@ -4804,21 +5154,24 @@
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
       <c r="S110" s="4"/>
-      <c r="T110" s="10"/>
-      <c r="U110" s="10"/>
-      <c r="V110" s="11"/>
-      <c r="W110" s="12"/>
-      <c r="X110" s="14"/>
-      <c r="Y110" s="5"/>
-      <c r="Z110" s="5"/>
-      <c r="AA110" s="5"/>
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="4"/>
+      <c r="W110" s="10"/>
+      <c r="X110" s="10"/>
+      <c r="Y110" s="11"/>
+      <c r="Z110" s="12"/>
+      <c r="AA110" s="14"/>
       <c r="AB110" s="5"/>
       <c r="AC110" s="5"/>
       <c r="AD110" s="5"/>
       <c r="AE110" s="5"/>
       <c r="AF110" s="5"/>
-    </row>
-    <row r="111" spans="1:32">
+      <c r="AG110" s="5"/>
+      <c r="AH110" s="5"/>
+      <c r="AI110" s="5"/>
+    </row>
+    <row r="111" spans="1:35">
       <c r="A111" s="4"/>
       <c r="B111" s="9"/>
       <c r="C111" s="4"/>
@@ -4826,11 +5179,11 @@
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
       <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
@@ -4838,21 +5191,24 @@
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
       <c r="S111" s="4"/>
-      <c r="T111" s="10"/>
-      <c r="U111" s="10"/>
-      <c r="V111" s="11"/>
-      <c r="W111" s="12"/>
-      <c r="X111" s="14"/>
-      <c r="Y111" s="5"/>
-      <c r="Z111" s="5"/>
-      <c r="AA111" s="5"/>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+      <c r="V111" s="4"/>
+      <c r="W111" s="10"/>
+      <c r="X111" s="10"/>
+      <c r="Y111" s="11"/>
+      <c r="Z111" s="12"/>
+      <c r="AA111" s="14"/>
       <c r="AB111" s="5"/>
       <c r="AC111" s="5"/>
       <c r="AD111" s="5"/>
       <c r="AE111" s="5"/>
       <c r="AF111" s="5"/>
-    </row>
-    <row r="112" spans="1:32">
+      <c r="AG111" s="5"/>
+      <c r="AH111" s="5"/>
+      <c r="AI111" s="5"/>
+    </row>
+    <row r="112" spans="1:35">
       <c r="A112" s="4"/>
       <c r="B112" s="9"/>
       <c r="C112" s="4"/>
@@ -4860,11 +5216,11 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="9"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
       <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
@@ -4872,21 +5228,24 @@
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
       <c r="S112" s="4"/>
-      <c r="T112" s="10"/>
-      <c r="U112" s="10"/>
-      <c r="V112" s="11"/>
-      <c r="W112" s="12"/>
-      <c r="X112" s="14"/>
-      <c r="Y112" s="5"/>
-      <c r="Z112" s="5"/>
-      <c r="AA112" s="5"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="4"/>
+      <c r="W112" s="10"/>
+      <c r="X112" s="10"/>
+      <c r="Y112" s="11"/>
+      <c r="Z112" s="12"/>
+      <c r="AA112" s="14"/>
       <c r="AB112" s="5"/>
       <c r="AC112" s="5"/>
       <c r="AD112" s="5"/>
       <c r="AE112" s="5"/>
       <c r="AF112" s="5"/>
-    </row>
-    <row r="113" spans="1:32">
+      <c r="AG112" s="5"/>
+      <c r="AH112" s="5"/>
+      <c r="AI112" s="5"/>
+    </row>
+    <row r="113" spans="1:35">
       <c r="A113" s="4"/>
       <c r="B113" s="9"/>
       <c r="C113" s="4"/>
@@ -4894,11 +5253,11 @@
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
       <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
@@ -4906,21 +5265,24 @@
       <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
       <c r="S113" s="4"/>
-      <c r="T113" s="10"/>
-      <c r="U113" s="10"/>
-      <c r="V113" s="11"/>
-      <c r="W113" s="12"/>
-      <c r="X113" s="14"/>
-      <c r="Y113" s="5"/>
-      <c r="Z113" s="5"/>
-      <c r="AA113" s="5"/>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="4"/>
+      <c r="W113" s="10"/>
+      <c r="X113" s="10"/>
+      <c r="Y113" s="11"/>
+      <c r="Z113" s="12"/>
+      <c r="AA113" s="14"/>
       <c r="AB113" s="5"/>
       <c r="AC113" s="5"/>
       <c r="AD113" s="5"/>
       <c r="AE113" s="5"/>
       <c r="AF113" s="5"/>
-    </row>
-    <row r="114" spans="1:32">
+      <c r="AG113" s="5"/>
+      <c r="AH113" s="5"/>
+      <c r="AI113" s="5"/>
+    </row>
+    <row r="114" spans="1:35">
       <c r="A114" s="4"/>
       <c r="B114" s="9"/>
       <c r="C114" s="4"/>
@@ -4928,11 +5290,11 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
       <c r="J114" s="4"/>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
@@ -4940,21 +5302,24 @@
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
       <c r="S114" s="4"/>
-      <c r="T114" s="10"/>
-      <c r="U114" s="10"/>
-      <c r="V114" s="11"/>
-      <c r="W114" s="12"/>
-      <c r="X114" s="14"/>
-      <c r="Y114" s="5"/>
-      <c r="Z114" s="5"/>
-      <c r="AA114" s="5"/>
+      <c r="T114" s="4"/>
+      <c r="U114" s="4"/>
+      <c r="V114" s="4"/>
+      <c r="W114" s="10"/>
+      <c r="X114" s="10"/>
+      <c r="Y114" s="11"/>
+      <c r="Z114" s="12"/>
+      <c r="AA114" s="14"/>
       <c r="AB114" s="5"/>
       <c r="AC114" s="5"/>
       <c r="AD114" s="5"/>
       <c r="AE114" s="5"/>
       <c r="AF114" s="5"/>
-    </row>
-    <row r="115" spans="1:32">
+      <c r="AG114" s="5"/>
+      <c r="AH114" s="5"/>
+      <c r="AI114" s="5"/>
+    </row>
+    <row r="115" spans="1:35">
       <c r="A115" s="4"/>
       <c r="B115" s="9"/>
       <c r="C115" s="4"/>
@@ -4962,11 +5327,11 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
       <c r="J115" s="4"/>
-      <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
@@ -4974,21 +5339,24 @@
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
       <c r="S115" s="4"/>
-      <c r="T115" s="10"/>
-      <c r="U115" s="10"/>
-      <c r="V115" s="11"/>
-      <c r="W115" s="12"/>
-      <c r="X115" s="14"/>
-      <c r="Y115" s="5"/>
-      <c r="Z115" s="5"/>
-      <c r="AA115" s="5"/>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="4"/>
+      <c r="W115" s="10"/>
+      <c r="X115" s="10"/>
+      <c r="Y115" s="11"/>
+      <c r="Z115" s="12"/>
+      <c r="AA115" s="14"/>
       <c r="AB115" s="5"/>
       <c r="AC115" s="5"/>
       <c r="AD115" s="5"/>
       <c r="AE115" s="5"/>
       <c r="AF115" s="5"/>
-    </row>
-    <row r="116" spans="1:32">
+      <c r="AG115" s="5"/>
+      <c r="AH115" s="5"/>
+      <c r="AI115" s="5"/>
+    </row>
+    <row r="116" spans="1:35">
       <c r="A116" s="4"/>
       <c r="B116" s="13"/>
       <c r="C116" s="4"/>
@@ -4996,11 +5364,11 @@
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="9"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
       <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
@@ -5008,21 +5376,24 @@
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
       <c r="S116" s="4"/>
-      <c r="T116" s="10"/>
-      <c r="U116" s="10"/>
-      <c r="V116" s="11"/>
-      <c r="W116" s="12"/>
-      <c r="X116" s="14"/>
-      <c r="Y116" s="5"/>
-      <c r="Z116" s="5"/>
-      <c r="AA116" s="5"/>
+      <c r="T116" s="4"/>
+      <c r="U116" s="4"/>
+      <c r="V116" s="4"/>
+      <c r="W116" s="10"/>
+      <c r="X116" s="10"/>
+      <c r="Y116" s="11"/>
+      <c r="Z116" s="12"/>
+      <c r="AA116" s="14"/>
       <c r="AB116" s="5"/>
       <c r="AC116" s="5"/>
       <c r="AD116" s="5"/>
       <c r="AE116" s="5"/>
       <c r="AF116" s="5"/>
-    </row>
-    <row r="117" spans="1:32">
+      <c r="AG116" s="5"/>
+      <c r="AH116" s="5"/>
+      <c r="AI116" s="5"/>
+    </row>
+    <row r="117" spans="1:35">
       <c r="A117" s="4"/>
       <c r="B117" s="9"/>
       <c r="C117" s="4"/>
@@ -5030,11 +5401,11 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="9"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
       <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
@@ -5042,21 +5413,24 @@
       <c r="Q117" s="4"/>
       <c r="R117" s="4"/>
       <c r="S117" s="4"/>
-      <c r="T117" s="10"/>
-      <c r="U117" s="10"/>
-      <c r="V117" s="11"/>
-      <c r="W117" s="12"/>
-      <c r="X117" s="14"/>
-      <c r="Y117" s="5"/>
-      <c r="Z117" s="5"/>
-      <c r="AA117" s="5"/>
+      <c r="T117" s="4"/>
+      <c r="U117" s="4"/>
+      <c r="V117" s="4"/>
+      <c r="W117" s="10"/>
+      <c r="X117" s="10"/>
+      <c r="Y117" s="11"/>
+      <c r="Z117" s="12"/>
+      <c r="AA117" s="14"/>
       <c r="AB117" s="5"/>
       <c r="AC117" s="5"/>
       <c r="AD117" s="5"/>
       <c r="AE117" s="5"/>
       <c r="AF117" s="5"/>
-    </row>
-    <row r="118" spans="1:32">
+      <c r="AG117" s="5"/>
+      <c r="AH117" s="5"/>
+      <c r="AI117" s="5"/>
+    </row>
+    <row r="118" spans="1:35">
       <c r="A118" s="4"/>
       <c r="B118" s="9"/>
       <c r="C118" s="4"/>
@@ -5064,11 +5438,11 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="9"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
       <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
@@ -5076,21 +5450,24 @@
       <c r="Q118" s="4"/>
       <c r="R118" s="4"/>
       <c r="S118" s="4"/>
-      <c r="T118" s="10"/>
-      <c r="U118" s="10"/>
-      <c r="V118" s="11"/>
-      <c r="W118" s="12"/>
-      <c r="X118" s="16"/>
-      <c r="Y118" s="5"/>
-      <c r="Z118" s="5"/>
-      <c r="AA118" s="5"/>
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="4"/>
+      <c r="W118" s="10"/>
+      <c r="X118" s="10"/>
+      <c r="Y118" s="11"/>
+      <c r="Z118" s="12"/>
+      <c r="AA118" s="16"/>
       <c r="AB118" s="5"/>
       <c r="AC118" s="5"/>
       <c r="AD118" s="5"/>
       <c r="AE118" s="5"/>
       <c r="AF118" s="5"/>
-    </row>
-    <row r="119" spans="1:32">
+      <c r="AG118" s="5"/>
+      <c r="AH118" s="5"/>
+      <c r="AI118" s="5"/>
+    </row>
+    <row r="119" spans="1:35">
       <c r="A119" s="4"/>
       <c r="B119" s="9"/>
       <c r="C119" s="4"/>
@@ -5098,11 +5475,11 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="9"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
       <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
@@ -5110,21 +5487,24 @@
       <c r="Q119" s="4"/>
       <c r="R119" s="4"/>
       <c r="S119" s="4"/>
-      <c r="T119" s="10"/>
-      <c r="U119" s="10"/>
-      <c r="V119" s="11"/>
-      <c r="W119" s="12"/>
-      <c r="X119" s="16"/>
-      <c r="Y119" s="5"/>
-      <c r="Z119" s="5"/>
-      <c r="AA119" s="5"/>
+      <c r="T119" s="4"/>
+      <c r="U119" s="4"/>
+      <c r="V119" s="4"/>
+      <c r="W119" s="10"/>
+      <c r="X119" s="10"/>
+      <c r="Y119" s="11"/>
+      <c r="Z119" s="12"/>
+      <c r="AA119" s="16"/>
       <c r="AB119" s="5"/>
       <c r="AC119" s="5"/>
       <c r="AD119" s="5"/>
       <c r="AE119" s="5"/>
       <c r="AF119" s="5"/>
-    </row>
-    <row r="120" spans="1:32">
+      <c r="AG119" s="5"/>
+      <c r="AH119" s="5"/>
+      <c r="AI119" s="5"/>
+    </row>
+    <row r="120" spans="1:35">
       <c r="A120" s="4"/>
       <c r="B120" s="9"/>
       <c r="C120" s="4"/>
@@ -5132,11 +5512,11 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="9"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
       <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
@@ -5144,21 +5524,24 @@
       <c r="Q120" s="4"/>
       <c r="R120" s="4"/>
       <c r="S120" s="4"/>
-      <c r="T120" s="10"/>
-      <c r="U120" s="10"/>
-      <c r="V120" s="11"/>
-      <c r="W120" s="12"/>
-      <c r="X120" s="16"/>
-      <c r="Y120" s="5"/>
-      <c r="Z120" s="5"/>
-      <c r="AA120" s="5"/>
+      <c r="T120" s="4"/>
+      <c r="U120" s="4"/>
+      <c r="V120" s="4"/>
+      <c r="W120" s="10"/>
+      <c r="X120" s="10"/>
+      <c r="Y120" s="11"/>
+      <c r="Z120" s="12"/>
+      <c r="AA120" s="16"/>
       <c r="AB120" s="5"/>
       <c r="AC120" s="5"/>
       <c r="AD120" s="5"/>
       <c r="AE120" s="5"/>
       <c r="AF120" s="5"/>
-    </row>
-    <row r="121" spans="1:32">
+      <c r="AG120" s="5"/>
+      <c r="AH120" s="5"/>
+      <c r="AI120" s="5"/>
+    </row>
+    <row r="121" spans="1:35">
       <c r="A121" s="4"/>
       <c r="B121" s="9"/>
       <c r="C121" s="4"/>
@@ -5166,11 +5549,11 @@
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="9"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
       <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
@@ -5178,21 +5561,24 @@
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
       <c r="S121" s="4"/>
-      <c r="T121" s="10"/>
-      <c r="U121" s="10"/>
-      <c r="V121" s="11"/>
-      <c r="W121" s="12"/>
-      <c r="X121" s="16"/>
-      <c r="Y121" s="5"/>
-      <c r="Z121" s="5"/>
-      <c r="AA121" s="5"/>
+      <c r="T121" s="4"/>
+      <c r="U121" s="4"/>
+      <c r="V121" s="4"/>
+      <c r="W121" s="10"/>
+      <c r="X121" s="10"/>
+      <c r="Y121" s="11"/>
+      <c r="Z121" s="12"/>
+      <c r="AA121" s="16"/>
       <c r="AB121" s="5"/>
       <c r="AC121" s="5"/>
       <c r="AD121" s="5"/>
       <c r="AE121" s="5"/>
       <c r="AF121" s="5"/>
-    </row>
-    <row r="122" spans="1:32">
+      <c r="AG121" s="5"/>
+      <c r="AH121" s="5"/>
+      <c r="AI121" s="5"/>
+    </row>
+    <row r="122" spans="1:35">
       <c r="A122" s="4"/>
       <c r="B122" s="9"/>
       <c r="C122" s="4"/>
@@ -5200,11 +5586,11 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="9"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
       <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
@@ -5212,21 +5598,24 @@
       <c r="Q122" s="4"/>
       <c r="R122" s="4"/>
       <c r="S122" s="4"/>
-      <c r="T122" s="10"/>
-      <c r="U122" s="10"/>
-      <c r="V122" s="11"/>
-      <c r="W122" s="12"/>
-      <c r="X122" s="14"/>
-      <c r="Y122" s="5"/>
-      <c r="Z122" s="5"/>
-      <c r="AA122" s="5"/>
+      <c r="T122" s="4"/>
+      <c r="U122" s="4"/>
+      <c r="V122" s="4"/>
+      <c r="W122" s="10"/>
+      <c r="X122" s="10"/>
+      <c r="Y122" s="11"/>
+      <c r="Z122" s="12"/>
+      <c r="AA122" s="14"/>
       <c r="AB122" s="5"/>
       <c r="AC122" s="5"/>
       <c r="AD122" s="5"/>
       <c r="AE122" s="5"/>
       <c r="AF122" s="5"/>
-    </row>
-    <row r="123" spans="1:32">
+      <c r="AG122" s="5"/>
+      <c r="AH122" s="5"/>
+      <c r="AI122" s="5"/>
+    </row>
+    <row r="123" spans="1:35">
       <c r="A123" s="4"/>
       <c r="B123" s="9"/>
       <c r="C123" s="4"/>
@@ -5234,11 +5623,11 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="9"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
       <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
@@ -5246,21 +5635,24 @@
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
       <c r="S123" s="4"/>
-      <c r="T123" s="10"/>
-      <c r="U123" s="10"/>
-      <c r="V123" s="11"/>
-      <c r="W123" s="12"/>
-      <c r="X123" s="14"/>
-      <c r="Y123" s="5"/>
-      <c r="Z123" s="5"/>
-      <c r="AA123" s="5"/>
+      <c r="T123" s="4"/>
+      <c r="U123" s="4"/>
+      <c r="V123" s="4"/>
+      <c r="W123" s="10"/>
+      <c r="X123" s="10"/>
+      <c r="Y123" s="11"/>
+      <c r="Z123" s="12"/>
+      <c r="AA123" s="14"/>
       <c r="AB123" s="5"/>
       <c r="AC123" s="5"/>
       <c r="AD123" s="5"/>
       <c r="AE123" s="5"/>
       <c r="AF123" s="5"/>
-    </row>
-    <row r="124" spans="1:32">
+      <c r="AG123" s="5"/>
+      <c r="AH123" s="5"/>
+      <c r="AI123" s="5"/>
+    </row>
+    <row r="124" spans="1:35">
       <c r="A124" s="4"/>
       <c r="B124" s="9"/>
       <c r="C124" s="4"/>
@@ -5268,11 +5660,11 @@
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="9"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
       <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
@@ -5280,21 +5672,24 @@
       <c r="Q124" s="4"/>
       <c r="R124" s="4"/>
       <c r="S124" s="4"/>
-      <c r="T124" s="10"/>
-      <c r="U124" s="10"/>
-      <c r="V124" s="11"/>
-      <c r="W124" s="12"/>
-      <c r="X124" s="14"/>
-      <c r="Y124" s="5"/>
-      <c r="Z124" s="5"/>
-      <c r="AA124" s="5"/>
+      <c r="T124" s="4"/>
+      <c r="U124" s="4"/>
+      <c r="V124" s="4"/>
+      <c r="W124" s="10"/>
+      <c r="X124" s="10"/>
+      <c r="Y124" s="11"/>
+      <c r="Z124" s="12"/>
+      <c r="AA124" s="14"/>
       <c r="AB124" s="5"/>
       <c r="AC124" s="5"/>
       <c r="AD124" s="5"/>
       <c r="AE124" s="5"/>
       <c r="AF124" s="5"/>
-    </row>
-    <row r="125" spans="1:32">
+      <c r="AG124" s="5"/>
+      <c r="AH124" s="5"/>
+      <c r="AI124" s="5"/>
+    </row>
+    <row r="125" spans="1:35">
       <c r="A125" s="4"/>
       <c r="B125" s="9"/>
       <c r="C125" s="4"/>
@@ -5302,11 +5697,11 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="9"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
       <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
@@ -5314,21 +5709,24 @@
       <c r="Q125" s="4"/>
       <c r="R125" s="4"/>
       <c r="S125" s="4"/>
-      <c r="T125" s="10"/>
-      <c r="U125" s="10"/>
-      <c r="V125" s="11"/>
-      <c r="W125" s="12"/>
-      <c r="X125" s="14"/>
-      <c r="Y125" s="5"/>
-      <c r="Z125" s="5"/>
-      <c r="AA125" s="5"/>
+      <c r="T125" s="4"/>
+      <c r="U125" s="4"/>
+      <c r="V125" s="4"/>
+      <c r="W125" s="10"/>
+      <c r="X125" s="10"/>
+      <c r="Y125" s="11"/>
+      <c r="Z125" s="12"/>
+      <c r="AA125" s="14"/>
       <c r="AB125" s="5"/>
       <c r="AC125" s="5"/>
       <c r="AD125" s="5"/>
       <c r="AE125" s="5"/>
       <c r="AF125" s="5"/>
-    </row>
-    <row r="126" spans="1:32">
+      <c r="AG125" s="5"/>
+      <c r="AH125" s="5"/>
+      <c r="AI125" s="5"/>
+    </row>
+    <row r="126" spans="1:35">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -5336,11 +5734,11 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="9"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
       <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
@@ -5348,21 +5746,24 @@
       <c r="Q126" s="4"/>
       <c r="R126" s="4"/>
       <c r="S126" s="4"/>
-      <c r="T126" s="10"/>
-      <c r="U126" s="10"/>
-      <c r="V126" s="11"/>
-      <c r="W126" s="12"/>
-      <c r="X126" s="5"/>
-      <c r="Y126" s="5"/>
-      <c r="Z126" s="5"/>
+      <c r="T126" s="4"/>
+      <c r="U126" s="4"/>
+      <c r="V126" s="4"/>
+      <c r="W126" s="10"/>
+      <c r="X126" s="10"/>
+      <c r="Y126" s="11"/>
+      <c r="Z126" s="12"/>
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
       <c r="AC126" s="5"/>
       <c r="AD126" s="5"/>
       <c r="AE126" s="5"/>
       <c r="AF126" s="5"/>
-    </row>
-    <row r="127" spans="1:32">
+      <c r="AG126" s="5"/>
+      <c r="AH126" s="5"/>
+      <c r="AI126" s="5"/>
+    </row>
+    <row r="127" spans="1:35">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -5370,11 +5771,11 @@
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="9"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
       <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
@@ -5382,21 +5783,24 @@
       <c r="Q127" s="4"/>
       <c r="R127" s="4"/>
       <c r="S127" s="4"/>
-      <c r="T127" s="10"/>
-      <c r="U127" s="10"/>
-      <c r="V127" s="11"/>
-      <c r="W127" s="12"/>
-      <c r="X127" s="5"/>
-      <c r="Y127" s="5"/>
-      <c r="Z127" s="5"/>
+      <c r="T127" s="4"/>
+      <c r="U127" s="4"/>
+      <c r="V127" s="4"/>
+      <c r="W127" s="10"/>
+      <c r="X127" s="10"/>
+      <c r="Y127" s="11"/>
+      <c r="Z127" s="12"/>
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
       <c r="AC127" s="5"/>
       <c r="AD127" s="5"/>
       <c r="AE127" s="5"/>
       <c r="AF127" s="5"/>
-    </row>
-    <row r="128" spans="1:32">
+      <c r="AG127" s="5"/>
+      <c r="AH127" s="5"/>
+      <c r="AI127" s="5"/>
+    </row>
+    <row r="128" spans="1:35">
       <c r="A128" s="4"/>
       <c r="B128" s="9"/>
       <c r="C128" s="4"/>
@@ -5404,11 +5808,11 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="9"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
       <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
@@ -5419,18 +5823,21 @@
       <c r="T128" s="4"/>
       <c r="U128" s="4"/>
       <c r="V128" s="4"/>
-      <c r="W128" s="17"/>
-      <c r="X128" s="5"/>
-      <c r="Y128" s="5"/>
-      <c r="Z128" s="5"/>
+      <c r="W128" s="4"/>
+      <c r="X128" s="4"/>
+      <c r="Y128" s="4"/>
+      <c r="Z128" s="17"/>
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
       <c r="AC128" s="5"/>
       <c r="AD128" s="5"/>
       <c r="AE128" s="5"/>
       <c r="AF128" s="5"/>
-    </row>
-    <row r="129" spans="1:32">
+      <c r="AG128" s="5"/>
+      <c r="AH128" s="5"/>
+      <c r="AI128" s="5"/>
+    </row>
+    <row r="129" spans="1:35">
       <c r="A129" s="4"/>
       <c r="B129" s="9"/>
       <c r="C129" s="4"/>
@@ -5438,11 +5845,11 @@
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="9"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
       <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
@@ -5453,18 +5860,21 @@
       <c r="T129" s="4"/>
       <c r="U129" s="4"/>
       <c r="V129" s="4"/>
-      <c r="W129" s="17"/>
-      <c r="X129" s="5"/>
-      <c r="Y129" s="5"/>
-      <c r="Z129" s="5"/>
+      <c r="W129" s="4"/>
+      <c r="X129" s="4"/>
+      <c r="Y129" s="4"/>
+      <c r="Z129" s="17"/>
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
       <c r="AC129" s="5"/>
       <c r="AD129" s="5"/>
       <c r="AE129" s="5"/>
       <c r="AF129" s="5"/>
-    </row>
-    <row r="130" spans="1:32">
+      <c r="AG129" s="5"/>
+      <c r="AH129" s="5"/>
+      <c r="AI129" s="5"/>
+    </row>
+    <row r="130" spans="1:35">
       <c r="A130" s="4"/>
       <c r="B130" s="9"/>
       <c r="C130" s="4"/>
@@ -5472,11 +5882,11 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="9"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
       <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="9"/>
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
@@ -5487,18 +5897,21 @@
       <c r="T130" s="4"/>
       <c r="U130" s="4"/>
       <c r="V130" s="4"/>
-      <c r="W130" s="17"/>
-      <c r="X130" s="5"/>
-      <c r="Y130" s="5"/>
-      <c r="Z130" s="5"/>
+      <c r="W130" s="4"/>
+      <c r="X130" s="4"/>
+      <c r="Y130" s="4"/>
+      <c r="Z130" s="17"/>
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
       <c r="AC130" s="5"/>
       <c r="AD130" s="5"/>
       <c r="AE130" s="5"/>
       <c r="AF130" s="5"/>
-    </row>
-    <row r="131" spans="1:32">
+      <c r="AG130" s="5"/>
+      <c r="AH130" s="5"/>
+      <c r="AI130" s="5"/>
+    </row>
+    <row r="131" spans="1:35">
       <c r="A131" s="4"/>
       <c r="B131" s="9"/>
       <c r="C131" s="4"/>
@@ -5506,11 +5919,11 @@
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="13"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
       <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="13"/>
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
@@ -5521,18 +5934,21 @@
       <c r="T131" s="4"/>
       <c r="U131" s="4"/>
       <c r="V131" s="4"/>
-      <c r="W131" s="17"/>
-      <c r="X131" s="5"/>
-      <c r="Y131" s="5"/>
-      <c r="Z131" s="5"/>
+      <c r="W131" s="4"/>
+      <c r="X131" s="4"/>
+      <c r="Y131" s="4"/>
+      <c r="Z131" s="17"/>
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
       <c r="AC131" s="5"/>
       <c r="AD131" s="5"/>
       <c r="AE131" s="5"/>
       <c r="AF131" s="5"/>
-    </row>
-    <row r="132" spans="1:32">
+      <c r="AG131" s="5"/>
+      <c r="AH131" s="5"/>
+      <c r="AI131" s="5"/>
+    </row>
+    <row r="132" spans="1:35">
       <c r="A132" s="4"/>
       <c r="B132" s="9"/>
       <c r="C132" s="4"/>
@@ -5540,11 +5956,11 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
       <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
       <c r="O132" s="4"/>
@@ -5555,18 +5971,21 @@
       <c r="T132" s="4"/>
       <c r="U132" s="4"/>
       <c r="V132" s="4"/>
-      <c r="W132" s="17"/>
-      <c r="X132" s="5"/>
-      <c r="Y132" s="5"/>
-      <c r="Z132" s="5"/>
+      <c r="W132" s="4"/>
+      <c r="X132" s="4"/>
+      <c r="Y132" s="4"/>
+      <c r="Z132" s="17"/>
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
       <c r="AC132" s="5"/>
       <c r="AD132" s="5"/>
       <c r="AE132" s="5"/>
       <c r="AF132" s="5"/>
-    </row>
-    <row r="133" spans="1:32">
+      <c r="AG132" s="5"/>
+      <c r="AH132" s="5"/>
+      <c r="AI132" s="5"/>
+    </row>
+    <row r="133" spans="1:35">
       <c r="A133" s="4"/>
       <c r="B133" s="9"/>
       <c r="C133" s="4"/>
@@ -5574,11 +5993,11 @@
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="9"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
       <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
       <c r="O133" s="4"/>
@@ -5589,18 +6008,21 @@
       <c r="T133" s="4"/>
       <c r="U133" s="4"/>
       <c r="V133" s="4"/>
-      <c r="W133" s="17"/>
-      <c r="X133" s="5"/>
-      <c r="Y133" s="5"/>
-      <c r="Z133" s="5"/>
+      <c r="W133" s="4"/>
+      <c r="X133" s="4"/>
+      <c r="Y133" s="4"/>
+      <c r="Z133" s="17"/>
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
       <c r="AC133" s="5"/>
       <c r="AD133" s="5"/>
       <c r="AE133" s="5"/>
       <c r="AF133" s="5"/>
-    </row>
-    <row r="134" spans="1:32">
+      <c r="AG133" s="5"/>
+      <c r="AH133" s="5"/>
+      <c r="AI133" s="5"/>
+    </row>
+    <row r="134" spans="1:35">
       <c r="A134" s="4"/>
       <c r="B134" s="9"/>
       <c r="C134" s="4"/>
@@ -5608,11 +6030,11 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
-      <c r="H134" s="9"/>
-      <c r="I134" s="9"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
       <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
       <c r="O134" s="4"/>
@@ -5623,18 +6045,21 @@
       <c r="T134" s="4"/>
       <c r="U134" s="4"/>
       <c r="V134" s="4"/>
-      <c r="W134" s="17"/>
-      <c r="X134" s="5"/>
-      <c r="Y134" s="5"/>
-      <c r="Z134" s="5"/>
+      <c r="W134" s="4"/>
+      <c r="X134" s="4"/>
+      <c r="Y134" s="4"/>
+      <c r="Z134" s="17"/>
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
       <c r="AC134" s="5"/>
       <c r="AD134" s="5"/>
       <c r="AE134" s="5"/>
       <c r="AF134" s="5"/>
-    </row>
-    <row r="135" spans="1:32">
+      <c r="AG134" s="5"/>
+      <c r="AH134" s="5"/>
+      <c r="AI134" s="5"/>
+    </row>
+    <row r="135" spans="1:35">
       <c r="A135" s="4"/>
       <c r="B135" s="9"/>
       <c r="C135" s="4"/>
@@ -5642,11 +6067,11 @@
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
-      <c r="H135" s="9"/>
-      <c r="I135" s="13"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
       <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="13"/>
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
@@ -5657,18 +6082,21 @@
       <c r="T135" s="4"/>
       <c r="U135" s="4"/>
       <c r="V135" s="4"/>
-      <c r="W135" s="17"/>
-      <c r="X135" s="5"/>
-      <c r="Y135" s="5"/>
-      <c r="Z135" s="5"/>
+      <c r="W135" s="4"/>
+      <c r="X135" s="4"/>
+      <c r="Y135" s="4"/>
+      <c r="Z135" s="17"/>
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
       <c r="AC135" s="5"/>
       <c r="AD135" s="5"/>
       <c r="AE135" s="5"/>
       <c r="AF135" s="5"/>
-    </row>
-    <row r="136" spans="1:32">
+      <c r="AG135" s="5"/>
+      <c r="AH135" s="5"/>
+      <c r="AI135" s="5"/>
+    </row>
+    <row r="136" spans="1:35">
       <c r="A136" s="4"/>
       <c r="B136" s="9"/>
       <c r="C136" s="4"/>
@@ -5676,11 +6104,11 @@
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
-      <c r="H136" s="9"/>
-      <c r="I136" s="13"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
       <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="13"/>
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
@@ -5691,18 +6119,21 @@
       <c r="T136" s="4"/>
       <c r="U136" s="4"/>
       <c r="V136" s="4"/>
-      <c r="W136" s="17"/>
-      <c r="X136" s="5"/>
-      <c r="Y136" s="5"/>
-      <c r="Z136" s="5"/>
+      <c r="W136" s="4"/>
+      <c r="X136" s="4"/>
+      <c r="Y136" s="4"/>
+      <c r="Z136" s="17"/>
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
       <c r="AC136" s="5"/>
       <c r="AD136" s="5"/>
       <c r="AE136" s="5"/>
       <c r="AF136" s="5"/>
-    </row>
-    <row r="137" spans="1:32">
+      <c r="AG136" s="5"/>
+      <c r="AH136" s="5"/>
+      <c r="AI136" s="5"/>
+    </row>
+    <row r="137" spans="1:35">
       <c r="A137" s="4"/>
       <c r="B137" s="9"/>
       <c r="C137" s="4"/>
@@ -5710,11 +6141,11 @@
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
-      <c r="H137" s="9"/>
-      <c r="I137" s="13"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
       <c r="J137" s="4"/>
-      <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="13"/>
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
       <c r="O137" s="4"/>
@@ -5725,18 +6156,21 @@
       <c r="T137" s="4"/>
       <c r="U137" s="4"/>
       <c r="V137" s="4"/>
-      <c r="W137" s="17"/>
-      <c r="X137" s="5"/>
-      <c r="Y137" s="5"/>
-      <c r="Z137" s="5"/>
+      <c r="W137" s="4"/>
+      <c r="X137" s="4"/>
+      <c r="Y137" s="4"/>
+      <c r="Z137" s="17"/>
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
       <c r="AC137" s="5"/>
       <c r="AD137" s="5"/>
       <c r="AE137" s="5"/>
       <c r="AF137" s="5"/>
-    </row>
-    <row r="138" spans="1:32">
+      <c r="AG137" s="5"/>
+      <c r="AH137" s="5"/>
+      <c r="AI137" s="5"/>
+    </row>
+    <row r="138" spans="1:35">
       <c r="A138" s="4"/>
       <c r="B138" s="9"/>
       <c r="C138" s="4"/>
@@ -5744,11 +6178,11 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
-      <c r="H138" s="9"/>
-      <c r="I138" s="9"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
       <c r="J138" s="4"/>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="9"/>
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
       <c r="O138" s="4"/>
@@ -5756,21 +6190,24 @@
       <c r="Q138" s="4"/>
       <c r="R138" s="4"/>
       <c r="S138" s="4"/>
-      <c r="T138" s="10"/>
-      <c r="U138" s="10"/>
-      <c r="V138" s="11"/>
-      <c r="W138" s="12"/>
-      <c r="X138" s="5"/>
-      <c r="Y138" s="5"/>
-      <c r="Z138" s="5"/>
+      <c r="T138" s="4"/>
+      <c r="U138" s="4"/>
+      <c r="V138" s="4"/>
+      <c r="W138" s="10"/>
+      <c r="X138" s="10"/>
+      <c r="Y138" s="11"/>
+      <c r="Z138" s="12"/>
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
       <c r="AC138" s="5"/>
       <c r="AD138" s="5"/>
       <c r="AE138" s="5"/>
       <c r="AF138" s="5"/>
-    </row>
-    <row r="139" spans="1:32">
+      <c r="AG138" s="5"/>
+      <c r="AH138" s="5"/>
+      <c r="AI138" s="5"/>
+    </row>
+    <row r="139" spans="1:35">
       <c r="A139" s="4"/>
       <c r="B139" s="9"/>
       <c r="C139" s="4"/>
@@ -5778,11 +6215,11 @@
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
-      <c r="H139" s="9"/>
-      <c r="I139" s="9"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
       <c r="J139" s="4"/>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
       <c r="O139" s="4"/>
@@ -5790,21 +6227,24 @@
       <c r="Q139" s="4"/>
       <c r="R139" s="4"/>
       <c r="S139" s="4"/>
-      <c r="T139" s="10"/>
-      <c r="U139" s="10"/>
-      <c r="V139" s="11"/>
-      <c r="W139" s="12"/>
-      <c r="X139" s="5"/>
-      <c r="Y139" s="5"/>
-      <c r="Z139" s="5"/>
+      <c r="T139" s="4"/>
+      <c r="U139" s="4"/>
+      <c r="V139" s="4"/>
+      <c r="W139" s="10"/>
+      <c r="X139" s="10"/>
+      <c r="Y139" s="11"/>
+      <c r="Z139" s="12"/>
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
       <c r="AC139" s="5"/>
       <c r="AD139" s="5"/>
       <c r="AE139" s="5"/>
       <c r="AF139" s="5"/>
-    </row>
-    <row r="140" spans="1:32">
+      <c r="AG139" s="5"/>
+      <c r="AH139" s="5"/>
+      <c r="AI139" s="5"/>
+    </row>
+    <row r="140" spans="1:35">
       <c r="A140" s="4"/>
       <c r="B140" s="9"/>
       <c r="C140" s="4"/>
@@ -5812,11 +6252,11 @@
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
-      <c r="H140" s="9"/>
-      <c r="I140" s="9"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
       <c r="J140" s="4"/>
-      <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
       <c r="O140" s="4"/>
@@ -5824,21 +6264,24 @@
       <c r="Q140" s="4"/>
       <c r="R140" s="4"/>
       <c r="S140" s="4"/>
-      <c r="T140" s="10"/>
-      <c r="U140" s="10"/>
-      <c r="V140" s="11"/>
-      <c r="W140" s="12"/>
-      <c r="X140" s="5"/>
-      <c r="Y140" s="5"/>
-      <c r="Z140" s="5"/>
+      <c r="T140" s="4"/>
+      <c r="U140" s="4"/>
+      <c r="V140" s="4"/>
+      <c r="W140" s="10"/>
+      <c r="X140" s="10"/>
+      <c r="Y140" s="11"/>
+      <c r="Z140" s="12"/>
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
       <c r="AC140" s="5"/>
       <c r="AD140" s="5"/>
       <c r="AE140" s="5"/>
       <c r="AF140" s="5"/>
-    </row>
-    <row r="141" spans="1:32">
+      <c r="AG140" s="5"/>
+      <c r="AH140" s="5"/>
+      <c r="AI140" s="5"/>
+    </row>
+    <row r="141" spans="1:35">
       <c r="A141" s="4"/>
       <c r="B141" s="13"/>
       <c r="C141" s="4"/>
@@ -5846,11 +6289,11 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
-      <c r="H141" s="9"/>
-      <c r="I141" s="9"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
       <c r="J141" s="4"/>
-      <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
       <c r="O141" s="4"/>
@@ -5858,21 +6301,24 @@
       <c r="Q141" s="4"/>
       <c r="R141" s="4"/>
       <c r="S141" s="4"/>
-      <c r="T141" s="10"/>
-      <c r="U141" s="10"/>
-      <c r="V141" s="11"/>
-      <c r="W141" s="12"/>
-      <c r="X141" s="5"/>
-      <c r="Y141" s="5"/>
-      <c r="Z141" s="5"/>
+      <c r="T141" s="4"/>
+      <c r="U141" s="4"/>
+      <c r="V141" s="4"/>
+      <c r="W141" s="10"/>
+      <c r="X141" s="10"/>
+      <c r="Y141" s="11"/>
+      <c r="Z141" s="12"/>
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
       <c r="AC141" s="5"/>
       <c r="AD141" s="5"/>
       <c r="AE141" s="5"/>
       <c r="AF141" s="5"/>
-    </row>
-    <row r="142" spans="1:32" ht="16.5">
+      <c r="AG141" s="5"/>
+      <c r="AH141" s="5"/>
+      <c r="AI141" s="5"/>
+    </row>
+    <row r="142" spans="1:35" ht="16.5">
       <c r="A142" s="4"/>
       <c r="B142" s="18"/>
       <c r="C142" s="4"/>
@@ -5880,24 +6326,24 @@
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
-      <c r="H142" s="6"/>
-      <c r="I142" s="6"/>
-      <c r="J142" s="6"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
       <c r="K142" s="6"/>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4"/>
-      <c r="N142" s="4"/>
-      <c r="O142" s="6"/>
-      <c r="P142" s="6"/>
-      <c r="Q142" s="6"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
+      <c r="O142" s="4"/>
+      <c r="P142" s="4"/>
+      <c r="Q142" s="4"/>
       <c r="R142" s="6"/>
       <c r="S142" s="6"/>
-      <c r="T142" s="4"/>
-      <c r="U142" s="4"/>
-      <c r="V142" s="4"/>
-      <c r="W142" s="5"/>
-      <c r="X142" s="5"/>
-      <c r="Y142" s="5"/>
+      <c r="T142" s="6"/>
+      <c r="U142" s="6"/>
+      <c r="V142" s="6"/>
+      <c r="W142" s="4"/>
+      <c r="X142" s="4"/>
+      <c r="Y142" s="4"/>
       <c r="Z142" s="5"/>
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
@@ -5905,8 +6351,11 @@
       <c r="AD142" s="5"/>
       <c r="AE142" s="5"/>
       <c r="AF142" s="5"/>
-    </row>
-    <row r="143" spans="1:32" ht="16.5">
+      <c r="AG142" s="5"/>
+      <c r="AH142" s="5"/>
+      <c r="AI142" s="5"/>
+    </row>
+    <row r="143" spans="1:35" ht="16.5">
       <c r="A143" s="4"/>
       <c r="B143" s="18"/>
       <c r="C143" s="4"/>
@@ -5914,24 +6363,24 @@
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
       <c r="K143" s="6"/>
-      <c r="L143" s="4"/>
-      <c r="M143" s="4"/>
-      <c r="N143" s="4"/>
-      <c r="O143" s="6"/>
-      <c r="P143" s="6"/>
-      <c r="Q143" s="6"/>
+      <c r="L143" s="6"/>
+      <c r="M143" s="6"/>
+      <c r="N143" s="6"/>
+      <c r="O143" s="4"/>
+      <c r="P143" s="4"/>
+      <c r="Q143" s="4"/>
       <c r="R143" s="6"/>
-      <c r="S143" s="18"/>
-      <c r="T143" s="4"/>
-      <c r="U143" s="4"/>
-      <c r="V143" s="4"/>
-      <c r="W143" s="5"/>
-      <c r="X143" s="5"/>
-      <c r="Y143" s="5"/>
+      <c r="S143" s="6"/>
+      <c r="T143" s="6"/>
+      <c r="U143" s="6"/>
+      <c r="V143" s="18"/>
+      <c r="W143" s="4"/>
+      <c r="X143" s="4"/>
+      <c r="Y143" s="4"/>
       <c r="Z143" s="5"/>
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
@@ -5939,8 +6388,11 @@
       <c r="AD143" s="5"/>
       <c r="AE143" s="5"/>
       <c r="AF143" s="5"/>
-    </row>
-    <row r="144" spans="1:32" ht="16.5">
+      <c r="AG143" s="5"/>
+      <c r="AH143" s="5"/>
+      <c r="AI143" s="5"/>
+    </row>
+    <row r="144" spans="1:35" ht="16.5">
       <c r="A144" s="4"/>
       <c r="B144" s="18"/>
       <c r="C144" s="4"/>
@@ -5948,24 +6400,24 @@
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
-      <c r="H144" s="6"/>
-      <c r="I144" s="6"/>
-      <c r="J144" s="6"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
       <c r="K144" s="6"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4"/>
-      <c r="N144" s="4"/>
-      <c r="O144" s="6"/>
-      <c r="P144" s="6"/>
-      <c r="Q144" s="6"/>
+      <c r="L144" s="6"/>
+      <c r="M144" s="6"/>
+      <c r="N144" s="6"/>
+      <c r="O144" s="4"/>
+      <c r="P144" s="4"/>
+      <c r="Q144" s="4"/>
       <c r="R144" s="6"/>
-      <c r="S144" s="18"/>
-      <c r="T144" s="4"/>
-      <c r="U144" s="4"/>
-      <c r="V144" s="4"/>
-      <c r="W144" s="5"/>
-      <c r="X144" s="5"/>
-      <c r="Y144" s="5"/>
+      <c r="S144" s="6"/>
+      <c r="T144" s="6"/>
+      <c r="U144" s="6"/>
+      <c r="V144" s="18"/>
+      <c r="W144" s="4"/>
+      <c r="X144" s="4"/>
+      <c r="Y144" s="4"/>
       <c r="Z144" s="5"/>
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
@@ -5973,8 +6425,11 @@
       <c r="AD144" s="5"/>
       <c r="AE144" s="5"/>
       <c r="AF144" s="5"/>
-    </row>
-    <row r="145" spans="1:32" ht="16.5">
+      <c r="AG144" s="5"/>
+      <c r="AH144" s="5"/>
+      <c r="AI144" s="5"/>
+    </row>
+    <row r="145" spans="1:35" ht="16.5">
       <c r="A145" s="4"/>
       <c r="B145" s="18"/>
       <c r="C145" s="4"/>
@@ -5982,24 +6437,24 @@
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
-      <c r="H145" s="6"/>
-      <c r="I145" s="6"/>
-      <c r="J145" s="6"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
       <c r="K145" s="6"/>
-      <c r="L145" s="4"/>
-      <c r="M145" s="4"/>
-      <c r="N145" s="4"/>
-      <c r="O145" s="6"/>
-      <c r="P145" s="6"/>
-      <c r="Q145" s="6"/>
+      <c r="L145" s="6"/>
+      <c r="M145" s="6"/>
+      <c r="N145" s="6"/>
+      <c r="O145" s="4"/>
+      <c r="P145" s="4"/>
+      <c r="Q145" s="4"/>
       <c r="R145" s="6"/>
-      <c r="S145" s="18"/>
-      <c r="T145" s="4"/>
-      <c r="U145" s="4"/>
-      <c r="V145" s="4"/>
-      <c r="W145" s="5"/>
-      <c r="X145" s="5"/>
-      <c r="Y145" s="5"/>
+      <c r="S145" s="6"/>
+      <c r="T145" s="6"/>
+      <c r="U145" s="6"/>
+      <c r="V145" s="18"/>
+      <c r="W145" s="4"/>
+      <c r="X145" s="4"/>
+      <c r="Y145" s="4"/>
       <c r="Z145" s="5"/>
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
@@ -6007,8 +6462,11 @@
       <c r="AD145" s="5"/>
       <c r="AE145" s="5"/>
       <c r="AF145" s="5"/>
-    </row>
-    <row r="146" spans="1:32" ht="16.5">
+      <c r="AG145" s="5"/>
+      <c r="AH145" s="5"/>
+      <c r="AI145" s="5"/>
+    </row>
+    <row r="146" spans="1:35" ht="16.5">
       <c r="A146" s="4"/>
       <c r="B146" s="18"/>
       <c r="C146" s="4"/>
@@ -6016,24 +6474,24 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
-      <c r="H146" s="6"/>
-      <c r="I146" s="6"/>
-      <c r="J146" s="6"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
       <c r="K146" s="6"/>
-      <c r="L146" s="4"/>
-      <c r="M146" s="4"/>
-      <c r="N146" s="4"/>
-      <c r="O146" s="6"/>
-      <c r="P146" s="6"/>
-      <c r="Q146" s="6"/>
+      <c r="L146" s="6"/>
+      <c r="M146" s="6"/>
+      <c r="N146" s="6"/>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
+      <c r="Q146" s="4"/>
       <c r="R146" s="6"/>
-      <c r="S146" s="18"/>
-      <c r="T146" s="4"/>
-      <c r="U146" s="4"/>
-      <c r="V146" s="4"/>
-      <c r="W146" s="5"/>
-      <c r="X146" s="5"/>
-      <c r="Y146" s="5"/>
+      <c r="S146" s="6"/>
+      <c r="T146" s="6"/>
+      <c r="U146" s="6"/>
+      <c r="V146" s="18"/>
+      <c r="W146" s="4"/>
+      <c r="X146" s="4"/>
+      <c r="Y146" s="4"/>
       <c r="Z146" s="5"/>
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
@@ -6041,8 +6499,11 @@
       <c r="AD146" s="5"/>
       <c r="AE146" s="5"/>
       <c r="AF146" s="5"/>
-    </row>
-    <row r="147" spans="1:32" ht="16.5">
+      <c r="AG146" s="5"/>
+      <c r="AH146" s="5"/>
+      <c r="AI146" s="5"/>
+    </row>
+    <row r="147" spans="1:35" ht="16.5">
       <c r="A147" s="4"/>
       <c r="B147" s="18"/>
       <c r="C147" s="4"/>
@@ -6050,24 +6511,24 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
-      <c r="H147" s="6"/>
-      <c r="I147" s="6"/>
-      <c r="J147" s="6"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
       <c r="K147" s="6"/>
-      <c r="L147" s="4"/>
-      <c r="M147" s="4"/>
-      <c r="N147" s="4"/>
-      <c r="O147" s="6"/>
-      <c r="P147" s="6"/>
-      <c r="Q147" s="6"/>
+      <c r="L147" s="6"/>
+      <c r="M147" s="6"/>
+      <c r="N147" s="6"/>
+      <c r="O147" s="4"/>
+      <c r="P147" s="4"/>
+      <c r="Q147" s="4"/>
       <c r="R147" s="6"/>
-      <c r="S147" s="18"/>
-      <c r="T147" s="4"/>
-      <c r="U147" s="4"/>
-      <c r="V147" s="4"/>
-      <c r="W147" s="5"/>
-      <c r="X147" s="5"/>
-      <c r="Y147" s="5"/>
+      <c r="S147" s="6"/>
+      <c r="T147" s="6"/>
+      <c r="U147" s="6"/>
+      <c r="V147" s="18"/>
+      <c r="W147" s="4"/>
+      <c r="X147" s="4"/>
+      <c r="Y147" s="4"/>
       <c r="Z147" s="5"/>
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
@@ -6075,8 +6536,11 @@
       <c r="AD147" s="5"/>
       <c r="AE147" s="5"/>
       <c r="AF147" s="5"/>
-    </row>
-    <row r="148" spans="1:32" ht="16.5">
+      <c r="AG147" s="5"/>
+      <c r="AH147" s="5"/>
+      <c r="AI147" s="5"/>
+    </row>
+    <row r="148" spans="1:35" ht="16.5">
       <c r="A148" s="4"/>
       <c r="B148" s="18"/>
       <c r="C148" s="4"/>
@@ -6084,24 +6548,24 @@
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
-      <c r="H148" s="6"/>
-      <c r="I148" s="6"/>
-      <c r="J148" s="6"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
       <c r="K148" s="6"/>
-      <c r="L148" s="4"/>
-      <c r="M148" s="4"/>
-      <c r="N148" s="4"/>
-      <c r="O148" s="6"/>
-      <c r="P148" s="6"/>
-      <c r="Q148" s="6"/>
+      <c r="L148" s="6"/>
+      <c r="M148" s="6"/>
+      <c r="N148" s="6"/>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4"/>
       <c r="R148" s="6"/>
-      <c r="S148" s="18"/>
-      <c r="T148" s="4"/>
-      <c r="U148" s="4"/>
-      <c r="V148" s="4"/>
-      <c r="W148" s="5"/>
-      <c r="X148" s="5"/>
-      <c r="Y148" s="5"/>
+      <c r="S148" s="6"/>
+      <c r="T148" s="6"/>
+      <c r="U148" s="6"/>
+      <c r="V148" s="18"/>
+      <c r="W148" s="4"/>
+      <c r="X148" s="4"/>
+      <c r="Y148" s="4"/>
       <c r="Z148" s="5"/>
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
@@ -6109,8 +6573,11 @@
       <c r="AD148" s="5"/>
       <c r="AE148" s="5"/>
       <c r="AF148" s="5"/>
-    </row>
-    <row r="149" spans="1:32" ht="16.5">
+      <c r="AG148" s="5"/>
+      <c r="AH148" s="5"/>
+      <c r="AI148" s="5"/>
+    </row>
+    <row r="149" spans="1:35" ht="16.5">
       <c r="A149" s="4"/>
       <c r="B149" s="18"/>
       <c r="C149" s="4"/>
@@ -6118,24 +6585,24 @@
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
-      <c r="H149" s="6"/>
-      <c r="I149" s="6"/>
-      <c r="J149" s="6"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
       <c r="K149" s="6"/>
-      <c r="L149" s="4"/>
-      <c r="M149" s="4"/>
-      <c r="N149" s="4"/>
-      <c r="O149" s="6"/>
-      <c r="P149" s="6"/>
-      <c r="Q149" s="6"/>
+      <c r="L149" s="6"/>
+      <c r="M149" s="6"/>
+      <c r="N149" s="6"/>
+      <c r="O149" s="4"/>
+      <c r="P149" s="4"/>
+      <c r="Q149" s="4"/>
       <c r="R149" s="6"/>
-      <c r="S149" s="18"/>
-      <c r="T149" s="4"/>
-      <c r="U149" s="4"/>
-      <c r="V149" s="4"/>
-      <c r="W149" s="5"/>
-      <c r="X149" s="5"/>
-      <c r="Y149" s="5"/>
+      <c r="S149" s="6"/>
+      <c r="T149" s="6"/>
+      <c r="U149" s="6"/>
+      <c r="V149" s="18"/>
+      <c r="W149" s="4"/>
+      <c r="X149" s="4"/>
+      <c r="Y149" s="4"/>
       <c r="Z149" s="5"/>
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
@@ -6143,8 +6610,11 @@
       <c r="AD149" s="5"/>
       <c r="AE149" s="5"/>
       <c r="AF149" s="5"/>
-    </row>
-    <row r="150" spans="1:32">
+      <c r="AG149" s="5"/>
+      <c r="AH149" s="5"/>
+      <c r="AI149" s="5"/>
+    </row>
+    <row r="150" spans="1:35">
       <c r="A150" s="4"/>
       <c r="B150" s="6"/>
       <c r="C150" s="4"/>
@@ -6152,24 +6622,24 @@
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
-      <c r="H150" s="6"/>
-      <c r="I150" s="6"/>
-      <c r="J150" s="6"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
       <c r="K150" s="6"/>
-      <c r="L150" s="4"/>
-      <c r="M150" s="4"/>
-      <c r="N150" s="4"/>
-      <c r="O150" s="6"/>
-      <c r="P150" s="6"/>
-      <c r="Q150" s="6"/>
+      <c r="L150" s="6"/>
+      <c r="M150" s="6"/>
+      <c r="N150" s="6"/>
+      <c r="O150" s="4"/>
+      <c r="P150" s="4"/>
+      <c r="Q150" s="4"/>
       <c r="R150" s="6"/>
       <c r="S150" s="6"/>
-      <c r="T150" s="4"/>
-      <c r="U150" s="4"/>
-      <c r="V150" s="4"/>
-      <c r="W150" s="5"/>
-      <c r="X150" s="5"/>
-      <c r="Y150" s="5"/>
+      <c r="T150" s="6"/>
+      <c r="U150" s="6"/>
+      <c r="V150" s="6"/>
+      <c r="W150" s="4"/>
+      <c r="X150" s="4"/>
+      <c r="Y150" s="4"/>
       <c r="Z150" s="5"/>
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
@@ -6177,8 +6647,11 @@
       <c r="AD150" s="5"/>
       <c r="AE150" s="5"/>
       <c r="AF150" s="5"/>
-    </row>
-    <row r="151" spans="1:32">
+      <c r="AG150" s="5"/>
+      <c r="AH150" s="5"/>
+      <c r="AI150" s="5"/>
+    </row>
+    <row r="151" spans="1:35">
       <c r="A151" s="4"/>
       <c r="B151" s="6"/>
       <c r="C151" s="4"/>
@@ -6186,24 +6659,24 @@
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
-      <c r="H151" s="6"/>
-      <c r="I151" s="6"/>
-      <c r="J151" s="6"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
       <c r="K151" s="6"/>
-      <c r="L151" s="4"/>
-      <c r="M151" s="4"/>
-      <c r="N151" s="4"/>
-      <c r="O151" s="6"/>
-      <c r="P151" s="6"/>
-      <c r="Q151" s="6"/>
+      <c r="L151" s="6"/>
+      <c r="M151" s="6"/>
+      <c r="N151" s="6"/>
+      <c r="O151" s="4"/>
+      <c r="P151" s="4"/>
+      <c r="Q151" s="4"/>
       <c r="R151" s="6"/>
       <c r="S151" s="6"/>
-      <c r="T151" s="4"/>
-      <c r="U151" s="4"/>
-      <c r="V151" s="4"/>
-      <c r="W151" s="5"/>
-      <c r="X151" s="5"/>
-      <c r="Y151" s="5"/>
+      <c r="T151" s="6"/>
+      <c r="U151" s="6"/>
+      <c r="V151" s="6"/>
+      <c r="W151" s="4"/>
+      <c r="X151" s="4"/>
+      <c r="Y151" s="4"/>
       <c r="Z151" s="5"/>
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
@@ -6211,8 +6684,11 @@
       <c r="AD151" s="5"/>
       <c r="AE151" s="5"/>
       <c r="AF151" s="5"/>
-    </row>
-    <row r="152" spans="1:32" ht="16.5">
+      <c r="AG151" s="5"/>
+      <c r="AH151" s="5"/>
+      <c r="AI151" s="5"/>
+    </row>
+    <row r="152" spans="1:35" ht="16.5">
       <c r="A152" s="4"/>
       <c r="B152" s="18"/>
       <c r="C152" s="4"/>
@@ -6220,24 +6696,24 @@
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
-      <c r="H152" s="6"/>
-      <c r="I152" s="6"/>
-      <c r="J152" s="6"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
       <c r="K152" s="6"/>
-      <c r="L152" s="4"/>
-      <c r="M152" s="4"/>
-      <c r="N152" s="4"/>
-      <c r="O152" s="6"/>
-      <c r="P152" s="6"/>
-      <c r="Q152" s="6"/>
+      <c r="L152" s="6"/>
+      <c r="M152" s="6"/>
+      <c r="N152" s="6"/>
+      <c r="O152" s="4"/>
+      <c r="P152" s="4"/>
+      <c r="Q152" s="4"/>
       <c r="R152" s="6"/>
-      <c r="S152" s="18"/>
-      <c r="T152" s="4"/>
-      <c r="U152" s="4"/>
-      <c r="V152" s="4"/>
-      <c r="W152" s="5"/>
-      <c r="X152" s="5"/>
-      <c r="Y152" s="5"/>
+      <c r="S152" s="6"/>
+      <c r="T152" s="6"/>
+      <c r="U152" s="6"/>
+      <c r="V152" s="18"/>
+      <c r="W152" s="4"/>
+      <c r="X152" s="4"/>
+      <c r="Y152" s="4"/>
       <c r="Z152" s="5"/>
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
@@ -6245,8 +6721,11 @@
       <c r="AD152" s="5"/>
       <c r="AE152" s="5"/>
       <c r="AF152" s="5"/>
-    </row>
-    <row r="153" spans="1:32" ht="16.5">
+      <c r="AG152" s="5"/>
+      <c r="AH152" s="5"/>
+      <c r="AI152" s="5"/>
+    </row>
+    <row r="153" spans="1:35" ht="16.5">
       <c r="A153" s="4"/>
       <c r="B153" s="18"/>
       <c r="C153" s="4"/>
@@ -6254,24 +6733,24 @@
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
-      <c r="H153" s="6"/>
-      <c r="I153" s="6"/>
-      <c r="J153" s="6"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
       <c r="K153" s="6"/>
-      <c r="L153" s="4"/>
-      <c r="M153" s="4"/>
-      <c r="N153" s="4"/>
-      <c r="O153" s="6"/>
-      <c r="P153" s="6"/>
-      <c r="Q153" s="6"/>
+      <c r="L153" s="6"/>
+      <c r="M153" s="6"/>
+      <c r="N153" s="6"/>
+      <c r="O153" s="4"/>
+      <c r="P153" s="4"/>
+      <c r="Q153" s="4"/>
       <c r="R153" s="6"/>
-      <c r="S153" s="18"/>
-      <c r="T153" s="4"/>
-      <c r="U153" s="4"/>
-      <c r="V153" s="4"/>
-      <c r="W153" s="5"/>
-      <c r="X153" s="5"/>
-      <c r="Y153" s="5"/>
+      <c r="S153" s="6"/>
+      <c r="T153" s="6"/>
+      <c r="U153" s="6"/>
+      <c r="V153" s="18"/>
+      <c r="W153" s="4"/>
+      <c r="X153" s="4"/>
+      <c r="Y153" s="4"/>
       <c r="Z153" s="5"/>
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
@@ -6279,8 +6758,11 @@
       <c r="AD153" s="5"/>
       <c r="AE153" s="5"/>
       <c r="AF153" s="5"/>
-    </row>
-    <row r="154" spans="1:32" ht="16.5">
+      <c r="AG153" s="5"/>
+      <c r="AH153" s="5"/>
+      <c r="AI153" s="5"/>
+    </row>
+    <row r="154" spans="1:35" ht="16.5">
       <c r="A154" s="4"/>
       <c r="B154" s="18"/>
       <c r="C154" s="4"/>
@@ -6288,24 +6770,24 @@
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
-      <c r="H154" s="6"/>
-      <c r="I154" s="6"/>
-      <c r="J154" s="6"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
       <c r="K154" s="6"/>
-      <c r="L154" s="4"/>
-      <c r="M154" s="4"/>
-      <c r="N154" s="4"/>
-      <c r="O154" s="6"/>
-      <c r="P154" s="6"/>
-      <c r="Q154" s="6"/>
+      <c r="L154" s="6"/>
+      <c r="M154" s="6"/>
+      <c r="N154" s="6"/>
+      <c r="O154" s="4"/>
+      <c r="P154" s="4"/>
+      <c r="Q154" s="4"/>
       <c r="R154" s="6"/>
-      <c r="S154" s="18"/>
-      <c r="T154" s="4"/>
-      <c r="U154" s="4"/>
-      <c r="V154" s="4"/>
-      <c r="W154" s="5"/>
-      <c r="X154" s="5"/>
-      <c r="Y154" s="5"/>
+      <c r="S154" s="6"/>
+      <c r="T154" s="6"/>
+      <c r="U154" s="6"/>
+      <c r="V154" s="18"/>
+      <c r="W154" s="4"/>
+      <c r="X154" s="4"/>
+      <c r="Y154" s="4"/>
       <c r="Z154" s="5"/>
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
@@ -6313,8 +6795,11 @@
       <c r="AD154" s="5"/>
       <c r="AE154" s="5"/>
       <c r="AF154" s="5"/>
-    </row>
-    <row r="155" spans="1:32" ht="16.5">
+      <c r="AG154" s="5"/>
+      <c r="AH154" s="5"/>
+      <c r="AI154" s="5"/>
+    </row>
+    <row r="155" spans="1:35" ht="16.5">
       <c r="A155" s="4"/>
       <c r="B155" s="18"/>
       <c r="C155" s="4"/>
@@ -6322,24 +6807,24 @@
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
-      <c r="H155" s="6"/>
-      <c r="I155" s="6"/>
-      <c r="J155" s="6"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
       <c r="K155" s="6"/>
-      <c r="L155" s="4"/>
-      <c r="M155" s="4"/>
-      <c r="N155" s="4"/>
-      <c r="O155" s="18"/>
-      <c r="P155" s="6"/>
-      <c r="Q155" s="6"/>
-      <c r="R155" s="6"/>
-      <c r="S155" s="18"/>
-      <c r="T155" s="4"/>
-      <c r="U155" s="4"/>
-      <c r="V155" s="4"/>
-      <c r="W155" s="5"/>
-      <c r="X155" s="5"/>
-      <c r="Y155" s="5"/>
+      <c r="L155" s="6"/>
+      <c r="M155" s="6"/>
+      <c r="N155" s="6"/>
+      <c r="O155" s="4"/>
+      <c r="P155" s="4"/>
+      <c r="Q155" s="4"/>
+      <c r="R155" s="18"/>
+      <c r="S155" s="6"/>
+      <c r="T155" s="6"/>
+      <c r="U155" s="6"/>
+      <c r="V155" s="18"/>
+      <c r="W155" s="4"/>
+      <c r="X155" s="4"/>
+      <c r="Y155" s="4"/>
       <c r="Z155" s="5"/>
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
@@ -6347,8 +6832,11 @@
       <c r="AD155" s="5"/>
       <c r="AE155" s="5"/>
       <c r="AF155" s="5"/>
-    </row>
-    <row r="156" spans="1:32" ht="16.5">
+      <c r="AG155" s="5"/>
+      <c r="AH155" s="5"/>
+      <c r="AI155" s="5"/>
+    </row>
+    <row r="156" spans="1:35" ht="16.5">
       <c r="A156" s="4"/>
       <c r="B156" s="18"/>
       <c r="C156" s="4"/>
@@ -6356,24 +6844,24 @@
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
-      <c r="H156" s="6"/>
-      <c r="I156" s="6"/>
-      <c r="J156" s="6"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4"/>
+      <c r="J156" s="4"/>
       <c r="K156" s="6"/>
-      <c r="L156" s="4"/>
-      <c r="M156" s="4"/>
-      <c r="N156" s="4"/>
-      <c r="O156" s="18"/>
-      <c r="P156" s="6"/>
-      <c r="Q156" s="6"/>
-      <c r="R156" s="6"/>
-      <c r="S156" s="18"/>
-      <c r="T156" s="4"/>
-      <c r="U156" s="4"/>
-      <c r="V156" s="4"/>
-      <c r="W156" s="5"/>
-      <c r="X156" s="5"/>
-      <c r="Y156" s="5"/>
+      <c r="L156" s="6"/>
+      <c r="M156" s="6"/>
+      <c r="N156" s="6"/>
+      <c r="O156" s="4"/>
+      <c r="P156" s="4"/>
+      <c r="Q156" s="4"/>
+      <c r="R156" s="18"/>
+      <c r="S156" s="6"/>
+      <c r="T156" s="6"/>
+      <c r="U156" s="6"/>
+      <c r="V156" s="18"/>
+      <c r="W156" s="4"/>
+      <c r="X156" s="4"/>
+      <c r="Y156" s="4"/>
       <c r="Z156" s="5"/>
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
@@ -6381,8 +6869,11 @@
       <c r="AD156" s="5"/>
       <c r="AE156" s="5"/>
       <c r="AF156" s="5"/>
-    </row>
-    <row r="157" spans="1:32" ht="16.5">
+      <c r="AG156" s="5"/>
+      <c r="AH156" s="5"/>
+      <c r="AI156" s="5"/>
+    </row>
+    <row r="157" spans="1:35" ht="16.5">
       <c r="A157" s="4"/>
       <c r="B157" s="18"/>
       <c r="C157" s="4"/>
@@ -6390,24 +6881,24 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
-      <c r="H157" s="6"/>
-      <c r="I157" s="6"/>
-      <c r="J157" s="6"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
       <c r="K157" s="6"/>
-      <c r="L157" s="4"/>
-      <c r="M157" s="4"/>
-      <c r="N157" s="4"/>
-      <c r="O157" s="18"/>
-      <c r="P157" s="6"/>
-      <c r="Q157" s="6"/>
-      <c r="R157" s="6"/>
-      <c r="S157" s="18"/>
-      <c r="T157" s="4"/>
-      <c r="U157" s="4"/>
-      <c r="V157" s="4"/>
-      <c r="W157" s="5"/>
-      <c r="X157" s="5"/>
-      <c r="Y157" s="5"/>
+      <c r="L157" s="6"/>
+      <c r="M157" s="6"/>
+      <c r="N157" s="6"/>
+      <c r="O157" s="4"/>
+      <c r="P157" s="4"/>
+      <c r="Q157" s="4"/>
+      <c r="R157" s="18"/>
+      <c r="S157" s="6"/>
+      <c r="T157" s="6"/>
+      <c r="U157" s="6"/>
+      <c r="V157" s="18"/>
+      <c r="W157" s="4"/>
+      <c r="X157" s="4"/>
+      <c r="Y157" s="4"/>
       <c r="Z157" s="5"/>
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
@@ -6415,8 +6906,11 @@
       <c r="AD157" s="5"/>
       <c r="AE157" s="5"/>
       <c r="AF157" s="5"/>
-    </row>
-    <row r="158" spans="1:32" ht="16.5">
+      <c r="AG157" s="5"/>
+      <c r="AH157" s="5"/>
+      <c r="AI157" s="5"/>
+    </row>
+    <row r="158" spans="1:35" ht="16.5">
       <c r="A158" s="4"/>
       <c r="B158" s="18"/>
       <c r="C158" s="4"/>
@@ -6424,24 +6918,24 @@
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
-      <c r="H158" s="6"/>
-      <c r="I158" s="6"/>
-      <c r="J158" s="6"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
       <c r="K158" s="6"/>
-      <c r="L158" s="4"/>
-      <c r="M158" s="4"/>
-      <c r="N158" s="4"/>
-      <c r="O158" s="18"/>
-      <c r="P158" s="6"/>
-      <c r="Q158" s="6"/>
-      <c r="R158" s="6"/>
-      <c r="S158" s="18"/>
-      <c r="T158" s="4"/>
-      <c r="U158" s="4"/>
-      <c r="V158" s="4"/>
-      <c r="W158" s="5"/>
-      <c r="X158" s="5"/>
-      <c r="Y158" s="5"/>
+      <c r="L158" s="6"/>
+      <c r="M158" s="6"/>
+      <c r="N158" s="6"/>
+      <c r="O158" s="4"/>
+      <c r="P158" s="4"/>
+      <c r="Q158" s="4"/>
+      <c r="R158" s="18"/>
+      <c r="S158" s="6"/>
+      <c r="T158" s="6"/>
+      <c r="U158" s="6"/>
+      <c r="V158" s="18"/>
+      <c r="W158" s="4"/>
+      <c r="X158" s="4"/>
+      <c r="Y158" s="4"/>
       <c r="Z158" s="5"/>
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
@@ -6449,8 +6943,11 @@
       <c r="AD158" s="5"/>
       <c r="AE158" s="5"/>
       <c r="AF158" s="5"/>
-    </row>
-    <row r="159" spans="1:32">
+      <c r="AG158" s="5"/>
+      <c r="AH158" s="5"/>
+      <c r="AI158" s="5"/>
+    </row>
+    <row r="159" spans="1:35">
       <c r="A159" s="4"/>
       <c r="B159" s="6"/>
       <c r="C159" s="4"/>
@@ -6458,24 +6955,24 @@
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
-      <c r="H159" s="6"/>
-      <c r="I159" s="6"/>
-      <c r="J159" s="6"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4"/>
+      <c r="J159" s="4"/>
       <c r="K159" s="6"/>
-      <c r="L159" s="4"/>
-      <c r="M159" s="4"/>
-      <c r="N159" s="4"/>
-      <c r="O159" s="6"/>
-      <c r="P159" s="6"/>
-      <c r="Q159" s="6"/>
+      <c r="L159" s="6"/>
+      <c r="M159" s="6"/>
+      <c r="N159" s="6"/>
+      <c r="O159" s="4"/>
+      <c r="P159" s="4"/>
+      <c r="Q159" s="4"/>
       <c r="R159" s="6"/>
       <c r="S159" s="6"/>
-      <c r="T159" s="4"/>
-      <c r="U159" s="4"/>
-      <c r="V159" s="4"/>
-      <c r="W159" s="5"/>
-      <c r="X159" s="5"/>
-      <c r="Y159" s="5"/>
+      <c r="T159" s="6"/>
+      <c r="U159" s="6"/>
+      <c r="V159" s="6"/>
+      <c r="W159" s="4"/>
+      <c r="X159" s="4"/>
+      <c r="Y159" s="4"/>
       <c r="Z159" s="5"/>
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
@@ -6483,8 +6980,11 @@
       <c r="AD159" s="5"/>
       <c r="AE159" s="5"/>
       <c r="AF159" s="5"/>
-    </row>
-    <row r="160" spans="1:32">
+      <c r="AG159" s="5"/>
+      <c r="AH159" s="5"/>
+      <c r="AI159" s="5"/>
+    </row>
+    <row r="160" spans="1:35">
       <c r="A160" s="4"/>
       <c r="B160" s="6"/>
       <c r="C160" s="4"/>
@@ -6492,24 +6992,24 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
-      <c r="H160" s="6"/>
-      <c r="I160" s="6"/>
-      <c r="J160" s="6"/>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
       <c r="K160" s="6"/>
-      <c r="L160" s="4"/>
-      <c r="M160" s="4"/>
-      <c r="N160" s="4"/>
-      <c r="O160" s="6"/>
-      <c r="P160" s="6"/>
-      <c r="Q160" s="6"/>
+      <c r="L160" s="6"/>
+      <c r="M160" s="6"/>
+      <c r="N160" s="6"/>
+      <c r="O160" s="4"/>
+      <c r="P160" s="4"/>
+      <c r="Q160" s="4"/>
       <c r="R160" s="6"/>
       <c r="S160" s="6"/>
-      <c r="T160" s="4"/>
-      <c r="U160" s="4"/>
-      <c r="V160" s="4"/>
-      <c r="W160" s="5"/>
-      <c r="X160" s="5"/>
-      <c r="Y160" s="5"/>
+      <c r="T160" s="6"/>
+      <c r="U160" s="6"/>
+      <c r="V160" s="6"/>
+      <c r="W160" s="4"/>
+      <c r="X160" s="4"/>
+      <c r="Y160" s="4"/>
       <c r="Z160" s="5"/>
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
@@ -6517,8 +7017,11 @@
       <c r="AD160" s="5"/>
       <c r="AE160" s="5"/>
       <c r="AF160" s="5"/>
-    </row>
-    <row r="161" spans="1:32" ht="16.5">
+      <c r="AG160" s="5"/>
+      <c r="AH160" s="5"/>
+      <c r="AI160" s="5"/>
+    </row>
+    <row r="161" spans="1:35" ht="16.5">
       <c r="A161" s="4"/>
       <c r="B161" s="18"/>
       <c r="C161" s="4"/>
@@ -6526,24 +7029,24 @@
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
-      <c r="H161" s="6"/>
-      <c r="I161" s="6"/>
-      <c r="J161" s="6"/>
+      <c r="H161" s="4"/>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
       <c r="K161" s="6"/>
-      <c r="L161" s="4"/>
-      <c r="M161" s="4"/>
-      <c r="N161" s="4"/>
-      <c r="O161" s="18"/>
-      <c r="P161" s="6"/>
-      <c r="Q161" s="6"/>
-      <c r="R161" s="6"/>
-      <c r="S161" s="18"/>
-      <c r="T161" s="4"/>
-      <c r="U161" s="4"/>
-      <c r="V161" s="4"/>
-      <c r="W161" s="5"/>
-      <c r="X161" s="5"/>
-      <c r="Y161" s="5"/>
+      <c r="L161" s="6"/>
+      <c r="M161" s="6"/>
+      <c r="N161" s="6"/>
+      <c r="O161" s="4"/>
+      <c r="P161" s="4"/>
+      <c r="Q161" s="4"/>
+      <c r="R161" s="18"/>
+      <c r="S161" s="6"/>
+      <c r="T161" s="6"/>
+      <c r="U161" s="6"/>
+      <c r="V161" s="18"/>
+      <c r="W161" s="4"/>
+      <c r="X161" s="4"/>
+      <c r="Y161" s="4"/>
       <c r="Z161" s="5"/>
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
@@ -6551,8 +7054,11 @@
       <c r="AD161" s="5"/>
       <c r="AE161" s="5"/>
       <c r="AF161" s="5"/>
-    </row>
-    <row r="162" spans="1:32" ht="16.5">
+      <c r="AG161" s="5"/>
+      <c r="AH161" s="5"/>
+      <c r="AI161" s="5"/>
+    </row>
+    <row r="162" spans="1:35" ht="16.5">
       <c r="A162" s="4"/>
       <c r="B162" s="18"/>
       <c r="C162" s="4"/>
@@ -6560,24 +7066,24 @@
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
-      <c r="H162" s="6"/>
-      <c r="I162" s="6"/>
-      <c r="J162" s="6"/>
+      <c r="H162" s="4"/>
+      <c r="I162" s="4"/>
+      <c r="J162" s="4"/>
       <c r="K162" s="6"/>
-      <c r="L162" s="4"/>
-      <c r="M162" s="4"/>
-      <c r="N162" s="4"/>
-      <c r="O162" s="6"/>
-      <c r="P162" s="6"/>
-      <c r="Q162" s="6"/>
+      <c r="L162" s="6"/>
+      <c r="M162" s="6"/>
+      <c r="N162" s="6"/>
+      <c r="O162" s="4"/>
+      <c r="P162" s="4"/>
+      <c r="Q162" s="4"/>
       <c r="R162" s="6"/>
-      <c r="S162" s="18"/>
-      <c r="T162" s="4"/>
-      <c r="U162" s="4"/>
-      <c r="V162" s="4"/>
-      <c r="W162" s="5"/>
-      <c r="X162" s="5"/>
-      <c r="Y162" s="5"/>
+      <c r="S162" s="6"/>
+      <c r="T162" s="6"/>
+      <c r="U162" s="6"/>
+      <c r="V162" s="18"/>
+      <c r="W162" s="4"/>
+      <c r="X162" s="4"/>
+      <c r="Y162" s="4"/>
       <c r="Z162" s="5"/>
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
@@ -6585,8 +7091,11 @@
       <c r="AD162" s="5"/>
       <c r="AE162" s="5"/>
       <c r="AF162" s="5"/>
-    </row>
-    <row r="163" spans="1:32" ht="16.5">
+      <c r="AG162" s="5"/>
+      <c r="AH162" s="5"/>
+      <c r="AI162" s="5"/>
+    </row>
+    <row r="163" spans="1:35" ht="16.5">
       <c r="A163" s="4"/>
       <c r="B163" s="18"/>
       <c r="C163" s="4"/>
@@ -6594,24 +7103,24 @@
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
-      <c r="H163" s="6"/>
-      <c r="I163" s="6"/>
-      <c r="J163" s="6"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="4"/>
+      <c r="J163" s="4"/>
       <c r="K163" s="6"/>
-      <c r="L163" s="4"/>
-      <c r="M163" s="4"/>
-      <c r="N163" s="4"/>
-      <c r="O163" s="6"/>
-      <c r="P163" s="6"/>
-      <c r="Q163" s="6"/>
+      <c r="L163" s="6"/>
+      <c r="M163" s="6"/>
+      <c r="N163" s="6"/>
+      <c r="O163" s="4"/>
+      <c r="P163" s="4"/>
+      <c r="Q163" s="4"/>
       <c r="R163" s="6"/>
-      <c r="S163" s="18"/>
-      <c r="T163" s="4"/>
-      <c r="U163" s="4"/>
-      <c r="V163" s="4"/>
-      <c r="W163" s="5"/>
-      <c r="X163" s="5"/>
-      <c r="Y163" s="5"/>
+      <c r="S163" s="6"/>
+      <c r="T163" s="6"/>
+      <c r="U163" s="6"/>
+      <c r="V163" s="18"/>
+      <c r="W163" s="4"/>
+      <c r="X163" s="4"/>
+      <c r="Y163" s="4"/>
       <c r="Z163" s="5"/>
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
@@ -6619,8 +7128,11 @@
       <c r="AD163" s="5"/>
       <c r="AE163" s="5"/>
       <c r="AF163" s="5"/>
-    </row>
-    <row r="164" spans="1:32" ht="16.5">
+      <c r="AG163" s="5"/>
+      <c r="AH163" s="5"/>
+      <c r="AI163" s="5"/>
+    </row>
+    <row r="164" spans="1:35" ht="16.5">
       <c r="A164" s="4"/>
       <c r="B164" s="18"/>
       <c r="C164" s="4"/>
@@ -6628,24 +7140,24 @@
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
-      <c r="H164" s="6"/>
-      <c r="I164" s="6"/>
-      <c r="J164" s="6"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4"/>
+      <c r="J164" s="4"/>
       <c r="K164" s="6"/>
-      <c r="L164" s="4"/>
-      <c r="M164" s="4"/>
-      <c r="N164" s="4"/>
-      <c r="O164" s="6"/>
-      <c r="P164" s="6"/>
-      <c r="Q164" s="6"/>
+      <c r="L164" s="6"/>
+      <c r="M164" s="6"/>
+      <c r="N164" s="6"/>
+      <c r="O164" s="4"/>
+      <c r="P164" s="4"/>
+      <c r="Q164" s="4"/>
       <c r="R164" s="6"/>
-      <c r="S164" s="18"/>
-      <c r="T164" s="4"/>
-      <c r="U164" s="4"/>
-      <c r="V164" s="4"/>
-      <c r="W164" s="5"/>
-      <c r="X164" s="5"/>
-      <c r="Y164" s="5"/>
+      <c r="S164" s="6"/>
+      <c r="T164" s="6"/>
+      <c r="U164" s="6"/>
+      <c r="V164" s="18"/>
+      <c r="W164" s="4"/>
+      <c r="X164" s="4"/>
+      <c r="Y164" s="4"/>
       <c r="Z164" s="5"/>
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
@@ -6653,8 +7165,11 @@
       <c r="AD164" s="5"/>
       <c r="AE164" s="5"/>
       <c r="AF164" s="5"/>
-    </row>
-    <row r="165" spans="1:32" ht="16.5">
+      <c r="AG164" s="5"/>
+      <c r="AH164" s="5"/>
+      <c r="AI164" s="5"/>
+    </row>
+    <row r="165" spans="1:35" ht="16.5">
       <c r="A165" s="4"/>
       <c r="B165" s="18"/>
       <c r="C165" s="4"/>
@@ -6662,24 +7177,24 @@
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
-      <c r="H165" s="6"/>
-      <c r="I165" s="6"/>
-      <c r="J165" s="6"/>
+      <c r="H165" s="4"/>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
       <c r="K165" s="6"/>
-      <c r="L165" s="4"/>
-      <c r="M165" s="4"/>
-      <c r="N165" s="4"/>
-      <c r="O165" s="6"/>
-      <c r="P165" s="6"/>
-      <c r="Q165" s="6"/>
+      <c r="L165" s="6"/>
+      <c r="M165" s="6"/>
+      <c r="N165" s="6"/>
+      <c r="O165" s="4"/>
+      <c r="P165" s="4"/>
+      <c r="Q165" s="4"/>
       <c r="R165" s="6"/>
-      <c r="S165" s="18"/>
-      <c r="T165" s="4"/>
-      <c r="U165" s="4"/>
-      <c r="V165" s="4"/>
-      <c r="W165" s="5"/>
-      <c r="X165" s="5"/>
-      <c r="Y165" s="5"/>
+      <c r="S165" s="6"/>
+      <c r="T165" s="6"/>
+      <c r="U165" s="6"/>
+      <c r="V165" s="18"/>
+      <c r="W165" s="4"/>
+      <c r="X165" s="4"/>
+      <c r="Y165" s="4"/>
       <c r="Z165" s="5"/>
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
@@ -6687,8 +7202,11 @@
       <c r="AD165" s="5"/>
       <c r="AE165" s="5"/>
       <c r="AF165" s="5"/>
-    </row>
-    <row r="166" spans="1:32" ht="16.5">
+      <c r="AG165" s="5"/>
+      <c r="AH165" s="5"/>
+      <c r="AI165" s="5"/>
+    </row>
+    <row r="166" spans="1:35" ht="16.5">
       <c r="A166" s="4"/>
       <c r="B166" s="18"/>
       <c r="C166" s="4"/>
@@ -6696,24 +7214,24 @@
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
-      <c r="H166" s="6"/>
-      <c r="I166" s="6"/>
-      <c r="J166" s="6"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
       <c r="K166" s="6"/>
-      <c r="L166" s="4"/>
-      <c r="M166" s="4"/>
-      <c r="N166" s="4"/>
-      <c r="O166" s="6"/>
-      <c r="P166" s="6"/>
-      <c r="Q166" s="6"/>
+      <c r="L166" s="6"/>
+      <c r="M166" s="6"/>
+      <c r="N166" s="6"/>
+      <c r="O166" s="4"/>
+      <c r="P166" s="4"/>
+      <c r="Q166" s="4"/>
       <c r="R166" s="6"/>
-      <c r="S166" s="18"/>
-      <c r="T166" s="4"/>
-      <c r="U166" s="4"/>
-      <c r="V166" s="4"/>
-      <c r="W166" s="5"/>
-      <c r="X166" s="5"/>
-      <c r="Y166" s="5"/>
+      <c r="S166" s="6"/>
+      <c r="T166" s="6"/>
+      <c r="U166" s="6"/>
+      <c r="V166" s="18"/>
+      <c r="W166" s="4"/>
+      <c r="X166" s="4"/>
+      <c r="Y166" s="4"/>
       <c r="Z166" s="5"/>
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
@@ -6721,8 +7239,11 @@
       <c r="AD166" s="5"/>
       <c r="AE166" s="5"/>
       <c r="AF166" s="5"/>
-    </row>
-    <row r="167" spans="1:32">
+      <c r="AG166" s="5"/>
+      <c r="AH166" s="5"/>
+      <c r="AI166" s="5"/>
+    </row>
+    <row r="167" spans="1:35">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -6745,9 +7266,9 @@
       <c r="T167" s="4"/>
       <c r="U167" s="4"/>
       <c r="V167" s="4"/>
-      <c r="W167" s="5"/>
-      <c r="X167" s="5"/>
-      <c r="Y167" s="5"/>
+      <c r="W167" s="4"/>
+      <c r="X167" s="4"/>
+      <c r="Y167" s="4"/>
       <c r="Z167" s="5"/>
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
@@ -6755,8 +7276,11 @@
       <c r="AD167" s="5"/>
       <c r="AE167" s="5"/>
       <c r="AF167" s="5"/>
-    </row>
-    <row r="168" spans="1:32">
+      <c r="AG167" s="5"/>
+      <c r="AH167" s="5"/>
+      <c r="AI167" s="5"/>
+    </row>
+    <row r="168" spans="1:35">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -6779,9 +7303,9 @@
       <c r="T168" s="4"/>
       <c r="U168" s="4"/>
       <c r="V168" s="4"/>
-      <c r="W168" s="5"/>
-      <c r="X168" s="5"/>
-      <c r="Y168" s="5"/>
+      <c r="W168" s="4"/>
+      <c r="X168" s="4"/>
+      <c r="Y168" s="4"/>
       <c r="Z168" s="5"/>
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
@@ -6789,8 +7313,11 @@
       <c r="AD168" s="5"/>
       <c r="AE168" s="5"/>
       <c r="AF168" s="5"/>
-    </row>
-    <row r="169" spans="1:32">
+      <c r="AG168" s="5"/>
+      <c r="AH168" s="5"/>
+      <c r="AI168" s="5"/>
+    </row>
+    <row r="169" spans="1:35">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -6813,9 +7340,9 @@
       <c r="T169" s="4"/>
       <c r="U169" s="4"/>
       <c r="V169" s="4"/>
-      <c r="W169" s="5"/>
-      <c r="X169" s="5"/>
-      <c r="Y169" s="5"/>
+      <c r="W169" s="4"/>
+      <c r="X169" s="4"/>
+      <c r="Y169" s="4"/>
       <c r="Z169" s="5"/>
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
@@ -6823,8 +7350,11 @@
       <c r="AD169" s="5"/>
       <c r="AE169" s="5"/>
       <c r="AF169" s="5"/>
-    </row>
-    <row r="170" spans="1:32">
+      <c r="AG169" s="5"/>
+      <c r="AH169" s="5"/>
+      <c r="AI169" s="5"/>
+    </row>
+    <row r="170" spans="1:35">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -6847,9 +7377,9 @@
       <c r="T170" s="4"/>
       <c r="U170" s="4"/>
       <c r="V170" s="4"/>
-      <c r="W170" s="5"/>
-      <c r="X170" s="5"/>
-      <c r="Y170" s="5"/>
+      <c r="W170" s="4"/>
+      <c r="X170" s="4"/>
+      <c r="Y170" s="4"/>
       <c r="Z170" s="5"/>
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
@@ -6857,8 +7387,11 @@
       <c r="AD170" s="5"/>
       <c r="AE170" s="5"/>
       <c r="AF170" s="5"/>
-    </row>
-    <row r="171" spans="1:32">
+      <c r="AG170" s="5"/>
+      <c r="AH170" s="5"/>
+      <c r="AI170" s="5"/>
+    </row>
+    <row r="171" spans="1:35">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -6881,9 +7414,9 @@
       <c r="T171" s="4"/>
       <c r="U171" s="4"/>
       <c r="V171" s="4"/>
-      <c r="W171" s="5"/>
-      <c r="X171" s="5"/>
-      <c r="Y171" s="5"/>
+      <c r="W171" s="4"/>
+      <c r="X171" s="4"/>
+      <c r="Y171" s="4"/>
       <c r="Z171" s="5"/>
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
@@ -6891,8 +7424,11 @@
       <c r="AD171" s="5"/>
       <c r="AE171" s="5"/>
       <c r="AF171" s="5"/>
-    </row>
-    <row r="172" spans="1:32">
+      <c r="AG171" s="5"/>
+      <c r="AH171" s="5"/>
+      <c r="AI171" s="5"/>
+    </row>
+    <row r="172" spans="1:35">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -6915,9 +7451,9 @@
       <c r="T172" s="4"/>
       <c r="U172" s="4"/>
       <c r="V172" s="4"/>
-      <c r="W172" s="5"/>
-      <c r="X172" s="5"/>
-      <c r="Y172" s="5"/>
+      <c r="W172" s="4"/>
+      <c r="X172" s="4"/>
+      <c r="Y172" s="4"/>
       <c r="Z172" s="5"/>
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
@@ -6925,8 +7461,11 @@
       <c r="AD172" s="5"/>
       <c r="AE172" s="5"/>
       <c r="AF172" s="5"/>
-    </row>
-    <row r="173" spans="1:32">
+      <c r="AG172" s="5"/>
+      <c r="AH172" s="5"/>
+      <c r="AI172" s="5"/>
+    </row>
+    <row r="173" spans="1:35">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -6949,9 +7488,9 @@
       <c r="T173" s="4"/>
       <c r="U173" s="4"/>
       <c r="V173" s="4"/>
-      <c r="W173" s="5"/>
-      <c r="X173" s="5"/>
-      <c r="Y173" s="5"/>
+      <c r="W173" s="4"/>
+      <c r="X173" s="4"/>
+      <c r="Y173" s="4"/>
       <c r="Z173" s="5"/>
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
@@ -6959,8 +7498,11 @@
       <c r="AD173" s="5"/>
       <c r="AE173" s="5"/>
       <c r="AF173" s="5"/>
-    </row>
-    <row r="174" spans="1:32">
+      <c r="AG173" s="5"/>
+      <c r="AH173" s="5"/>
+      <c r="AI173" s="5"/>
+    </row>
+    <row r="174" spans="1:35">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -6983,9 +7525,9 @@
       <c r="T174" s="4"/>
       <c r="U174" s="4"/>
       <c r="V174" s="4"/>
-      <c r="W174" s="5"/>
-      <c r="X174" s="5"/>
-      <c r="Y174" s="5"/>
+      <c r="W174" s="4"/>
+      <c r="X174" s="4"/>
+      <c r="Y174" s="4"/>
       <c r="Z174" s="5"/>
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
@@ -6993,8 +7535,11 @@
       <c r="AD174" s="5"/>
       <c r="AE174" s="5"/>
       <c r="AF174" s="5"/>
-    </row>
-    <row r="175" spans="1:32">
+      <c r="AG174" s="5"/>
+      <c r="AH174" s="5"/>
+      <c r="AI174" s="5"/>
+    </row>
+    <row r="175" spans="1:35">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -7017,9 +7562,9 @@
       <c r="T175" s="4"/>
       <c r="U175" s="4"/>
       <c r="V175" s="4"/>
-      <c r="W175" s="5"/>
-      <c r="X175" s="5"/>
-      <c r="Y175" s="5"/>
+      <c r="W175" s="4"/>
+      <c r="X175" s="4"/>
+      <c r="Y175" s="4"/>
       <c r="Z175" s="5"/>
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
@@ -7027,8 +7572,11 @@
       <c r="AD175" s="5"/>
       <c r="AE175" s="5"/>
       <c r="AF175" s="5"/>
-    </row>
-    <row r="176" spans="1:32">
+      <c r="AG175" s="5"/>
+      <c r="AH175" s="5"/>
+      <c r="AI175" s="5"/>
+    </row>
+    <row r="176" spans="1:35">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -7051,9 +7599,9 @@
       <c r="T176" s="4"/>
       <c r="U176" s="4"/>
       <c r="V176" s="4"/>
-      <c r="W176" s="5"/>
-      <c r="X176" s="5"/>
-      <c r="Y176" s="5"/>
+      <c r="W176" s="4"/>
+      <c r="X176" s="4"/>
+      <c r="Y176" s="4"/>
       <c r="Z176" s="5"/>
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
@@ -7061,8 +7609,11 @@
       <c r="AD176" s="5"/>
       <c r="AE176" s="5"/>
       <c r="AF176" s="5"/>
-    </row>
-    <row r="177" spans="1:32">
+      <c r="AG176" s="5"/>
+      <c r="AH176" s="5"/>
+      <c r="AI176" s="5"/>
+    </row>
+    <row r="177" spans="1:35">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -7085,9 +7636,9 @@
       <c r="T177" s="4"/>
       <c r="U177" s="4"/>
       <c r="V177" s="4"/>
-      <c r="W177" s="5"/>
-      <c r="X177" s="5"/>
-      <c r="Y177" s="5"/>
+      <c r="W177" s="4"/>
+      <c r="X177" s="4"/>
+      <c r="Y177" s="4"/>
       <c r="Z177" s="5"/>
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
@@ -7095,8 +7646,11 @@
       <c r="AD177" s="5"/>
       <c r="AE177" s="5"/>
       <c r="AF177" s="5"/>
-    </row>
-    <row r="178" spans="1:32">
+      <c r="AG177" s="5"/>
+      <c r="AH177" s="5"/>
+      <c r="AI177" s="5"/>
+    </row>
+    <row r="178" spans="1:35">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -7119,9 +7673,9 @@
       <c r="T178" s="4"/>
       <c r="U178" s="4"/>
       <c r="V178" s="4"/>
-      <c r="W178" s="5"/>
-      <c r="X178" s="5"/>
-      <c r="Y178" s="5"/>
+      <c r="W178" s="4"/>
+      <c r="X178" s="4"/>
+      <c r="Y178" s="4"/>
       <c r="Z178" s="5"/>
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
@@ -7129,8 +7683,11 @@
       <c r="AD178" s="5"/>
       <c r="AE178" s="5"/>
       <c r="AF178" s="5"/>
-    </row>
-    <row r="179" spans="1:32">
+      <c r="AG178" s="5"/>
+      <c r="AH178" s="5"/>
+      <c r="AI178" s="5"/>
+    </row>
+    <row r="179" spans="1:35">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -7153,9 +7710,9 @@
       <c r="T179" s="4"/>
       <c r="U179" s="4"/>
       <c r="V179" s="4"/>
-      <c r="W179" s="5"/>
-      <c r="X179" s="5"/>
-      <c r="Y179" s="5"/>
+      <c r="W179" s="4"/>
+      <c r="X179" s="4"/>
+      <c r="Y179" s="4"/>
       <c r="Z179" s="5"/>
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
@@ -7163,8 +7720,11 @@
       <c r="AD179" s="5"/>
       <c r="AE179" s="5"/>
       <c r="AF179" s="5"/>
-    </row>
-    <row r="180" spans="1:32">
+      <c r="AG179" s="5"/>
+      <c r="AH179" s="5"/>
+      <c r="AI179" s="5"/>
+    </row>
+    <row r="180" spans="1:35">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -7187,9 +7747,9 @@
       <c r="T180" s="4"/>
       <c r="U180" s="4"/>
       <c r="V180" s="4"/>
-      <c r="W180" s="5"/>
-      <c r="X180" s="5"/>
-      <c r="Y180" s="5"/>
+      <c r="W180" s="4"/>
+      <c r="X180" s="4"/>
+      <c r="Y180" s="4"/>
       <c r="Z180" s="5"/>
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
@@ -7197,8 +7757,11 @@
       <c r="AD180" s="5"/>
       <c r="AE180" s="5"/>
       <c r="AF180" s="5"/>
-    </row>
-    <row r="181" spans="1:32">
+      <c r="AG180" s="5"/>
+      <c r="AH180" s="5"/>
+      <c r="AI180" s="5"/>
+    </row>
+    <row r="181" spans="1:35">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -7221,9 +7784,9 @@
       <c r="T181" s="4"/>
       <c r="U181" s="4"/>
       <c r="V181" s="4"/>
-      <c r="W181" s="5"/>
-      <c r="X181" s="5"/>
-      <c r="Y181" s="5"/>
+      <c r="W181" s="4"/>
+      <c r="X181" s="4"/>
+      <c r="Y181" s="4"/>
       <c r="Z181" s="5"/>
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
@@ -7231,8 +7794,11 @@
       <c r="AD181" s="5"/>
       <c r="AE181" s="5"/>
       <c r="AF181" s="5"/>
-    </row>
-    <row r="182" spans="1:32">
+      <c r="AG181" s="5"/>
+      <c r="AH181" s="5"/>
+      <c r="AI181" s="5"/>
+    </row>
+    <row r="182" spans="1:35">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -7255,9 +7821,9 @@
       <c r="T182" s="4"/>
       <c r="U182" s="4"/>
       <c r="V182" s="4"/>
-      <c r="W182" s="5"/>
-      <c r="X182" s="5"/>
-      <c r="Y182" s="5"/>
+      <c r="W182" s="4"/>
+      <c r="X182" s="4"/>
+      <c r="Y182" s="4"/>
       <c r="Z182" s="5"/>
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
@@ -7265,8 +7831,11 @@
       <c r="AD182" s="5"/>
       <c r="AE182" s="5"/>
       <c r="AF182" s="5"/>
-    </row>
-    <row r="183" spans="1:32">
+      <c r="AG182" s="5"/>
+      <c r="AH182" s="5"/>
+      <c r="AI182" s="5"/>
+    </row>
+    <row r="183" spans="1:35">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -7289,9 +7858,9 @@
       <c r="T183" s="4"/>
       <c r="U183" s="4"/>
       <c r="V183" s="4"/>
-      <c r="W183" s="5"/>
-      <c r="X183" s="5"/>
-      <c r="Y183" s="5"/>
+      <c r="W183" s="4"/>
+      <c r="X183" s="4"/>
+      <c r="Y183" s="4"/>
       <c r="Z183" s="5"/>
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
@@ -7299,8 +7868,11 @@
       <c r="AD183" s="5"/>
       <c r="AE183" s="5"/>
       <c r="AF183" s="5"/>
-    </row>
-    <row r="184" spans="1:32">
+      <c r="AG183" s="5"/>
+      <c r="AH183" s="5"/>
+      <c r="AI183" s="5"/>
+    </row>
+    <row r="184" spans="1:35">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -7323,9 +7895,9 @@
       <c r="T184" s="4"/>
       <c r="U184" s="4"/>
       <c r="V184" s="4"/>
-      <c r="W184" s="5"/>
-      <c r="X184" s="5"/>
-      <c r="Y184" s="5"/>
+      <c r="W184" s="4"/>
+      <c r="X184" s="4"/>
+      <c r="Y184" s="4"/>
       <c r="Z184" s="5"/>
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
@@ -7333,8 +7905,11 @@
       <c r="AD184" s="5"/>
       <c r="AE184" s="5"/>
       <c r="AF184" s="5"/>
-    </row>
-    <row r="185" spans="1:32">
+      <c r="AG184" s="5"/>
+      <c r="AH184" s="5"/>
+      <c r="AI184" s="5"/>
+    </row>
+    <row r="185" spans="1:35">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -7357,9 +7932,9 @@
       <c r="T185" s="4"/>
       <c r="U185" s="4"/>
       <c r="V185" s="4"/>
-      <c r="W185" s="5"/>
-      <c r="X185" s="5"/>
-      <c r="Y185" s="5"/>
+      <c r="W185" s="4"/>
+      <c r="X185" s="4"/>
+      <c r="Y185" s="4"/>
       <c r="Z185" s="5"/>
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
@@ -7367,8 +7942,11 @@
       <c r="AD185" s="5"/>
       <c r="AE185" s="5"/>
       <c r="AF185" s="5"/>
-    </row>
-    <row r="186" spans="1:32">
+      <c r="AG185" s="5"/>
+      <c r="AH185" s="5"/>
+      <c r="AI185" s="5"/>
+    </row>
+    <row r="186" spans="1:35">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -7391,9 +7969,9 @@
       <c r="T186" s="4"/>
       <c r="U186" s="4"/>
       <c r="V186" s="4"/>
-      <c r="W186" s="5"/>
-      <c r="X186" s="5"/>
-      <c r="Y186" s="5"/>
+      <c r="W186" s="4"/>
+      <c r="X186" s="4"/>
+      <c r="Y186" s="4"/>
       <c r="Z186" s="5"/>
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
@@ -7401,8 +7979,11 @@
       <c r="AD186" s="5"/>
       <c r="AE186" s="5"/>
       <c r="AF186" s="5"/>
-    </row>
-    <row r="187" spans="1:32">
+      <c r="AG186" s="5"/>
+      <c r="AH186" s="5"/>
+      <c r="AI186" s="5"/>
+    </row>
+    <row r="187" spans="1:35">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -7425,9 +8006,9 @@
       <c r="T187" s="4"/>
       <c r="U187" s="4"/>
       <c r="V187" s="4"/>
-      <c r="W187" s="5"/>
-      <c r="X187" s="5"/>
-      <c r="Y187" s="5"/>
+      <c r="W187" s="4"/>
+      <c r="X187" s="4"/>
+      <c r="Y187" s="4"/>
       <c r="Z187" s="5"/>
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
@@ -7435,8 +8016,11 @@
       <c r="AD187" s="5"/>
       <c r="AE187" s="5"/>
       <c r="AF187" s="5"/>
-    </row>
-    <row r="188" spans="1:32">
+      <c r="AG187" s="5"/>
+      <c r="AH187" s="5"/>
+      <c r="AI187" s="5"/>
+    </row>
+    <row r="188" spans="1:35">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -7459,9 +8043,9 @@
       <c r="T188" s="4"/>
       <c r="U188" s="4"/>
       <c r="V188" s="4"/>
-      <c r="W188" s="5"/>
-      <c r="X188" s="5"/>
-      <c r="Y188" s="5"/>
+      <c r="W188" s="4"/>
+      <c r="X188" s="4"/>
+      <c r="Y188" s="4"/>
       <c r="Z188" s="5"/>
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
@@ -7469,8 +8053,11 @@
       <c r="AD188" s="5"/>
       <c r="AE188" s="5"/>
       <c r="AF188" s="5"/>
-    </row>
-    <row r="189" spans="1:32">
+      <c r="AG188" s="5"/>
+      <c r="AH188" s="5"/>
+      <c r="AI188" s="5"/>
+    </row>
+    <row r="189" spans="1:35">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -7493,9 +8080,9 @@
       <c r="T189" s="4"/>
       <c r="U189" s="4"/>
       <c r="V189" s="4"/>
-      <c r="W189" s="5"/>
-      <c r="X189" s="5"/>
-      <c r="Y189" s="5"/>
+      <c r="W189" s="4"/>
+      <c r="X189" s="4"/>
+      <c r="Y189" s="4"/>
       <c r="Z189" s="5"/>
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
@@ -7503,8 +8090,11 @@
       <c r="AD189" s="5"/>
       <c r="AE189" s="5"/>
       <c r="AF189" s="5"/>
-    </row>
-    <row r="190" spans="1:32">
+      <c r="AG189" s="5"/>
+      <c r="AH189" s="5"/>
+      <c r="AI189" s="5"/>
+    </row>
+    <row r="190" spans="1:35">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -7527,9 +8117,9 @@
       <c r="T190" s="4"/>
       <c r="U190" s="4"/>
       <c r="V190" s="4"/>
-      <c r="W190" s="5"/>
-      <c r="X190" s="5"/>
-      <c r="Y190" s="5"/>
+      <c r="W190" s="4"/>
+      <c r="X190" s="4"/>
+      <c r="Y190" s="4"/>
       <c r="Z190" s="5"/>
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
@@ -7537,8 +8127,11 @@
       <c r="AD190" s="5"/>
       <c r="AE190" s="5"/>
       <c r="AF190" s="5"/>
-    </row>
-    <row r="191" spans="1:32">
+      <c r="AG190" s="5"/>
+      <c r="AH190" s="5"/>
+      <c r="AI190" s="5"/>
+    </row>
+    <row r="191" spans="1:35">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -7561,9 +8154,9 @@
       <c r="T191" s="4"/>
       <c r="U191" s="4"/>
       <c r="V191" s="4"/>
-      <c r="W191" s="5"/>
-      <c r="X191" s="5"/>
-      <c r="Y191" s="5"/>
+      <c r="W191" s="4"/>
+      <c r="X191" s="4"/>
+      <c r="Y191" s="4"/>
       <c r="Z191" s="5"/>
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
@@ -7571,8 +8164,11 @@
       <c r="AD191" s="5"/>
       <c r="AE191" s="5"/>
       <c r="AF191" s="5"/>
-    </row>
-    <row r="192" spans="1:32">
+      <c r="AG191" s="5"/>
+      <c r="AH191" s="5"/>
+      <c r="AI191" s="5"/>
+    </row>
+    <row r="192" spans="1:35">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -7595,9 +8191,9 @@
       <c r="T192" s="4"/>
       <c r="U192" s="4"/>
       <c r="V192" s="4"/>
-      <c r="W192" s="5"/>
-      <c r="X192" s="5"/>
-      <c r="Y192" s="5"/>
+      <c r="W192" s="4"/>
+      <c r="X192" s="4"/>
+      <c r="Y192" s="4"/>
       <c r="Z192" s="5"/>
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
@@ -7605,8 +8201,11 @@
       <c r="AD192" s="5"/>
       <c r="AE192" s="5"/>
       <c r="AF192" s="5"/>
-    </row>
-    <row r="193" spans="1:32">
+      <c r="AG192" s="5"/>
+      <c r="AH192" s="5"/>
+      <c r="AI192" s="5"/>
+    </row>
+    <row r="193" spans="1:35">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -7629,9 +8228,9 @@
       <c r="T193" s="4"/>
       <c r="U193" s="4"/>
       <c r="V193" s="4"/>
-      <c r="W193" s="5"/>
-      <c r="X193" s="5"/>
-      <c r="Y193" s="5"/>
+      <c r="W193" s="4"/>
+      <c r="X193" s="4"/>
+      <c r="Y193" s="4"/>
       <c r="Z193" s="5"/>
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
@@ -7639,8 +8238,11 @@
       <c r="AD193" s="5"/>
       <c r="AE193" s="5"/>
       <c r="AF193" s="5"/>
-    </row>
-    <row r="194" spans="1:32">
+      <c r="AG193" s="5"/>
+      <c r="AH193" s="5"/>
+      <c r="AI193" s="5"/>
+    </row>
+    <row r="194" spans="1:35">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -7663,9 +8265,9 @@
       <c r="T194" s="4"/>
       <c r="U194" s="4"/>
       <c r="V194" s="4"/>
-      <c r="W194" s="5"/>
-      <c r="X194" s="5"/>
-      <c r="Y194" s="5"/>
+      <c r="W194" s="4"/>
+      <c r="X194" s="4"/>
+      <c r="Y194" s="4"/>
       <c r="Z194" s="5"/>
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
@@ -7673,8 +8275,11 @@
       <c r="AD194" s="5"/>
       <c r="AE194" s="5"/>
       <c r="AF194" s="5"/>
-    </row>
-    <row r="195" spans="1:32">
+      <c r="AG194" s="5"/>
+      <c r="AH194" s="5"/>
+      <c r="AI194" s="5"/>
+    </row>
+    <row r="195" spans="1:35">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -7697,9 +8302,9 @@
       <c r="T195" s="4"/>
       <c r="U195" s="4"/>
       <c r="V195" s="4"/>
-      <c r="W195" s="5"/>
-      <c r="X195" s="5"/>
-      <c r="Y195" s="5"/>
+      <c r="W195" s="4"/>
+      <c r="X195" s="4"/>
+      <c r="Y195" s="4"/>
       <c r="Z195" s="5"/>
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
@@ -7707,8 +8312,11 @@
       <c r="AD195" s="5"/>
       <c r="AE195" s="5"/>
       <c r="AF195" s="5"/>
-    </row>
-    <row r="196" spans="1:32">
+      <c r="AG195" s="5"/>
+      <c r="AH195" s="5"/>
+      <c r="AI195" s="5"/>
+    </row>
+    <row r="196" spans="1:35">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -7731,9 +8339,9 @@
       <c r="T196" s="4"/>
       <c r="U196" s="4"/>
       <c r="V196" s="4"/>
-      <c r="W196" s="5"/>
-      <c r="X196" s="5"/>
-      <c r="Y196" s="5"/>
+      <c r="W196" s="4"/>
+      <c r="X196" s="4"/>
+      <c r="Y196" s="4"/>
       <c r="Z196" s="5"/>
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
@@ -7741,8 +8349,11 @@
       <c r="AD196" s="5"/>
       <c r="AE196" s="5"/>
       <c r="AF196" s="5"/>
-    </row>
-    <row r="197" spans="1:32">
+      <c r="AG196" s="5"/>
+      <c r="AH196" s="5"/>
+      <c r="AI196" s="5"/>
+    </row>
+    <row r="197" spans="1:35">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -7765,9 +8376,9 @@
       <c r="T197" s="4"/>
       <c r="U197" s="4"/>
       <c r="V197" s="4"/>
-      <c r="W197" s="5"/>
-      <c r="X197" s="5"/>
-      <c r="Y197" s="5"/>
+      <c r="W197" s="4"/>
+      <c r="X197" s="4"/>
+      <c r="Y197" s="4"/>
       <c r="Z197" s="5"/>
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
@@ -7775,8 +8386,11 @@
       <c r="AD197" s="5"/>
       <c r="AE197" s="5"/>
       <c r="AF197" s="5"/>
-    </row>
-    <row r="198" spans="1:32">
+      <c r="AG197" s="5"/>
+      <c r="AH197" s="5"/>
+      <c r="AI197" s="5"/>
+    </row>
+    <row r="198" spans="1:35">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -7799,9 +8413,9 @@
       <c r="T198" s="4"/>
       <c r="U198" s="4"/>
       <c r="V198" s="4"/>
-      <c r="W198" s="5"/>
-      <c r="X198" s="5"/>
-      <c r="Y198" s="5"/>
+      <c r="W198" s="4"/>
+      <c r="X198" s="4"/>
+      <c r="Y198" s="4"/>
       <c r="Z198" s="5"/>
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
@@ -7809,8 +8423,11 @@
       <c r="AD198" s="5"/>
       <c r="AE198" s="5"/>
       <c r="AF198" s="5"/>
-    </row>
-    <row r="199" spans="1:32">
+      <c r="AG198" s="5"/>
+      <c r="AH198" s="5"/>
+      <c r="AI198" s="5"/>
+    </row>
+    <row r="199" spans="1:35">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -7833,9 +8450,9 @@
       <c r="T199" s="4"/>
       <c r="U199" s="4"/>
       <c r="V199" s="4"/>
-      <c r="W199" s="5"/>
-      <c r="X199" s="5"/>
-      <c r="Y199" s="5"/>
+      <c r="W199" s="4"/>
+      <c r="X199" s="4"/>
+      <c r="Y199" s="4"/>
       <c r="Z199" s="5"/>
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
@@ -7843,8 +8460,11 @@
       <c r="AD199" s="5"/>
       <c r="AE199" s="5"/>
       <c r="AF199" s="5"/>
-    </row>
-    <row r="200" spans="1:32">
+      <c r="AG199" s="5"/>
+      <c r="AH199" s="5"/>
+      <c r="AI199" s="5"/>
+    </row>
+    <row r="200" spans="1:35">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -7867,9 +8487,9 @@
       <c r="T200" s="4"/>
       <c r="U200" s="4"/>
       <c r="V200" s="4"/>
-      <c r="W200" s="5"/>
-      <c r="X200" s="5"/>
-      <c r="Y200" s="5"/>
+      <c r="W200" s="4"/>
+      <c r="X200" s="4"/>
+      <c r="Y200" s="4"/>
       <c r="Z200" s="5"/>
       <c r="AA200" s="5"/>
       <c r="AB200" s="5"/>
@@ -7877,6 +8497,9 @@
       <c r="AD200" s="5"/>
       <c r="AE200" s="5"/>
       <c r="AF200" s="5"/>
+      <c r="AG200" s="5"/>
+      <c r="AH200" s="5"/>
+      <c r="AI200" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
@@ -7910,52 +8533,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="6" spans="1:1">
       <c r="A6" s="20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/TH64_Fujie_UIList.xlsx
+++ b/exe/TSV/Excel/TH64_Fujie_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB42F319-82EF-4A12-A253-101D7E65B2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D13B216-DEB6-4BF7-820D-3EE63B6A1559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH64_藤江駅_UIList" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="263">
   <si>
     <t>Type</t>
   </si>
@@ -573,6 +573,9 @@
     <t>11L</t>
   </si>
   <si>
+    <t>てこ</t>
+  </si>
+  <si>
     <t>-1,1</t>
   </si>
   <si>
@@ -780,7 +783,7 @@
     <t>解放98_PY</t>
   </si>
   <si>
-    <t>てこ</t>
+    <t>解放てこ</t>
   </si>
   <si>
     <t>駅扱切換</t>
@@ -796,6 +799,9 @@
   </si>
   <si>
     <t>駅扱切換_PY</t>
+  </si>
+  <si>
+    <t>駅扱切換てこ</t>
   </si>
   <si>
     <t>駅扱切換_PG</t>
@@ -1923,7 +1929,9 @@
         <v>39</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1948,19 +1956,19 @@
         <v>39</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W6" s="10">
         <v>-1</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
@@ -1973,10 +1981,10 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>39</v>
@@ -2009,10 +2017,10 @@
         <v>10</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U7" s="10" t="s">
         <v>39</v>
@@ -2036,10 +2044,12 @@
         <v>38</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -2061,22 +2071,22 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W8" s="10">
         <v>0</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y8" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
@@ -2092,14 +2102,14 @@
         <v>29</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -2122,17 +2132,17 @@
       <c r="T9" s="4"/>
       <c r="U9" s="13"/>
       <c r="V9" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W9" s="10">
         <v>0</v>
       </c>
       <c r="X9" s="11"/>
       <c r="Y9" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
@@ -2148,14 +2158,14 @@
         <v>29</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -2178,14 +2188,14 @@
       <c r="T10" s="4"/>
       <c r="U10" s="13"/>
       <c r="V10" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W10" s="10">
         <v>0</v>
       </c>
       <c r="X10" s="11"/>
       <c r="Y10" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
@@ -2199,13 +2209,13 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2235,13 +2245,13 @@
         <v>10</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
@@ -2262,10 +2272,12 @@
         <v>38</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -2287,19 +2299,19 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W12" s="10">
         <v>0</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y12" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
@@ -2316,14 +2328,14 @@
         <v>29</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -2346,14 +2358,14 @@
       <c r="T13" s="4"/>
       <c r="U13" s="13"/>
       <c r="V13" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W13" s="10">
         <v>0</v>
       </c>
       <c r="X13" s="11"/>
       <c r="Y13" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
@@ -2370,14 +2382,14 @@
         <v>29</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -2400,14 +2412,14 @@
       <c r="T14" s="4"/>
       <c r="U14" s="13"/>
       <c r="V14" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W14" s="10">
         <v>0</v>
       </c>
       <c r="X14" s="11"/>
       <c r="Y14" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
@@ -2421,13 +2433,13 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2457,13 +2469,13 @@
         <v>10</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
@@ -2484,10 +2496,12 @@
         <v>38</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -2509,19 +2523,19 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W16" s="10">
         <v>0</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y16" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
@@ -2538,14 +2552,14 @@
         <v>29</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -2568,14 +2582,14 @@
       <c r="T17" s="4"/>
       <c r="U17" s="9"/>
       <c r="V17" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W17" s="10">
         <v>0</v>
       </c>
       <c r="X17" s="11"/>
       <c r="Y17" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
@@ -2592,14 +2606,14 @@
         <v>29</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -2622,14 +2636,14 @@
       <c r="T18" s="4"/>
       <c r="U18" s="9"/>
       <c r="V18" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W18" s="10">
         <v>0</v>
       </c>
       <c r="X18" s="11"/>
       <c r="Y18" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
@@ -2643,13 +2657,13 @@
     </row>
     <row r="19" spans="1:34">
       <c r="A19" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2679,13 +2693,13 @@
         <v>10</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
@@ -2706,10 +2720,12 @@
         <v>38</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -2731,19 +2747,19 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W20" s="10">
         <v>0</v>
       </c>
       <c r="X20" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y20" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
@@ -2760,14 +2776,14 @@
         <v>29</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -2790,14 +2806,14 @@
       <c r="T21" s="4"/>
       <c r="U21" s="13"/>
       <c r="V21" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W21" s="10">
         <v>0</v>
       </c>
       <c r="X21" s="11"/>
       <c r="Y21" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
@@ -2814,14 +2830,14 @@
         <v>29</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -2844,14 +2860,14 @@
       <c r="T22" s="4"/>
       <c r="U22" s="13"/>
       <c r="V22" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W22" s="10">
         <v>0</v>
       </c>
       <c r="X22" s="11"/>
       <c r="Y22" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
@@ -2865,13 +2881,13 @@
     </row>
     <row r="23" spans="1:34">
       <c r="A23" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2901,13 +2917,13 @@
         <v>10</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
@@ -2928,10 +2944,12 @@
         <v>38</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -2953,22 +2971,22 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W24" s="10">
         <v>-1</v>
       </c>
       <c r="X24" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y24" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
@@ -2981,13 +2999,13 @@
     </row>
     <row r="25" spans="1:34">
       <c r="A25" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -3017,13 +3035,13 @@
         <v>10</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T25" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
@@ -3041,10 +3059,10 @@
     </row>
     <row r="26" spans="1:34">
       <c r="A26" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -3069,19 +3087,19 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W26" s="10">
         <v>0</v>
       </c>
       <c r="X26" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y26" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
@@ -3095,10 +3113,10 @@
     </row>
     <row r="27" spans="1:34">
       <c r="A27" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -3123,19 +3141,19 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="V27" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="W27" s="10">
+        <v>0</v>
+      </c>
+      <c r="X27" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y27" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="V27" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="W27" s="10">
-        <v>0</v>
-      </c>
-      <c r="X27" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y27" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
@@ -3152,10 +3170,12 @@
         <v>38</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -3177,22 +3197,22 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W28" s="10">
         <v>0</v>
       </c>
       <c r="X28" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y28" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
@@ -3208,11 +3228,11 @@
         <v>29</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="4"/>
@@ -3236,14 +3256,14 @@
       <c r="T29" s="4"/>
       <c r="U29" s="9"/>
       <c r="V29" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W29" s="10">
         <v>0</v>
       </c>
       <c r="X29" s="11"/>
       <c r="Y29" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
@@ -3260,11 +3280,11 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="4"/>
@@ -3288,14 +3308,14 @@
       <c r="T30" s="4"/>
       <c r="U30" s="9"/>
       <c r="V30" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W30" s="10">
         <v>0</v>
       </c>
       <c r="X30" s="11"/>
       <c r="Y30" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
@@ -3309,13 +3329,13 @@
     </row>
     <row r="31" spans="1:34">
       <c r="A31" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -3345,13 +3365,13 @@
         <v>10</v>
       </c>
       <c r="S31" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T31" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U31" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
@@ -3372,10 +3392,12 @@
         <v>38</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -3397,19 +3419,19 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W32" s="10">
         <v>0</v>
       </c>
       <c r="X32" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y32" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
@@ -3426,11 +3448,11 @@
         <v>29</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="4"/>
@@ -3454,14 +3476,14 @@
       <c r="T33" s="4"/>
       <c r="U33" s="13"/>
       <c r="V33" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W33" s="10">
         <v>0</v>
       </c>
       <c r="X33" s="11"/>
       <c r="Y33" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
@@ -3478,11 +3500,11 @@
         <v>29</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="4"/>
@@ -3506,14 +3528,14 @@
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W34" s="10">
         <v>0</v>
       </c>
       <c r="X34" s="11"/>
       <c r="Y34" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
@@ -3527,13 +3549,13 @@
     </row>
     <row r="35" spans="1:34">
       <c r="A35" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3563,13 +3585,13 @@
         <v>10</v>
       </c>
       <c r="S35" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T35" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U35" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
@@ -3587,13 +3609,15 @@
     </row>
     <row r="36" spans="1:34">
       <c r="A36" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -3615,22 +3639,22 @@
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="U36" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="W36" s="10">
         <v>0</v>
       </c>
       <c r="X36" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y36" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z36" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
@@ -3646,11 +3670,11 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -3674,14 +3698,14 @@
       <c r="T37" s="4"/>
       <c r="U37" s="13"/>
       <c r="V37" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W37" s="10">
         <v>0</v>
       </c>
       <c r="X37" s="11"/>
       <c r="Y37" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
@@ -3695,13 +3719,15 @@
     </row>
     <row r="38" spans="1:34">
       <c r="A38" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -3723,22 +3749,22 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="W38" s="10">
         <v>1</v>
       </c>
       <c r="X38" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y38" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z38" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
@@ -3754,11 +3780,11 @@
         <v>29</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="4" t="s">
-        <v>109</v>
+      <c r="D39" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -3782,14 +3808,14 @@
       <c r="T39" s="4"/>
       <c r="U39" s="13"/>
       <c r="V39" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W39" s="10">
         <v>0</v>
       </c>
       <c r="X39" s="11"/>
       <c r="Y39" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
@@ -3806,11 +3832,11 @@
         <v>29</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
-        <v>109</v>
+      <c r="D40" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -3834,14 +3860,14 @@
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
       <c r="V40" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W40" s="10">
         <v>0</v>
       </c>
       <c r="X40" s="11"/>
       <c r="Y40" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
@@ -3855,13 +3881,15 @@
     </row>
     <row r="41" spans="1:34">
       <c r="A41" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -3883,22 +3911,22 @@
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
       <c r="U41" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="V41" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="W41" s="10">
         <v>0</v>
       </c>
       <c r="X41" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z41" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
@@ -3914,11 +3942,11 @@
         <v>29</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -3942,14 +3970,14 @@
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W42" s="10">
         <v>0</v>
       </c>
       <c r="X42" s="11"/>
       <c r="Y42" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
@@ -3966,11 +3994,11 @@
         <v>29</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -3994,17 +4022,17 @@
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
       <c r="V43" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W43" s="10">
         <v>0</v>
       </c>
       <c r="X43" s="11"/>
       <c r="Y43" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z43" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
@@ -4020,11 +4048,11 @@
         <v>29</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -4048,14 +4076,14 @@
       <c r="T44" s="4"/>
       <c r="U44" s="13"/>
       <c r="V44" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W44" s="10">
         <v>0</v>
       </c>
       <c r="X44" s="11"/>
       <c r="Y44" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
@@ -4072,11 +4100,11 @@
         <v>29</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -4100,14 +4128,14 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W45" s="10">
         <v>0</v>
       </c>
       <c r="X45" s="11"/>
       <c r="Y45" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
@@ -4124,11 +4152,11 @@
         <v>29</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -4152,14 +4180,14 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W46" s="10">
         <v>0</v>
       </c>
       <c r="X46" s="11"/>
       <c r="Y46" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
@@ -4176,11 +4204,11 @@
         <v>29</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -4204,14 +4232,14 @@
       <c r="T47" s="4"/>
       <c r="U47" s="13"/>
       <c r="V47" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W47" s="10">
         <v>0</v>
       </c>
       <c r="X47" s="11"/>
       <c r="Y47" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
@@ -4228,11 +4256,11 @@
         <v>29</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -4256,14 +4284,14 @@
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
       <c r="V48" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W48" s="10">
         <v>0</v>
       </c>
       <c r="X48" s="11"/>
       <c r="Y48" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
@@ -4280,11 +4308,11 @@
         <v>29</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -4308,17 +4336,17 @@
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
       <c r="V49" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W49" s="10">
         <v>0</v>
       </c>
       <c r="X49" s="11"/>
       <c r="Y49" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Z49" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
@@ -4334,11 +4362,11 @@
         <v>29</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -4362,14 +4390,14 @@
       <c r="T50" s="4"/>
       <c r="U50" s="13"/>
       <c r="V50" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W50" s="10">
         <v>0</v>
       </c>
       <c r="X50" s="11"/>
       <c r="Y50" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
@@ -4386,11 +4414,11 @@
         <v>29</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -4414,17 +4442,17 @@
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
       <c r="V51" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W51" s="10">
         <v>0</v>
       </c>
       <c r="X51" s="11"/>
       <c r="Y51" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Z51" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
@@ -4440,11 +4468,11 @@
         <v>29</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -4468,17 +4496,17 @@
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
       <c r="V52" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W52" s="10">
         <v>0</v>
       </c>
       <c r="X52" s="11"/>
       <c r="Y52" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Z52" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
@@ -4494,11 +4522,11 @@
         <v>29</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -4522,17 +4550,17 @@
       <c r="T53" s="4"/>
       <c r="U53" s="13"/>
       <c r="V53" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W53" s="10">
         <v>0</v>
       </c>
       <c r="X53" s="11"/>
       <c r="Y53" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Z53" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
@@ -4548,11 +4576,11 @@
         <v>29</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -4576,14 +4604,14 @@
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
       <c r="V54" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W54" s="10">
         <v>0</v>
       </c>
       <c r="X54" s="11"/>
       <c r="Y54" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
@@ -4600,11 +4628,11 @@
         <v>29</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -4628,14 +4656,14 @@
       <c r="T55" s="4"/>
       <c r="U55" s="13"/>
       <c r="V55" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W55" s="10">
         <v>0</v>
       </c>
       <c r="X55" s="11"/>
       <c r="Y55" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
@@ -4652,11 +4680,11 @@
         <v>29</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -4680,17 +4708,17 @@
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
       <c r="V56" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W56" s="10">
         <v>0</v>
       </c>
       <c r="X56" s="11"/>
       <c r="Y56" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Z56" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
@@ -4706,11 +4734,11 @@
         <v>29</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -4734,14 +4762,14 @@
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
       <c r="V57" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W57" s="10">
         <v>0</v>
       </c>
       <c r="X57" s="11"/>
       <c r="Y57" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
@@ -4758,11 +4786,11 @@
         <v>29</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -4786,14 +4814,14 @@
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
       <c r="V58" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W58" s="10">
         <v>0</v>
       </c>
       <c r="X58" s="11"/>
       <c r="Y58" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
@@ -4810,11 +4838,11 @@
         <v>29</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -4838,14 +4866,14 @@
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
       <c r="V59" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W59" s="10">
         <v>0</v>
       </c>
       <c r="X59" s="11"/>
       <c r="Y59" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z59" s="5"/>
       <c r="AA59" s="5"/>
@@ -4862,11 +4890,11 @@
         <v>29</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -4890,14 +4918,14 @@
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
       <c r="V60" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W60" s="10">
         <v>0</v>
       </c>
       <c r="X60" s="11"/>
       <c r="Y60" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z60" s="5"/>
       <c r="AA60" s="5"/>
@@ -4914,11 +4942,11 @@
         <v>29</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -4942,14 +4970,14 @@
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
       <c r="V61" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W61" s="10">
         <v>0</v>
       </c>
       <c r="X61" s="11"/>
       <c r="Y61" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z61" s="5"/>
       <c r="AA61" s="5"/>
@@ -4966,11 +4994,11 @@
         <v>29</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -4994,14 +5022,14 @@
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
       <c r="V62" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W62" s="10">
         <v>0</v>
       </c>
       <c r="X62" s="11"/>
       <c r="Y62" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z62" s="5"/>
       <c r="AA62" s="5"/>
@@ -5018,11 +5046,11 @@
         <v>29</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -5046,14 +5074,14 @@
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
       <c r="V63" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W63" s="10">
         <v>0</v>
       </c>
       <c r="X63" s="11"/>
       <c r="Y63" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z63" s="5"/>
       <c r="AA63" s="5"/>
@@ -5070,11 +5098,11 @@
         <v>29</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -5098,14 +5126,14 @@
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
       <c r="V64" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W64" s="10">
         <v>0</v>
       </c>
       <c r="X64" s="11"/>
       <c r="Y64" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z64" s="5"/>
       <c r="AA64" s="5"/>
@@ -5122,11 +5150,11 @@
         <v>29</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -5150,14 +5178,14 @@
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
       <c r="V65" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W65" s="10">
         <v>0</v>
       </c>
       <c r="X65" s="11"/>
       <c r="Y65" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z65" s="5"/>
       <c r="AA65" s="5"/>
@@ -5174,11 +5202,11 @@
         <v>29</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
@@ -5202,14 +5230,14 @@
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
       <c r="V66" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W66" s="10">
         <v>0</v>
       </c>
       <c r="X66" s="11"/>
       <c r="Y66" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z66" s="5"/>
       <c r="AA66" s="5"/>
@@ -5226,11 +5254,11 @@
         <v>29</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -5254,14 +5282,14 @@
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
       <c r="V67" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W67" s="10">
         <v>0</v>
       </c>
       <c r="X67" s="11"/>
       <c r="Y67" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z67" s="5"/>
       <c r="AA67" s="5"/>
@@ -5278,11 +5306,11 @@
         <v>29</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -5306,17 +5334,17 @@
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
       <c r="V68" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W68" s="10">
         <v>0</v>
       </c>
       <c r="X68" s="11"/>
       <c r="Y68" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Z68" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
@@ -5332,11 +5360,11 @@
         <v>29</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -5360,14 +5388,14 @@
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
       <c r="V69" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W69" s="10">
         <v>0</v>
       </c>
       <c r="X69" s="11"/>
       <c r="Y69" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z69" s="16"/>
       <c r="AA69" s="5"/>
@@ -5384,11 +5412,11 @@
         <v>29</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
@@ -5412,17 +5440,17 @@
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
       <c r="V70" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W70" s="10">
         <v>0</v>
       </c>
       <c r="X70" s="11"/>
       <c r="Y70" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Z70" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
@@ -5438,11 +5466,11 @@
         <v>29</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -5466,14 +5494,14 @@
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
       <c r="V71" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W71" s="10">
         <v>0</v>
       </c>
       <c r="X71" s="11"/>
       <c r="Y71" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z71" s="16"/>
       <c r="AA71" s="5"/>
@@ -5490,11 +5518,11 @@
         <v>29</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -5518,14 +5546,14 @@
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
       <c r="V72" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W72" s="10">
         <v>0</v>
       </c>
       <c r="X72" s="11"/>
       <c r="Y72" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5"/>
@@ -5542,11 +5570,11 @@
         <v>29</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -5570,14 +5598,14 @@
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
       <c r="V73" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W73" s="10">
         <v>0</v>
       </c>
       <c r="X73" s="11"/>
       <c r="Y73" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z73" s="16"/>
       <c r="AA73" s="5"/>
@@ -5594,11 +5622,11 @@
         <v>29</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -5622,14 +5650,14 @@
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
       <c r="V74" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W74" s="10">
         <v>0</v>
       </c>
       <c r="X74" s="11"/>
       <c r="Y74" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z74" s="16"/>
       <c r="AA74" s="5"/>
@@ -5646,11 +5674,11 @@
         <v>29</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
@@ -5674,14 +5702,14 @@
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W75" s="10">
         <v>0</v>
       </c>
       <c r="X75" s="11"/>
       <c r="Y75" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z75" s="16"/>
       <c r="AA75" s="5"/>
@@ -5698,11 +5726,11 @@
         <v>29</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -5726,17 +5754,17 @@
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
       <c r="V76" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W76" s="10">
         <v>0</v>
       </c>
       <c r="X76" s="11"/>
       <c r="Y76" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Z76" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
@@ -5752,11 +5780,11 @@
         <v>29</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -5780,14 +5808,14 @@
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
       <c r="V77" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W77" s="10">
         <v>0</v>
       </c>
       <c r="X77" s="11"/>
       <c r="Y77" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z77" s="16"/>
       <c r="AA77" s="5"/>
@@ -5804,11 +5832,11 @@
         <v>29</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -5832,14 +5860,14 @@
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
       <c r="V78" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W78" s="10">
         <v>0</v>
       </c>
       <c r="X78" s="11"/>
       <c r="Y78" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z78" s="16"/>
       <c r="AA78" s="5"/>
@@ -5856,11 +5884,11 @@
         <v>29</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -5884,17 +5912,17 @@
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
       <c r="V79" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W79" s="10">
         <v>0</v>
       </c>
       <c r="X79" s="11"/>
       <c r="Y79" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Z79" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
@@ -5910,11 +5938,11 @@
         <v>29</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -5938,17 +5966,17 @@
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
       <c r="V80" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W80" s="10">
         <v>0</v>
       </c>
       <c r="X80" s="11"/>
       <c r="Y80" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Z80" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA80" s="5"/>
       <c r="AB80" s="5"/>
@@ -5964,11 +5992,11 @@
         <v>29</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -5992,14 +6020,14 @@
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
       <c r="V81" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W81" s="10">
         <v>0</v>
       </c>
       <c r="X81" s="11"/>
       <c r="Y81" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z81" s="16"/>
       <c r="AA81" s="5"/>
@@ -6016,11 +6044,11 @@
         <v>29</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -6044,17 +6072,17 @@
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
       <c r="V82" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W82" s="10">
         <v>0</v>
       </c>
       <c r="X82" s="11"/>
       <c r="Y82" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Z82" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AA82" s="5"/>
       <c r="AB82" s="5"/>
@@ -6070,11 +6098,11 @@
         <v>29</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -6098,14 +6126,14 @@
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
       <c r="V83" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W83" s="10">
         <v>0</v>
       </c>
       <c r="X83" s="11"/>
       <c r="Y83" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z83" s="16"/>
       <c r="AA83" s="5"/>
@@ -6122,11 +6150,11 @@
         <v>29</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -6150,17 +6178,17 @@
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
       <c r="V84" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W84" s="10">
         <v>0</v>
       </c>
       <c r="X84" s="11"/>
       <c r="Y84" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Z84" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
@@ -6176,11 +6204,11 @@
         <v>29</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -6204,17 +6232,17 @@
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
       <c r="V85" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W85" s="10">
         <v>0</v>
       </c>
       <c r="X85" s="11"/>
       <c r="Y85" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Z85" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
@@ -6230,11 +6258,11 @@
         <v>29</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -6258,14 +6286,14 @@
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
       <c r="V86" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W86" s="10">
         <v>0</v>
       </c>
       <c r="X86" s="11"/>
       <c r="Y86" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z86" s="16"/>
       <c r="AA86" s="5"/>
@@ -6282,11 +6310,11 @@
         <v>29</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -6310,14 +6338,14 @@
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
       <c r="V87" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W87" s="10">
         <v>0</v>
       </c>
       <c r="X87" s="11"/>
       <c r="Y87" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z87" s="16"/>
       <c r="AA87" s="5"/>
@@ -6334,11 +6362,11 @@
         <v>29</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
@@ -6362,14 +6390,14 @@
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
       <c r="V88" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W88" s="10">
         <v>0</v>
       </c>
       <c r="X88" s="11"/>
       <c r="Y88" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z88" s="16"/>
       <c r="AA88" s="5"/>
@@ -6386,11 +6414,11 @@
         <v>29</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -6414,17 +6442,17 @@
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
       <c r="V89" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W89" s="10">
         <v>0</v>
       </c>
       <c r="X89" s="11"/>
       <c r="Y89" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Z89" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA89" s="5"/>
       <c r="AB89" s="5"/>
@@ -6440,11 +6468,11 @@
         <v>29</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -6468,14 +6496,14 @@
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
       <c r="V90" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W90" s="10">
         <v>0</v>
       </c>
       <c r="X90" s="11"/>
       <c r="Y90" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z90" s="16"/>
       <c r="AA90" s="5"/>
@@ -6492,11 +6520,11 @@
         <v>29</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -6520,14 +6548,14 @@
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
       <c r="V91" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W91" s="10">
         <v>0</v>
       </c>
       <c r="X91" s="11"/>
       <c r="Y91" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z91" s="16"/>
       <c r="AA91" s="5"/>
@@ -6544,11 +6572,11 @@
         <v>29</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -6572,14 +6600,14 @@
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
       <c r="V92" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W92" s="10">
         <v>0</v>
       </c>
       <c r="X92" s="11"/>
       <c r="Y92" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z92" s="16"/>
       <c r="AA92" s="5"/>
@@ -6596,11 +6624,11 @@
         <v>29</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -6624,14 +6652,14 @@
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
       <c r="V93" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W93" s="10">
         <v>0</v>
       </c>
       <c r="X93" s="11"/>
       <c r="Y93" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z93" s="16"/>
       <c r="AA93" s="5"/>
@@ -6648,11 +6676,11 @@
         <v>29</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
@@ -6676,14 +6704,14 @@
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
       <c r="V94" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W94" s="10">
         <v>0</v>
       </c>
       <c r="X94" s="11"/>
       <c r="Y94" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z94" s="16"/>
       <c r="AA94" s="5"/>
@@ -6700,11 +6728,11 @@
         <v>29</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -6728,14 +6756,14 @@
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
       <c r="V95" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W95" s="10">
         <v>0</v>
       </c>
       <c r="X95" s="11"/>
       <c r="Y95" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z95" s="16"/>
       <c r="AA95" s="5"/>
@@ -6752,11 +6780,11 @@
         <v>29</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -6780,14 +6808,14 @@
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
       <c r="V96" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W96" s="10">
         <v>0</v>
       </c>
       <c r="X96" s="11"/>
       <c r="Y96" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z96" s="16"/>
       <c r="AA96" s="5"/>
@@ -6804,11 +6832,11 @@
         <v>29</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -6832,17 +6860,17 @@
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
       <c r="V97" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W97" s="10">
         <v>0</v>
       </c>
       <c r="X97" s="11"/>
       <c r="Y97" s="12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Z97" s="15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
@@ -6858,11 +6886,11 @@
         <v>29</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -6886,17 +6914,17 @@
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
       <c r="V98" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W98" s="10">
         <v>0</v>
       </c>
       <c r="X98" s="11"/>
       <c r="Y98" s="12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Z98" s="15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
@@ -6912,11 +6940,11 @@
         <v>29</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -6940,14 +6968,14 @@
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
       <c r="V99" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W99" s="10">
         <v>0</v>
       </c>
       <c r="X99" s="11"/>
       <c r="Y99" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z99" s="16"/>
       <c r="AA99" s="5"/>
@@ -6964,11 +6992,11 @@
         <v>29</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -6992,14 +7020,14 @@
       <c r="T100" s="4"/>
       <c r="U100" s="4"/>
       <c r="V100" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W100" s="10">
         <v>0</v>
       </c>
       <c r="X100" s="11"/>
       <c r="Y100" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z100" s="16"/>
       <c r="AA100" s="5"/>
@@ -7016,11 +7044,11 @@
         <v>29</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -7044,14 +7072,14 @@
       <c r="T101" s="4"/>
       <c r="U101" s="4"/>
       <c r="V101" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W101" s="10">
         <v>0</v>
       </c>
       <c r="X101" s="11"/>
       <c r="Y101" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z101" s="16"/>
       <c r="AA101" s="5"/>
@@ -7068,11 +7096,11 @@
         <v>29</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -7096,17 +7124,17 @@
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
       <c r="V102" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W102" s="10">
         <v>0</v>
       </c>
       <c r="X102" s="11"/>
       <c r="Y102" s="12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Z102" s="15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
@@ -7122,11 +7150,11 @@
         <v>29</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -7150,14 +7178,14 @@
       <c r="T103" s="4"/>
       <c r="U103" s="4"/>
       <c r="V103" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W103" s="10">
         <v>0</v>
       </c>
       <c r="X103" s="11"/>
       <c r="Y103" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z103" s="16"/>
       <c r="AA103" s="5"/>
@@ -7174,11 +7202,11 @@
         <v>29</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -7202,14 +7230,14 @@
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
       <c r="V104" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W104" s="10">
         <v>0</v>
       </c>
       <c r="X104" s="11"/>
       <c r="Y104" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z104" s="16"/>
       <c r="AA104" s="5"/>
@@ -7226,11 +7254,11 @@
         <v>29</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -7254,14 +7282,14 @@
       <c r="T105" s="4"/>
       <c r="U105" s="4"/>
       <c r="V105" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W105" s="10">
         <v>0</v>
       </c>
       <c r="X105" s="11"/>
       <c r="Y105" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z105" s="16"/>
       <c r="AA105" s="5"/>
@@ -7278,11 +7306,11 @@
         <v>29</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -7306,14 +7334,14 @@
       <c r="T106" s="4"/>
       <c r="U106" s="4"/>
       <c r="V106" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W106" s="10">
         <v>0</v>
       </c>
       <c r="X106" s="11"/>
       <c r="Y106" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z106" s="16"/>
       <c r="AA106" s="5"/>
@@ -7330,11 +7358,11 @@
         <v>29</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -7358,14 +7386,14 @@
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
       <c r="V107" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W107" s="10">
         <v>0</v>
       </c>
       <c r="X107" s="11"/>
       <c r="Y107" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z107" s="16"/>
       <c r="AA107" s="5"/>
@@ -7382,11 +7410,11 @@
         <v>29</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -7410,14 +7438,14 @@
       <c r="T108" s="4"/>
       <c r="U108" s="4"/>
       <c r="V108" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W108" s="10">
         <v>0</v>
       </c>
       <c r="X108" s="11"/>
       <c r="Y108" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z108" s="16"/>
       <c r="AA108" s="5"/>
@@ -7434,11 +7462,11 @@
         <v>29</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -7462,14 +7490,14 @@
       <c r="T109" s="4"/>
       <c r="U109" s="4"/>
       <c r="V109" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W109" s="10">
         <v>0</v>
       </c>
       <c r="X109" s="11"/>
       <c r="Y109" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z109" s="16"/>
       <c r="AA109" s="5"/>
@@ -7486,11 +7514,11 @@
         <v>29</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -7514,14 +7542,14 @@
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
       <c r="V110" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W110" s="10">
         <v>0</v>
       </c>
       <c r="X110" s="11"/>
       <c r="Y110" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z110" s="16"/>
       <c r="AA110" s="5"/>
@@ -7538,11 +7566,11 @@
         <v>29</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -7566,14 +7594,14 @@
       <c r="T111" s="4"/>
       <c r="U111" s="4"/>
       <c r="V111" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W111" s="10">
         <v>0</v>
       </c>
       <c r="X111" s="11"/>
       <c r="Y111" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z111" s="16"/>
       <c r="AA111" s="5"/>
@@ -7590,11 +7618,11 @@
         <v>29</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -7618,14 +7646,14 @@
       <c r="T112" s="4"/>
       <c r="U112" s="4"/>
       <c r="V112" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W112" s="10">
         <v>0</v>
       </c>
       <c r="X112" s="11"/>
       <c r="Y112" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z112" s="16"/>
       <c r="AA112" s="5"/>
@@ -7642,11 +7670,11 @@
         <v>29</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -7670,14 +7698,14 @@
       <c r="T113" s="4"/>
       <c r="U113" s="4"/>
       <c r="V113" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W113" s="10">
         <v>0</v>
       </c>
       <c r="X113" s="11"/>
       <c r="Y113" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z113" s="16"/>
       <c r="AA113" s="5"/>
@@ -7694,11 +7722,11 @@
         <v>29</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -7722,14 +7750,14 @@
       <c r="T114" s="4"/>
       <c r="U114" s="4"/>
       <c r="V114" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W114" s="10">
         <v>0</v>
       </c>
       <c r="X114" s="11"/>
       <c r="Y114" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z114" s="16"/>
       <c r="AA114" s="5"/>
@@ -7746,11 +7774,11 @@
         <v>29</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -7774,14 +7802,14 @@
       <c r="T115" s="4"/>
       <c r="U115" s="4"/>
       <c r="V115" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W115" s="10">
         <v>0</v>
       </c>
       <c r="X115" s="11"/>
       <c r="Y115" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z115" s="16"/>
       <c r="AA115" s="5"/>
@@ -7798,11 +7826,11 @@
         <v>29</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -7826,14 +7854,14 @@
       <c r="T116" s="4"/>
       <c r="U116" s="4"/>
       <c r="V116" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W116" s="10">
         <v>0</v>
       </c>
       <c r="X116" s="11"/>
       <c r="Y116" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z116" s="16"/>
       <c r="AA116" s="5"/>
@@ -7850,11 +7878,11 @@
         <v>29</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C117" s="17"/>
       <c r="D117" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E117" s="17"/>
       <c r="F117" s="17"/>
@@ -7878,17 +7906,17 @@
       <c r="T117" s="17"/>
       <c r="U117" s="17"/>
       <c r="V117" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W117" s="10">
         <v>0</v>
       </c>
       <c r="X117" s="11"/>
       <c r="Y117" s="12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z117" s="15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AA117" s="17"/>
       <c r="AB117" s="17"/>
@@ -7904,11 +7932,11 @@
         <v>29</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C118" s="17"/>
       <c r="D118" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E118" s="17"/>
       <c r="F118" s="17"/>
@@ -7932,14 +7960,14 @@
       <c r="T118" s="17"/>
       <c r="U118" s="17"/>
       <c r="V118" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W118" s="10">
         <v>0</v>
       </c>
       <c r="X118" s="11"/>
       <c r="Y118" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z118" s="16"/>
       <c r="AA118" s="17"/>
@@ -7956,11 +7984,11 @@
         <v>29</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -7984,14 +8012,14 @@
       <c r="T119" s="4"/>
       <c r="U119" s="4"/>
       <c r="V119" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W119" s="10">
         <v>0</v>
       </c>
       <c r="X119" s="11"/>
       <c r="Y119" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z119" s="16"/>
       <c r="AA119" s="5"/>
@@ -8008,11 +8036,11 @@
         <v>29</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -8036,14 +8064,14 @@
       <c r="T120" s="4"/>
       <c r="U120" s="4"/>
       <c r="V120" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W120" s="10">
         <v>0</v>
       </c>
       <c r="X120" s="11"/>
       <c r="Y120" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z120" s="16"/>
       <c r="AA120" s="5"/>
@@ -8060,11 +8088,11 @@
         <v>29</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -8088,17 +8116,17 @@
       <c r="T121" s="4"/>
       <c r="U121" s="4"/>
       <c r="V121" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W121" s="10">
         <v>0</v>
       </c>
       <c r="X121" s="11"/>
       <c r="Y121" s="12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Z121" s="15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
@@ -8114,11 +8142,11 @@
         <v>29</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -8142,17 +8170,17 @@
       <c r="T122" s="4"/>
       <c r="U122" s="4"/>
       <c r="V122" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W122" s="10">
         <v>0</v>
       </c>
       <c r="X122" s="11"/>
       <c r="Y122" s="12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Z122" s="15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
@@ -8168,11 +8196,11 @@
         <v>29</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -8196,14 +8224,14 @@
       <c r="T123" s="4"/>
       <c r="U123" s="4"/>
       <c r="V123" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W123" s="10">
         <v>0</v>
       </c>
       <c r="X123" s="11"/>
       <c r="Y123" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z123" s="16"/>
       <c r="AA123" s="5"/>
@@ -8220,11 +8248,11 @@
         <v>29</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -8248,17 +8276,17 @@
       <c r="T124" s="4"/>
       <c r="U124" s="4"/>
       <c r="V124" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W124" s="10">
         <v>0</v>
       </c>
       <c r="X124" s="11"/>
       <c r="Y124" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Z124" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
@@ -8274,11 +8302,11 @@
         <v>29</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -8302,14 +8330,14 @@
       <c r="T125" s="4"/>
       <c r="U125" s="4"/>
       <c r="V125" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W125" s="10">
         <v>0</v>
       </c>
       <c r="X125" s="11"/>
       <c r="Y125" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z125" s="16"/>
       <c r="AA125" s="5"/>
@@ -8326,11 +8354,11 @@
         <v>29</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
@@ -8354,14 +8382,14 @@
       <c r="T126" s="4"/>
       <c r="U126" s="4"/>
       <c r="V126" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W126" s="10">
         <v>0</v>
       </c>
       <c r="X126" s="11"/>
       <c r="Y126" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z126" s="16"/>
       <c r="AA126" s="5"/>
@@ -8378,11 +8406,11 @@
         <v>29</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
@@ -8406,14 +8434,14 @@
       <c r="T127" s="4"/>
       <c r="U127" s="4"/>
       <c r="V127" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W127" s="10">
         <v>0</v>
       </c>
       <c r="X127" s="11"/>
       <c r="Y127" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z127" s="15"/>
       <c r="AA127" s="5"/>
@@ -8430,11 +8458,11 @@
         <v>29</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
@@ -8458,14 +8486,14 @@
       <c r="T128" s="4"/>
       <c r="U128" s="4"/>
       <c r="V128" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W128" s="10">
         <v>0</v>
       </c>
       <c r="X128" s="11"/>
       <c r="Y128" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z128" s="15"/>
       <c r="AA128" s="5"/>
@@ -8482,11 +8510,11 @@
         <v>29</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -8510,14 +8538,14 @@
       <c r="T129" s="4"/>
       <c r="U129" s="4"/>
       <c r="V129" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W129" s="10">
         <v>0</v>
       </c>
       <c r="X129" s="11"/>
       <c r="Y129" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z129" s="15"/>
       <c r="AA129" s="5"/>
@@ -8534,11 +8562,11 @@
         <v>29</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
@@ -8562,14 +8590,14 @@
       <c r="T130" s="4"/>
       <c r="U130" s="4"/>
       <c r="V130" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W130" s="10">
         <v>0</v>
       </c>
       <c r="X130" s="11"/>
       <c r="Y130" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z130" s="15"/>
       <c r="AA130" s="5"/>
@@ -8586,11 +8614,11 @@
         <v>29</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
@@ -8614,14 +8642,14 @@
       <c r="T131" s="4"/>
       <c r="U131" s="4"/>
       <c r="V131" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W131" s="10">
         <v>0</v>
       </c>
       <c r="X131" s="11"/>
       <c r="Y131" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z131" s="16"/>
       <c r="AA131" s="5"/>
@@ -8638,11 +8666,11 @@
         <v>29</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
@@ -8666,14 +8694,14 @@
       <c r="T132" s="4"/>
       <c r="U132" s="4"/>
       <c r="V132" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W132" s="10">
         <v>0</v>
       </c>
       <c r="X132" s="11"/>
       <c r="Y132" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z132" s="16"/>
       <c r="AA132" s="5"/>
@@ -8690,11 +8718,11 @@
         <v>29</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
@@ -8718,14 +8746,14 @@
       <c r="T133" s="4"/>
       <c r="U133" s="4"/>
       <c r="V133" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W133" s="10">
         <v>0</v>
       </c>
       <c r="X133" s="11"/>
       <c r="Y133" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z133" s="16"/>
       <c r="AA133" s="5"/>
@@ -8742,11 +8770,11 @@
         <v>29</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
@@ -8770,14 +8798,14 @@
       <c r="T134" s="4"/>
       <c r="U134" s="4"/>
       <c r="V134" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W134" s="10">
         <v>0</v>
       </c>
       <c r="X134" s="11"/>
       <c r="Y134" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z134" s="16"/>
       <c r="AA134" s="5"/>
@@ -8794,11 +8822,11 @@
         <v>29</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -8822,14 +8850,14 @@
       <c r="T135" s="4"/>
       <c r="U135" s="4"/>
       <c r="V135" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W135" s="10">
         <v>0</v>
       </c>
       <c r="X135" s="11"/>
       <c r="Y135" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z135" s="5"/>
       <c r="AA135" s="5"/>
@@ -8846,11 +8874,11 @@
         <v>29</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
@@ -8874,14 +8902,14 @@
       <c r="T136" s="4"/>
       <c r="U136" s="4"/>
       <c r="V136" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W136" s="10">
         <v>0</v>
       </c>
       <c r="X136" s="11"/>
       <c r="Y136" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z136" s="5"/>
       <c r="AA136" s="5"/>
@@ -8898,11 +8926,11 @@
         <v>29</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
@@ -8926,17 +8954,17 @@
       <c r="T137" s="4"/>
       <c r="U137" s="4"/>
       <c r="V137" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W137" s="10">
         <v>0</v>
       </c>
       <c r="X137" s="11"/>
       <c r="Y137" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Z137" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
@@ -8952,11 +8980,11 @@
         <v>29</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -8980,14 +9008,14 @@
       <c r="T138" s="4"/>
       <c r="U138" s="4"/>
       <c r="V138" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W138" s="10">
         <v>0</v>
       </c>
       <c r="X138" s="11"/>
       <c r="Y138" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z138" s="5"/>
       <c r="AA138" s="5"/>
@@ -9004,11 +9032,11 @@
         <v>29</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
@@ -9032,14 +9060,14 @@
       <c r="T139" s="4"/>
       <c r="U139" s="4"/>
       <c r="V139" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W139" s="10">
         <v>0</v>
       </c>
       <c r="X139" s="11"/>
       <c r="Y139" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z139" s="5"/>
       <c r="AA139" s="5"/>
@@ -9056,11 +9084,11 @@
         <v>29</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
@@ -9084,17 +9112,17 @@
       <c r="T140" s="4"/>
       <c r="U140" s="4"/>
       <c r="V140" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W140" s="10">
         <v>0</v>
       </c>
       <c r="X140" s="11"/>
       <c r="Y140" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Z140" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
@@ -9110,11 +9138,11 @@
         <v>29</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -9138,14 +9166,14 @@
       <c r="T141" s="4"/>
       <c r="U141" s="4"/>
       <c r="V141" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W141" s="10">
         <v>0</v>
       </c>
       <c r="X141" s="11"/>
       <c r="Y141" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z141" s="5"/>
       <c r="AA141" s="5"/>
@@ -9162,11 +9190,11 @@
         <v>29</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -9190,14 +9218,14 @@
       <c r="T142" s="4"/>
       <c r="U142" s="4"/>
       <c r="V142" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W142" s="10">
         <v>0</v>
       </c>
       <c r="X142" s="11"/>
       <c r="Y142" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z142" s="5"/>
       <c r="AA142" s="5"/>
@@ -9214,11 +9242,11 @@
         <v>29</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
@@ -9242,14 +9270,14 @@
       <c r="T143" s="4"/>
       <c r="U143" s="4"/>
       <c r="V143" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W143" s="10">
         <v>0</v>
       </c>
       <c r="X143" s="11"/>
       <c r="Y143" s="12" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z143" s="5"/>
       <c r="AA143" s="5"/>
@@ -9266,11 +9294,11 @@
         <v>29</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
@@ -9294,14 +9322,14 @@
       <c r="T144" s="4"/>
       <c r="U144" s="4"/>
       <c r="V144" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W144" s="10">
         <v>0</v>
       </c>
       <c r="X144" s="11"/>
       <c r="Y144" s="12" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z144" s="5"/>
       <c r="AA144" s="5"/>
@@ -9318,11 +9346,11 @@
         <v>29</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
@@ -9346,14 +9374,14 @@
       <c r="T145" s="4"/>
       <c r="U145" s="4"/>
       <c r="V145" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W145" s="10">
         <v>0</v>
       </c>
       <c r="X145" s="11"/>
       <c r="Y145" s="12" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z145" s="5"/>
       <c r="AA145" s="5"/>
@@ -9370,11 +9398,11 @@
         <v>29</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
@@ -9398,14 +9426,14 @@
       <c r="T146" s="4"/>
       <c r="U146" s="4"/>
       <c r="V146" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W146" s="10">
         <v>0</v>
       </c>
       <c r="X146" s="11"/>
       <c r="Y146" s="12" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z146" s="5"/>
       <c r="AA146" s="5"/>
@@ -9419,14 +9447,14 @@
     </row>
     <row r="147" spans="1:34">
       <c r="A147" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="14" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
@@ -9453,7 +9481,7 @@
       <c r="W147" s="10"/>
       <c r="X147" s="11"/>
       <c r="Y147" s="18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Z147" s="5"/>
       <c r="AA147" s="5"/>
@@ -9467,14 +9495,14 @@
     </row>
     <row r="148" spans="1:34">
       <c r="A148" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="14" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
@@ -9501,7 +9529,7 @@
       <c r="W148" s="10"/>
       <c r="X148" s="11"/>
       <c r="Y148" s="18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Z148" s="5"/>
       <c r="AA148" s="5"/>
@@ -9515,14 +9543,14 @@
     </row>
     <row r="149" spans="1:34">
       <c r="A149" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="14" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
@@ -9549,7 +9577,7 @@
       <c r="W149" s="10"/>
       <c r="X149" s="11"/>
       <c r="Y149" s="18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Z149" s="5"/>
       <c r="AA149" s="5"/>
@@ -9563,14 +9591,14 @@
     </row>
     <row r="150" spans="1:34">
       <c r="A150" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="14" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
@@ -9597,7 +9625,7 @@
       <c r="W150" s="10"/>
       <c r="X150" s="11"/>
       <c r="Y150" s="18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Z150" s="5"/>
       <c r="AA150" s="5"/>
@@ -9611,14 +9639,14 @@
     </row>
     <row r="151" spans="1:34">
       <c r="A151" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C151" s="19"/>
       <c r="D151" s="14" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
@@ -9645,7 +9673,7 @@
       <c r="W151" s="4"/>
       <c r="X151" s="4"/>
       <c r="Y151" s="18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Z151" s="5"/>
       <c r="AA151" s="5"/>
@@ -9659,14 +9687,14 @@
     </row>
     <row r="152" spans="1:34">
       <c r="A152" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C152" s="19"/>
       <c r="D152" s="14" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
@@ -9693,7 +9721,7 @@
       <c r="W152" s="4"/>
       <c r="X152" s="4"/>
       <c r="Y152" s="18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Z152" s="5"/>
       <c r="AA152" s="5"/>
@@ -9707,14 +9735,14 @@
     </row>
     <row r="153" spans="1:34">
       <c r="A153" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C153" s="19"/>
       <c r="D153" s="14" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
@@ -9741,7 +9769,7 @@
       <c r="W153" s="4"/>
       <c r="X153" s="4"/>
       <c r="Y153" s="18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Z153" s="5"/>
       <c r="AA153" s="5"/>
@@ -9755,14 +9783,14 @@
     </row>
     <row r="154" spans="1:34">
       <c r="A154" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C154" s="19"/>
       <c r="D154" s="14" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -9789,7 +9817,7 @@
       <c r="W154" s="4"/>
       <c r="X154" s="4"/>
       <c r="Y154" s="18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Z154" s="5"/>
       <c r="AA154" s="5"/>
@@ -9803,14 +9831,14 @@
     </row>
     <row r="155" spans="1:34">
       <c r="A155" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C155" s="19"/>
       <c r="D155" s="14" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
@@ -9837,7 +9865,7 @@
       <c r="W155" s="4"/>
       <c r="X155" s="4"/>
       <c r="Y155" s="18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Z155" s="5"/>
       <c r="AA155" s="5"/>
@@ -9851,14 +9879,14 @@
     </row>
     <row r="156" spans="1:34">
       <c r="A156" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C156" s="19"/>
       <c r="D156" s="14" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
@@ -9885,7 +9913,7 @@
       <c r="W156" s="4"/>
       <c r="X156" s="4"/>
       <c r="Y156" s="18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Z156" s="5"/>
       <c r="AA156" s="5"/>
@@ -9899,14 +9927,14 @@
     </row>
     <row r="157" spans="1:34">
       <c r="A157" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C157" s="19"/>
       <c r="D157" s="14" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
@@ -9933,7 +9961,7 @@
       <c r="W157" s="4"/>
       <c r="X157" s="4"/>
       <c r="Y157" s="18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Z157" s="5"/>
       <c r="AA157" s="5"/>
@@ -9947,14 +9975,14 @@
     </row>
     <row r="158" spans="1:34">
       <c r="A158" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C158" s="19"/>
       <c r="D158" s="14" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
@@ -9981,7 +10009,7 @@
       <c r="W158" s="4"/>
       <c r="X158" s="4"/>
       <c r="Y158" s="18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Z158" s="5"/>
       <c r="AA158" s="5"/>
@@ -9995,14 +10023,14 @@
     </row>
     <row r="159" spans="1:34">
       <c r="A159" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="14" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
@@ -10029,7 +10057,7 @@
       <c r="W159" s="4"/>
       <c r="X159" s="4"/>
       <c r="Y159" s="18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Z159" s="5"/>
       <c r="AA159" s="5"/>
@@ -10043,14 +10071,14 @@
     </row>
     <row r="160" spans="1:34">
       <c r="A160" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="14" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
@@ -10077,7 +10105,7 @@
       <c r="W160" s="4"/>
       <c r="X160" s="4"/>
       <c r="Y160" s="18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Z160" s="5"/>
       <c r="AA160" s="5"/>
@@ -10307,23 +10335,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="21" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="3"/>
     </row>
@@ -10350,17 +10378,17 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="21" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/TH64_Fujie_UIList.xlsx
+++ b/exe/TSV/Excel/TH64_Fujie_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D13B216-DEB6-4BF7-820D-3EE63B6A1559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A344708-F769-463D-8A3F-95E88928322B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6540" yWindow="4125" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH64_藤江駅_UIList" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="264">
   <si>
     <t>Type</t>
   </si>
@@ -573,7 +573,7 @@
     <t>11L</t>
   </si>
   <si>
-    <t>てこ</t>
+    <t>物理てこ</t>
   </si>
   <si>
     <t>-1,1</t>
@@ -618,7 +618,7 @@
     <t>12R_G</t>
   </si>
   <si>
-    <t>信号機</t>
+    <t>信号機表示灯</t>
   </si>
   <si>
     <t>12R</t>
@@ -735,7 +735,7 @@
     <t>P21_PG</t>
   </si>
   <si>
-    <t>転てつ器</t>
+    <t>転てつ器表示灯</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/PG.png</t>
@@ -801,7 +801,7 @@
     <t>駅扱切換_PY</t>
   </si>
   <si>
-    <t>駅扱切換てこ</t>
+    <t>駅扱切換表示灯</t>
   </si>
   <si>
     <t>駅扱切換_PG</t>
@@ -813,10 +813,13 @@
     <t>解放99_PY</t>
   </si>
   <si>
+    <t>解放表示灯</t>
+  </si>
+  <si>
     <t>TH65_1RT_1</t>
   </si>
   <si>
-    <t>軌道回路</t>
+    <t>軌道回路表示灯</t>
   </si>
   <si>
     <t>0,1,2</t>
@@ -1164,7 +1167,7 @@
     <t>停電_R</t>
   </si>
   <si>
-    <t>ランプ</t>
+    <t>状態表示灯</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/R.png</t>
@@ -3946,7 +3949,7 @@
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -3994,11 +3997,11 @@
         <v>29</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -4022,17 +4025,17 @@
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
       <c r="V43" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W43" s="10">
         <v>0</v>
       </c>
       <c r="X43" s="11"/>
       <c r="Y43" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z43" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
@@ -4048,11 +4051,11 @@
         <v>29</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -4076,14 +4079,14 @@
       <c r="T44" s="4"/>
       <c r="U44" s="13"/>
       <c r="V44" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W44" s="10">
         <v>0</v>
       </c>
       <c r="X44" s="11"/>
       <c r="Y44" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
@@ -4100,11 +4103,11 @@
         <v>29</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -4128,14 +4131,14 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W45" s="10">
         <v>0</v>
       </c>
       <c r="X45" s="11"/>
       <c r="Y45" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
@@ -4152,11 +4155,11 @@
         <v>29</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -4180,14 +4183,14 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W46" s="10">
         <v>0</v>
       </c>
       <c r="X46" s="11"/>
       <c r="Y46" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
@@ -4204,11 +4207,11 @@
         <v>29</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -4232,14 +4235,14 @@
       <c r="T47" s="4"/>
       <c r="U47" s="13"/>
       <c r="V47" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W47" s="10">
         <v>0</v>
       </c>
       <c r="X47" s="11"/>
       <c r="Y47" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
@@ -4256,11 +4259,11 @@
         <v>29</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -4284,14 +4287,14 @@
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
       <c r="V48" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W48" s="10">
         <v>0</v>
       </c>
       <c r="X48" s="11"/>
       <c r="Y48" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
@@ -4308,11 +4311,11 @@
         <v>29</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -4336,17 +4339,17 @@
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
       <c r="V49" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W49" s="10">
         <v>0</v>
       </c>
       <c r="X49" s="11"/>
       <c r="Y49" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z49" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
@@ -4362,11 +4365,11 @@
         <v>29</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -4390,14 +4393,14 @@
       <c r="T50" s="4"/>
       <c r="U50" s="13"/>
       <c r="V50" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W50" s="10">
         <v>0</v>
       </c>
       <c r="X50" s="11"/>
       <c r="Y50" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
@@ -4414,11 +4417,11 @@
         <v>29</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -4442,17 +4445,17 @@
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
       <c r="V51" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W51" s="10">
         <v>0</v>
       </c>
       <c r="X51" s="11"/>
       <c r="Y51" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z51" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
@@ -4468,11 +4471,11 @@
         <v>29</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -4496,17 +4499,17 @@
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
       <c r="V52" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W52" s="10">
         <v>0</v>
       </c>
       <c r="X52" s="11"/>
       <c r="Y52" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z52" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
@@ -4522,11 +4525,11 @@
         <v>29</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -4550,17 +4553,17 @@
       <c r="T53" s="4"/>
       <c r="U53" s="13"/>
       <c r="V53" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W53" s="10">
         <v>0</v>
       </c>
       <c r="X53" s="11"/>
       <c r="Y53" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z53" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
@@ -4576,11 +4579,11 @@
         <v>29</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -4604,14 +4607,14 @@
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
       <c r="V54" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W54" s="10">
         <v>0</v>
       </c>
       <c r="X54" s="11"/>
       <c r="Y54" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
@@ -4628,11 +4631,11 @@
         <v>29</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -4656,14 +4659,14 @@
       <c r="T55" s="4"/>
       <c r="U55" s="13"/>
       <c r="V55" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W55" s="10">
         <v>0</v>
       </c>
       <c r="X55" s="11"/>
       <c r="Y55" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
@@ -4680,11 +4683,11 @@
         <v>29</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -4708,17 +4711,17 @@
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
       <c r="V56" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W56" s="10">
         <v>0</v>
       </c>
       <c r="X56" s="11"/>
       <c r="Y56" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z56" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
@@ -4734,11 +4737,11 @@
         <v>29</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -4762,14 +4765,14 @@
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
       <c r="V57" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W57" s="10">
         <v>0</v>
       </c>
       <c r="X57" s="11"/>
       <c r="Y57" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
@@ -4786,11 +4789,11 @@
         <v>29</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -4814,14 +4817,14 @@
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
       <c r="V58" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W58" s="10">
         <v>0</v>
       </c>
       <c r="X58" s="11"/>
       <c r="Y58" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
@@ -4838,11 +4841,11 @@
         <v>29</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -4866,14 +4869,14 @@
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
       <c r="V59" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W59" s="10">
         <v>0</v>
       </c>
       <c r="X59" s="11"/>
       <c r="Y59" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z59" s="5"/>
       <c r="AA59" s="5"/>
@@ -4890,11 +4893,11 @@
         <v>29</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -4918,14 +4921,14 @@
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
       <c r="V60" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W60" s="10">
         <v>0</v>
       </c>
       <c r="X60" s="11"/>
       <c r="Y60" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z60" s="5"/>
       <c r="AA60" s="5"/>
@@ -4942,11 +4945,11 @@
         <v>29</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -4970,14 +4973,14 @@
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
       <c r="V61" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W61" s="10">
         <v>0</v>
       </c>
       <c r="X61" s="11"/>
       <c r="Y61" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z61" s="5"/>
       <c r="AA61" s="5"/>
@@ -4994,11 +4997,11 @@
         <v>29</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -5022,14 +5025,14 @@
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
       <c r="V62" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W62" s="10">
         <v>0</v>
       </c>
       <c r="X62" s="11"/>
       <c r="Y62" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z62" s="5"/>
       <c r="AA62" s="5"/>
@@ -5046,11 +5049,11 @@
         <v>29</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -5074,14 +5077,14 @@
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
       <c r="V63" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W63" s="10">
         <v>0</v>
       </c>
       <c r="X63" s="11"/>
       <c r="Y63" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z63" s="5"/>
       <c r="AA63" s="5"/>
@@ -5098,11 +5101,11 @@
         <v>29</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -5126,14 +5129,14 @@
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
       <c r="V64" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W64" s="10">
         <v>0</v>
       </c>
       <c r="X64" s="11"/>
       <c r="Y64" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z64" s="5"/>
       <c r="AA64" s="5"/>
@@ -5150,11 +5153,11 @@
         <v>29</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -5178,14 +5181,14 @@
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
       <c r="V65" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W65" s="10">
         <v>0</v>
       </c>
       <c r="X65" s="11"/>
       <c r="Y65" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z65" s="5"/>
       <c r="AA65" s="5"/>
@@ -5202,11 +5205,11 @@
         <v>29</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
@@ -5230,14 +5233,14 @@
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
       <c r="V66" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W66" s="10">
         <v>0</v>
       </c>
       <c r="X66" s="11"/>
       <c r="Y66" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z66" s="5"/>
       <c r="AA66" s="5"/>
@@ -5254,11 +5257,11 @@
         <v>29</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -5282,14 +5285,14 @@
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
       <c r="V67" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W67" s="10">
         <v>0</v>
       </c>
       <c r="X67" s="11"/>
       <c r="Y67" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z67" s="5"/>
       <c r="AA67" s="5"/>
@@ -5306,11 +5309,11 @@
         <v>29</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -5334,17 +5337,17 @@
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
       <c r="V68" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W68" s="10">
         <v>0</v>
       </c>
       <c r="X68" s="11"/>
       <c r="Y68" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Z68" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
@@ -5360,11 +5363,11 @@
         <v>29</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -5388,14 +5391,14 @@
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
       <c r="V69" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W69" s="10">
         <v>0</v>
       </c>
       <c r="X69" s="11"/>
       <c r="Y69" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z69" s="16"/>
       <c r="AA69" s="5"/>
@@ -5412,11 +5415,11 @@
         <v>29</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
@@ -5440,17 +5443,17 @@
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
       <c r="V70" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W70" s="10">
         <v>0</v>
       </c>
       <c r="X70" s="11"/>
       <c r="Y70" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Z70" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
@@ -5466,11 +5469,11 @@
         <v>29</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -5494,14 +5497,14 @@
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
       <c r="V71" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W71" s="10">
         <v>0</v>
       </c>
       <c r="X71" s="11"/>
       <c r="Y71" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z71" s="16"/>
       <c r="AA71" s="5"/>
@@ -5518,11 +5521,11 @@
         <v>29</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -5546,14 +5549,14 @@
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
       <c r="V72" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W72" s="10">
         <v>0</v>
       </c>
       <c r="X72" s="11"/>
       <c r="Y72" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5"/>
@@ -5570,11 +5573,11 @@
         <v>29</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -5598,14 +5601,14 @@
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
       <c r="V73" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W73" s="10">
         <v>0</v>
       </c>
       <c r="X73" s="11"/>
       <c r="Y73" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z73" s="16"/>
       <c r="AA73" s="5"/>
@@ -5622,11 +5625,11 @@
         <v>29</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -5650,14 +5653,14 @@
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
       <c r="V74" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W74" s="10">
         <v>0</v>
       </c>
       <c r="X74" s="11"/>
       <c r="Y74" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z74" s="16"/>
       <c r="AA74" s="5"/>
@@ -5674,11 +5677,11 @@
         <v>29</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
@@ -5702,14 +5705,14 @@
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W75" s="10">
         <v>0</v>
       </c>
       <c r="X75" s="11"/>
       <c r="Y75" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z75" s="16"/>
       <c r="AA75" s="5"/>
@@ -5726,11 +5729,11 @@
         <v>29</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -5754,17 +5757,17 @@
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
       <c r="V76" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W76" s="10">
         <v>0</v>
       </c>
       <c r="X76" s="11"/>
       <c r="Y76" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Z76" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
@@ -5780,11 +5783,11 @@
         <v>29</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -5808,14 +5811,14 @@
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
       <c r="V77" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W77" s="10">
         <v>0</v>
       </c>
       <c r="X77" s="11"/>
       <c r="Y77" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z77" s="16"/>
       <c r="AA77" s="5"/>
@@ -5832,11 +5835,11 @@
         <v>29</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -5860,14 +5863,14 @@
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
       <c r="V78" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W78" s="10">
         <v>0</v>
       </c>
       <c r="X78" s="11"/>
       <c r="Y78" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z78" s="16"/>
       <c r="AA78" s="5"/>
@@ -5884,11 +5887,11 @@
         <v>29</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -5912,17 +5915,17 @@
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
       <c r="V79" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W79" s="10">
         <v>0</v>
       </c>
       <c r="X79" s="11"/>
       <c r="Y79" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z79" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
@@ -5938,11 +5941,11 @@
         <v>29</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -5966,17 +5969,17 @@
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
       <c r="V80" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W80" s="10">
         <v>0</v>
       </c>
       <c r="X80" s="11"/>
       <c r="Y80" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Z80" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA80" s="5"/>
       <c r="AB80" s="5"/>
@@ -5992,11 +5995,11 @@
         <v>29</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -6020,14 +6023,14 @@
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
       <c r="V81" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W81" s="10">
         <v>0</v>
       </c>
       <c r="X81" s="11"/>
       <c r="Y81" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z81" s="16"/>
       <c r="AA81" s="5"/>
@@ -6044,11 +6047,11 @@
         <v>29</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -6072,17 +6075,17 @@
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
       <c r="V82" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W82" s="10">
         <v>0</v>
       </c>
       <c r="X82" s="11"/>
       <c r="Y82" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z82" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA82" s="5"/>
       <c r="AB82" s="5"/>
@@ -6098,11 +6101,11 @@
         <v>29</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -6126,14 +6129,14 @@
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
       <c r="V83" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W83" s="10">
         <v>0</v>
       </c>
       <c r="X83" s="11"/>
       <c r="Y83" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z83" s="16"/>
       <c r="AA83" s="5"/>
@@ -6150,11 +6153,11 @@
         <v>29</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -6178,17 +6181,17 @@
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
       <c r="V84" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W84" s="10">
         <v>0</v>
       </c>
       <c r="X84" s="11"/>
       <c r="Y84" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Z84" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
@@ -6204,11 +6207,11 @@
         <v>29</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -6232,17 +6235,17 @@
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
       <c r="V85" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W85" s="10">
         <v>0</v>
       </c>
       <c r="X85" s="11"/>
       <c r="Y85" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Z85" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
@@ -6258,11 +6261,11 @@
         <v>29</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -6286,14 +6289,14 @@
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
       <c r="V86" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W86" s="10">
         <v>0</v>
       </c>
       <c r="X86" s="11"/>
       <c r="Y86" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z86" s="16"/>
       <c r="AA86" s="5"/>
@@ -6310,11 +6313,11 @@
         <v>29</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -6338,14 +6341,14 @@
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
       <c r="V87" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W87" s="10">
         <v>0</v>
       </c>
       <c r="X87" s="11"/>
       <c r="Y87" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z87" s="16"/>
       <c r="AA87" s="5"/>
@@ -6362,11 +6365,11 @@
         <v>29</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
@@ -6390,14 +6393,14 @@
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
       <c r="V88" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W88" s="10">
         <v>0</v>
       </c>
       <c r="X88" s="11"/>
       <c r="Y88" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z88" s="16"/>
       <c r="AA88" s="5"/>
@@ -6414,11 +6417,11 @@
         <v>29</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -6442,17 +6445,17 @@
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
       <c r="V89" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W89" s="10">
         <v>0</v>
       </c>
       <c r="X89" s="11"/>
       <c r="Y89" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Z89" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA89" s="5"/>
       <c r="AB89" s="5"/>
@@ -6468,11 +6471,11 @@
         <v>29</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -6496,14 +6499,14 @@
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
       <c r="V90" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W90" s="10">
         <v>0</v>
       </c>
       <c r="X90" s="11"/>
       <c r="Y90" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z90" s="16"/>
       <c r="AA90" s="5"/>
@@ -6520,11 +6523,11 @@
         <v>29</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -6548,14 +6551,14 @@
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
       <c r="V91" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W91" s="10">
         <v>0</v>
       </c>
       <c r="X91" s="11"/>
       <c r="Y91" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z91" s="16"/>
       <c r="AA91" s="5"/>
@@ -6572,11 +6575,11 @@
         <v>29</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -6600,14 +6603,14 @@
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
       <c r="V92" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W92" s="10">
         <v>0</v>
       </c>
       <c r="X92" s="11"/>
       <c r="Y92" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z92" s="16"/>
       <c r="AA92" s="5"/>
@@ -6624,11 +6627,11 @@
         <v>29</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -6652,14 +6655,14 @@
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
       <c r="V93" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W93" s="10">
         <v>0</v>
       </c>
       <c r="X93" s="11"/>
       <c r="Y93" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z93" s="16"/>
       <c r="AA93" s="5"/>
@@ -6676,11 +6679,11 @@
         <v>29</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
@@ -6704,14 +6707,14 @@
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
       <c r="V94" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W94" s="10">
         <v>0</v>
       </c>
       <c r="X94" s="11"/>
       <c r="Y94" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z94" s="16"/>
       <c r="AA94" s="5"/>
@@ -6728,11 +6731,11 @@
         <v>29</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -6756,14 +6759,14 @@
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
       <c r="V95" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W95" s="10">
         <v>0</v>
       </c>
       <c r="X95" s="11"/>
       <c r="Y95" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z95" s="16"/>
       <c r="AA95" s="5"/>
@@ -6780,11 +6783,11 @@
         <v>29</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -6808,14 +6811,14 @@
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
       <c r="V96" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W96" s="10">
         <v>0</v>
       </c>
       <c r="X96" s="11"/>
       <c r="Y96" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z96" s="16"/>
       <c r="AA96" s="5"/>
@@ -6832,11 +6835,11 @@
         <v>29</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -6860,17 +6863,17 @@
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
       <c r="V97" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W97" s="10">
         <v>0</v>
       </c>
       <c r="X97" s="11"/>
       <c r="Y97" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z97" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
@@ -6886,11 +6889,11 @@
         <v>29</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -6914,17 +6917,17 @@
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
       <c r="V98" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W98" s="10">
         <v>0</v>
       </c>
       <c r="X98" s="11"/>
       <c r="Y98" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z98" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
@@ -6940,11 +6943,11 @@
         <v>29</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -6968,14 +6971,14 @@
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
       <c r="V99" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W99" s="10">
         <v>0</v>
       </c>
       <c r="X99" s="11"/>
       <c r="Y99" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z99" s="16"/>
       <c r="AA99" s="5"/>
@@ -6992,11 +6995,11 @@
         <v>29</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -7020,14 +7023,14 @@
       <c r="T100" s="4"/>
       <c r="U100" s="4"/>
       <c r="V100" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W100" s="10">
         <v>0</v>
       </c>
       <c r="X100" s="11"/>
       <c r="Y100" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z100" s="16"/>
       <c r="AA100" s="5"/>
@@ -7044,11 +7047,11 @@
         <v>29</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -7072,14 +7075,14 @@
       <c r="T101" s="4"/>
       <c r="U101" s="4"/>
       <c r="V101" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W101" s="10">
         <v>0</v>
       </c>
       <c r="X101" s="11"/>
       <c r="Y101" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z101" s="16"/>
       <c r="AA101" s="5"/>
@@ -7096,11 +7099,11 @@
         <v>29</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -7124,17 +7127,17 @@
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
       <c r="V102" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W102" s="10">
         <v>0</v>
       </c>
       <c r="X102" s="11"/>
       <c r="Y102" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z102" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
@@ -7150,11 +7153,11 @@
         <v>29</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -7178,14 +7181,14 @@
       <c r="T103" s="4"/>
       <c r="U103" s="4"/>
       <c r="V103" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W103" s="10">
         <v>0</v>
       </c>
       <c r="X103" s="11"/>
       <c r="Y103" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z103" s="16"/>
       <c r="AA103" s="5"/>
@@ -7202,11 +7205,11 @@
         <v>29</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -7230,14 +7233,14 @@
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
       <c r="V104" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W104" s="10">
         <v>0</v>
       </c>
       <c r="X104" s="11"/>
       <c r="Y104" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z104" s="16"/>
       <c r="AA104" s="5"/>
@@ -7254,11 +7257,11 @@
         <v>29</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -7282,14 +7285,14 @@
       <c r="T105" s="4"/>
       <c r="U105" s="4"/>
       <c r="V105" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W105" s="10">
         <v>0</v>
       </c>
       <c r="X105" s="11"/>
       <c r="Y105" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z105" s="16"/>
       <c r="AA105" s="5"/>
@@ -7306,11 +7309,11 @@
         <v>29</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -7334,14 +7337,14 @@
       <c r="T106" s="4"/>
       <c r="U106" s="4"/>
       <c r="V106" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W106" s="10">
         <v>0</v>
       </c>
       <c r="X106" s="11"/>
       <c r="Y106" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z106" s="16"/>
       <c r="AA106" s="5"/>
@@ -7358,11 +7361,11 @@
         <v>29</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -7386,14 +7389,14 @@
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
       <c r="V107" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W107" s="10">
         <v>0</v>
       </c>
       <c r="X107" s="11"/>
       <c r="Y107" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z107" s="16"/>
       <c r="AA107" s="5"/>
@@ -7410,11 +7413,11 @@
         <v>29</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -7438,14 +7441,14 @@
       <c r="T108" s="4"/>
       <c r="U108" s="4"/>
       <c r="V108" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W108" s="10">
         <v>0</v>
       </c>
       <c r="X108" s="11"/>
       <c r="Y108" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z108" s="16"/>
       <c r="AA108" s="5"/>
@@ -7462,11 +7465,11 @@
         <v>29</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -7490,14 +7493,14 @@
       <c r="T109" s="4"/>
       <c r="U109" s="4"/>
       <c r="V109" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W109" s="10">
         <v>0</v>
       </c>
       <c r="X109" s="11"/>
       <c r="Y109" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z109" s="16"/>
       <c r="AA109" s="5"/>
@@ -7514,11 +7517,11 @@
         <v>29</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -7542,14 +7545,14 @@
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
       <c r="V110" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W110" s="10">
         <v>0</v>
       </c>
       <c r="X110" s="11"/>
       <c r="Y110" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z110" s="16"/>
       <c r="AA110" s="5"/>
@@ -7566,11 +7569,11 @@
         <v>29</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -7594,14 +7597,14 @@
       <c r="T111" s="4"/>
       <c r="U111" s="4"/>
       <c r="V111" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W111" s="10">
         <v>0</v>
       </c>
       <c r="X111" s="11"/>
       <c r="Y111" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z111" s="16"/>
       <c r="AA111" s="5"/>
@@ -7618,11 +7621,11 @@
         <v>29</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -7646,14 +7649,14 @@
       <c r="T112" s="4"/>
       <c r="U112" s="4"/>
       <c r="V112" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W112" s="10">
         <v>0</v>
       </c>
       <c r="X112" s="11"/>
       <c r="Y112" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z112" s="16"/>
       <c r="AA112" s="5"/>
@@ -7670,11 +7673,11 @@
         <v>29</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -7698,14 +7701,14 @@
       <c r="T113" s="4"/>
       <c r="U113" s="4"/>
       <c r="V113" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W113" s="10">
         <v>0</v>
       </c>
       <c r="X113" s="11"/>
       <c r="Y113" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z113" s="16"/>
       <c r="AA113" s="5"/>
@@ -7722,11 +7725,11 @@
         <v>29</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -7750,14 +7753,14 @@
       <c r="T114" s="4"/>
       <c r="U114" s="4"/>
       <c r="V114" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W114" s="10">
         <v>0</v>
       </c>
       <c r="X114" s="11"/>
       <c r="Y114" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z114" s="16"/>
       <c r="AA114" s="5"/>
@@ -7774,11 +7777,11 @@
         <v>29</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -7802,14 +7805,14 @@
       <c r="T115" s="4"/>
       <c r="U115" s="4"/>
       <c r="V115" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W115" s="10">
         <v>0</v>
       </c>
       <c r="X115" s="11"/>
       <c r="Y115" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z115" s="16"/>
       <c r="AA115" s="5"/>
@@ -7826,11 +7829,11 @@
         <v>29</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -7854,14 +7857,14 @@
       <c r="T116" s="4"/>
       <c r="U116" s="4"/>
       <c r="V116" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W116" s="10">
         <v>0</v>
       </c>
       <c r="X116" s="11"/>
       <c r="Y116" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z116" s="16"/>
       <c r="AA116" s="5"/>
@@ -7878,11 +7881,11 @@
         <v>29</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C117" s="17"/>
       <c r="D117" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E117" s="17"/>
       <c r="F117" s="17"/>
@@ -7906,17 +7909,17 @@
       <c r="T117" s="17"/>
       <c r="U117" s="17"/>
       <c r="V117" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W117" s="10">
         <v>0</v>
       </c>
       <c r="X117" s="11"/>
       <c r="Y117" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z117" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA117" s="17"/>
       <c r="AB117" s="17"/>
@@ -7932,11 +7935,11 @@
         <v>29</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C118" s="17"/>
       <c r="D118" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E118" s="17"/>
       <c r="F118" s="17"/>
@@ -7960,14 +7963,14 @@
       <c r="T118" s="17"/>
       <c r="U118" s="17"/>
       <c r="V118" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W118" s="10">
         <v>0</v>
       </c>
       <c r="X118" s="11"/>
       <c r="Y118" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z118" s="16"/>
       <c r="AA118" s="17"/>
@@ -7984,11 +7987,11 @@
         <v>29</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -8012,14 +8015,14 @@
       <c r="T119" s="4"/>
       <c r="U119" s="4"/>
       <c r="V119" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W119" s="10">
         <v>0</v>
       </c>
       <c r="X119" s="11"/>
       <c r="Y119" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z119" s="16"/>
       <c r="AA119" s="5"/>
@@ -8036,11 +8039,11 @@
         <v>29</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -8064,14 +8067,14 @@
       <c r="T120" s="4"/>
       <c r="U120" s="4"/>
       <c r="V120" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W120" s="10">
         <v>0</v>
       </c>
       <c r="X120" s="11"/>
       <c r="Y120" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z120" s="16"/>
       <c r="AA120" s="5"/>
@@ -8088,11 +8091,11 @@
         <v>29</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -8116,17 +8119,17 @@
       <c r="T121" s="4"/>
       <c r="U121" s="4"/>
       <c r="V121" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W121" s="10">
         <v>0</v>
       </c>
       <c r="X121" s="11"/>
       <c r="Y121" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z121" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
@@ -8142,11 +8145,11 @@
         <v>29</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -8170,17 +8173,17 @@
       <c r="T122" s="4"/>
       <c r="U122" s="4"/>
       <c r="V122" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W122" s="10">
         <v>0</v>
       </c>
       <c r="X122" s="11"/>
       <c r="Y122" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z122" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
@@ -8196,11 +8199,11 @@
         <v>29</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -8224,14 +8227,14 @@
       <c r="T123" s="4"/>
       <c r="U123" s="4"/>
       <c r="V123" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W123" s="10">
         <v>0</v>
       </c>
       <c r="X123" s="11"/>
       <c r="Y123" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z123" s="16"/>
       <c r="AA123" s="5"/>
@@ -8248,11 +8251,11 @@
         <v>29</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -8276,17 +8279,17 @@
       <c r="T124" s="4"/>
       <c r="U124" s="4"/>
       <c r="V124" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W124" s="10">
         <v>0</v>
       </c>
       <c r="X124" s="11"/>
       <c r="Y124" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Z124" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
@@ -8302,11 +8305,11 @@
         <v>29</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -8330,14 +8333,14 @@
       <c r="T125" s="4"/>
       <c r="U125" s="4"/>
       <c r="V125" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W125" s="10">
         <v>0</v>
       </c>
       <c r="X125" s="11"/>
       <c r="Y125" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z125" s="16"/>
       <c r="AA125" s="5"/>
@@ -8354,11 +8357,11 @@
         <v>29</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
@@ -8382,14 +8385,14 @@
       <c r="T126" s="4"/>
       <c r="U126" s="4"/>
       <c r="V126" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W126" s="10">
         <v>0</v>
       </c>
       <c r="X126" s="11"/>
       <c r="Y126" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z126" s="16"/>
       <c r="AA126" s="5"/>
@@ -8406,11 +8409,11 @@
         <v>29</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
@@ -8434,14 +8437,14 @@
       <c r="T127" s="4"/>
       <c r="U127" s="4"/>
       <c r="V127" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W127" s="10">
         <v>0</v>
       </c>
       <c r="X127" s="11"/>
       <c r="Y127" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z127" s="15"/>
       <c r="AA127" s="5"/>
@@ -8458,11 +8461,11 @@
         <v>29</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
@@ -8486,14 +8489,14 @@
       <c r="T128" s="4"/>
       <c r="U128" s="4"/>
       <c r="V128" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W128" s="10">
         <v>0</v>
       </c>
       <c r="X128" s="11"/>
       <c r="Y128" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z128" s="15"/>
       <c r="AA128" s="5"/>
@@ -8510,11 +8513,11 @@
         <v>29</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -8538,14 +8541,14 @@
       <c r="T129" s="4"/>
       <c r="U129" s="4"/>
       <c r="V129" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W129" s="10">
         <v>0</v>
       </c>
       <c r="X129" s="11"/>
       <c r="Y129" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z129" s="15"/>
       <c r="AA129" s="5"/>
@@ -8562,11 +8565,11 @@
         <v>29</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
@@ -8590,14 +8593,14 @@
       <c r="T130" s="4"/>
       <c r="U130" s="4"/>
       <c r="V130" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W130" s="10">
         <v>0</v>
       </c>
       <c r="X130" s="11"/>
       <c r="Y130" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z130" s="15"/>
       <c r="AA130" s="5"/>
@@ -8614,11 +8617,11 @@
         <v>29</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
@@ -8642,14 +8645,14 @@
       <c r="T131" s="4"/>
       <c r="U131" s="4"/>
       <c r="V131" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W131" s="10">
         <v>0</v>
       </c>
       <c r="X131" s="11"/>
       <c r="Y131" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z131" s="16"/>
       <c r="AA131" s="5"/>
@@ -8666,11 +8669,11 @@
         <v>29</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
@@ -8694,14 +8697,14 @@
       <c r="T132" s="4"/>
       <c r="U132" s="4"/>
       <c r="V132" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W132" s="10">
         <v>0</v>
       </c>
       <c r="X132" s="11"/>
       <c r="Y132" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z132" s="16"/>
       <c r="AA132" s="5"/>
@@ -8718,11 +8721,11 @@
         <v>29</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
@@ -8746,14 +8749,14 @@
       <c r="T133" s="4"/>
       <c r="U133" s="4"/>
       <c r="V133" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W133" s="10">
         <v>0</v>
       </c>
       <c r="X133" s="11"/>
       <c r="Y133" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z133" s="16"/>
       <c r="AA133" s="5"/>
@@ -8770,11 +8773,11 @@
         <v>29</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
@@ -8798,14 +8801,14 @@
       <c r="T134" s="4"/>
       <c r="U134" s="4"/>
       <c r="V134" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W134" s="10">
         <v>0</v>
       </c>
       <c r="X134" s="11"/>
       <c r="Y134" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z134" s="16"/>
       <c r="AA134" s="5"/>
@@ -8822,11 +8825,11 @@
         <v>29</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -8850,14 +8853,14 @@
       <c r="T135" s="4"/>
       <c r="U135" s="4"/>
       <c r="V135" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W135" s="10">
         <v>0</v>
       </c>
       <c r="X135" s="11"/>
       <c r="Y135" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z135" s="5"/>
       <c r="AA135" s="5"/>
@@ -8874,11 +8877,11 @@
         <v>29</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
@@ -8902,14 +8905,14 @@
       <c r="T136" s="4"/>
       <c r="U136" s="4"/>
       <c r="V136" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W136" s="10">
         <v>0</v>
       </c>
       <c r="X136" s="11"/>
       <c r="Y136" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z136" s="5"/>
       <c r="AA136" s="5"/>
@@ -8926,11 +8929,11 @@
         <v>29</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
@@ -8954,17 +8957,17 @@
       <c r="T137" s="4"/>
       <c r="U137" s="4"/>
       <c r="V137" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W137" s="10">
         <v>0</v>
       </c>
       <c r="X137" s="11"/>
       <c r="Y137" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z137" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
@@ -8980,11 +8983,11 @@
         <v>29</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -9008,14 +9011,14 @@
       <c r="T138" s="4"/>
       <c r="U138" s="4"/>
       <c r="V138" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W138" s="10">
         <v>0</v>
       </c>
       <c r="X138" s="11"/>
       <c r="Y138" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z138" s="5"/>
       <c r="AA138" s="5"/>
@@ -9032,11 +9035,11 @@
         <v>29</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
@@ -9060,14 +9063,14 @@
       <c r="T139" s="4"/>
       <c r="U139" s="4"/>
       <c r="V139" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W139" s="10">
         <v>0</v>
       </c>
       <c r="X139" s="11"/>
       <c r="Y139" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z139" s="5"/>
       <c r="AA139" s="5"/>
@@ -9084,11 +9087,11 @@
         <v>29</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
@@ -9112,17 +9115,17 @@
       <c r="T140" s="4"/>
       <c r="U140" s="4"/>
       <c r="V140" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W140" s="10">
         <v>0</v>
       </c>
       <c r="X140" s="11"/>
       <c r="Y140" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z140" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
@@ -9138,11 +9141,11 @@
         <v>29</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -9166,14 +9169,14 @@
       <c r="T141" s="4"/>
       <c r="U141" s="4"/>
       <c r="V141" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W141" s="10">
         <v>0</v>
       </c>
       <c r="X141" s="11"/>
       <c r="Y141" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z141" s="5"/>
       <c r="AA141" s="5"/>
@@ -9190,11 +9193,11 @@
         <v>29</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -9218,14 +9221,14 @@
       <c r="T142" s="4"/>
       <c r="U142" s="4"/>
       <c r="V142" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W142" s="10">
         <v>0</v>
       </c>
       <c r="X142" s="11"/>
       <c r="Y142" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z142" s="5"/>
       <c r="AA142" s="5"/>
@@ -9242,11 +9245,11 @@
         <v>29</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
@@ -9277,7 +9280,7 @@
       </c>
       <c r="X143" s="11"/>
       <c r="Y143" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Z143" s="5"/>
       <c r="AA143" s="5"/>
@@ -9294,11 +9297,11 @@
         <v>29</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
@@ -9329,7 +9332,7 @@
       </c>
       <c r="X144" s="11"/>
       <c r="Y144" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Z144" s="5"/>
       <c r="AA144" s="5"/>
@@ -9346,11 +9349,11 @@
         <v>29</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
@@ -9381,7 +9384,7 @@
       </c>
       <c r="X145" s="11"/>
       <c r="Y145" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Z145" s="5"/>
       <c r="AA145" s="5"/>
@@ -9398,11 +9401,11 @@
         <v>29</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
@@ -9433,7 +9436,7 @@
       </c>
       <c r="X146" s="11"/>
       <c r="Y146" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Z146" s="5"/>
       <c r="AA146" s="5"/>
@@ -9447,14 +9450,14 @@
     </row>
     <row r="147" spans="1:34">
       <c r="A147" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
@@ -9481,7 +9484,7 @@
       <c r="W147" s="10"/>
       <c r="X147" s="11"/>
       <c r="Y147" s="18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z147" s="5"/>
       <c r="AA147" s="5"/>
@@ -9495,14 +9498,14 @@
     </row>
     <row r="148" spans="1:34">
       <c r="A148" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
@@ -9529,7 +9532,7 @@
       <c r="W148" s="10"/>
       <c r="X148" s="11"/>
       <c r="Y148" s="18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z148" s="5"/>
       <c r="AA148" s="5"/>
@@ -9543,14 +9546,14 @@
     </row>
     <row r="149" spans="1:34">
       <c r="A149" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
@@ -9577,7 +9580,7 @@
       <c r="W149" s="10"/>
       <c r="X149" s="11"/>
       <c r="Y149" s="18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z149" s="5"/>
       <c r="AA149" s="5"/>
@@ -9591,14 +9594,14 @@
     </row>
     <row r="150" spans="1:34">
       <c r="A150" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
@@ -9625,7 +9628,7 @@
       <c r="W150" s="10"/>
       <c r="X150" s="11"/>
       <c r="Y150" s="18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z150" s="5"/>
       <c r="AA150" s="5"/>
@@ -9639,14 +9642,14 @@
     </row>
     <row r="151" spans="1:34">
       <c r="A151" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C151" s="19"/>
       <c r="D151" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
@@ -9673,7 +9676,7 @@
       <c r="W151" s="4"/>
       <c r="X151" s="4"/>
       <c r="Y151" s="18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z151" s="5"/>
       <c r="AA151" s="5"/>
@@ -9687,14 +9690,14 @@
     </row>
     <row r="152" spans="1:34">
       <c r="A152" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C152" s="19"/>
       <c r="D152" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
@@ -9721,7 +9724,7 @@
       <c r="W152" s="4"/>
       <c r="X152" s="4"/>
       <c r="Y152" s="18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z152" s="5"/>
       <c r="AA152" s="5"/>
@@ -9735,14 +9738,14 @@
     </row>
     <row r="153" spans="1:34">
       <c r="A153" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C153" s="19"/>
       <c r="D153" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
@@ -9769,7 +9772,7 @@
       <c r="W153" s="4"/>
       <c r="X153" s="4"/>
       <c r="Y153" s="18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z153" s="5"/>
       <c r="AA153" s="5"/>
@@ -9783,14 +9786,14 @@
     </row>
     <row r="154" spans="1:34">
       <c r="A154" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C154" s="19"/>
       <c r="D154" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -9817,7 +9820,7 @@
       <c r="W154" s="4"/>
       <c r="X154" s="4"/>
       <c r="Y154" s="18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z154" s="5"/>
       <c r="AA154" s="5"/>
@@ -9831,14 +9834,14 @@
     </row>
     <row r="155" spans="1:34">
       <c r="A155" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C155" s="19"/>
       <c r="D155" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
@@ -9865,7 +9868,7 @@
       <c r="W155" s="4"/>
       <c r="X155" s="4"/>
       <c r="Y155" s="18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z155" s="5"/>
       <c r="AA155" s="5"/>
@@ -9879,14 +9882,14 @@
     </row>
     <row r="156" spans="1:34">
       <c r="A156" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C156" s="19"/>
       <c r="D156" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
@@ -9913,7 +9916,7 @@
       <c r="W156" s="4"/>
       <c r="X156" s="4"/>
       <c r="Y156" s="18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z156" s="5"/>
       <c r="AA156" s="5"/>
@@ -9927,14 +9930,14 @@
     </row>
     <row r="157" spans="1:34">
       <c r="A157" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C157" s="19"/>
       <c r="D157" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
@@ -9961,7 +9964,7 @@
       <c r="W157" s="4"/>
       <c r="X157" s="4"/>
       <c r="Y157" s="18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z157" s="5"/>
       <c r="AA157" s="5"/>
@@ -9975,14 +9978,14 @@
     </row>
     <row r="158" spans="1:34">
       <c r="A158" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C158" s="19"/>
       <c r="D158" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
@@ -10009,7 +10012,7 @@
       <c r="W158" s="4"/>
       <c r="X158" s="4"/>
       <c r="Y158" s="18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z158" s="5"/>
       <c r="AA158" s="5"/>
@@ -10023,14 +10026,14 @@
     </row>
     <row r="159" spans="1:34">
       <c r="A159" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
@@ -10057,7 +10060,7 @@
       <c r="W159" s="4"/>
       <c r="X159" s="4"/>
       <c r="Y159" s="18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z159" s="5"/>
       <c r="AA159" s="5"/>
@@ -10071,14 +10074,14 @@
     </row>
     <row r="160" spans="1:34">
       <c r="A160" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
@@ -10105,7 +10108,7 @@
       <c r="W160" s="4"/>
       <c r="X160" s="4"/>
       <c r="Y160" s="18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z160" s="5"/>
       <c r="AA160" s="5"/>
@@ -10335,18 +10338,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -10388,7 +10391,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/TH64_Fujie_UIList.xlsx
+++ b/exe/TSV/Excel/TH64_Fujie_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17D3F35-354A-4A73-B3EB-CCD0596099EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8536F27-4B89-46C6-8B94-AF720E15DED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="4230" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6195" yWindow="4185" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH64_藤江駅_UIList" sheetId="1" r:id="rId1"/>

--- a/exe/TSV/Excel/TH64_Fujie_UIList.xlsx
+++ b/exe/TSV/Excel/TH64_Fujie_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8536F27-4B89-46C6-8B94-AF720E15DED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141EC821-5B64-4282-BEDA-35C3F4775DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="4185" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7230" yWindow="4485" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH64_藤江駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="322">
   <si>
     <t>Type</t>
   </si>
@@ -609,6 +609,9 @@
     <t>物理てこ</t>
   </si>
   <si>
+    <t>TH64_11</t>
+  </si>
+  <si>
     <t>-1,1</t>
   </si>
   <si>
@@ -636,6 +639,9 @@
     <t>12LR</t>
   </si>
   <si>
+    <t>TH64_12</t>
+  </si>
+  <si>
     <t>-1,0,1</t>
   </si>
   <si>
@@ -654,7 +660,7 @@
     <t>信号機表示灯</t>
   </si>
   <si>
-    <t>12R</t>
+    <t>藤江上り場内12R</t>
   </si>
   <si>
     <t>0,1</t>
@@ -669,7 +675,7 @@
     <t>12L_G</t>
   </si>
   <si>
-    <t>12L</t>
+    <t>藤江下り出発12L</t>
   </si>
   <si>
     <t>12LR_Label</t>
@@ -678,16 +684,19 @@
     <t>13LR</t>
   </si>
   <si>
+    <t>TH64_13</t>
+  </si>
+  <si>
     <t>13R_G</t>
   </si>
   <si>
-    <t>13R</t>
+    <t>藤江上り場内13R</t>
   </si>
   <si>
     <t>13L_G</t>
   </si>
   <si>
-    <t>13L</t>
+    <t>藤江下り出発13L</t>
   </si>
   <si>
     <t>13LR_Label</t>
@@ -696,16 +705,19 @@
     <t>14LR</t>
   </si>
   <si>
+    <t>TH64_14</t>
+  </si>
+  <si>
     <t>14R_G</t>
   </si>
   <si>
-    <t>14R</t>
+    <t>藤江上り出発14R</t>
   </si>
   <si>
     <t>14L_G</t>
   </si>
   <si>
-    <t>14L</t>
+    <t>藤江下り場内14L</t>
   </si>
   <si>
     <t>14LR_Label</t>
@@ -714,16 +726,19 @@
     <t>15LR</t>
   </si>
   <si>
+    <t>TH64_15</t>
+  </si>
+  <si>
     <t>15R_G</t>
   </si>
   <si>
-    <t>15R</t>
+    <t>藤江上り出発15R</t>
   </si>
   <si>
     <t>15L_G</t>
   </si>
   <si>
-    <t>15L</t>
+    <t>藤江下り場内15L</t>
   </si>
   <si>
     <t>15LR_Label</t>
@@ -732,6 +747,9 @@
     <t>16L</t>
   </si>
   <si>
+    <t>TH64_16</t>
+  </si>
+  <si>
     <t>16Lは方向てこ　白LR</t>
   </si>
   <si>
@@ -753,6 +771,12 @@
     <t>警報下り接近</t>
   </si>
   <si>
+    <t>W21</t>
+  </si>
+  <si>
+    <t>TH64_21</t>
+  </si>
+  <si>
     <t>P21</t>
   </si>
   <si>
@@ -765,34 +789,49 @@
     <t>転てつ器単独てこはNCR</t>
   </si>
   <si>
-    <t>P21_PG</t>
+    <t>W21_PG</t>
   </si>
   <si>
     <t>転てつ器表示灯</t>
   </si>
   <si>
+    <t>TH64_W21</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Image/Light/N.png,Image/Light/PG.png</t>
   </si>
   <si>
-    <t>P21_PY</t>
+    <t>W21_PY</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/PY.png</t>
   </si>
   <si>
-    <t>P21_Label</t>
+    <t>W21_Label</t>
+  </si>
+  <si>
+    <t>W22</t>
   </si>
   <si>
     <t>P22</t>
   </si>
   <si>
-    <t>P22_PG</t>
-  </si>
-  <si>
-    <t>P22_PY</t>
-  </si>
-  <si>
-    <t>P22_Label</t>
+    <t>W22_PG</t>
+  </si>
+  <si>
+    <t>TH64_W22</t>
+  </si>
+  <si>
+    <t>W22_PY</t>
+  </si>
+  <si>
+    <t>W22_Label</t>
   </si>
   <si>
     <t>KeyImage</t>
@@ -858,6 +897,9 @@
     <t>軌道回路表示灯</t>
   </si>
   <si>
+    <t>TH65_1RT</t>
+  </si>
+  <si>
     <t>0,1,2</t>
   </si>
   <si>
@@ -867,22 +909,31 @@
     <t>0度※以下0度省略</t>
   </si>
   <si>
-    <t>TH65_41T_P41N_P43N_1</t>
-  </si>
-  <si>
-    <t>TH65_41T_P41N_P43N_2</t>
-  </si>
-  <si>
-    <t>TH65_41T_P41N_P43N_3</t>
-  </si>
-  <si>
-    <t>TH65_41T_P41N_P43R_1</t>
-  </si>
-  <si>
-    <t>TH65_41T_P41N_P43R_2</t>
-  </si>
-  <si>
-    <t>TH65_41T_P41N_P43R_3</t>
+    <t>TH65_41T_W41N_W43N_1</t>
+  </si>
+  <si>
+    <t>TH65_41T</t>
+  </si>
+  <si>
+    <t>TH65_W41</t>
+  </si>
+  <si>
+    <t>TH65_W43</t>
+  </si>
+  <si>
+    <t>TH65_41T_W41N_W43N_2</t>
+  </si>
+  <si>
+    <t>TH65_41T_W41N_W43N_3</t>
+  </si>
+  <si>
+    <t>TH65_41T_W41N_W43R_1</t>
+  </si>
+  <si>
+    <t>TH65_41T_W41N_W43R_2</t>
+  </si>
+  <si>
+    <t>TH65_41T_W41N_W43R_3</t>
   </si>
   <si>
     <t>Image/Light/112N.png,Image/Light/112Y.png,Image/Light/112R.png</t>
@@ -891,57 +942,78 @@
     <t>112度</t>
   </si>
   <si>
-    <t>TH65_41T_P41R_1</t>
-  </si>
-  <si>
-    <t>TH65_41T_P41R_2</t>
-  </si>
-  <si>
-    <t>TH65_42ロT_P42ロN_1</t>
-  </si>
-  <si>
-    <t>TH65_42ロT_P42ロN_2</t>
-  </si>
-  <si>
-    <t>TH65_42ロT_P42ロN_3</t>
-  </si>
-  <si>
-    <t>TH65_42ロT_P42ロR_1</t>
-  </si>
-  <si>
-    <t>TH65_42ロT_P42ロR_2</t>
-  </si>
-  <si>
-    <t>TH65_42ロT_P42ロR_3</t>
+    <t>TH65_41T_W41R_1</t>
+  </si>
+  <si>
+    <t>TH65_41T_W41R_2</t>
+  </si>
+  <si>
+    <t>TH65_42ロT_W42ロN_1</t>
+  </si>
+  <si>
+    <t>TH65_42ロT</t>
+  </si>
+  <si>
+    <t>TH65_W42</t>
+  </si>
+  <si>
+    <t>TH65_42ロT_W42ロN_2</t>
+  </si>
+  <si>
+    <t>TH65_42ロT_W42ロN_3</t>
+  </si>
+  <si>
+    <t>TH65_42ロT_W42ロR_1</t>
+  </si>
+  <si>
+    <t>TH65_42ロT_W42ロR_2</t>
+  </si>
+  <si>
+    <t>TH65_42ロT_W42ロR_3</t>
   </si>
   <si>
     <t>TH65_2RT_1</t>
   </si>
   <si>
+    <t>TH65_2RT</t>
+  </si>
+  <si>
     <t>TH65_2RT_2</t>
   </si>
   <si>
     <t>TH65_3RT_1</t>
   </si>
   <si>
+    <t>TH65_3RT</t>
+  </si>
+  <si>
     <t>TH65_3RT_2</t>
   </si>
   <si>
     <t>TH65_11LT_1</t>
   </si>
   <si>
+    <t>TH65_11LT</t>
+  </si>
+  <si>
     <t>TH65_11LT_2</t>
   </si>
   <si>
     <t>TH65_12LT_1</t>
   </si>
   <si>
+    <t>TH65_12LT</t>
+  </si>
+  <si>
     <t>TH65_12LT_2</t>
   </si>
   <si>
     <t>TH65_44T_1</t>
   </si>
   <si>
+    <t>TH65_44T</t>
+  </si>
+  <si>
     <t>TH65_44T_2</t>
   </si>
   <si>
@@ -954,87 +1026,123 @@
     <t>68度</t>
   </si>
   <si>
-    <t>TH65_45T_P45N_1</t>
-  </si>
-  <si>
-    <t>TH65_45T_P45N_2</t>
-  </si>
-  <si>
-    <t>TH65_45T_P45N_3</t>
-  </si>
-  <si>
-    <t>TH65_45T_P45R_1</t>
-  </si>
-  <si>
-    <t>TH65_45T_P45R_2</t>
-  </si>
-  <si>
-    <t>TH65_47T_P47イN_P48ロN_1</t>
-  </si>
-  <si>
-    <t>TH65_47T_P47イN_P48ロN_2</t>
-  </si>
-  <si>
-    <t>TH65_47T_P47イN_P48ロR_1</t>
-  </si>
-  <si>
-    <t>TH65_47T_P47イN_P48ロR_2</t>
-  </si>
-  <si>
-    <t>TH65_47T_P47イR_P48ロN_1</t>
-  </si>
-  <si>
-    <t>TH65_47T_P47イR_P48ロN_2</t>
-  </si>
-  <si>
-    <t>TH65_48T_P48イN_P47ロN_1</t>
-  </si>
-  <si>
-    <t>TH65_48T_P48イN_P47ロN_2</t>
-  </si>
-  <si>
-    <t>TH65_48T_P48イN_P47ロR_1</t>
-  </si>
-  <si>
-    <t>TH65_48T_P48イN_P47ロR_2</t>
-  </si>
-  <si>
-    <t>TH65_48T_P48イR_P47ロN_1</t>
-  </si>
-  <si>
-    <t>TH65_48T_P48イR_P47ロN_2</t>
-  </si>
-  <si>
-    <t>TH65_49T_P49N_1</t>
-  </si>
-  <si>
-    <t>TH65_49T_P49N_2</t>
-  </si>
-  <si>
-    <t>TH65_49T_P49N_3</t>
-  </si>
-  <si>
-    <t>TH65_49T_P49R_1</t>
-  </si>
-  <si>
-    <t>TH65_49T_P49R_2</t>
+    <t>TH65_45T_W45N_1</t>
+  </si>
+  <si>
+    <t>TH65_45T</t>
+  </si>
+  <si>
+    <t>TH65_W45</t>
+  </si>
+  <si>
+    <t>TH65_45T_W45N_2</t>
+  </si>
+  <si>
+    <t>TH65_45T_W45N_3</t>
+  </si>
+  <si>
+    <t>TH65_45T_W45R_1</t>
+  </si>
+  <si>
+    <t>TH65_45T_W45R_2</t>
+  </si>
+  <si>
+    <t>TH65_47T_W47イN_W48ロN_1</t>
+  </si>
+  <si>
+    <t>TH65_47T</t>
+  </si>
+  <si>
+    <t>TH65_W47</t>
+  </si>
+  <si>
+    <t>TH65_W48</t>
+  </si>
+  <si>
+    <t>TH65_47T_W47イN_W48ロN_2</t>
+  </si>
+  <si>
+    <t>TH65_47T_W47イN_W48ロR_1</t>
+  </si>
+  <si>
+    <t>TH65_47T_W47イN_W48ロR_2</t>
+  </si>
+  <si>
+    <t>TH65_47T_W47イR_W48ロN_1</t>
+  </si>
+  <si>
+    <t>TH65_47T_W47イR_W48ロN_2</t>
+  </si>
+  <si>
+    <t>TH65_48T_W48イN_W47ロN_1</t>
+  </si>
+  <si>
+    <t>TH65_48T</t>
+  </si>
+  <si>
+    <t>TH65_48T_W48イN_W47ロN_2</t>
+  </si>
+  <si>
+    <t>TH65_48T_W48イN_W47ロR_1</t>
+  </si>
+  <si>
+    <t>TH65_48T_W48イN_W47ロR_2</t>
+  </si>
+  <si>
+    <t>TH65_48T_W48イR_W47ロN_1</t>
+  </si>
+  <si>
+    <t>TH65_48T_W48イR_W47ロN_2</t>
+  </si>
+  <si>
+    <t>TH65_49T_W49N_1</t>
+  </si>
+  <si>
+    <t>TH65_49T</t>
+  </si>
+  <si>
+    <t>TH65_W49</t>
+  </si>
+  <si>
+    <t>TH65_49T_W49N_2</t>
+  </si>
+  <si>
+    <t>TH65_49T_W49N_3</t>
+  </si>
+  <si>
+    <t>TH65_49T_W49R_1</t>
+  </si>
+  <si>
+    <t>TH65_49T_W49R_2</t>
   </si>
   <si>
     <t>TH65_50イT_1</t>
   </si>
   <si>
+    <t>TH65_50イT</t>
+  </si>
+  <si>
     <t>TH65_XT_1</t>
   </si>
   <si>
+    <t>TH65_XT</t>
+  </si>
+  <si>
     <t>DF1T_1</t>
   </si>
   <si>
+    <t>DF1T</t>
+  </si>
+  <si>
     <t>DF1T_2</t>
   </si>
   <si>
     <t>DF2T_1</t>
   </si>
   <si>
+    <t>DF2T</t>
+  </si>
+  <si>
     <t>DF2T_2</t>
   </si>
   <si>
@@ -1059,16 +1167,19 @@
     <t>Ar</t>
   </si>
   <si>
-    <t>TH64_21T_P21N_1</t>
-  </si>
-  <si>
-    <t>TH64_21T_P21N_2</t>
-  </si>
-  <si>
-    <t>TH64_21T_P21R_1</t>
-  </si>
-  <si>
-    <t>TH64_21T_P21R_2</t>
+    <t>TH64_21T_W21N_1</t>
+  </si>
+  <si>
+    <t>TH64_21T</t>
+  </si>
+  <si>
+    <t>TH64_21T_W21N_2</t>
+  </si>
+  <si>
+    <t>TH64_21T_W21R_1</t>
+  </si>
+  <si>
+    <t>TH64_21T_W21R_2</t>
   </si>
   <si>
     <t>Image/Light/45N.png,Image/Light/45Y.png,Image/Light/45R.png</t>
@@ -1080,46 +1191,67 @@
     <t>TH64_12LT_1</t>
   </si>
   <si>
+    <t>TH64_12LT</t>
+  </si>
+  <si>
     <t>TH64_12LT_2</t>
   </si>
   <si>
     <t>TH64_13LT_1</t>
   </si>
   <si>
+    <t>TH64_13LT</t>
+  </si>
+  <si>
     <t>TH64_13LT_2</t>
   </si>
   <si>
     <t>TH64_12RT_1</t>
   </si>
   <si>
+    <t>TH64_12RT</t>
+  </si>
+  <si>
     <t>TH64_12RT_2</t>
   </si>
   <si>
     <t>TH64_15LT_1</t>
   </si>
   <si>
+    <t>TH64_15LT</t>
+  </si>
+  <si>
     <t>TH64_15LT_2</t>
   </si>
   <si>
     <t>TH64_14RT_1</t>
   </si>
   <si>
+    <t>TH64_14RT</t>
+  </si>
+  <si>
     <t>TH64_14RT_2</t>
   </si>
   <si>
     <t>TH64_15RT_1</t>
   </si>
   <si>
+    <t>TH64_15RT</t>
+  </si>
+  <si>
     <t>TH64_15RT_2</t>
   </si>
   <si>
-    <t>TH64_22T_P22N_1</t>
-  </si>
-  <si>
-    <t>TH64_22T_P22N_2</t>
-  </si>
-  <si>
-    <t>TH64_22T_P22R_1</t>
+    <t>TH64_22T_W22N_1</t>
+  </si>
+  <si>
+    <t>TH64_22T</t>
+  </si>
+  <si>
+    <t>TH64_22T_W22N_2</t>
+  </si>
+  <si>
+    <t>TH64_22T_W22R_1</t>
   </si>
   <si>
     <t>Image/Light/135N.png,Image/Light/135Y.png,Image/Light/135R.png</t>
@@ -1128,12 +1260,15 @@
     <t>135度</t>
   </si>
   <si>
-    <t>TH64_22T_P22R_2</t>
+    <t>TH64_22T_W22R_2</t>
   </si>
   <si>
     <t>FMT_1</t>
   </si>
   <si>
+    <t>FMT</t>
+  </si>
+  <si>
     <t>FMT_2</t>
   </si>
   <si>
@@ -1143,66 +1278,93 @@
     <t>FMT_16R_1</t>
   </si>
   <si>
-    <t>TH63_21イT_P21イN_1</t>
-  </si>
-  <si>
-    <t>TH63_21イT_P21イN_2</t>
-  </si>
-  <si>
-    <t>TH63_21イT_P21イN_3</t>
-  </si>
-  <si>
-    <t>TH63_21イT_P21イR_1</t>
-  </si>
-  <si>
-    <t>TH63_21イT_P21イR_2</t>
-  </si>
-  <si>
-    <t>TH63_21ロT_P21ロN_1</t>
-  </si>
-  <si>
-    <t>TH63_21ロT_P21ロR_1</t>
-  </si>
-  <si>
-    <t>TH63_21ロT_P21ロR_2</t>
+    <t>TH63_21イT_W21イN_1</t>
+  </si>
+  <si>
+    <t>TH63_21イT</t>
+  </si>
+  <si>
+    <t>TH63_W21</t>
+  </si>
+  <si>
+    <t>TH63_21イT_W21イN_2</t>
+  </si>
+  <si>
+    <t>TH63_21イT_W21イN_3</t>
+  </si>
+  <si>
+    <t>TH63_21イT_W21イR_1</t>
+  </si>
+  <si>
+    <t>TH63_21イT_W21イR_2</t>
+  </si>
+  <si>
+    <t>TH63_21ロT_W21ロN_1</t>
+  </si>
+  <si>
+    <t>TH63_21ロT</t>
+  </si>
+  <si>
+    <t>TH63_21ロT_W21ロR_1</t>
+  </si>
+  <si>
+    <t>TH63_21ロT_W21ロR_2</t>
   </si>
   <si>
     <t>TH63_12RT_1</t>
   </si>
   <si>
+    <t>TH63_12RT</t>
+  </si>
+  <si>
     <t>TH63_12RT_2</t>
   </si>
   <si>
     <t>TH63_15LT_1</t>
   </si>
   <si>
+    <t>TH63_15LT</t>
+  </si>
+  <si>
     <t>TH63_15LT_2</t>
   </si>
   <si>
-    <t>TH63_22イT_P22イN_1</t>
-  </si>
-  <si>
-    <t>TH63_22イT_P22イR_1</t>
-  </si>
-  <si>
-    <t>TH63_22イT_P22イR_2</t>
-  </si>
-  <si>
-    <t>TH63_22ロT_P22ロN_1</t>
-  </si>
-  <si>
-    <t>TH63_22ロT_P22ロN_2</t>
-  </si>
-  <si>
-    <t>TH63_22ロT_P22ロR_1</t>
-  </si>
-  <si>
-    <t>TH63_22ロT_P22ロR_2</t>
+    <t>TH63_22イT_W22イN_1</t>
+  </si>
+  <si>
+    <t>TH63_22イT</t>
+  </si>
+  <si>
+    <t>TH63_W22</t>
+  </si>
+  <si>
+    <t>TH63_22イT_W22イR_1</t>
+  </si>
+  <si>
+    <t>TH63_22イT_W22イR_2</t>
+  </si>
+  <si>
+    <t>TH63_22ロT_W22ロN_1</t>
+  </si>
+  <si>
+    <t>TH63_22ロT</t>
+  </si>
+  <si>
+    <t>TH63_22ロT_W22ロN_2</t>
+  </si>
+  <si>
+    <t>TH63_22ロT_W22ロR_1</t>
+  </si>
+  <si>
+    <t>TH63_22ロT_W22ロR_2</t>
   </si>
   <si>
     <t>MT1T_1</t>
   </si>
   <si>
+    <t>MT1T</t>
+  </si>
+  <si>
     <t>停電_R</t>
   </si>
   <si>
@@ -1275,16 +1437,10 @@
     <t>Button</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
     <t>Label</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
   <si>
     <t>C</t>
@@ -1676,7 +1832,9 @@
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="25" width="15.140625" customWidth="1"/>
+    <col min="3" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="25" width="15.140625" customWidth="1"/>
     <col min="26" max="26" width="37.5703125" customWidth="1"/>
     <col min="27" max="27" width="100.140625" customWidth="1"/>
     <col min="28" max="28" width="62.5703125" customWidth="1"/>
@@ -1994,7 +2152,9 @@
       <c r="D6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="6"/>
@@ -2020,19 +2180,19 @@
         <v>41</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y6" s="10">
         <v>-1</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA6" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
@@ -2045,10 +2205,10 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>41</v>
@@ -2083,10 +2243,10 @@
         <v>10</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W7" s="10" t="s">
         <v>41</v>
@@ -2110,13 +2270,15 @@
         <v>40</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -2139,22 +2301,22 @@
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y8" s="10">
         <v>0</v>
       </c>
       <c r="Z8" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA8" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
@@ -2170,14 +2332,14 @@
         <v>31</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -2202,17 +2364,17 @@
       <c r="V9" s="4"/>
       <c r="W9" s="13"/>
       <c r="X9" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y9" s="10">
         <v>0</v>
       </c>
       <c r="Z9" s="11"/>
       <c r="AA9" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
@@ -2228,14 +2390,14 @@
         <v>31</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -2260,14 +2422,14 @@
       <c r="V10" s="4"/>
       <c r="W10" s="13"/>
       <c r="X10" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y10" s="10">
         <v>0</v>
       </c>
       <c r="Z10" s="11"/>
       <c r="AA10" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
@@ -2281,13 +2443,13 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2319,13 +2481,13 @@
         <v>10</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
@@ -2346,13 +2508,15 @@
         <v>40</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2375,19 +2539,19 @@
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="X12" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y12" s="10">
         <v>0</v>
       </c>
       <c r="Z12" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA12" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
@@ -2404,14 +2568,14 @@
         <v>31</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -2436,14 +2600,14 @@
       <c r="V13" s="4"/>
       <c r="W13" s="13"/>
       <c r="X13" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y13" s="10">
         <v>0</v>
       </c>
       <c r="Z13" s="11"/>
       <c r="AA13" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
@@ -2460,14 +2624,14 @@
         <v>31</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -2492,14 +2656,14 @@
       <c r="V14" s="4"/>
       <c r="W14" s="13"/>
       <c r="X14" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y14" s="10">
         <v>0</v>
       </c>
       <c r="Z14" s="11"/>
       <c r="AA14" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
@@ -2513,13 +2677,13 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2551,13 +2715,13 @@
         <v>10</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V15" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
@@ -2578,13 +2742,15 @@
         <v>40</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -2607,19 +2773,19 @@
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X16" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y16" s="10">
         <v>0</v>
       </c>
       <c r="Z16" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA16" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
@@ -2636,14 +2802,14 @@
         <v>31</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -2668,14 +2834,14 @@
       <c r="V17" s="4"/>
       <c r="W17" s="9"/>
       <c r="X17" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y17" s="10">
         <v>0</v>
       </c>
       <c r="Z17" s="11"/>
       <c r="AA17" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
@@ -2692,14 +2858,14 @@
         <v>31</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -2724,14 +2890,14 @@
       <c r="V18" s="4"/>
       <c r="W18" s="9"/>
       <c r="X18" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y18" s="10">
         <v>0</v>
       </c>
       <c r="Z18" s="11"/>
       <c r="AA18" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
@@ -2745,13 +2911,13 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2783,13 +2949,13 @@
         <v>10</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V19" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W19" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
@@ -2810,13 +2976,15 @@
         <v>40</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -2839,19 +3007,19 @@
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="X20" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y20" s="10">
         <v>0</v>
       </c>
       <c r="Z20" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA20" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
@@ -2868,14 +3036,14 @@
         <v>31</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -2900,14 +3068,14 @@
       <c r="V21" s="4"/>
       <c r="W21" s="13"/>
       <c r="X21" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y21" s="10">
         <v>0</v>
       </c>
       <c r="Z21" s="11"/>
       <c r="AA21" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
@@ -2924,14 +3092,14 @@
         <v>31</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -2956,14 +3124,14 @@
       <c r="V22" s="4"/>
       <c r="W22" s="13"/>
       <c r="X22" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y22" s="10">
         <v>0</v>
       </c>
       <c r="Z22" s="11"/>
       <c r="AA22" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
@@ -2977,13 +3145,13 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -3015,13 +3183,13 @@
         <v>10</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V23" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W23" s="10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
@@ -3042,13 +3210,15 @@
         <v>40</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="6"/>
@@ -3071,22 +3241,22 @@
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="X24" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y24" s="10">
         <v>-1</v>
       </c>
       <c r="Z24" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA24" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB24" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
@@ -3099,13 +3269,13 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -3137,13 +3307,13 @@
         <v>10</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V25" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W25" s="10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
@@ -3161,10 +3331,10 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -3191,19 +3361,19 @@
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="X26" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y26" s="10">
         <v>0</v>
       </c>
       <c r="Z26" s="11" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AA26" s="12" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
@@ -3217,10 +3387,10 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -3247,19 +3417,19 @@
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X27" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y27" s="10">
         <v>0</v>
       </c>
       <c r="Z27" s="11" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AA27" s="12" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
@@ -3276,13 +3446,15 @@
         <v>40</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -3305,22 +3477,22 @@
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="X28" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y28" s="10">
         <v>0</v>
       </c>
       <c r="Z28" s="11" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AA28" s="12" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
@@ -3336,15 +3508,19 @@
         <v>31</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E29" s="10"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="9"/>
@@ -3366,14 +3542,14 @@
       <c r="V29" s="4"/>
       <c r="W29" s="9"/>
       <c r="X29" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y29" s="10">
         <v>0</v>
       </c>
       <c r="Z29" s="11"/>
       <c r="AA29" s="12" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
@@ -3390,15 +3566,19 @@
         <v>31</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E30" s="10"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="9"/>
@@ -3420,14 +3600,14 @@
       <c r="V30" s="4"/>
       <c r="W30" s="9"/>
       <c r="X30" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y30" s="10">
         <v>0</v>
       </c>
       <c r="Z30" s="11"/>
       <c r="AA30" s="12" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
@@ -3441,13 +3621,13 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -3479,13 +3659,13 @@
         <v>10</v>
       </c>
       <c r="U31" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V31" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W31" s="10" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
@@ -3506,7 +3686,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
@@ -3535,19 +3715,19 @@
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="X32" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y32" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA32" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="X32" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y32" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA32" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
@@ -3564,15 +3744,19 @@
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E33" s="10"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="9"/>
@@ -3594,14 +3778,14 @@
       <c r="V33" s="4"/>
       <c r="W33" s="13"/>
       <c r="X33" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y33" s="10">
         <v>0</v>
       </c>
       <c r="Z33" s="11"/>
       <c r="AA33" s="12" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
@@ -3618,15 +3802,19 @@
         <v>31</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="9"/>
@@ -3648,14 +3836,14 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
       <c r="X34" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y34" s="10">
         <v>0</v>
       </c>
       <c r="Z34" s="11"/>
       <c r="AA34" s="12" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
@@ -3669,13 +3857,13 @@
     </row>
     <row r="35" spans="1:36">
       <c r="A35" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3707,13 +3895,13 @@
         <v>10</v>
       </c>
       <c r="U35" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V35" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
@@ -3731,14 +3919,14 @@
     </row>
     <row r="36" spans="1:36">
       <c r="A36" s="4" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="14" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -3763,22 +3951,22 @@
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="9" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="X36" s="10" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="Y36" s="10">
         <v>0</v>
       </c>
       <c r="Z36" s="11" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="AA36" s="12" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AB36" s="5" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
@@ -3794,11 +3982,11 @@
         <v>31</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -3824,14 +4012,14 @@
       <c r="V37" s="4"/>
       <c r="W37" s="13"/>
       <c r="X37" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y37" s="10">
         <v>0</v>
       </c>
       <c r="Z37" s="11"/>
       <c r="AA37" s="12" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
@@ -3845,14 +4033,14 @@
     </row>
     <row r="38" spans="1:36">
       <c r="A38" s="4" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="14" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -3877,22 +4065,22 @@
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="9" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="X38" s="10" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="Y38" s="10">
         <v>1</v>
       </c>
       <c r="Z38" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA38" s="12" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="AB38" s="5" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
@@ -3908,11 +4096,11 @@
         <v>31</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -3938,14 +4126,14 @@
       <c r="V39" s="4"/>
       <c r="W39" s="13"/>
       <c r="X39" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y39" s="10">
         <v>0</v>
       </c>
       <c r="Z39" s="11"/>
       <c r="AA39" s="12" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
@@ -3962,11 +4150,11 @@
         <v>31</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -3992,14 +4180,14 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y40" s="10">
         <v>0</v>
       </c>
       <c r="Z40" s="11"/>
       <c r="AA40" s="12" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
@@ -4013,14 +4201,14 @@
     </row>
     <row r="41" spans="1:36">
       <c r="A41" s="4" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="14" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -4045,22 +4233,22 @@
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="X41" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="X41" s="10" t="s">
-        <v>108</v>
-      </c>
       <c r="Y41" s="10">
         <v>0</v>
       </c>
       <c r="Z41" s="11" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="AA41" s="12" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AB41" s="5" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
@@ -4076,11 +4264,11 @@
         <v>31</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -4106,14 +4294,14 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y42" s="10">
         <v>0</v>
       </c>
       <c r="Z42" s="11"/>
       <c r="AA42" s="12" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
@@ -4130,13 +4318,15 @@
         <v>31</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E43" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -4160,17 +4350,17 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
       <c r="X43" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y43" s="10">
         <v>0</v>
       </c>
       <c r="Z43" s="11"/>
       <c r="AA43" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB43" s="5" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
@@ -4186,17 +4376,27 @@
         <v>31</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9">
@@ -4216,14 +4416,14 @@
       <c r="V44" s="4"/>
       <c r="W44" s="13"/>
       <c r="X44" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y44" s="10">
         <v>0</v>
       </c>
       <c r="Z44" s="11"/>
       <c r="AA44" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
@@ -4240,17 +4440,27 @@
         <v>31</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9">
@@ -4270,14 +4480,14 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
       <c r="X45" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y45" s="10">
         <v>0</v>
       </c>
       <c r="Z45" s="11"/>
       <c r="AA45" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
@@ -4294,17 +4504,27 @@
         <v>31</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9">
@@ -4324,14 +4544,14 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
       <c r="X46" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y46" s="10">
         <v>0</v>
       </c>
       <c r="Z46" s="11"/>
       <c r="AA46" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
@@ -4348,17 +4568,27 @@
         <v>31</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9">
@@ -4378,14 +4608,14 @@
       <c r="V47" s="4"/>
       <c r="W47" s="13"/>
       <c r="X47" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y47" s="10">
         <v>0</v>
       </c>
       <c r="Z47" s="11"/>
       <c r="AA47" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
@@ -4402,17 +4632,27 @@
         <v>31</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9">
@@ -4432,14 +4672,14 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
       <c r="X48" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y48" s="10">
         <v>0</v>
       </c>
       <c r="Z48" s="11"/>
       <c r="AA48" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB48" s="5"/>
       <c r="AC48" s="5"/>
@@ -4456,17 +4696,27 @@
         <v>31</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9">
@@ -4486,17 +4736,17 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
       <c r="X49" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y49" s="10">
         <v>0</v>
       </c>
       <c r="Z49" s="11"/>
       <c r="AA49" s="12" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="AB49" s="5" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
@@ -4512,15 +4762,21 @@
         <v>31</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="9"/>
@@ -4542,14 +4798,14 @@
       <c r="V50" s="4"/>
       <c r="W50" s="13"/>
       <c r="X50" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y50" s="10">
         <v>0</v>
       </c>
       <c r="Z50" s="11"/>
       <c r="AA50" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
@@ -4566,15 +4822,21 @@
         <v>31</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="9"/>
@@ -4596,17 +4858,17 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
       <c r="X51" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y51" s="10">
         <v>0</v>
       </c>
       <c r="Z51" s="11"/>
       <c r="AA51" s="12" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="AB51" s="5" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
@@ -4622,15 +4884,21 @@
         <v>31</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="9"/>
@@ -4652,17 +4920,17 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
       <c r="X52" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y52" s="10">
         <v>0</v>
       </c>
       <c r="Z52" s="11"/>
       <c r="AA52" s="12" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="AB52" s="5" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
@@ -4678,15 +4946,21 @@
         <v>31</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="9"/>
@@ -4708,17 +4982,17 @@
       <c r="V53" s="4"/>
       <c r="W53" s="13"/>
       <c r="X53" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y53" s="10">
         <v>0</v>
       </c>
       <c r="Z53" s="11"/>
       <c r="AA53" s="12" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="AB53" s="5" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
@@ -4734,15 +5008,21 @@
         <v>31</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="9"/>
@@ -4764,14 +5044,14 @@
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
       <c r="X54" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y54" s="10">
         <v>0</v>
       </c>
       <c r="Z54" s="11"/>
       <c r="AA54" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
@@ -4788,15 +5068,21 @@
         <v>31</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="9"/>
@@ -4818,14 +5104,14 @@
       <c r="V55" s="4"/>
       <c r="W55" s="13"/>
       <c r="X55" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y55" s="10">
         <v>0</v>
       </c>
       <c r="Z55" s="11"/>
       <c r="AA55" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
@@ -4842,15 +5128,21 @@
         <v>31</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="9"/>
@@ -4872,17 +5164,17 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
       <c r="X56" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y56" s="10">
         <v>0</v>
       </c>
       <c r="Z56" s="11"/>
       <c r="AA56" s="12" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="AB56" s="5" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
@@ -4898,15 +5190,21 @@
         <v>31</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="9"/>
@@ -4928,14 +5226,14 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
       <c r="X57" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y57" s="10">
         <v>0</v>
       </c>
       <c r="Z57" s="11"/>
       <c r="AA57" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
@@ -4952,13 +5250,15 @@
         <v>31</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E58" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -4982,14 +5282,14 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
       <c r="X58" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y58" s="10">
         <v>0</v>
       </c>
       <c r="Z58" s="11"/>
       <c r="AA58" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
@@ -5006,13 +5306,15 @@
         <v>31</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E59" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -5036,14 +5338,14 @@
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
       <c r="X59" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y59" s="10">
         <v>0</v>
       </c>
       <c r="Z59" s="11"/>
       <c r="AA59" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
@@ -5060,13 +5362,15 @@
         <v>31</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E60" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -5090,14 +5394,14 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
       <c r="X60" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y60" s="10">
         <v>0</v>
       </c>
       <c r="Z60" s="11"/>
       <c r="AA60" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB60" s="5"/>
       <c r="AC60" s="5"/>
@@ -5114,13 +5418,15 @@
         <v>31</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E61" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -5144,14 +5450,14 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
       <c r="X61" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y61" s="10">
         <v>0</v>
       </c>
       <c r="Z61" s="11"/>
       <c r="AA61" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
@@ -5168,13 +5474,15 @@
         <v>31</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E62" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -5198,14 +5506,14 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y62" s="10">
         <v>0</v>
       </c>
       <c r="Z62" s="11"/>
       <c r="AA62" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
@@ -5222,13 +5530,15 @@
         <v>31</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E63" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -5252,14 +5562,14 @@
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
       <c r="X63" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y63" s="10">
         <v>0</v>
       </c>
       <c r="Z63" s="11"/>
       <c r="AA63" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB63" s="5"/>
       <c r="AC63" s="5"/>
@@ -5276,13 +5586,15 @@
         <v>31</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E64" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -5306,14 +5618,14 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
       <c r="X64" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y64" s="10">
         <v>0</v>
       </c>
       <c r="Z64" s="11"/>
       <c r="AA64" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
@@ -5330,13 +5642,15 @@
         <v>31</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E65" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -5360,14 +5674,14 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
       <c r="X65" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y65" s="10">
         <v>0</v>
       </c>
       <c r="Z65" s="11"/>
       <c r="AA65" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
@@ -5384,13 +5698,15 @@
         <v>31</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E66" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -5414,14 +5730,14 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
       <c r="X66" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y66" s="10">
         <v>0</v>
       </c>
       <c r="Z66" s="11"/>
       <c r="AA66" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB66" s="5"/>
       <c r="AC66" s="5"/>
@@ -5438,13 +5754,15 @@
         <v>31</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E67" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -5468,14 +5786,14 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
       <c r="X67" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y67" s="10">
         <v>0</v>
       </c>
       <c r="Z67" s="11"/>
       <c r="AA67" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB67" s="5"/>
       <c r="AC67" s="5"/>
@@ -5492,13 +5810,15 @@
         <v>31</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E68" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -5522,17 +5842,17 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y68" s="10">
         <v>0</v>
       </c>
       <c r="Z68" s="11"/>
       <c r="AA68" s="12" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="AB68" s="15" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
@@ -5548,15 +5868,21 @@
         <v>31</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="9"/>
@@ -5578,14 +5904,14 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
       <c r="X69" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y69" s="10">
         <v>0</v>
       </c>
       <c r="Z69" s="11"/>
       <c r="AA69" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB69" s="16"/>
       <c r="AC69" s="5"/>
@@ -5602,15 +5928,21 @@
         <v>31</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="9"/>
@@ -5632,17 +5964,17 @@
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
       <c r="X70" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y70" s="10">
         <v>0</v>
       </c>
       <c r="Z70" s="11"/>
       <c r="AA70" s="12" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="AB70" s="15" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
@@ -5658,15 +5990,21 @@
         <v>31</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="9"/>
@@ -5688,14 +6026,14 @@
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
       <c r="X71" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y71" s="10">
         <v>0</v>
       </c>
       <c r="Z71" s="11"/>
       <c r="AA71" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB71" s="16"/>
       <c r="AC71" s="5"/>
@@ -5712,15 +6050,21 @@
         <v>31</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="9"/>
@@ -5742,14 +6086,14 @@
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
       <c r="X72" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y72" s="10">
         <v>0</v>
       </c>
       <c r="Z72" s="11"/>
       <c r="AA72" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB72" s="16"/>
       <c r="AC72" s="5"/>
@@ -5766,15 +6110,21 @@
         <v>31</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="9"/>
@@ -5796,14 +6146,14 @@
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
       <c r="X73" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y73" s="10">
         <v>0</v>
       </c>
       <c r="Z73" s="11"/>
       <c r="AA73" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB73" s="16"/>
       <c r="AC73" s="5"/>
@@ -5820,17 +6170,27 @@
         <v>31</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9">
@@ -5850,14 +6210,14 @@
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
       <c r="X74" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y74" s="10">
         <v>0</v>
       </c>
       <c r="Z74" s="11"/>
       <c r="AA74" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB74" s="16"/>
       <c r="AC74" s="5"/>
@@ -5874,17 +6234,27 @@
         <v>31</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9">
@@ -5904,14 +6274,14 @@
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
       <c r="X75" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y75" s="10">
         <v>0</v>
       </c>
       <c r="Z75" s="11"/>
       <c r="AA75" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB75" s="16"/>
       <c r="AC75" s="5"/>
@@ -5928,17 +6298,27 @@
         <v>31</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c r="L76" s="9">
@@ -5958,17 +6338,17 @@
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
       <c r="X76" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y76" s="10">
         <v>0</v>
       </c>
       <c r="Z76" s="11"/>
       <c r="AA76" s="12" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="AB76" s="15" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
@@ -5984,17 +6364,27 @@
         <v>31</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c r="L77" s="9">
@@ -6014,14 +6404,14 @@
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
       <c r="X77" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y77" s="10">
         <v>0</v>
       </c>
       <c r="Z77" s="11"/>
       <c r="AA77" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB77" s="16"/>
       <c r="AC77" s="5"/>
@@ -6038,17 +6428,27 @@
         <v>31</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9">
@@ -6068,14 +6468,14 @@
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
       <c r="X78" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y78" s="10">
         <v>0</v>
       </c>
       <c r="Z78" s="11"/>
       <c r="AA78" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB78" s="16"/>
       <c r="AC78" s="5"/>
@@ -6092,17 +6492,27 @@
         <v>31</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9">
@@ -6122,17 +6532,17 @@
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
       <c r="X79" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y79" s="10">
         <v>0</v>
       </c>
       <c r="Z79" s="11"/>
       <c r="AA79" s="12" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="AB79" s="15" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AC79" s="5"/>
       <c r="AD79" s="5"/>
@@ -6148,17 +6558,27 @@
         <v>31</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c r="L80" s="9">
@@ -6178,17 +6598,17 @@
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
       <c r="X80" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y80" s="10">
         <v>0</v>
       </c>
       <c r="Z80" s="11"/>
       <c r="AA80" s="12" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="AB80" s="15" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="AC80" s="5"/>
       <c r="AD80" s="5"/>
@@ -6204,17 +6624,27 @@
         <v>31</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c r="L81" s="9">
@@ -6234,14 +6664,14 @@
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
       <c r="X81" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y81" s="10">
         <v>0</v>
       </c>
       <c r="Z81" s="11"/>
       <c r="AA81" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB81" s="16"/>
       <c r="AC81" s="5"/>
@@ -6258,17 +6688,27 @@
         <v>31</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c r="L82" s="9">
@@ -6288,17 +6728,17 @@
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
       <c r="X82" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y82" s="10">
         <v>0</v>
       </c>
       <c r="Z82" s="11"/>
       <c r="AA82" s="12" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="AB82" s="15" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AC82" s="5"/>
       <c r="AD82" s="5"/>
@@ -6314,17 +6754,27 @@
         <v>31</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c r="L83" s="9">
@@ -6344,14 +6794,14 @@
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
       <c r="X83" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y83" s="10">
         <v>0</v>
       </c>
       <c r="Z83" s="11"/>
       <c r="AA83" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB83" s="16"/>
       <c r="AC83" s="5"/>
@@ -6368,17 +6818,27 @@
         <v>31</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c r="L84" s="9">
@@ -6398,17 +6858,17 @@
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
       <c r="X84" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y84" s="10">
         <v>0</v>
       </c>
       <c r="Z84" s="11"/>
       <c r="AA84" s="12" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="AB84" s="15" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="AC84" s="5"/>
       <c r="AD84" s="5"/>
@@ -6424,17 +6884,27 @@
         <v>31</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c r="L85" s="9">
@@ -6454,17 +6924,17 @@
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
       <c r="X85" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y85" s="10">
         <v>0</v>
       </c>
       <c r="Z85" s="11"/>
       <c r="AA85" s="12" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="AB85" s="15" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="AC85" s="5"/>
       <c r="AD85" s="5"/>
@@ -6480,15 +6950,21 @@
         <v>31</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="9"/>
@@ -6510,14 +6986,14 @@
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
       <c r="X86" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y86" s="10">
         <v>0</v>
       </c>
       <c r="Z86" s="11"/>
       <c r="AA86" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB86" s="16"/>
       <c r="AC86" s="5"/>
@@ -6534,15 +7010,21 @@
         <v>31</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="9"/>
@@ -6564,14 +7046,14 @@
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
       <c r="X87" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y87" s="10">
         <v>0</v>
       </c>
       <c r="Z87" s="11"/>
       <c r="AA87" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB87" s="16"/>
       <c r="AC87" s="5"/>
@@ -6588,15 +7070,21 @@
         <v>31</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="9"/>
@@ -6618,14 +7106,14 @@
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
       <c r="X88" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y88" s="10">
         <v>0</v>
       </c>
       <c r="Z88" s="11"/>
       <c r="AA88" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB88" s="16"/>
       <c r="AC88" s="5"/>
@@ -6642,15 +7130,21 @@
         <v>31</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="9"/>
@@ -6672,17 +7166,17 @@
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
       <c r="X89" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y89" s="10">
         <v>0</v>
       </c>
       <c r="Z89" s="11"/>
       <c r="AA89" s="12" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="AB89" s="15" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="AC89" s="5"/>
       <c r="AD89" s="5"/>
@@ -6698,15 +7192,21 @@
         <v>31</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="9"/>
@@ -6728,14 +7228,14 @@
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
       <c r="X90" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y90" s="10">
         <v>0</v>
       </c>
       <c r="Z90" s="11"/>
       <c r="AA90" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB90" s="16"/>
       <c r="AC90" s="5"/>
@@ -6752,13 +7252,15 @@
         <v>31</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E91" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>213</v>
+      </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -6782,14 +7284,14 @@
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
       <c r="X91" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y91" s="10">
         <v>0</v>
       </c>
       <c r="Z91" s="11"/>
       <c r="AA91" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB91" s="16"/>
       <c r="AC91" s="5"/>
@@ -6806,13 +7308,15 @@
         <v>31</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E92" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -6836,14 +7340,14 @@
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
       <c r="X92" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y92" s="10">
         <v>0</v>
       </c>
       <c r="Z92" s="11"/>
       <c r="AA92" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB92" s="16"/>
       <c r="AC92" s="5"/>
@@ -6860,13 +7364,15 @@
         <v>31</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E93" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>217</v>
+      </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -6890,14 +7396,14 @@
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
       <c r="X93" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y93" s="10">
         <v>0</v>
       </c>
       <c r="Z93" s="11"/>
       <c r="AA93" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB93" s="16"/>
       <c r="AC93" s="5"/>
@@ -6914,13 +7420,15 @@
         <v>31</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E94" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>217</v>
+      </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -6944,14 +7452,14 @@
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
       <c r="X94" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y94" s="10">
         <v>0</v>
       </c>
       <c r="Z94" s="11"/>
       <c r="AA94" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB94" s="16"/>
       <c r="AC94" s="5"/>
@@ -6968,13 +7476,15 @@
         <v>31</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E95" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -6998,14 +7508,14 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
       <c r="X95" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y95" s="10">
         <v>0</v>
       </c>
       <c r="Z95" s="11"/>
       <c r="AA95" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB95" s="16"/>
       <c r="AC95" s="5"/>
@@ -7022,13 +7532,15 @@
         <v>31</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E96" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -7052,14 +7564,14 @@
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
       <c r="X96" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y96" s="10">
         <v>0</v>
       </c>
       <c r="Z96" s="11"/>
       <c r="AA96" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB96" s="16"/>
       <c r="AC96" s="5"/>
@@ -7076,13 +7588,15 @@
         <v>31</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E97" s="4"/>
+        <v>223</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -7106,17 +7620,17 @@
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
       <c r="X97" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y97" s="10">
         <v>0</v>
       </c>
       <c r="Z97" s="11"/>
       <c r="AA97" s="12" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="AB97" s="15" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="AC97" s="5"/>
       <c r="AD97" s="5"/>
@@ -7132,13 +7646,15 @@
         <v>31</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E98" s="4"/>
+        <v>223</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -7162,17 +7678,17 @@
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
       <c r="X98" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y98" s="10">
         <v>0</v>
       </c>
       <c r="Z98" s="11"/>
       <c r="AA98" s="12" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="AB98" s="15" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="AC98" s="5"/>
       <c r="AD98" s="5"/>
@@ -7188,15 +7704,21 @@
         <v>31</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="9"/>
@@ -7218,14 +7740,14 @@
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
       <c r="X99" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y99" s="10">
         <v>0</v>
       </c>
       <c r="Z99" s="11"/>
       <c r="AA99" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB99" s="16"/>
       <c r="AC99" s="5"/>
@@ -7242,15 +7764,21 @@
         <v>31</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="9"/>
@@ -7272,14 +7800,14 @@
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
       <c r="X100" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y100" s="10">
         <v>0</v>
       </c>
       <c r="Z100" s="11"/>
       <c r="AA100" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB100" s="16"/>
       <c r="AC100" s="5"/>
@@ -7296,15 +7824,21 @@
         <v>31</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
       <c r="J101" s="9"/>
@@ -7326,14 +7860,14 @@
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
       <c r="X101" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y101" s="10">
         <v>0</v>
       </c>
       <c r="Z101" s="11"/>
       <c r="AA101" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB101" s="16"/>
       <c r="AC101" s="5"/>
@@ -7350,15 +7884,21 @@
         <v>31</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="9"/>
@@ -7380,17 +7920,17 @@
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
       <c r="X102" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y102" s="10">
         <v>0</v>
       </c>
       <c r="Z102" s="11"/>
       <c r="AA102" s="12" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="AB102" s="15" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="AC102" s="5"/>
       <c r="AD102" s="5"/>
@@ -7406,13 +7946,15 @@
         <v>31</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E103" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>237</v>
+      </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
@@ -7436,14 +7978,14 @@
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
       <c r="X103" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y103" s="10">
         <v>0</v>
       </c>
       <c r="Z103" s="11"/>
       <c r="AA103" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB103" s="16"/>
       <c r="AC103" s="5"/>
@@ -7460,13 +8002,15 @@
         <v>31</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E104" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>237</v>
+      </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -7490,14 +8034,14 @@
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
       <c r="X104" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y104" s="10">
         <v>0</v>
       </c>
       <c r="Z104" s="11"/>
       <c r="AA104" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB104" s="16"/>
       <c r="AC104" s="5"/>
@@ -7514,13 +8058,15 @@
         <v>31</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E105" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -7544,14 +8090,14 @@
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
       <c r="X105" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y105" s="10">
         <v>0</v>
       </c>
       <c r="Z105" s="11"/>
       <c r="AA105" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB105" s="16"/>
       <c r="AC105" s="5"/>
@@ -7568,13 +8114,15 @@
         <v>31</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E106" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
@@ -7598,14 +8146,14 @@
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
       <c r="X106" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y106" s="10">
         <v>0</v>
       </c>
       <c r="Z106" s="11"/>
       <c r="AA106" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB106" s="16"/>
       <c r="AC106" s="5"/>
@@ -7622,13 +8170,15 @@
         <v>31</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E107" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -7652,14 +8202,14 @@
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
       <c r="X107" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y107" s="10">
         <v>0</v>
       </c>
       <c r="Z107" s="11"/>
       <c r="AA107" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB107" s="16"/>
       <c r="AC107" s="5"/>
@@ -7676,13 +8226,15 @@
         <v>31</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E108" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -7706,14 +8258,14 @@
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
       <c r="X108" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y108" s="10">
         <v>0</v>
       </c>
       <c r="Z108" s="11"/>
       <c r="AA108" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB108" s="16"/>
       <c r="AC108" s="5"/>
@@ -7730,13 +8282,15 @@
         <v>31</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E109" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -7760,14 +8314,14 @@
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
       <c r="X109" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y109" s="10">
         <v>0</v>
       </c>
       <c r="Z109" s="11"/>
       <c r="AA109" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB109" s="16"/>
       <c r="AC109" s="5"/>
@@ -7784,13 +8338,15 @@
         <v>31</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E110" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -7814,14 +8370,14 @@
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
       <c r="X110" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y110" s="10">
         <v>0</v>
       </c>
       <c r="Z110" s="11"/>
       <c r="AA110" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB110" s="16"/>
       <c r="AC110" s="5"/>
@@ -7838,13 +8394,15 @@
         <v>31</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E111" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -7868,14 +8426,14 @@
       <c r="V111" s="4"/>
       <c r="W111" s="4"/>
       <c r="X111" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y111" s="10">
         <v>0</v>
       </c>
       <c r="Z111" s="11"/>
       <c r="AA111" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB111" s="16"/>
       <c r="AC111" s="5"/>
@@ -7892,13 +8450,15 @@
         <v>31</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E112" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -7922,14 +8482,14 @@
       <c r="V112" s="4"/>
       <c r="W112" s="4"/>
       <c r="X112" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y112" s="10">
         <v>0</v>
       </c>
       <c r="Z112" s="11"/>
       <c r="AA112" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB112" s="16"/>
       <c r="AC112" s="5"/>
@@ -7946,13 +8506,15 @@
         <v>31</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E113" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>252</v>
+      </c>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -7976,14 +8538,14 @@
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
       <c r="X113" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y113" s="10">
         <v>0</v>
       </c>
       <c r="Z113" s="11"/>
       <c r="AA113" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB113" s="16"/>
       <c r="AC113" s="5"/>
@@ -8000,13 +8562,15 @@
         <v>31</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E114" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>252</v>
+      </c>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -8030,14 +8594,14 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
       <c r="X114" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y114" s="10">
         <v>0</v>
       </c>
       <c r="Z114" s="11"/>
       <c r="AA114" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB114" s="16"/>
       <c r="AC114" s="5"/>
@@ -8054,15 +8618,21 @@
         <v>31</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="9"/>
@@ -8084,14 +8654,14 @@
       <c r="V115" s="4"/>
       <c r="W115" s="4"/>
       <c r="X115" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y115" s="10">
         <v>0</v>
       </c>
       <c r="Z115" s="11"/>
       <c r="AA115" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB115" s="16"/>
       <c r="AC115" s="5"/>
@@ -8108,15 +8678,21 @@
         <v>31</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="9"/>
@@ -8138,14 +8714,14 @@
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
       <c r="X116" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y116" s="10">
         <v>0</v>
       </c>
       <c r="Z116" s="11"/>
       <c r="AA116" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB116" s="16"/>
       <c r="AC116" s="5"/>
@@ -8162,15 +8738,21 @@
         <v>31</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="C117" s="17"/>
       <c r="D117" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E117" s="17"/>
-      <c r="F117" s="17"/>
-      <c r="G117" s="17"/>
+        <v>138</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H117" s="17"/>
       <c r="I117" s="17"/>
       <c r="J117" s="9"/>
@@ -8192,17 +8774,17 @@
       <c r="V117" s="17"/>
       <c r="W117" s="17"/>
       <c r="X117" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y117" s="10">
         <v>0</v>
       </c>
       <c r="Z117" s="11"/>
       <c r="AA117" s="12" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="AB117" s="15" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="AC117" s="17"/>
       <c r="AD117" s="17"/>
@@ -8218,15 +8800,21 @@
         <v>31</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="C118" s="17"/>
       <c r="D118" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E118" s="17"/>
-      <c r="F118" s="17"/>
-      <c r="G118" s="17"/>
+        <v>138</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H118" s="17"/>
       <c r="I118" s="17"/>
       <c r="J118" s="9"/>
@@ -8248,14 +8836,14 @@
       <c r="V118" s="17"/>
       <c r="W118" s="17"/>
       <c r="X118" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y118" s="10">
         <v>0</v>
       </c>
       <c r="Z118" s="11"/>
       <c r="AA118" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB118" s="16"/>
       <c r="AC118" s="17"/>
@@ -8272,13 +8860,15 @@
         <v>31</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E119" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>262</v>
+      </c>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -8302,14 +8892,14 @@
       <c r="V119" s="4"/>
       <c r="W119" s="4"/>
       <c r="X119" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y119" s="10">
         <v>0</v>
       </c>
       <c r="Z119" s="11"/>
       <c r="AA119" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB119" s="16"/>
       <c r="AC119" s="5"/>
@@ -8326,13 +8916,15 @@
         <v>31</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E120" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>262</v>
+      </c>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -8356,14 +8948,14 @@
       <c r="V120" s="4"/>
       <c r="W120" s="4"/>
       <c r="X120" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y120" s="10">
         <v>0</v>
       </c>
       <c r="Z120" s="11"/>
       <c r="AA120" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB120" s="16"/>
       <c r="AC120" s="5"/>
@@ -8380,13 +8972,15 @@
         <v>31</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E121" s="4"/>
+        <v>223</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>262</v>
+      </c>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -8410,17 +9004,17 @@
       <c r="V121" s="4"/>
       <c r="W121" s="4"/>
       <c r="X121" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y121" s="10">
         <v>0</v>
       </c>
       <c r="Z121" s="11"/>
       <c r="AA121" s="12" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="AB121" s="15" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="AC121" s="5"/>
       <c r="AD121" s="5"/>
@@ -8436,13 +9030,15 @@
         <v>31</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E122" s="4"/>
+        <v>223</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>262</v>
+      </c>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -8466,17 +9062,17 @@
       <c r="V122" s="4"/>
       <c r="W122" s="4"/>
       <c r="X122" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y122" s="10">
         <v>0</v>
       </c>
       <c r="Z122" s="11"/>
       <c r="AA122" s="12" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="AB122" s="15" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="AC122" s="5"/>
       <c r="AD122" s="5"/>
@@ -8492,15 +9088,21 @@
         <v>31</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
       <c r="J123" s="9"/>
@@ -8522,14 +9124,14 @@
       <c r="V123" s="4"/>
       <c r="W123" s="4"/>
       <c r="X123" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y123" s="10">
         <v>0</v>
       </c>
       <c r="Z123" s="11"/>
       <c r="AA123" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB123" s="16"/>
       <c r="AC123" s="5"/>
@@ -8546,15 +9148,21 @@
         <v>31</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
       <c r="J124" s="9"/>
@@ -8576,17 +9184,17 @@
       <c r="V124" s="4"/>
       <c r="W124" s="4"/>
       <c r="X124" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y124" s="10">
         <v>0</v>
       </c>
       <c r="Z124" s="11"/>
       <c r="AA124" s="12" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="AB124" s="15" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="AC124" s="5"/>
       <c r="AD124" s="5"/>
@@ -8602,15 +9210,21 @@
         <v>31</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="9"/>
@@ -8632,14 +9246,14 @@
       <c r="V125" s="4"/>
       <c r="W125" s="4"/>
       <c r="X125" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y125" s="10">
         <v>0</v>
       </c>
       <c r="Z125" s="11"/>
       <c r="AA125" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB125" s="16"/>
       <c r="AC125" s="5"/>
@@ -8656,15 +9270,21 @@
         <v>31</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="9"/>
@@ -8686,14 +9306,14 @@
       <c r="V126" s="4"/>
       <c r="W126" s="4"/>
       <c r="X126" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y126" s="10">
         <v>0</v>
       </c>
       <c r="Z126" s="11"/>
       <c r="AA126" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB126" s="16"/>
       <c r="AC126" s="5"/>
@@ -8710,15 +9330,21 @@
         <v>31</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
       <c r="J127" s="9"/>
@@ -8740,14 +9366,14 @@
       <c r="V127" s="4"/>
       <c r="W127" s="4"/>
       <c r="X127" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y127" s="10">
         <v>0</v>
       </c>
       <c r="Z127" s="11"/>
       <c r="AA127" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB127" s="15"/>
       <c r="AC127" s="5"/>
@@ -8764,15 +9390,21 @@
         <v>31</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
       <c r="J128" s="9"/>
@@ -8794,14 +9426,14 @@
       <c r="V128" s="4"/>
       <c r="W128" s="4"/>
       <c r="X128" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y128" s="10">
         <v>0</v>
       </c>
       <c r="Z128" s="11"/>
       <c r="AA128" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB128" s="15"/>
       <c r="AC128" s="5"/>
@@ -8818,15 +9450,21 @@
         <v>31</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>227</v>
+        <v>275</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="9"/>
@@ -8848,14 +9486,14 @@
       <c r="V129" s="4"/>
       <c r="W129" s="4"/>
       <c r="X129" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y129" s="10">
         <v>0</v>
       </c>
       <c r="Z129" s="11"/>
       <c r="AA129" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB129" s="15"/>
       <c r="AC129" s="5"/>
@@ -8872,15 +9510,21 @@
         <v>31</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
       <c r="J130" s="9"/>
@@ -8902,14 +9546,14 @@
       <c r="V130" s="4"/>
       <c r="W130" s="4"/>
       <c r="X130" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y130" s="10">
         <v>0</v>
       </c>
       <c r="Z130" s="11"/>
       <c r="AA130" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB130" s="15"/>
       <c r="AC130" s="5"/>
@@ -8926,13 +9570,15 @@
         <v>31</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E131" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>278</v>
+      </c>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
@@ -8956,14 +9602,14 @@
       <c r="V131" s="4"/>
       <c r="W131" s="4"/>
       <c r="X131" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y131" s="10">
         <v>0</v>
       </c>
       <c r="Z131" s="11"/>
       <c r="AA131" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB131" s="16"/>
       <c r="AC131" s="5"/>
@@ -8980,13 +9626,15 @@
         <v>31</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E132" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>278</v>
+      </c>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
@@ -9010,14 +9658,14 @@
       <c r="V132" s="4"/>
       <c r="W132" s="4"/>
       <c r="X132" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y132" s="10">
         <v>0</v>
       </c>
       <c r="Z132" s="11"/>
       <c r="AA132" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB132" s="16"/>
       <c r="AC132" s="5"/>
@@ -9034,13 +9682,15 @@
         <v>31</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E133" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
@@ -9064,14 +9714,14 @@
       <c r="V133" s="4"/>
       <c r="W133" s="4"/>
       <c r="X133" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y133" s="10">
         <v>0</v>
       </c>
       <c r="Z133" s="11"/>
       <c r="AA133" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB133" s="16"/>
       <c r="AC133" s="5"/>
@@ -9088,13 +9738,15 @@
         <v>31</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E134" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
@@ -9118,14 +9770,14 @@
       <c r="V134" s="4"/>
       <c r="W134" s="4"/>
       <c r="X134" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y134" s="10">
         <v>0</v>
       </c>
       <c r="Z134" s="11"/>
       <c r="AA134" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB134" s="16"/>
       <c r="AC134" s="5"/>
@@ -9142,15 +9794,21 @@
         <v>31</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="9"/>
@@ -9172,14 +9830,14 @@
       <c r="V135" s="4"/>
       <c r="W135" s="4"/>
       <c r="X135" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y135" s="10">
         <v>0</v>
       </c>
       <c r="Z135" s="11"/>
       <c r="AA135" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB135" s="5"/>
       <c r="AC135" s="5"/>
@@ -9196,15 +9854,21 @@
         <v>31</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
       <c r="J136" s="9"/>
@@ -9226,14 +9890,14 @@
       <c r="V136" s="4"/>
       <c r="W136" s="4"/>
       <c r="X136" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y136" s="10">
         <v>0</v>
       </c>
       <c r="Z136" s="11"/>
       <c r="AA136" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB136" s="5"/>
       <c r="AC136" s="5"/>
@@ -9250,15 +9914,21 @@
         <v>31</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="9"/>
@@ -9280,17 +9950,17 @@
       <c r="V137" s="4"/>
       <c r="W137" s="4"/>
       <c r="X137" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y137" s="10">
         <v>0</v>
       </c>
       <c r="Z137" s="11"/>
       <c r="AA137" s="12" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="AB137" s="5" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AC137" s="5"/>
       <c r="AD137" s="5"/>
@@ -9306,15 +9976,21 @@
         <v>31</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
       <c r="J138" s="9"/>
@@ -9336,14 +10012,14 @@
       <c r="V138" s="4"/>
       <c r="W138" s="4"/>
       <c r="X138" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y138" s="10">
         <v>0</v>
       </c>
       <c r="Z138" s="11"/>
       <c r="AA138" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB138" s="5"/>
       <c r="AC138" s="5"/>
@@ -9360,15 +10036,21 @@
         <v>31</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>237</v>
+        <v>290</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
       <c r="J139" s="9"/>
@@ -9390,14 +10072,14 @@
       <c r="V139" s="4"/>
       <c r="W139" s="4"/>
       <c r="X139" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y139" s="10">
         <v>0</v>
       </c>
       <c r="Z139" s="11"/>
       <c r="AA139" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB139" s="5"/>
       <c r="AC139" s="5"/>
@@ -9414,15 +10096,21 @@
         <v>31</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="9"/>
@@ -9444,17 +10132,17 @@
       <c r="V140" s="4"/>
       <c r="W140" s="4"/>
       <c r="X140" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y140" s="10">
         <v>0</v>
       </c>
       <c r="Z140" s="11"/>
       <c r="AA140" s="12" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="AB140" s="5" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AC140" s="5"/>
       <c r="AD140" s="5"/>
@@ -9470,15 +10158,21 @@
         <v>31</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
       <c r="J141" s="9"/>
@@ -9500,14 +10194,14 @@
       <c r="V141" s="4"/>
       <c r="W141" s="4"/>
       <c r="X141" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y141" s="10">
         <v>0</v>
       </c>
       <c r="Z141" s="11"/>
       <c r="AA141" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB141" s="5"/>
       <c r="AC141" s="5"/>
@@ -9524,13 +10218,15 @@
         <v>31</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>240</v>
+        <v>293</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E142" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>294</v>
+      </c>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
@@ -9554,14 +10250,14 @@
       <c r="V142" s="4"/>
       <c r="W142" s="4"/>
       <c r="X142" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Y142" s="10">
         <v>0</v>
       </c>
       <c r="Z142" s="11"/>
       <c r="AA142" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AB142" s="5"/>
       <c r="AC142" s="5"/>
@@ -9578,11 +10274,11 @@
         <v>31</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4" t="s">
-        <v>242</v>
+        <v>296</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
@@ -9608,14 +10304,14 @@
       <c r="V143" s="4"/>
       <c r="W143" s="4"/>
       <c r="X143" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y143" s="10">
         <v>0</v>
       </c>
       <c r="Z143" s="11"/>
       <c r="AA143" s="12" t="s">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="AB143" s="5"/>
       <c r="AC143" s="5"/>
@@ -9632,11 +10328,11 @@
         <v>31</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>244</v>
+        <v>298</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="s">
-        <v>242</v>
+        <v>296</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
@@ -9662,14 +10358,14 @@
       <c r="V144" s="4"/>
       <c r="W144" s="4"/>
       <c r="X144" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y144" s="10">
         <v>0</v>
       </c>
       <c r="Z144" s="11"/>
       <c r="AA144" s="12" t="s">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="AB144" s="5"/>
       <c r="AC144" s="5"/>
@@ -9686,11 +10382,11 @@
         <v>31</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4" t="s">
-        <v>242</v>
+        <v>296</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
@@ -9716,14 +10412,14 @@
       <c r="V145" s="4"/>
       <c r="W145" s="4"/>
       <c r="X145" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y145" s="10">
         <v>0</v>
       </c>
       <c r="Z145" s="11"/>
       <c r="AA145" s="12" t="s">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="AB145" s="5"/>
       <c r="AC145" s="5"/>
@@ -9740,11 +10436,11 @@
         <v>31</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4" t="s">
-        <v>242</v>
+        <v>296</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
@@ -9770,14 +10466,14 @@
       <c r="V146" s="4"/>
       <c r="W146" s="4"/>
       <c r="X146" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y146" s="10">
         <v>0</v>
       </c>
       <c r="Z146" s="11"/>
       <c r="AA146" s="12" t="s">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="AB146" s="5"/>
       <c r="AC146" s="5"/>
@@ -9791,14 +10487,14 @@
     </row>
     <row r="147" spans="1:36">
       <c r="A147" s="4" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="14" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
@@ -9827,7 +10523,7 @@
       <c r="Y147" s="10"/>
       <c r="Z147" s="11"/>
       <c r="AA147" s="18" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="AB147" s="5"/>
       <c r="AC147" s="5"/>
@@ -9841,14 +10537,14 @@
     </row>
     <row r="148" spans="1:36">
       <c r="A148" s="4" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="14" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
@@ -9877,7 +10573,7 @@
       <c r="Y148" s="10"/>
       <c r="Z148" s="11"/>
       <c r="AA148" s="18" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="AB148" s="5"/>
       <c r="AC148" s="5"/>
@@ -9891,14 +10587,14 @@
     </row>
     <row r="149" spans="1:36">
       <c r="A149" s="4" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="14" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
@@ -9927,7 +10623,7 @@
       <c r="Y149" s="10"/>
       <c r="Z149" s="11"/>
       <c r="AA149" s="18" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="AB149" s="5"/>
       <c r="AC149" s="5"/>
@@ -9941,14 +10637,14 @@
     </row>
     <row r="150" spans="1:36">
       <c r="A150" s="4" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="14" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
@@ -9977,7 +10673,7 @@
       <c r="Y150" s="10"/>
       <c r="Z150" s="11"/>
       <c r="AA150" s="18" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="AB150" s="5"/>
       <c r="AC150" s="5"/>
@@ -9991,14 +10687,14 @@
     </row>
     <row r="151" spans="1:36">
       <c r="A151" s="4" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
       <c r="C151" s="19"/>
       <c r="D151" s="14" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
@@ -10027,7 +10723,7 @@
       <c r="Y151" s="4"/>
       <c r="Z151" s="4"/>
       <c r="AA151" s="18" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="AB151" s="5"/>
       <c r="AC151" s="5"/>
@@ -10041,14 +10737,14 @@
     </row>
     <row r="152" spans="1:36">
       <c r="A152" s="4" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="C152" s="19"/>
       <c r="D152" s="14" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
@@ -10077,7 +10773,7 @@
       <c r="Y152" s="4"/>
       <c r="Z152" s="4"/>
       <c r="AA152" s="18" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="AB152" s="5"/>
       <c r="AC152" s="5"/>
@@ -10091,14 +10787,14 @@
     </row>
     <row r="153" spans="1:36">
       <c r="A153" s="4" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="C153" s="19"/>
       <c r="D153" s="14" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
@@ -10127,7 +10823,7 @@
       <c r="Y153" s="4"/>
       <c r="Z153" s="4"/>
       <c r="AA153" s="18" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="AB153" s="5"/>
       <c r="AC153" s="5"/>
@@ -10141,14 +10837,14 @@
     </row>
     <row r="154" spans="1:36">
       <c r="A154" s="4" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="C154" s="19"/>
       <c r="D154" s="14" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -10177,7 +10873,7 @@
       <c r="Y154" s="4"/>
       <c r="Z154" s="4"/>
       <c r="AA154" s="18" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="AB154" s="5"/>
       <c r="AC154" s="5"/>
@@ -10191,14 +10887,14 @@
     </row>
     <row r="155" spans="1:36">
       <c r="A155" s="4" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="C155" s="19"/>
       <c r="D155" s="14" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
@@ -10227,7 +10923,7 @@
       <c r="Y155" s="4"/>
       <c r="Z155" s="4"/>
       <c r="AA155" s="18" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="AB155" s="5"/>
       <c r="AC155" s="5"/>
@@ -10241,14 +10937,14 @@
     </row>
     <row r="156" spans="1:36">
       <c r="A156" s="4" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="C156" s="19"/>
       <c r="D156" s="14" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
@@ -10277,7 +10973,7 @@
       <c r="Y156" s="4"/>
       <c r="Z156" s="4"/>
       <c r="AA156" s="18" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="AB156" s="5"/>
       <c r="AC156" s="5"/>
@@ -10291,14 +10987,14 @@
     </row>
     <row r="157" spans="1:36">
       <c r="A157" s="4" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="C157" s="19"/>
       <c r="D157" s="14" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
@@ -10327,7 +11023,7 @@
       <c r="Y157" s="4"/>
       <c r="Z157" s="4"/>
       <c r="AA157" s="18" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="AB157" s="5"/>
       <c r="AC157" s="5"/>
@@ -10341,14 +11037,14 @@
     </row>
     <row r="158" spans="1:36">
       <c r="A158" s="4" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="C158" s="19"/>
       <c r="D158" s="14" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
@@ -10377,7 +11073,7 @@
       <c r="Y158" s="4"/>
       <c r="Z158" s="4"/>
       <c r="AA158" s="18" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="AB158" s="5"/>
       <c r="AC158" s="5"/>
@@ -10391,14 +11087,14 @@
     </row>
     <row r="159" spans="1:36">
       <c r="A159" s="4" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="14" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
@@ -10427,7 +11123,7 @@
       <c r="Y159" s="4"/>
       <c r="Z159" s="4"/>
       <c r="AA159" s="18" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="AB159" s="5"/>
       <c r="AC159" s="5"/>
@@ -10441,14 +11137,14 @@
     </row>
     <row r="160" spans="1:36">
       <c r="A160" s="4" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="14" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
@@ -10477,7 +11173,7 @@
       <c r="Y160" s="4"/>
       <c r="Z160" s="4"/>
       <c r="AA160" s="18" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="AB160" s="5"/>
       <c r="AC160" s="5"/>
@@ -10723,35 +11419,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>265</v>
+        <v>106</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>268</v>
+        <v>109</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>265</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>268</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -10784,21 +11480,21 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="21" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="21" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="21" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/exe/TSV/Excel/TH64_Fujie_UIList.xlsx
+++ b/exe/TSV/Excel/TH64_Fujie_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141EC821-5B64-4282-BEDA-35C3F4775DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCE1CA3-9691-4649-83CA-A3B1BD820F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="4485" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5835" yWindow="4785" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH64_藤江駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="326">
   <si>
     <t>Type</t>
   </si>
@@ -819,6 +819,9 @@
     <t>W22</t>
   </si>
   <si>
+    <t>TH64_22</t>
+  </si>
+  <si>
     <t>P22</t>
   </si>
   <si>
@@ -843,6 +846,9 @@
     <t>物理鍵てこ</t>
   </si>
   <si>
+    <t>TH64_98</t>
+  </si>
+  <si>
     <t>0,1,10,11</t>
   </si>
   <si>
@@ -864,6 +870,9 @@
     <t>駅扱切換</t>
   </si>
   <si>
+    <t>TH64_81</t>
+  </si>
+  <si>
     <t>-1,1,-11,11</t>
   </si>
   <si>
@@ -883,6 +892,9 @@
   </si>
   <si>
     <t>解放99</t>
+  </si>
+  <si>
+    <t>TH64_99</t>
   </si>
   <si>
     <t>解放99_PY</t>
@@ -3692,7 +3704,9 @@
       <c r="D32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -3715,7 +3729,7 @@
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="X32" s="10" t="s">
         <v>54</v>
@@ -3744,7 +3758,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
@@ -3752,7 +3766,7 @@
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>106</v>
@@ -3802,7 +3816,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
@@ -3810,7 +3824,7 @@
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>109</v>
@@ -3860,7 +3874,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>112</v>
@@ -3901,7 +3915,7 @@
         <v>51</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
@@ -3919,16 +3933,18 @@
     </row>
     <row r="36" spans="1:36">
       <c r="A36" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E36" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="10"/>
@@ -3951,22 +3967,22 @@
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X36" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Y36" s="10">
         <v>0</v>
       </c>
       <c r="Z36" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA36" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB36" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
@@ -3982,13 +3998,15 @@
         <v>31</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="11"/>
@@ -4033,16 +4051,18 @@
     </row>
     <row r="38" spans="1:36">
       <c r="A38" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E38" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="10"/>
@@ -4065,10 +4085,10 @@
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="X38" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Y38" s="10">
         <v>1</v>
@@ -4077,10 +4097,10 @@
         <v>45</v>
       </c>
       <c r="AA38" s="12" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AB38" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
@@ -4096,13 +4116,15 @@
         <v>31</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E39" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="11"/>
@@ -4150,13 +4172,15 @@
         <v>31</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E40" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="11"/>
@@ -4201,16 +4225,18 @@
     </row>
     <row r="41" spans="1:36">
       <c r="A41" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E41" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="10"/>
@@ -4233,22 +4259,22 @@
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="X41" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Y41" s="10">
         <v>0</v>
       </c>
       <c r="Z41" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA41" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB41" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
@@ -4264,13 +4290,15 @@
         <v>31</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E42" s="4"/>
+        <v>140</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -4318,14 +4346,14 @@
         <v>31</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -4350,17 +4378,17 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
       <c r="X43" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y43" s="10">
         <v>0</v>
       </c>
       <c r="Z43" s="11"/>
       <c r="AA43" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB43" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
@@ -4376,23 +4404,23 @@
         <v>31</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>106</v>
@@ -4416,14 +4444,14 @@
       <c r="V44" s="4"/>
       <c r="W44" s="13"/>
       <c r="X44" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y44" s="10">
         <v>0</v>
       </c>
       <c r="Z44" s="11"/>
       <c r="AA44" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
@@ -4440,23 +4468,23 @@
         <v>31</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>106</v>
@@ -4480,14 +4508,14 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
       <c r="X45" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y45" s="10">
         <v>0</v>
       </c>
       <c r="Z45" s="11"/>
       <c r="AA45" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
@@ -4504,23 +4532,23 @@
         <v>31</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>106</v>
@@ -4544,14 +4572,14 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
       <c r="X46" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y46" s="10">
         <v>0</v>
       </c>
       <c r="Z46" s="11"/>
       <c r="AA46" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
@@ -4568,23 +4596,23 @@
         <v>31</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>109</v>
@@ -4608,14 +4636,14 @@
       <c r="V47" s="4"/>
       <c r="W47" s="13"/>
       <c r="X47" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y47" s="10">
         <v>0</v>
       </c>
       <c r="Z47" s="11"/>
       <c r="AA47" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
@@ -4632,23 +4660,23 @@
         <v>31</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>109</v>
@@ -4672,14 +4700,14 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
       <c r="X48" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y48" s="10">
         <v>0</v>
       </c>
       <c r="Z48" s="11"/>
       <c r="AA48" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB48" s="5"/>
       <c r="AC48" s="5"/>
@@ -4696,23 +4724,23 @@
         <v>31</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>109</v>
@@ -4736,17 +4764,17 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
       <c r="X49" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y49" s="10">
         <v>0</v>
       </c>
       <c r="Z49" s="11"/>
       <c r="AA49" s="12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AB49" s="5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
@@ -4762,17 +4790,17 @@
         <v>31</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>109</v>
@@ -4798,14 +4826,14 @@
       <c r="V50" s="4"/>
       <c r="W50" s="13"/>
       <c r="X50" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y50" s="10">
         <v>0</v>
       </c>
       <c r="Z50" s="11"/>
       <c r="AA50" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
@@ -4822,17 +4850,17 @@
         <v>31</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>109</v>
@@ -4858,17 +4886,17 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
       <c r="X51" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y51" s="10">
         <v>0</v>
       </c>
       <c r="Z51" s="11"/>
       <c r="AA51" s="12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AB51" s="5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
@@ -4884,17 +4912,17 @@
         <v>31</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>106</v>
@@ -4920,17 +4948,17 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
       <c r="X52" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y52" s="10">
         <v>0</v>
       </c>
       <c r="Z52" s="11"/>
       <c r="AA52" s="12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AB52" s="5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
@@ -4946,17 +4974,17 @@
         <v>31</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>106</v>
@@ -4982,17 +5010,17 @@
       <c r="V53" s="4"/>
       <c r="W53" s="13"/>
       <c r="X53" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y53" s="10">
         <v>0</v>
       </c>
       <c r="Z53" s="11"/>
       <c r="AA53" s="12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AB53" s="5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
@@ -5008,17 +5036,17 @@
         <v>31</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>106</v>
@@ -5044,14 +5072,14 @@
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
       <c r="X54" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y54" s="10">
         <v>0</v>
       </c>
       <c r="Z54" s="11"/>
       <c r="AA54" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
@@ -5068,17 +5096,17 @@
         <v>31</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>109</v>
@@ -5104,14 +5132,14 @@
       <c r="V55" s="4"/>
       <c r="W55" s="13"/>
       <c r="X55" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y55" s="10">
         <v>0</v>
       </c>
       <c r="Z55" s="11"/>
       <c r="AA55" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
@@ -5128,17 +5156,17 @@
         <v>31</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>109</v>
@@ -5164,17 +5192,17 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
       <c r="X56" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y56" s="10">
         <v>0</v>
       </c>
       <c r="Z56" s="11"/>
       <c r="AA56" s="12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AB56" s="5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
@@ -5190,17 +5218,17 @@
         <v>31</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>109</v>
@@ -5226,14 +5254,14 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
       <c r="X57" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y57" s="10">
         <v>0</v>
       </c>
       <c r="Z57" s="11"/>
       <c r="AA57" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
@@ -5250,14 +5278,14 @@
         <v>31</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -5282,14 +5310,14 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
       <c r="X58" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y58" s="10">
         <v>0</v>
       </c>
       <c r="Z58" s="11"/>
       <c r="AA58" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
@@ -5306,14 +5334,14 @@
         <v>31</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -5338,14 +5366,14 @@
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
       <c r="X59" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y59" s="10">
         <v>0</v>
       </c>
       <c r="Z59" s="11"/>
       <c r="AA59" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
@@ -5362,14 +5390,14 @@
         <v>31</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -5394,14 +5422,14 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
       <c r="X60" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y60" s="10">
         <v>0</v>
       </c>
       <c r="Z60" s="11"/>
       <c r="AA60" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB60" s="5"/>
       <c r="AC60" s="5"/>
@@ -5418,14 +5446,14 @@
         <v>31</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -5450,14 +5478,14 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
       <c r="X61" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y61" s="10">
         <v>0</v>
       </c>
       <c r="Z61" s="11"/>
       <c r="AA61" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
@@ -5474,14 +5502,14 @@
         <v>31</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -5506,14 +5534,14 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y62" s="10">
         <v>0</v>
       </c>
       <c r="Z62" s="11"/>
       <c r="AA62" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
@@ -5530,14 +5558,14 @@
         <v>31</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -5562,14 +5590,14 @@
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
       <c r="X63" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y63" s="10">
         <v>0</v>
       </c>
       <c r="Z63" s="11"/>
       <c r="AA63" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB63" s="5"/>
       <c r="AC63" s="5"/>
@@ -5586,14 +5614,14 @@
         <v>31</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -5618,14 +5646,14 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
       <c r="X64" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y64" s="10">
         <v>0</v>
       </c>
       <c r="Z64" s="11"/>
       <c r="AA64" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
@@ -5642,14 +5670,14 @@
         <v>31</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -5674,14 +5702,14 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
       <c r="X65" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y65" s="10">
         <v>0</v>
       </c>
       <c r="Z65" s="11"/>
       <c r="AA65" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
@@ -5698,14 +5726,14 @@
         <v>31</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -5730,14 +5758,14 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
       <c r="X66" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y66" s="10">
         <v>0</v>
       </c>
       <c r="Z66" s="11"/>
       <c r="AA66" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB66" s="5"/>
       <c r="AC66" s="5"/>
@@ -5754,14 +5782,14 @@
         <v>31</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -5786,14 +5814,14 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
       <c r="X67" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y67" s="10">
         <v>0</v>
       </c>
       <c r="Z67" s="11"/>
       <c r="AA67" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB67" s="5"/>
       <c r="AC67" s="5"/>
@@ -5810,14 +5838,14 @@
         <v>31</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -5842,17 +5870,17 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y68" s="10">
         <v>0</v>
       </c>
       <c r="Z68" s="11"/>
       <c r="AA68" s="12" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AB68" s="15" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
@@ -5868,17 +5896,17 @@
         <v>31</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>106</v>
@@ -5904,14 +5932,14 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
       <c r="X69" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y69" s="10">
         <v>0</v>
       </c>
       <c r="Z69" s="11"/>
       <c r="AA69" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB69" s="16"/>
       <c r="AC69" s="5"/>
@@ -5928,17 +5956,17 @@
         <v>31</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>106</v>
@@ -5964,17 +5992,17 @@
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
       <c r="X70" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y70" s="10">
         <v>0</v>
       </c>
       <c r="Z70" s="11"/>
       <c r="AA70" s="12" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AB70" s="15" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
@@ -5990,17 +6018,17 @@
         <v>31</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>106</v>
@@ -6026,14 +6054,14 @@
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
       <c r="X71" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y71" s="10">
         <v>0</v>
       </c>
       <c r="Z71" s="11"/>
       <c r="AA71" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB71" s="16"/>
       <c r="AC71" s="5"/>
@@ -6050,17 +6078,17 @@
         <v>31</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>109</v>
@@ -6086,14 +6114,14 @@
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
       <c r="X72" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y72" s="10">
         <v>0</v>
       </c>
       <c r="Z72" s="11"/>
       <c r="AA72" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB72" s="16"/>
       <c r="AC72" s="5"/>
@@ -6110,17 +6138,17 @@
         <v>31</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>109</v>
@@ -6146,14 +6174,14 @@
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
       <c r="X73" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y73" s="10">
         <v>0</v>
       </c>
       <c r="Z73" s="11"/>
       <c r="AA73" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB73" s="16"/>
       <c r="AC73" s="5"/>
@@ -6170,23 +6198,23 @@
         <v>31</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>106</v>
@@ -6210,14 +6238,14 @@
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
       <c r="X74" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y74" s="10">
         <v>0</v>
       </c>
       <c r="Z74" s="11"/>
       <c r="AA74" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB74" s="16"/>
       <c r="AC74" s="5"/>
@@ -6234,23 +6262,23 @@
         <v>31</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>106</v>
@@ -6274,14 +6302,14 @@
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
       <c r="X75" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y75" s="10">
         <v>0</v>
       </c>
       <c r="Z75" s="11"/>
       <c r="AA75" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB75" s="16"/>
       <c r="AC75" s="5"/>
@@ -6298,23 +6326,23 @@
         <v>31</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I76" s="4" t="s">
         <v>109</v>
@@ -6338,17 +6366,17 @@
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
       <c r="X76" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y76" s="10">
         <v>0</v>
       </c>
       <c r="Z76" s="11"/>
       <c r="AA76" s="12" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AB76" s="15" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
@@ -6364,23 +6392,23 @@
         <v>31</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>109</v>
@@ -6404,14 +6432,14 @@
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
       <c r="X77" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y77" s="10">
         <v>0</v>
       </c>
       <c r="Z77" s="11"/>
       <c r="AA77" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB77" s="16"/>
       <c r="AC77" s="5"/>
@@ -6428,23 +6456,23 @@
         <v>31</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>109</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>106</v>
@@ -6468,14 +6496,14 @@
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
       <c r="X78" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y78" s="10">
         <v>0</v>
       </c>
       <c r="Z78" s="11"/>
       <c r="AA78" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB78" s="16"/>
       <c r="AC78" s="5"/>
@@ -6492,23 +6520,23 @@
         <v>31</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>109</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I79" s="4" t="s">
         <v>106</v>
@@ -6532,17 +6560,17 @@
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
       <c r="X79" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y79" s="10">
         <v>0</v>
       </c>
       <c r="Z79" s="11"/>
       <c r="AA79" s="12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AB79" s="15" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AC79" s="5"/>
       <c r="AD79" s="5"/>
@@ -6558,23 +6586,23 @@
         <v>31</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>106</v>
@@ -6598,17 +6626,17 @@
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
       <c r="X80" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y80" s="10">
         <v>0</v>
       </c>
       <c r="Z80" s="11"/>
       <c r="AA80" s="12" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AB80" s="15" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AC80" s="5"/>
       <c r="AD80" s="5"/>
@@ -6624,23 +6652,23 @@
         <v>31</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>106</v>
@@ -6664,14 +6692,14 @@
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
       <c r="X81" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y81" s="10">
         <v>0</v>
       </c>
       <c r="Z81" s="11"/>
       <c r="AA81" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB81" s="16"/>
       <c r="AC81" s="5"/>
@@ -6688,23 +6716,23 @@
         <v>31</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>109</v>
@@ -6728,17 +6756,17 @@
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
       <c r="X82" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y82" s="10">
         <v>0</v>
       </c>
       <c r="Z82" s="11"/>
       <c r="AA82" s="12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AB82" s="15" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AC82" s="5"/>
       <c r="AD82" s="5"/>
@@ -6754,23 +6782,23 @@
         <v>31</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>109</v>
@@ -6794,14 +6822,14 @@
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
       <c r="X83" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y83" s="10">
         <v>0</v>
       </c>
       <c r="Z83" s="11"/>
       <c r="AA83" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB83" s="16"/>
       <c r="AC83" s="5"/>
@@ -6818,23 +6846,23 @@
         <v>31</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>109</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>106</v>
@@ -6858,17 +6886,17 @@
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
       <c r="X84" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y84" s="10">
         <v>0</v>
       </c>
       <c r="Z84" s="11"/>
       <c r="AA84" s="12" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AB84" s="15" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AC84" s="5"/>
       <c r="AD84" s="5"/>
@@ -6884,23 +6912,23 @@
         <v>31</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>109</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>106</v>
@@ -6924,17 +6952,17 @@
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
       <c r="X85" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y85" s="10">
         <v>0</v>
       </c>
       <c r="Z85" s="11"/>
       <c r="AA85" s="12" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AB85" s="15" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AC85" s="5"/>
       <c r="AD85" s="5"/>
@@ -6950,17 +6978,17 @@
         <v>31</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>106</v>
@@ -6986,14 +7014,14 @@
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
       <c r="X86" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y86" s="10">
         <v>0</v>
       </c>
       <c r="Z86" s="11"/>
       <c r="AA86" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB86" s="16"/>
       <c r="AC86" s="5"/>
@@ -7010,17 +7038,17 @@
         <v>31</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>106</v>
@@ -7046,14 +7074,14 @@
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
       <c r="X87" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y87" s="10">
         <v>0</v>
       </c>
       <c r="Z87" s="11"/>
       <c r="AA87" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB87" s="16"/>
       <c r="AC87" s="5"/>
@@ -7070,17 +7098,17 @@
         <v>31</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>106</v>
@@ -7106,14 +7134,14 @@
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
       <c r="X88" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y88" s="10">
         <v>0</v>
       </c>
       <c r="Z88" s="11"/>
       <c r="AA88" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB88" s="16"/>
       <c r="AC88" s="5"/>
@@ -7130,17 +7158,17 @@
         <v>31</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>109</v>
@@ -7166,17 +7194,17 @@
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
       <c r="X89" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y89" s="10">
         <v>0</v>
       </c>
       <c r="Z89" s="11"/>
       <c r="AA89" s="12" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AB89" s="15" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AC89" s="5"/>
       <c r="AD89" s="5"/>
@@ -7192,17 +7220,17 @@
         <v>31</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>109</v>
@@ -7228,14 +7256,14 @@
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
       <c r="X90" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y90" s="10">
         <v>0</v>
       </c>
       <c r="Z90" s="11"/>
       <c r="AA90" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB90" s="16"/>
       <c r="AC90" s="5"/>
@@ -7252,14 +7280,14 @@
         <v>31</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
@@ -7284,14 +7312,14 @@
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
       <c r="X91" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y91" s="10">
         <v>0</v>
       </c>
       <c r="Z91" s="11"/>
       <c r="AA91" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB91" s="16"/>
       <c r="AC91" s="5"/>
@@ -7308,14 +7336,14 @@
         <v>31</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
@@ -7340,14 +7368,14 @@
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
       <c r="X92" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y92" s="10">
         <v>0</v>
       </c>
       <c r="Z92" s="11"/>
       <c r="AA92" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB92" s="16"/>
       <c r="AC92" s="5"/>
@@ -7364,14 +7392,14 @@
         <v>31</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
@@ -7396,14 +7424,14 @@
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
       <c r="X93" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y93" s="10">
         <v>0</v>
       </c>
       <c r="Z93" s="11"/>
       <c r="AA93" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB93" s="16"/>
       <c r="AC93" s="5"/>
@@ -7420,14 +7448,14 @@
         <v>31</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -7452,14 +7480,14 @@
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
       <c r="X94" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y94" s="10">
         <v>0</v>
       </c>
       <c r="Z94" s="11"/>
       <c r="AA94" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB94" s="16"/>
       <c r="AC94" s="5"/>
@@ -7476,14 +7504,14 @@
         <v>31</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
@@ -7508,14 +7536,14 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
       <c r="X95" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y95" s="10">
         <v>0</v>
       </c>
       <c r="Z95" s="11"/>
       <c r="AA95" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB95" s="16"/>
       <c r="AC95" s="5"/>
@@ -7532,14 +7560,14 @@
         <v>31</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
@@ -7564,14 +7592,14 @@
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
       <c r="X96" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y96" s="10">
         <v>0</v>
       </c>
       <c r="Z96" s="11"/>
       <c r="AA96" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB96" s="16"/>
       <c r="AC96" s="5"/>
@@ -7588,20 +7616,20 @@
         <v>31</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
-      <c r="J97" s="9"/>
+      <c r="J97" s="4"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9">
         <v>687</v>
@@ -7620,17 +7648,17 @@
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
       <c r="X97" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y97" s="10">
         <v>0</v>
       </c>
       <c r="Z97" s="11"/>
       <c r="AA97" s="12" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AB97" s="15" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AC97" s="5"/>
       <c r="AD97" s="5"/>
@@ -7646,20 +7674,20 @@
         <v>31</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
-      <c r="J98" s="9"/>
+      <c r="J98" s="4"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9">
         <v>687</v>
@@ -7678,17 +7706,17 @@
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
       <c r="X98" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y98" s="10">
         <v>0</v>
       </c>
       <c r="Z98" s="11"/>
       <c r="AA98" s="12" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AB98" s="15" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AC98" s="5"/>
       <c r="AD98" s="5"/>
@@ -7704,14 +7732,14 @@
         <v>31</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>105</v>
@@ -7740,14 +7768,14 @@
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
       <c r="X99" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y99" s="10">
         <v>0</v>
       </c>
       <c r="Z99" s="11"/>
       <c r="AA99" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB99" s="16"/>
       <c r="AC99" s="5"/>
@@ -7764,14 +7792,14 @@
         <v>31</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>105</v>
@@ -7800,14 +7828,14 @@
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
       <c r="X100" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y100" s="10">
         <v>0</v>
       </c>
       <c r="Z100" s="11"/>
       <c r="AA100" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB100" s="16"/>
       <c r="AC100" s="5"/>
@@ -7824,14 +7852,14 @@
         <v>31</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>105</v>
@@ -7860,14 +7888,14 @@
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
       <c r="X101" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y101" s="10">
         <v>0</v>
       </c>
       <c r="Z101" s="11"/>
       <c r="AA101" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB101" s="16"/>
       <c r="AC101" s="5"/>
@@ -7884,14 +7912,14 @@
         <v>31</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>105</v>
@@ -7920,17 +7948,17 @@
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
       <c r="X102" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y102" s="10">
         <v>0</v>
       </c>
       <c r="Z102" s="11"/>
       <c r="AA102" s="12" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AB102" s="15" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AC102" s="5"/>
       <c r="AD102" s="5"/>
@@ -7946,14 +7974,14 @@
         <v>31</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
@@ -7978,14 +8006,14 @@
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
       <c r="X103" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y103" s="10">
         <v>0</v>
       </c>
       <c r="Z103" s="11"/>
       <c r="AA103" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB103" s="16"/>
       <c r="AC103" s="5"/>
@@ -8002,14 +8030,14 @@
         <v>31</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
@@ -8034,14 +8062,14 @@
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
       <c r="X104" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y104" s="10">
         <v>0</v>
       </c>
       <c r="Z104" s="11"/>
       <c r="AA104" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB104" s="16"/>
       <c r="AC104" s="5"/>
@@ -8058,14 +8086,14 @@
         <v>31</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
@@ -8090,14 +8118,14 @@
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
       <c r="X105" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y105" s="10">
         <v>0</v>
       </c>
       <c r="Z105" s="11"/>
       <c r="AA105" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB105" s="16"/>
       <c r="AC105" s="5"/>
@@ -8114,14 +8142,14 @@
         <v>31</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
@@ -8146,14 +8174,14 @@
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
       <c r="X106" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y106" s="10">
         <v>0</v>
       </c>
       <c r="Z106" s="11"/>
       <c r="AA106" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB106" s="16"/>
       <c r="AC106" s="5"/>
@@ -8170,14 +8198,14 @@
         <v>31</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
@@ -8202,14 +8230,14 @@
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
       <c r="X107" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y107" s="10">
         <v>0</v>
       </c>
       <c r="Z107" s="11"/>
       <c r="AA107" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB107" s="16"/>
       <c r="AC107" s="5"/>
@@ -8226,14 +8254,14 @@
         <v>31</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
@@ -8258,14 +8286,14 @@
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
       <c r="X108" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y108" s="10">
         <v>0</v>
       </c>
       <c r="Z108" s="11"/>
       <c r="AA108" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB108" s="16"/>
       <c r="AC108" s="5"/>
@@ -8282,14 +8310,14 @@
         <v>31</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
@@ -8314,14 +8342,14 @@
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
       <c r="X109" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y109" s="10">
         <v>0</v>
       </c>
       <c r="Z109" s="11"/>
       <c r="AA109" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB109" s="16"/>
       <c r="AC109" s="5"/>
@@ -8338,14 +8366,14 @@
         <v>31</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
@@ -8370,14 +8398,14 @@
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
       <c r="X110" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y110" s="10">
         <v>0</v>
       </c>
       <c r="Z110" s="11"/>
       <c r="AA110" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB110" s="16"/>
       <c r="AC110" s="5"/>
@@ -8394,14 +8422,14 @@
         <v>31</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
@@ -8426,14 +8454,14 @@
       <c r="V111" s="4"/>
       <c r="W111" s="4"/>
       <c r="X111" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y111" s="10">
         <v>0</v>
       </c>
       <c r="Z111" s="11"/>
       <c r="AA111" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB111" s="16"/>
       <c r="AC111" s="5"/>
@@ -8450,14 +8478,14 @@
         <v>31</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
@@ -8482,14 +8510,14 @@
       <c r="V112" s="4"/>
       <c r="W112" s="4"/>
       <c r="X112" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y112" s="10">
         <v>0</v>
       </c>
       <c r="Z112" s="11"/>
       <c r="AA112" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB112" s="16"/>
       <c r="AC112" s="5"/>
@@ -8506,14 +8534,14 @@
         <v>31</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
@@ -8538,14 +8566,14 @@
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
       <c r="X113" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y113" s="10">
         <v>0</v>
       </c>
       <c r="Z113" s="11"/>
       <c r="AA113" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB113" s="16"/>
       <c r="AC113" s="5"/>
@@ -8562,14 +8590,14 @@
         <v>31</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
@@ -8594,14 +8622,14 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
       <c r="X114" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y114" s="10">
         <v>0</v>
       </c>
       <c r="Z114" s="11"/>
       <c r="AA114" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB114" s="16"/>
       <c r="AC114" s="5"/>
@@ -8618,17 +8646,17 @@
         <v>31</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>106</v>
@@ -8654,14 +8682,14 @@
       <c r="V115" s="4"/>
       <c r="W115" s="4"/>
       <c r="X115" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y115" s="10">
         <v>0</v>
       </c>
       <c r="Z115" s="11"/>
       <c r="AA115" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB115" s="16"/>
       <c r="AC115" s="5"/>
@@ -8678,17 +8706,17 @@
         <v>31</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>106</v>
@@ -8714,14 +8742,14 @@
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
       <c r="X116" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y116" s="10">
         <v>0</v>
       </c>
       <c r="Z116" s="11"/>
       <c r="AA116" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB116" s="16"/>
       <c r="AC116" s="5"/>
@@ -8738,17 +8766,17 @@
         <v>31</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C117" s="17"/>
       <c r="D117" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>109</v>
@@ -8774,17 +8802,17 @@
       <c r="V117" s="17"/>
       <c r="W117" s="17"/>
       <c r="X117" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y117" s="10">
         <v>0</v>
       </c>
       <c r="Z117" s="11"/>
       <c r="AA117" s="12" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AB117" s="15" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AC117" s="17"/>
       <c r="AD117" s="17"/>
@@ -8800,17 +8828,17 @@
         <v>31</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C118" s="17"/>
       <c r="D118" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>109</v>
@@ -8836,14 +8864,14 @@
       <c r="V118" s="17"/>
       <c r="W118" s="17"/>
       <c r="X118" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y118" s="10">
         <v>0</v>
       </c>
       <c r="Z118" s="11"/>
       <c r="AA118" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB118" s="16"/>
       <c r="AC118" s="17"/>
@@ -8860,14 +8888,14 @@
         <v>31</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
@@ -8892,14 +8920,14 @@
       <c r="V119" s="4"/>
       <c r="W119" s="4"/>
       <c r="X119" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y119" s="10">
         <v>0</v>
       </c>
       <c r="Z119" s="11"/>
       <c r="AA119" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB119" s="16"/>
       <c r="AC119" s="5"/>
@@ -8916,14 +8944,14 @@
         <v>31</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
@@ -8948,14 +8976,14 @@
       <c r="V120" s="4"/>
       <c r="W120" s="4"/>
       <c r="X120" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y120" s="10">
         <v>0</v>
       </c>
       <c r="Z120" s="11"/>
       <c r="AA120" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB120" s="16"/>
       <c r="AC120" s="5"/>
@@ -8972,14 +9000,14 @@
         <v>31</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
@@ -9004,17 +9032,17 @@
       <c r="V121" s="4"/>
       <c r="W121" s="4"/>
       <c r="X121" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y121" s="10">
         <v>0</v>
       </c>
       <c r="Z121" s="11"/>
       <c r="AA121" s="12" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AB121" s="15" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AC121" s="5"/>
       <c r="AD121" s="5"/>
@@ -9030,14 +9058,14 @@
         <v>31</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
@@ -9062,17 +9090,17 @@
       <c r="V122" s="4"/>
       <c r="W122" s="4"/>
       <c r="X122" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y122" s="10">
         <v>0</v>
       </c>
       <c r="Z122" s="11"/>
       <c r="AA122" s="12" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AB122" s="15" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AC122" s="5"/>
       <c r="AD122" s="5"/>
@@ -9088,17 +9116,17 @@
         <v>31</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>106</v>
@@ -9124,14 +9152,14 @@
       <c r="V123" s="4"/>
       <c r="W123" s="4"/>
       <c r="X123" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y123" s="10">
         <v>0</v>
       </c>
       <c r="Z123" s="11"/>
       <c r="AA123" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB123" s="16"/>
       <c r="AC123" s="5"/>
@@ -9148,17 +9176,17 @@
         <v>31</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>106</v>
@@ -9184,17 +9212,17 @@
       <c r="V124" s="4"/>
       <c r="W124" s="4"/>
       <c r="X124" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y124" s="10">
         <v>0</v>
       </c>
       <c r="Z124" s="11"/>
       <c r="AA124" s="12" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AB124" s="15" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AC124" s="5"/>
       <c r="AD124" s="5"/>
@@ -9210,17 +9238,17 @@
         <v>31</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>106</v>
@@ -9246,14 +9274,14 @@
       <c r="V125" s="4"/>
       <c r="W125" s="4"/>
       <c r="X125" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y125" s="10">
         <v>0</v>
       </c>
       <c r="Z125" s="11"/>
       <c r="AA125" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB125" s="16"/>
       <c r="AC125" s="5"/>
@@ -9270,17 +9298,17 @@
         <v>31</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>109</v>
@@ -9306,14 +9334,14 @@
       <c r="V126" s="4"/>
       <c r="W126" s="4"/>
       <c r="X126" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y126" s="10">
         <v>0</v>
       </c>
       <c r="Z126" s="11"/>
       <c r="AA126" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB126" s="16"/>
       <c r="AC126" s="5"/>
@@ -9330,17 +9358,17 @@
         <v>31</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>109</v>
@@ -9366,14 +9394,14 @@
       <c r="V127" s="4"/>
       <c r="W127" s="4"/>
       <c r="X127" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y127" s="10">
         <v>0</v>
       </c>
       <c r="Z127" s="11"/>
       <c r="AA127" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB127" s="15"/>
       <c r="AC127" s="5"/>
@@ -9390,17 +9418,17 @@
         <v>31</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>106</v>
@@ -9426,14 +9454,14 @@
       <c r="V128" s="4"/>
       <c r="W128" s="4"/>
       <c r="X128" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y128" s="10">
         <v>0</v>
       </c>
       <c r="Z128" s="11"/>
       <c r="AA128" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB128" s="15"/>
       <c r="AC128" s="5"/>
@@ -9450,17 +9478,17 @@
         <v>31</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>109</v>
@@ -9486,14 +9514,14 @@
       <c r="V129" s="4"/>
       <c r="W129" s="4"/>
       <c r="X129" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y129" s="10">
         <v>0</v>
       </c>
       <c r="Z129" s="11"/>
       <c r="AA129" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB129" s="15"/>
       <c r="AC129" s="5"/>
@@ -9510,17 +9538,17 @@
         <v>31</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>109</v>
@@ -9546,14 +9574,14 @@
       <c r="V130" s="4"/>
       <c r="W130" s="4"/>
       <c r="X130" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y130" s="10">
         <v>0</v>
       </c>
       <c r="Z130" s="11"/>
       <c r="AA130" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB130" s="15"/>
       <c r="AC130" s="5"/>
@@ -9570,14 +9598,14 @@
         <v>31</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
@@ -9602,14 +9630,14 @@
       <c r="V131" s="4"/>
       <c r="W131" s="4"/>
       <c r="X131" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y131" s="10">
         <v>0</v>
       </c>
       <c r="Z131" s="11"/>
       <c r="AA131" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB131" s="16"/>
       <c r="AC131" s="5"/>
@@ -9626,14 +9654,14 @@
         <v>31</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
@@ -9658,14 +9686,14 @@
       <c r="V132" s="4"/>
       <c r="W132" s="4"/>
       <c r="X132" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y132" s="10">
         <v>0</v>
       </c>
       <c r="Z132" s="11"/>
       <c r="AA132" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB132" s="16"/>
       <c r="AC132" s="5"/>
@@ -9682,14 +9710,14 @@
         <v>31</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
@@ -9714,14 +9742,14 @@
       <c r="V133" s="4"/>
       <c r="W133" s="4"/>
       <c r="X133" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y133" s="10">
         <v>0</v>
       </c>
       <c r="Z133" s="11"/>
       <c r="AA133" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB133" s="16"/>
       <c r="AC133" s="5"/>
@@ -9738,14 +9766,14 @@
         <v>31</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
@@ -9770,14 +9798,14 @@
       <c r="V134" s="4"/>
       <c r="W134" s="4"/>
       <c r="X134" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y134" s="10">
         <v>0</v>
       </c>
       <c r="Z134" s="11"/>
       <c r="AA134" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB134" s="16"/>
       <c r="AC134" s="5"/>
@@ -9794,17 +9822,17 @@
         <v>31</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>106</v>
@@ -9830,14 +9858,14 @@
       <c r="V135" s="4"/>
       <c r="W135" s="4"/>
       <c r="X135" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y135" s="10">
         <v>0</v>
       </c>
       <c r="Z135" s="11"/>
       <c r="AA135" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB135" s="5"/>
       <c r="AC135" s="5"/>
@@ -9854,17 +9882,17 @@
         <v>31</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>109</v>
@@ -9890,14 +9918,14 @@
       <c r="V136" s="4"/>
       <c r="W136" s="4"/>
       <c r="X136" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y136" s="10">
         <v>0</v>
       </c>
       <c r="Z136" s="11"/>
       <c r="AA136" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB136" s="5"/>
       <c r="AC136" s="5"/>
@@ -9914,17 +9942,17 @@
         <v>31</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>109</v>
@@ -9950,17 +9978,17 @@
       <c r="V137" s="4"/>
       <c r="W137" s="4"/>
       <c r="X137" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y137" s="10">
         <v>0</v>
       </c>
       <c r="Z137" s="11"/>
       <c r="AA137" s="12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AB137" s="5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AC137" s="5"/>
       <c r="AD137" s="5"/>
@@ -9976,17 +10004,17 @@
         <v>31</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E138" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F138" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>285</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>106</v>
@@ -10012,14 +10040,14 @@
       <c r="V138" s="4"/>
       <c r="W138" s="4"/>
       <c r="X138" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y138" s="10">
         <v>0</v>
       </c>
       <c r="Z138" s="11"/>
       <c r="AA138" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB138" s="5"/>
       <c r="AC138" s="5"/>
@@ -10036,17 +10064,17 @@
         <v>31</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E139" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F139" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>285</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>106</v>
@@ -10072,14 +10100,14 @@
       <c r="V139" s="4"/>
       <c r="W139" s="4"/>
       <c r="X139" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y139" s="10">
         <v>0</v>
       </c>
       <c r="Z139" s="11"/>
       <c r="AA139" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB139" s="5"/>
       <c r="AC139" s="5"/>
@@ -10096,17 +10124,17 @@
         <v>31</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E140" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F140" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>285</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>109</v>
@@ -10132,17 +10160,17 @@
       <c r="V140" s="4"/>
       <c r="W140" s="4"/>
       <c r="X140" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y140" s="10">
         <v>0</v>
       </c>
       <c r="Z140" s="11"/>
       <c r="AA140" s="12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AB140" s="5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AC140" s="5"/>
       <c r="AD140" s="5"/>
@@ -10158,17 +10186,17 @@
         <v>31</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E141" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F141" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>285</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>109</v>
@@ -10194,14 +10222,14 @@
       <c r="V141" s="4"/>
       <c r="W141" s="4"/>
       <c r="X141" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y141" s="10">
         <v>0</v>
       </c>
       <c r="Z141" s="11"/>
       <c r="AA141" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB141" s="5"/>
       <c r="AC141" s="5"/>
@@ -10218,14 +10246,14 @@
         <v>31</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
@@ -10250,14 +10278,14 @@
       <c r="V142" s="4"/>
       <c r="W142" s="4"/>
       <c r="X142" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y142" s="10">
         <v>0</v>
       </c>
       <c r="Z142" s="11"/>
       <c r="AA142" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB142" s="5"/>
       <c r="AC142" s="5"/>
@@ -10274,11 +10302,11 @@
         <v>31</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
@@ -10311,7 +10339,7 @@
       </c>
       <c r="Z143" s="11"/>
       <c r="AA143" s="12" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AB143" s="5"/>
       <c r="AC143" s="5"/>
@@ -10328,11 +10356,11 @@
         <v>31</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
@@ -10365,7 +10393,7 @@
       </c>
       <c r="Z144" s="11"/>
       <c r="AA144" s="12" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AB144" s="5"/>
       <c r="AC144" s="5"/>
@@ -10382,11 +10410,11 @@
         <v>31</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
@@ -10419,7 +10447,7 @@
       </c>
       <c r="Z145" s="11"/>
       <c r="AA145" s="12" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AB145" s="5"/>
       <c r="AC145" s="5"/>
@@ -10436,11 +10464,11 @@
         <v>31</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
@@ -10473,7 +10501,7 @@
       </c>
       <c r="Z146" s="11"/>
       <c r="AA146" s="12" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AB146" s="5"/>
       <c r="AC146" s="5"/>
@@ -10487,14 +10515,14 @@
     </row>
     <row r="147" spans="1:36">
       <c r="A147" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="14" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
@@ -10523,7 +10551,7 @@
       <c r="Y147" s="10"/>
       <c r="Z147" s="11"/>
       <c r="AA147" s="18" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AB147" s="5"/>
       <c r="AC147" s="5"/>
@@ -10537,14 +10565,14 @@
     </row>
     <row r="148" spans="1:36">
       <c r="A148" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="14" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
@@ -10573,7 +10601,7 @@
       <c r="Y148" s="10"/>
       <c r="Z148" s="11"/>
       <c r="AA148" s="18" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AB148" s="5"/>
       <c r="AC148" s="5"/>
@@ -10587,14 +10615,14 @@
     </row>
     <row r="149" spans="1:36">
       <c r="A149" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="14" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
@@ -10623,7 +10651,7 @@
       <c r="Y149" s="10"/>
       <c r="Z149" s="11"/>
       <c r="AA149" s="18" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AB149" s="5"/>
       <c r="AC149" s="5"/>
@@ -10637,14 +10665,14 @@
     </row>
     <row r="150" spans="1:36">
       <c r="A150" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="14" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
@@ -10673,7 +10701,7 @@
       <c r="Y150" s="10"/>
       <c r="Z150" s="11"/>
       <c r="AA150" s="18" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AB150" s="5"/>
       <c r="AC150" s="5"/>
@@ -10687,14 +10715,14 @@
     </row>
     <row r="151" spans="1:36">
       <c r="A151" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C151" s="19"/>
       <c r="D151" s="14" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
@@ -10723,7 +10751,7 @@
       <c r="Y151" s="4"/>
       <c r="Z151" s="4"/>
       <c r="AA151" s="18" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AB151" s="5"/>
       <c r="AC151" s="5"/>
@@ -10737,14 +10765,14 @@
     </row>
     <row r="152" spans="1:36">
       <c r="A152" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C152" s="19"/>
       <c r="D152" s="14" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
@@ -10773,7 +10801,7 @@
       <c r="Y152" s="4"/>
       <c r="Z152" s="4"/>
       <c r="AA152" s="18" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AB152" s="5"/>
       <c r="AC152" s="5"/>
@@ -10787,14 +10815,14 @@
     </row>
     <row r="153" spans="1:36">
       <c r="A153" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C153" s="19"/>
       <c r="D153" s="14" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
@@ -10823,7 +10851,7 @@
       <c r="Y153" s="4"/>
       <c r="Z153" s="4"/>
       <c r="AA153" s="18" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AB153" s="5"/>
       <c r="AC153" s="5"/>
@@ -10837,14 +10865,14 @@
     </row>
     <row r="154" spans="1:36">
       <c r="A154" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C154" s="19"/>
       <c r="D154" s="14" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -10873,7 +10901,7 @@
       <c r="Y154" s="4"/>
       <c r="Z154" s="4"/>
       <c r="AA154" s="18" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AB154" s="5"/>
       <c r="AC154" s="5"/>
@@ -10887,14 +10915,14 @@
     </row>
     <row r="155" spans="1:36">
       <c r="A155" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C155" s="19"/>
       <c r="D155" s="14" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
@@ -10923,7 +10951,7 @@
       <c r="Y155" s="4"/>
       <c r="Z155" s="4"/>
       <c r="AA155" s="18" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AB155" s="5"/>
       <c r="AC155" s="5"/>
@@ -10937,14 +10965,14 @@
     </row>
     <row r="156" spans="1:36">
       <c r="A156" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C156" s="19"/>
       <c r="D156" s="14" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
@@ -10973,7 +11001,7 @@
       <c r="Y156" s="4"/>
       <c r="Z156" s="4"/>
       <c r="AA156" s="18" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AB156" s="5"/>
       <c r="AC156" s="5"/>
@@ -10987,14 +11015,14 @@
     </row>
     <row r="157" spans="1:36">
       <c r="A157" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C157" s="19"/>
       <c r="D157" s="14" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
@@ -11023,7 +11051,7 @@
       <c r="Y157" s="4"/>
       <c r="Z157" s="4"/>
       <c r="AA157" s="18" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AB157" s="5"/>
       <c r="AC157" s="5"/>
@@ -11037,14 +11065,14 @@
     </row>
     <row r="158" spans="1:36">
       <c r="A158" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C158" s="19"/>
       <c r="D158" s="14" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
@@ -11073,7 +11101,7 @@
       <c r="Y158" s="4"/>
       <c r="Z158" s="4"/>
       <c r="AA158" s="18" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AB158" s="5"/>
       <c r="AC158" s="5"/>
@@ -11087,14 +11115,14 @@
     </row>
     <row r="159" spans="1:36">
       <c r="A159" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="14" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
@@ -11123,7 +11151,7 @@
       <c r="Y159" s="4"/>
       <c r="Z159" s="4"/>
       <c r="AA159" s="18" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AB159" s="5"/>
       <c r="AC159" s="5"/>
@@ -11137,14 +11165,14 @@
     </row>
     <row r="160" spans="1:36">
       <c r="A160" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="14" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
@@ -11173,7 +11201,7 @@
       <c r="Y160" s="4"/>
       <c r="Z160" s="4"/>
       <c r="AA160" s="18" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AB160" s="5"/>
       <c r="AC160" s="5"/>
@@ -11419,18 +11447,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>106</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>109</v>
@@ -11444,7 +11472,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>109</v>
@@ -11480,7 +11508,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -11494,7 +11522,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="21" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/exe/TSV/Excel/TH64_Fujie_UIList.xlsx
+++ b/exe/TSV/Excel/TH64_Fujie_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCE1CA3-9691-4649-83CA-A3B1BD820F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8ACA101-3BB9-4DA3-9211-0E88D322063E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="4785" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7710" yWindow="5010" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH64_藤江駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="346">
   <si>
     <t>Type</t>
   </si>
@@ -1164,6 +1164,12 @@
     <t>方向てこ表示灯</t>
   </si>
   <si>
+    <t>TH64_11F</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>Image/Light/AlN.png,Image/Light/AlY.png,Image/Light/AlR.png</t>
   </si>
   <si>
@@ -1287,6 +1293,9 @@
     <t>FMT_16L_1</t>
   </si>
   <si>
+    <t>TH64_16F</t>
+  </si>
+  <si>
     <t>FMT_16R_1</t>
   </si>
   <si>
@@ -1383,18 +1392,30 @@
     <t>状態表示灯</t>
   </si>
   <si>
+    <t>TH64_PWR-FAILURE</t>
+  </si>
+  <si>
     <t>Image/Light/N.png,Image/Light/R.png</t>
   </si>
   <si>
     <t>CTC故障_R</t>
   </si>
   <si>
+    <t>TH64_CTC-FAILURE</t>
+  </si>
+  <si>
     <t>鎖錠60秒_R</t>
   </si>
   <si>
+    <t>TH64_60TEK</t>
+  </si>
+  <si>
     <t>鎖錠30秒_R</t>
   </si>
   <si>
+    <t>TH64_30TEK</t>
+  </si>
+  <si>
     <t>Retsuban</t>
   </si>
   <si>
@@ -1404,52 +1425,91 @@
     <t>列車番号</t>
   </si>
   <si>
+    <t>TH65_TTC_UpArr1</t>
+  </si>
+  <si>
     <t>Image/Retsuban/Retsuban-Window.png</t>
   </si>
   <si>
     <t>列番大道寺1番線</t>
   </si>
   <si>
+    <t>TH65_TTC_Track1</t>
+  </si>
+  <si>
     <t>列番大道寺2番線</t>
   </si>
   <si>
+    <t>TH65_TTC_Track2</t>
+  </si>
+  <si>
     <t>列番大道寺3番線</t>
   </si>
   <si>
+    <t>TH65_TTC_Track3</t>
+  </si>
+  <si>
     <t>列番大道寺4番線</t>
   </si>
   <si>
+    <t>TH65_TTC_Track4</t>
+  </si>
+  <si>
     <t>列番藤江上り第2接近</t>
   </si>
   <si>
+    <t>TH64_TTC_Up2</t>
+  </si>
+  <si>
     <t>列番藤江上り第1接近</t>
   </si>
   <si>
+    <t>TH64_TTC_Up1</t>
+  </si>
+  <si>
     <t>列番藤江1番線</t>
   </si>
   <si>
+    <t>TH64_TTC_Track1</t>
+  </si>
+  <si>
     <t>列番藤江2番線</t>
   </si>
   <si>
+    <t>TH64_TTC_Track2</t>
+  </si>
+  <si>
     <t>列番藤江下り第1接近</t>
   </si>
   <si>
+    <t>TH64_TTC_Down1</t>
+  </si>
+  <si>
     <t>列番藤江下り第2接近</t>
   </si>
   <si>
+    <t>TH64_TTC_Down2</t>
+  </si>
+  <si>
     <t>列番水越1番線</t>
   </si>
   <si>
+    <t>TH63_TTC_Track1</t>
+  </si>
+  <si>
     <t>列番水越2番線</t>
   </si>
   <si>
+    <t>TH63_TTC_Track2</t>
+  </si>
+  <si>
     <t>列番水越下り第1接近</t>
   </si>
   <si>
+    <t>TH63_TTC_Down1</t>
+  </si>
+  <si>
     <t>Button</t>
-  </si>
-  <si>
-    <t>L</t>
   </si>
   <si>
     <t>Label</t>
@@ -1601,6 +1661,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1609,9 +1672,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7629,8 +7689,12 @@
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="9"/>
+      <c r="J97" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="K97" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="L97" s="9">
         <v>687</v>
       </c>
@@ -7655,10 +7719,10 @@
       </c>
       <c r="Z97" s="11"/>
       <c r="AA97" s="12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AB97" s="15" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AC97" s="5"/>
       <c r="AD97" s="5"/>
@@ -7674,7 +7738,7 @@
         <v>31</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
@@ -7687,8 +7751,12 @@
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="9"/>
+      <c r="J98" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="K98" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="L98" s="9">
         <v>687</v>
       </c>
@@ -7713,10 +7781,10 @@
       </c>
       <c r="Z98" s="11"/>
       <c r="AA98" s="12" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AB98" s="15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AC98" s="5"/>
       <c r="AD98" s="5"/>
@@ -7732,14 +7800,14 @@
         <v>31</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>105</v>
@@ -7792,14 +7860,14 @@
         <v>31</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>105</v>
@@ -7852,14 +7920,14 @@
         <v>31</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>105</v>
@@ -7912,14 +7980,14 @@
         <v>31</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>105</v>
@@ -7955,10 +8023,10 @@
       </c>
       <c r="Z102" s="11"/>
       <c r="AA102" s="12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AB102" s="15" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AC102" s="5"/>
       <c r="AD102" s="5"/>
@@ -7974,14 +8042,14 @@
         <v>31</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
@@ -8030,14 +8098,14 @@
         <v>31</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
@@ -8086,14 +8154,14 @@
         <v>31</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
@@ -8142,14 +8210,14 @@
         <v>31</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
@@ -8198,14 +8266,14 @@
         <v>31</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
@@ -8254,14 +8322,14 @@
         <v>31</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
@@ -8310,14 +8378,14 @@
         <v>31</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
@@ -8366,14 +8434,14 @@
         <v>31</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
@@ -8422,14 +8490,14 @@
         <v>31</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
@@ -8478,14 +8546,14 @@
         <v>31</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
@@ -8534,14 +8602,14 @@
         <v>31</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
@@ -8590,14 +8658,14 @@
         <v>31</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
@@ -8646,14 +8714,14 @@
         <v>31</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>116</v>
@@ -8706,14 +8774,14 @@
         <v>31</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>116</v>
@@ -8766,14 +8834,14 @@
         <v>31</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C117" s="17"/>
       <c r="D117" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>116</v>
@@ -8809,10 +8877,10 @@
       </c>
       <c r="Z117" s="11"/>
       <c r="AA117" s="12" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AB117" s="15" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AC117" s="17"/>
       <c r="AD117" s="17"/>
@@ -8828,14 +8896,14 @@
         <v>31</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C118" s="17"/>
       <c r="D118" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>116</v>
@@ -8888,14 +8956,14 @@
         <v>31</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
@@ -8944,14 +9012,14 @@
         <v>31</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
@@ -9000,21 +9068,25 @@
         <v>31</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="s">
         <v>227</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
-      <c r="J121" s="9"/>
-      <c r="K121" s="9"/>
+      <c r="J121" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="K121" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="L121" s="9">
         <v>1515</v>
       </c>
@@ -9039,10 +9111,10 @@
       </c>
       <c r="Z121" s="11"/>
       <c r="AA121" s="12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AB121" s="15" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AC121" s="5"/>
       <c r="AD121" s="5"/>
@@ -9058,21 +9130,25 @@
         <v>31</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="s">
         <v>227</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
-      <c r="J122" s="9"/>
-      <c r="K122" s="9"/>
+      <c r="J122" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="K122" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="L122" s="9">
         <v>1515</v>
       </c>
@@ -9097,10 +9173,10 @@
       </c>
       <c r="Z122" s="11"/>
       <c r="AA122" s="12" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AB122" s="15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AC122" s="5"/>
       <c r="AD122" s="5"/>
@@ -9116,17 +9192,17 @@
         <v>31</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>106</v>
@@ -9176,17 +9252,17 @@
         <v>31</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>106</v>
@@ -9238,17 +9314,17 @@
         <v>31</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>106</v>
@@ -9298,17 +9374,17 @@
         <v>31</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>109</v>
@@ -9358,17 +9434,17 @@
         <v>31</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>109</v>
@@ -9418,17 +9494,17 @@
         <v>31</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>106</v>
@@ -9478,17 +9554,17 @@
         <v>31</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>109</v>
@@ -9538,17 +9614,17 @@
         <v>31</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>109</v>
@@ -9598,14 +9674,14 @@
         <v>31</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
@@ -9654,14 +9730,14 @@
         <v>31</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
@@ -9710,14 +9786,14 @@
         <v>31</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
@@ -9766,14 +9842,14 @@
         <v>31</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
@@ -9822,17 +9898,17 @@
         <v>31</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>106</v>
@@ -9882,17 +9958,17 @@
         <v>31</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>109</v>
@@ -9942,17 +10018,17 @@
         <v>31</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>109</v>
@@ -10004,17 +10080,17 @@
         <v>31</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>106</v>
@@ -10064,17 +10140,17 @@
         <v>31</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>106</v>
@@ -10124,17 +10200,17 @@
         <v>31</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>109</v>
@@ -10186,17 +10262,17 @@
         <v>31</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>109</v>
@@ -10246,14 +10322,14 @@
         <v>31</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
@@ -10302,13 +10378,15 @@
         <v>31</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="E143" s="4"/>
+        <v>303</v>
+      </c>
+      <c r="E143" s="18" t="s">
+        <v>304</v>
+      </c>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
@@ -10339,7 +10417,7 @@
       </c>
       <c r="Z143" s="11"/>
       <c r="AA143" s="12" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AB143" s="5"/>
       <c r="AC143" s="5"/>
@@ -10356,13 +10434,15 @@
         <v>31</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="E144" s="4"/>
+        <v>303</v>
+      </c>
+      <c r="E144" s="18" t="s">
+        <v>307</v>
+      </c>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
@@ -10393,7 +10473,7 @@
       </c>
       <c r="Z144" s="11"/>
       <c r="AA144" s="12" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AB144" s="5"/>
       <c r="AC144" s="5"/>
@@ -10410,13 +10490,15 @@
         <v>31</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="E145" s="4"/>
+        <v>303</v>
+      </c>
+      <c r="E145" s="18" t="s">
+        <v>309</v>
+      </c>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
@@ -10447,7 +10529,7 @@
       </c>
       <c r="Z145" s="11"/>
       <c r="AA145" s="12" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AB145" s="5"/>
       <c r="AC145" s="5"/>
@@ -10464,13 +10546,15 @@
         <v>31</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="E146" s="4"/>
+        <v>303</v>
+      </c>
+      <c r="E146" s="18" t="s">
+        <v>311</v>
+      </c>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
@@ -10501,7 +10585,7 @@
       </c>
       <c r="Z146" s="11"/>
       <c r="AA146" s="12" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AB146" s="5"/>
       <c r="AC146" s="5"/>
@@ -10515,16 +10599,18 @@
     </row>
     <row r="147" spans="1:36">
       <c r="A147" s="4" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="E147" s="4"/>
+        <v>314</v>
+      </c>
+      <c r="E147" s="18" t="s">
+        <v>315</v>
+      </c>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
@@ -10550,8 +10636,8 @@
       <c r="X147" s="10"/>
       <c r="Y147" s="10"/>
       <c r="Z147" s="11"/>
-      <c r="AA147" s="18" t="s">
-        <v>308</v>
+      <c r="AA147" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="AB147" s="5"/>
       <c r="AC147" s="5"/>
@@ -10565,16 +10651,18 @@
     </row>
     <row r="148" spans="1:36">
       <c r="A148" s="4" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="E148" s="4"/>
+        <v>314</v>
+      </c>
+      <c r="E148" s="18" t="s">
+        <v>318</v>
+      </c>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
@@ -10600,8 +10688,8 @@
       <c r="X148" s="10"/>
       <c r="Y148" s="10"/>
       <c r="Z148" s="11"/>
-      <c r="AA148" s="18" t="s">
-        <v>308</v>
+      <c r="AA148" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="AB148" s="5"/>
       <c r="AC148" s="5"/>
@@ -10615,16 +10703,18 @@
     </row>
     <row r="149" spans="1:36">
       <c r="A149" s="4" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="E149" s="4"/>
+        <v>314</v>
+      </c>
+      <c r="E149" s="18" t="s">
+        <v>320</v>
+      </c>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
@@ -10650,8 +10740,8 @@
       <c r="X149" s="10"/>
       <c r="Y149" s="10"/>
       <c r="Z149" s="11"/>
-      <c r="AA149" s="18" t="s">
-        <v>308</v>
+      <c r="AA149" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="AB149" s="5"/>
       <c r="AC149" s="5"/>
@@ -10665,16 +10755,18 @@
     </row>
     <row r="150" spans="1:36">
       <c r="A150" s="4" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="E150" s="4"/>
+        <v>314</v>
+      </c>
+      <c r="E150" s="18" t="s">
+        <v>322</v>
+      </c>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
@@ -10700,8 +10792,8 @@
       <c r="X150" s="10"/>
       <c r="Y150" s="10"/>
       <c r="Z150" s="11"/>
-      <c r="AA150" s="18" t="s">
-        <v>308</v>
+      <c r="AA150" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="AB150" s="5"/>
       <c r="AC150" s="5"/>
@@ -10715,16 +10807,18 @@
     </row>
     <row r="151" spans="1:36">
       <c r="A151" s="4" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C151" s="19"/>
+        <v>323</v>
+      </c>
+      <c r="C151" s="20"/>
       <c r="D151" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="E151" s="4"/>
+        <v>314</v>
+      </c>
+      <c r="E151" s="18" t="s">
+        <v>324</v>
+      </c>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
@@ -10750,8 +10844,8 @@
       <c r="X151" s="4"/>
       <c r="Y151" s="4"/>
       <c r="Z151" s="4"/>
-      <c r="AA151" s="18" t="s">
-        <v>308</v>
+      <c r="AA151" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="AB151" s="5"/>
       <c r="AC151" s="5"/>
@@ -10765,16 +10859,18 @@
     </row>
     <row r="152" spans="1:36">
       <c r="A152" s="4" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C152" s="19"/>
+        <v>325</v>
+      </c>
+      <c r="C152" s="20"/>
       <c r="D152" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="E152" s="4"/>
+        <v>314</v>
+      </c>
+      <c r="E152" s="18" t="s">
+        <v>326</v>
+      </c>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
@@ -10800,8 +10896,8 @@
       <c r="X152" s="4"/>
       <c r="Y152" s="4"/>
       <c r="Z152" s="4"/>
-      <c r="AA152" s="18" t="s">
-        <v>308</v>
+      <c r="AA152" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="AB152" s="5"/>
       <c r="AC152" s="5"/>
@@ -10815,16 +10911,18 @@
     </row>
     <row r="153" spans="1:36">
       <c r="A153" s="4" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B153" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C153" s="20"/>
+      <c r="D153" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="C153" s="19"/>
-      <c r="D153" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="E153" s="4"/>
+      <c r="E153" s="18" t="s">
+        <v>328</v>
+      </c>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
@@ -10850,8 +10948,8 @@
       <c r="X153" s="4"/>
       <c r="Y153" s="4"/>
       <c r="Z153" s="4"/>
-      <c r="AA153" s="18" t="s">
-        <v>308</v>
+      <c r="AA153" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="AB153" s="5"/>
       <c r="AC153" s="5"/>
@@ -10865,16 +10963,18 @@
     </row>
     <row r="154" spans="1:36">
       <c r="A154" s="4" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="C154" s="19"/>
+        <v>329</v>
+      </c>
+      <c r="C154" s="20"/>
       <c r="D154" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="E154" s="4"/>
+        <v>314</v>
+      </c>
+      <c r="E154" s="18" t="s">
+        <v>330</v>
+      </c>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
@@ -10900,8 +11000,8 @@
       <c r="X154" s="4"/>
       <c r="Y154" s="4"/>
       <c r="Z154" s="4"/>
-      <c r="AA154" s="18" t="s">
-        <v>308</v>
+      <c r="AA154" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="AB154" s="5"/>
       <c r="AC154" s="5"/>
@@ -10915,16 +11015,18 @@
     </row>
     <row r="155" spans="1:36">
       <c r="A155" s="4" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="C155" s="19"/>
+        <v>331</v>
+      </c>
+      <c r="C155" s="20"/>
       <c r="D155" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="E155" s="4"/>
+        <v>314</v>
+      </c>
+      <c r="E155" s="18" t="s">
+        <v>332</v>
+      </c>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
@@ -10950,8 +11052,8 @@
       <c r="X155" s="4"/>
       <c r="Y155" s="4"/>
       <c r="Z155" s="4"/>
-      <c r="AA155" s="18" t="s">
-        <v>308</v>
+      <c r="AA155" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="AB155" s="5"/>
       <c r="AC155" s="5"/>
@@ -10965,16 +11067,18 @@
     </row>
     <row r="156" spans="1:36">
       <c r="A156" s="4" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C156" s="19"/>
+        <v>333</v>
+      </c>
+      <c r="C156" s="20"/>
       <c r="D156" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="E156" s="4"/>
+        <v>314</v>
+      </c>
+      <c r="E156" s="18" t="s">
+        <v>334</v>
+      </c>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
@@ -11000,8 +11104,8 @@
       <c r="X156" s="4"/>
       <c r="Y156" s="4"/>
       <c r="Z156" s="4"/>
-      <c r="AA156" s="18" t="s">
-        <v>308</v>
+      <c r="AA156" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="AB156" s="5"/>
       <c r="AC156" s="5"/>
@@ -11015,16 +11119,18 @@
     </row>
     <row r="157" spans="1:36">
       <c r="A157" s="4" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="C157" s="19"/>
+        <v>335</v>
+      </c>
+      <c r="C157" s="20"/>
       <c r="D157" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="E157" s="4"/>
+        <v>314</v>
+      </c>
+      <c r="E157" s="18" t="s">
+        <v>336</v>
+      </c>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
@@ -11050,8 +11156,8 @@
       <c r="X157" s="4"/>
       <c r="Y157" s="4"/>
       <c r="Z157" s="4"/>
-      <c r="AA157" s="18" t="s">
-        <v>308</v>
+      <c r="AA157" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="AB157" s="5"/>
       <c r="AC157" s="5"/>
@@ -11065,16 +11171,18 @@
     </row>
     <row r="158" spans="1:36">
       <c r="A158" s="4" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="C158" s="19"/>
+        <v>337</v>
+      </c>
+      <c r="C158" s="20"/>
       <c r="D158" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="E158" s="4"/>
+        <v>314</v>
+      </c>
+      <c r="E158" s="18" t="s">
+        <v>338</v>
+      </c>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
@@ -11100,8 +11208,8 @@
       <c r="X158" s="4"/>
       <c r="Y158" s="4"/>
       <c r="Z158" s="4"/>
-      <c r="AA158" s="18" t="s">
-        <v>308</v>
+      <c r="AA158" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="AB158" s="5"/>
       <c r="AC158" s="5"/>
@@ -11115,16 +11223,18 @@
     </row>
     <row r="159" spans="1:36">
       <c r="A159" s="4" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="E159" s="4"/>
+        <v>314</v>
+      </c>
+      <c r="E159" s="18" t="s">
+        <v>340</v>
+      </c>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
@@ -11150,8 +11260,8 @@
       <c r="X159" s="4"/>
       <c r="Y159" s="4"/>
       <c r="Z159" s="4"/>
-      <c r="AA159" s="18" t="s">
-        <v>308</v>
+      <c r="AA159" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="AB159" s="5"/>
       <c r="AC159" s="5"/>
@@ -11165,16 +11275,18 @@
     </row>
     <row r="160" spans="1:36">
       <c r="A160" s="4" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="E160" s="4"/>
+        <v>314</v>
+      </c>
+      <c r="E160" s="18" t="s">
+        <v>342</v>
+      </c>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
@@ -11200,8 +11312,8 @@
       <c r="X160" s="4"/>
       <c r="Y160" s="4"/>
       <c r="Z160" s="4"/>
-      <c r="AA160" s="18" t="s">
-        <v>308</v>
+      <c r="AA160" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="AB160" s="5"/>
       <c r="AC160" s="5"/>
@@ -11253,8 +11365,8 @@
     </row>
     <row r="162" spans="1:36">
       <c r="A162" s="4"/>
-      <c r="B162" s="20"/>
-      <c r="C162" s="19"/>
+      <c r="B162" s="21"/>
+      <c r="C162" s="20"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
@@ -11270,11 +11382,11 @@
       <c r="P162" s="4"/>
       <c r="Q162" s="4"/>
       <c r="R162" s="4"/>
-      <c r="S162" s="20"/>
+      <c r="S162" s="21"/>
       <c r="T162" s="6"/>
       <c r="U162" s="6"/>
       <c r="V162" s="6"/>
-      <c r="W162" s="20"/>
+      <c r="W162" s="21"/>
       <c r="X162" s="4"/>
       <c r="Y162" s="4"/>
       <c r="Z162" s="4"/>
@@ -11291,8 +11403,8 @@
     </row>
     <row r="163" spans="1:36">
       <c r="A163" s="4"/>
-      <c r="B163" s="20"/>
-      <c r="C163" s="19"/>
+      <c r="B163" s="21"/>
+      <c r="C163" s="20"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
@@ -11312,7 +11424,7 @@
       <c r="T163" s="6"/>
       <c r="U163" s="6"/>
       <c r="V163" s="6"/>
-      <c r="W163" s="20"/>
+      <c r="W163" s="21"/>
       <c r="X163" s="4"/>
       <c r="Y163" s="4"/>
       <c r="Z163" s="4"/>
@@ -11329,8 +11441,8 @@
     </row>
     <row r="164" spans="1:36">
       <c r="A164" s="4"/>
-      <c r="B164" s="20"/>
-      <c r="C164" s="19"/>
+      <c r="B164" s="21"/>
+      <c r="C164" s="20"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
@@ -11350,7 +11462,7 @@
       <c r="T164" s="6"/>
       <c r="U164" s="6"/>
       <c r="V164" s="6"/>
-      <c r="W164" s="20"/>
+      <c r="W164" s="21"/>
       <c r="X164" s="4"/>
       <c r="Y164" s="4"/>
       <c r="Z164" s="4"/>
@@ -11367,8 +11479,8 @@
     </row>
     <row r="165" spans="1:36">
       <c r="A165" s="4"/>
-      <c r="B165" s="20"/>
-      <c r="C165" s="19"/>
+      <c r="B165" s="21"/>
+      <c r="C165" s="20"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
@@ -11388,7 +11500,7 @@
       <c r="T165" s="6"/>
       <c r="U165" s="6"/>
       <c r="V165" s="6"/>
-      <c r="W165" s="20"/>
+      <c r="W165" s="21"/>
       <c r="X165" s="4"/>
       <c r="Y165" s="4"/>
       <c r="Z165" s="4"/>
@@ -11446,83 +11558,83 @@
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>323</v>
+      <c r="C1" s="18" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="18" t="s">
         <v>119</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="18" t="s">
         <v>92</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="21" t="s">
-        <v>305</v>
+      <c r="A10" s="18" t="s">
+        <v>312</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/exe/TSV/Excel/TH64_Fujie_UIList.xlsx
+++ b/exe/TSV/Excel/TH64_Fujie_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8ACA101-3BB9-4DA3-9211-0E88D322063E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC31D45-C3D9-4AEC-9700-443B7C2666DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7710" yWindow="5010" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6735" yWindow="4470" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH64_藤江駅_UIList" sheetId="1" r:id="rId1"/>

--- a/exe/TSV/Excel/TH64_Fujie_UIList.xlsx
+++ b/exe/TSV/Excel/TH64_Fujie_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC31D45-C3D9-4AEC-9700-443B7C2666DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEE05F7-89C3-4C5B-AD20-EB09DCD376D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="4470" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7440" yWindow="4380" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH64_藤江駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="347">
   <si>
     <t>Type</t>
   </si>
@@ -864,7 +864,7 @@
     <t>解放98_PY</t>
   </si>
   <si>
-    <t>解放てこ</t>
+    <t>解放表示灯</t>
   </si>
   <si>
     <t>駅扱切換</t>
@@ -900,9 +900,6 @@
     <t>解放99_PY</t>
   </si>
   <si>
-    <t>解放表示灯</t>
-  </si>
-  <si>
     <t>TH65_1RT_1</t>
   </si>
   <si>
@@ -1386,16 +1383,22 @@
     <t>MT1T</t>
   </si>
   <si>
+    <t>転てつ不良_R</t>
+  </si>
+  <si>
+    <t>状態表示灯</t>
+  </si>
+  <si>
+    <t>TH64_W-FAILURE</t>
+  </si>
+  <si>
+    <t>Image/Light/N.png,Image/Light/R.png</t>
+  </si>
+  <si>
     <t>停電_R</t>
   </si>
   <si>
-    <t>状態表示灯</t>
-  </si>
-  <si>
     <t>TH64_PWR-FAILURE</t>
-  </si>
-  <si>
-    <t>Image/Light/N.png,Image/Light/R.png</t>
   </si>
   <si>
     <t>CTC故障_R</t>
@@ -1891,7 +1894,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ165"/>
+  <dimension ref="A1:AJ166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -4354,7 +4357,7 @@
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>138</v>
@@ -4406,14 +4409,14 @@
         <v>31</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -4438,17 +4441,17 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
       <c r="X43" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y43" s="10">
         <v>0</v>
       </c>
       <c r="Z43" s="11"/>
       <c r="AA43" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB43" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="AB43" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
@@ -4464,23 +4467,23 @@
         <v>31</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E44" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>106</v>
@@ -4504,14 +4507,14 @@
       <c r="V44" s="4"/>
       <c r="W44" s="13"/>
       <c r="X44" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y44" s="10">
         <v>0</v>
       </c>
       <c r="Z44" s="11"/>
       <c r="AA44" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
@@ -4528,23 +4531,23 @@
         <v>31</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E45" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>106</v>
@@ -4568,14 +4571,14 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
       <c r="X45" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y45" s="10">
         <v>0</v>
       </c>
       <c r="Z45" s="11"/>
       <c r="AA45" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
@@ -4592,23 +4595,23 @@
         <v>31</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E46" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>106</v>
@@ -4632,14 +4635,14 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
       <c r="X46" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y46" s="10">
         <v>0</v>
       </c>
       <c r="Z46" s="11"/>
       <c r="AA46" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
@@ -4656,23 +4659,23 @@
         <v>31</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E47" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>109</v>
@@ -4696,14 +4699,14 @@
       <c r="V47" s="4"/>
       <c r="W47" s="13"/>
       <c r="X47" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y47" s="10">
         <v>0</v>
       </c>
       <c r="Z47" s="11"/>
       <c r="AA47" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
@@ -4720,23 +4723,23 @@
         <v>31</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E48" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>109</v>
@@ -4760,14 +4763,14 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
       <c r="X48" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y48" s="10">
         <v>0</v>
       </c>
       <c r="Z48" s="11"/>
       <c r="AA48" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB48" s="5"/>
       <c r="AC48" s="5"/>
@@ -4784,23 +4787,23 @@
         <v>31</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E49" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>109</v>
@@ -4824,17 +4827,17 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
       <c r="X49" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y49" s="10">
         <v>0</v>
       </c>
       <c r="Z49" s="11"/>
       <c r="AA49" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB49" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="AB49" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
@@ -4850,17 +4853,17 @@
         <v>31</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E50" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>109</v>
@@ -4886,14 +4889,14 @@
       <c r="V50" s="4"/>
       <c r="W50" s="13"/>
       <c r="X50" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y50" s="10">
         <v>0</v>
       </c>
       <c r="Z50" s="11"/>
       <c r="AA50" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
@@ -4910,17 +4913,17 @@
         <v>31</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E51" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>109</v>
@@ -4946,17 +4949,17 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
       <c r="X51" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y51" s="10">
         <v>0</v>
       </c>
       <c r="Z51" s="11"/>
       <c r="AA51" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB51" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="AB51" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
@@ -4972,17 +4975,17 @@
         <v>31</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E52" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>106</v>
@@ -5008,17 +5011,17 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
       <c r="X52" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y52" s="10">
         <v>0</v>
       </c>
       <c r="Z52" s="11"/>
       <c r="AA52" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB52" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="AB52" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
@@ -5034,17 +5037,17 @@
         <v>31</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E53" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>106</v>
@@ -5070,17 +5073,17 @@
       <c r="V53" s="4"/>
       <c r="W53" s="13"/>
       <c r="X53" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y53" s="10">
         <v>0</v>
       </c>
       <c r="Z53" s="11"/>
       <c r="AA53" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB53" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="AB53" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
@@ -5096,17 +5099,17 @@
         <v>31</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E54" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>106</v>
@@ -5132,14 +5135,14 @@
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
       <c r="X54" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y54" s="10">
         <v>0</v>
       </c>
       <c r="Z54" s="11"/>
       <c r="AA54" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
@@ -5156,17 +5159,17 @@
         <v>31</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E55" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>109</v>
@@ -5192,14 +5195,14 @@
       <c r="V55" s="4"/>
       <c r="W55" s="13"/>
       <c r="X55" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y55" s="10">
         <v>0</v>
       </c>
       <c r="Z55" s="11"/>
       <c r="AA55" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
@@ -5216,17 +5219,17 @@
         <v>31</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E56" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>109</v>
@@ -5252,17 +5255,17 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
       <c r="X56" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y56" s="10">
         <v>0</v>
       </c>
       <c r="Z56" s="11"/>
       <c r="AA56" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB56" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="AB56" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
@@ -5278,17 +5281,17 @@
         <v>31</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E57" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>109</v>
@@ -5314,14 +5317,14 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
       <c r="X57" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y57" s="10">
         <v>0</v>
       </c>
       <c r="Z57" s="11"/>
       <c r="AA57" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
@@ -5338,14 +5341,14 @@
         <v>31</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -5370,14 +5373,14 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
       <c r="X58" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y58" s="10">
         <v>0</v>
       </c>
       <c r="Z58" s="11"/>
       <c r="AA58" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
@@ -5394,14 +5397,14 @@
         <v>31</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -5426,14 +5429,14 @@
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
       <c r="X59" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y59" s="10">
         <v>0</v>
       </c>
       <c r="Z59" s="11"/>
       <c r="AA59" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
@@ -5450,14 +5453,14 @@
         <v>31</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -5482,14 +5485,14 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
       <c r="X60" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y60" s="10">
         <v>0</v>
       </c>
       <c r="Z60" s="11"/>
       <c r="AA60" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB60" s="5"/>
       <c r="AC60" s="5"/>
@@ -5506,14 +5509,14 @@
         <v>31</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -5538,14 +5541,14 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
       <c r="X61" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y61" s="10">
         <v>0</v>
       </c>
       <c r="Z61" s="11"/>
       <c r="AA61" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
@@ -5562,14 +5565,14 @@
         <v>31</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -5594,14 +5597,14 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y62" s="10">
         <v>0</v>
       </c>
       <c r="Z62" s="11"/>
       <c r="AA62" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
@@ -5618,14 +5621,14 @@
         <v>31</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -5650,14 +5653,14 @@
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
       <c r="X63" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y63" s="10">
         <v>0</v>
       </c>
       <c r="Z63" s="11"/>
       <c r="AA63" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB63" s="5"/>
       <c r="AC63" s="5"/>
@@ -5674,14 +5677,14 @@
         <v>31</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -5706,14 +5709,14 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
       <c r="X64" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y64" s="10">
         <v>0</v>
       </c>
       <c r="Z64" s="11"/>
       <c r="AA64" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
@@ -5730,14 +5733,14 @@
         <v>31</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -5762,14 +5765,14 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
       <c r="X65" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y65" s="10">
         <v>0</v>
       </c>
       <c r="Z65" s="11"/>
       <c r="AA65" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
@@ -5786,14 +5789,14 @@
         <v>31</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -5818,14 +5821,14 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
       <c r="X66" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y66" s="10">
         <v>0</v>
       </c>
       <c r="Z66" s="11"/>
       <c r="AA66" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB66" s="5"/>
       <c r="AC66" s="5"/>
@@ -5842,14 +5845,14 @@
         <v>31</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -5874,14 +5877,14 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
       <c r="X67" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y67" s="10">
         <v>0</v>
       </c>
       <c r="Z67" s="11"/>
       <c r="AA67" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB67" s="5"/>
       <c r="AC67" s="5"/>
@@ -5898,14 +5901,14 @@
         <v>31</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -5930,17 +5933,17 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y68" s="10">
         <v>0</v>
       </c>
       <c r="Z68" s="11"/>
       <c r="AA68" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB68" s="15" t="s">
         <v>184</v>
-      </c>
-      <c r="AB68" s="15" t="s">
-        <v>185</v>
       </c>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
@@ -5956,17 +5959,17 @@
         <v>31</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E69" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>106</v>
@@ -5992,14 +5995,14 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
       <c r="X69" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y69" s="10">
         <v>0</v>
       </c>
       <c r="Z69" s="11"/>
       <c r="AA69" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB69" s="16"/>
       <c r="AC69" s="5"/>
@@ -6016,17 +6019,17 @@
         <v>31</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E70" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>106</v>
@@ -6052,17 +6055,17 @@
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
       <c r="X70" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y70" s="10">
         <v>0</v>
       </c>
       <c r="Z70" s="11"/>
       <c r="AA70" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB70" s="15" t="s">
         <v>184</v>
-      </c>
-      <c r="AB70" s="15" t="s">
-        <v>185</v>
       </c>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
@@ -6078,17 +6081,17 @@
         <v>31</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E71" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F71" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>106</v>
@@ -6114,14 +6117,14 @@
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
       <c r="X71" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y71" s="10">
         <v>0</v>
       </c>
       <c r="Z71" s="11"/>
       <c r="AA71" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB71" s="16"/>
       <c r="AC71" s="5"/>
@@ -6138,17 +6141,17 @@
         <v>31</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E72" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>109</v>
@@ -6174,14 +6177,14 @@
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
       <c r="X72" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y72" s="10">
         <v>0</v>
       </c>
       <c r="Z72" s="11"/>
       <c r="AA72" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB72" s="16"/>
       <c r="AC72" s="5"/>
@@ -6198,17 +6201,17 @@
         <v>31</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E73" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>109</v>
@@ -6234,14 +6237,14 @@
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
       <c r="X73" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y73" s="10">
         <v>0</v>
       </c>
       <c r="Z73" s="11"/>
       <c r="AA73" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB73" s="16"/>
       <c r="AC73" s="5"/>
@@ -6258,23 +6261,23 @@
         <v>31</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E74" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>106</v>
@@ -6298,14 +6301,14 @@
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
       <c r="X74" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y74" s="10">
         <v>0</v>
       </c>
       <c r="Z74" s="11"/>
       <c r="AA74" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB74" s="16"/>
       <c r="AC74" s="5"/>
@@ -6322,23 +6325,23 @@
         <v>31</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E75" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>106</v>
@@ -6362,14 +6365,14 @@
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
       <c r="X75" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y75" s="10">
         <v>0</v>
       </c>
       <c r="Z75" s="11"/>
       <c r="AA75" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB75" s="16"/>
       <c r="AC75" s="5"/>
@@ -6386,23 +6389,23 @@
         <v>31</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E76" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I76" s="4" t="s">
         <v>109</v>
@@ -6426,17 +6429,17 @@
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
       <c r="X76" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y76" s="10">
         <v>0</v>
       </c>
       <c r="Z76" s="11"/>
       <c r="AA76" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB76" s="15" t="s">
         <v>184</v>
-      </c>
-      <c r="AB76" s="15" t="s">
-        <v>185</v>
       </c>
       <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
@@ -6452,23 +6455,23 @@
         <v>31</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E77" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>109</v>
@@ -6492,14 +6495,14 @@
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
       <c r="X77" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y77" s="10">
         <v>0</v>
       </c>
       <c r="Z77" s="11"/>
       <c r="AA77" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB77" s="16"/>
       <c r="AC77" s="5"/>
@@ -6516,23 +6519,23 @@
         <v>31</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E78" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F78" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>109</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>106</v>
@@ -6556,14 +6559,14 @@
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
       <c r="X78" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y78" s="10">
         <v>0</v>
       </c>
       <c r="Z78" s="11"/>
       <c r="AA78" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB78" s="16"/>
       <c r="AC78" s="5"/>
@@ -6580,23 +6583,23 @@
         <v>31</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E79" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F79" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>109</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I79" s="4" t="s">
         <v>106</v>
@@ -6620,17 +6623,17 @@
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
       <c r="X79" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y79" s="10">
         <v>0</v>
       </c>
       <c r="Z79" s="11"/>
       <c r="AA79" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB79" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="AB79" s="15" t="s">
-        <v>157</v>
       </c>
       <c r="AC79" s="5"/>
       <c r="AD79" s="5"/>
@@ -6646,23 +6649,23 @@
         <v>31</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>106</v>
@@ -6686,17 +6689,17 @@
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
       <c r="X80" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y80" s="10">
         <v>0</v>
       </c>
       <c r="Z80" s="11"/>
       <c r="AA80" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB80" s="15" t="s">
         <v>184</v>
-      </c>
-      <c r="AB80" s="15" t="s">
-        <v>185</v>
       </c>
       <c r="AC80" s="5"/>
       <c r="AD80" s="5"/>
@@ -6712,23 +6715,23 @@
         <v>31</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>106</v>
@@ -6752,14 +6755,14 @@
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
       <c r="X81" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y81" s="10">
         <v>0</v>
       </c>
       <c r="Z81" s="11"/>
       <c r="AA81" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB81" s="16"/>
       <c r="AC81" s="5"/>
@@ -6776,23 +6779,23 @@
         <v>31</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>109</v>
@@ -6816,17 +6819,17 @@
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
       <c r="X82" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y82" s="10">
         <v>0</v>
       </c>
       <c r="Z82" s="11"/>
       <c r="AA82" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB82" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="AB82" s="15" t="s">
-        <v>157</v>
       </c>
       <c r="AC82" s="5"/>
       <c r="AD82" s="5"/>
@@ -6842,23 +6845,23 @@
         <v>31</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>109</v>
@@ -6882,14 +6885,14 @@
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
       <c r="X83" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y83" s="10">
         <v>0</v>
       </c>
       <c r="Z83" s="11"/>
       <c r="AA83" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB83" s="16"/>
       <c r="AC83" s="5"/>
@@ -6906,23 +6909,23 @@
         <v>31</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>109</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>106</v>
@@ -6946,17 +6949,17 @@
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
       <c r="X84" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y84" s="10">
         <v>0</v>
       </c>
       <c r="Z84" s="11"/>
       <c r="AA84" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB84" s="15" t="s">
         <v>184</v>
-      </c>
-      <c r="AB84" s="15" t="s">
-        <v>185</v>
       </c>
       <c r="AC84" s="5"/>
       <c r="AD84" s="5"/>
@@ -6972,23 +6975,23 @@
         <v>31</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>109</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>106</v>
@@ -7012,17 +7015,17 @@
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
       <c r="X85" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y85" s="10">
         <v>0</v>
       </c>
       <c r="Z85" s="11"/>
       <c r="AA85" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB85" s="15" t="s">
         <v>184</v>
-      </c>
-      <c r="AB85" s="15" t="s">
-        <v>185</v>
       </c>
       <c r="AC85" s="5"/>
       <c r="AD85" s="5"/>
@@ -7038,17 +7041,17 @@
         <v>31</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E86" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>106</v>
@@ -7074,14 +7077,14 @@
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
       <c r="X86" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y86" s="10">
         <v>0</v>
       </c>
       <c r="Z86" s="11"/>
       <c r="AA86" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB86" s="16"/>
       <c r="AC86" s="5"/>
@@ -7098,17 +7101,17 @@
         <v>31</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E87" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>106</v>
@@ -7134,14 +7137,14 @@
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
       <c r="X87" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y87" s="10">
         <v>0</v>
       </c>
       <c r="Z87" s="11"/>
       <c r="AA87" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB87" s="16"/>
       <c r="AC87" s="5"/>
@@ -7158,17 +7161,17 @@
         <v>31</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E88" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F88" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>106</v>
@@ -7194,14 +7197,14 @@
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
       <c r="X88" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y88" s="10">
         <v>0</v>
       </c>
       <c r="Z88" s="11"/>
       <c r="AA88" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB88" s="16"/>
       <c r="AC88" s="5"/>
@@ -7218,17 +7221,17 @@
         <v>31</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E89" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F89" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>109</v>
@@ -7254,17 +7257,17 @@
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
       <c r="X89" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y89" s="10">
         <v>0</v>
       </c>
       <c r="Z89" s="11"/>
       <c r="AA89" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB89" s="15" t="s">
         <v>184</v>
-      </c>
-      <c r="AB89" s="15" t="s">
-        <v>185</v>
       </c>
       <c r="AC89" s="5"/>
       <c r="AD89" s="5"/>
@@ -7280,17 +7283,17 @@
         <v>31</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E90" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F90" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>109</v>
@@ -7316,14 +7319,14 @@
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
       <c r="X90" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y90" s="10">
         <v>0</v>
       </c>
       <c r="Z90" s="11"/>
       <c r="AA90" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB90" s="16"/>
       <c r="AC90" s="5"/>
@@ -7340,14 +7343,14 @@
         <v>31</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
@@ -7372,14 +7375,14 @@
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
       <c r="X91" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y91" s="10">
         <v>0</v>
       </c>
       <c r="Z91" s="11"/>
       <c r="AA91" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB91" s="16"/>
       <c r="AC91" s="5"/>
@@ -7396,14 +7399,14 @@
         <v>31</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
@@ -7428,14 +7431,14 @@
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
       <c r="X92" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y92" s="10">
         <v>0</v>
       </c>
       <c r="Z92" s="11"/>
       <c r="AA92" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB92" s="16"/>
       <c r="AC92" s="5"/>
@@ -7452,14 +7455,14 @@
         <v>31</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
@@ -7484,14 +7487,14 @@
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
       <c r="X93" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y93" s="10">
         <v>0</v>
       </c>
       <c r="Z93" s="11"/>
       <c r="AA93" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB93" s="16"/>
       <c r="AC93" s="5"/>
@@ -7508,14 +7511,14 @@
         <v>31</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -7540,14 +7543,14 @@
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
       <c r="X94" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y94" s="10">
         <v>0</v>
       </c>
       <c r="Z94" s="11"/>
       <c r="AA94" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB94" s="16"/>
       <c r="AC94" s="5"/>
@@ -7564,14 +7567,14 @@
         <v>31</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
@@ -7596,14 +7599,14 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
       <c r="X95" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y95" s="10">
         <v>0</v>
       </c>
       <c r="Z95" s="11"/>
       <c r="AA95" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB95" s="16"/>
       <c r="AC95" s="5"/>
@@ -7620,14 +7623,14 @@
         <v>31</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
@@ -7652,14 +7655,14 @@
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
       <c r="X96" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y96" s="10">
         <v>0</v>
       </c>
       <c r="Z96" s="11"/>
       <c r="AA96" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB96" s="16"/>
       <c r="AC96" s="5"/>
@@ -7676,24 +7679,24 @@
         <v>31</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K97" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="K97" s="9" t="s">
-        <v>229</v>
       </c>
       <c r="L97" s="9">
         <v>687</v>
@@ -7712,17 +7715,17 @@
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
       <c r="X97" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y97" s="10">
         <v>0</v>
       </c>
       <c r="Z97" s="11"/>
       <c r="AA97" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB97" s="15" t="s">
         <v>230</v>
-      </c>
-      <c r="AB97" s="15" t="s">
-        <v>231</v>
       </c>
       <c r="AC97" s="5"/>
       <c r="AD97" s="5"/>
@@ -7738,21 +7741,21 @@
         <v>31</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K98" s="9" t="s">
         <v>109</v>
@@ -7774,17 +7777,17 @@
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
       <c r="X98" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y98" s="10">
         <v>0</v>
       </c>
       <c r="Z98" s="11"/>
       <c r="AA98" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB98" s="15" t="s">
         <v>233</v>
-      </c>
-      <c r="AB98" s="15" t="s">
-        <v>234</v>
       </c>
       <c r="AC98" s="5"/>
       <c r="AD98" s="5"/>
@@ -7800,14 +7803,14 @@
         <v>31</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>105</v>
@@ -7836,14 +7839,14 @@
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
       <c r="X99" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y99" s="10">
         <v>0</v>
       </c>
       <c r="Z99" s="11"/>
       <c r="AA99" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB99" s="16"/>
       <c r="AC99" s="5"/>
@@ -7860,14 +7863,14 @@
         <v>31</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>105</v>
@@ -7896,14 +7899,14 @@
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
       <c r="X100" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y100" s="10">
         <v>0</v>
       </c>
       <c r="Z100" s="11"/>
       <c r="AA100" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB100" s="16"/>
       <c r="AC100" s="5"/>
@@ -7920,14 +7923,14 @@
         <v>31</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>105</v>
@@ -7956,14 +7959,14 @@
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
       <c r="X101" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y101" s="10">
         <v>0</v>
       </c>
       <c r="Z101" s="11"/>
       <c r="AA101" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB101" s="16"/>
       <c r="AC101" s="5"/>
@@ -7980,14 +7983,14 @@
         <v>31</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>105</v>
@@ -8016,17 +8019,17 @@
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
       <c r="X102" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y102" s="10">
         <v>0</v>
       </c>
       <c r="Z102" s="11"/>
       <c r="AA102" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AB102" s="15" t="s">
         <v>240</v>
-      </c>
-      <c r="AB102" s="15" t="s">
-        <v>241</v>
       </c>
       <c r="AC102" s="5"/>
       <c r="AD102" s="5"/>
@@ -8042,14 +8045,14 @@
         <v>31</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
@@ -8074,14 +8077,14 @@
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
       <c r="X103" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y103" s="10">
         <v>0</v>
       </c>
       <c r="Z103" s="11"/>
       <c r="AA103" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB103" s="16"/>
       <c r="AC103" s="5"/>
@@ -8098,14 +8101,14 @@
         <v>31</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
@@ -8130,14 +8133,14 @@
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
       <c r="X104" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y104" s="10">
         <v>0</v>
       </c>
       <c r="Z104" s="11"/>
       <c r="AA104" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB104" s="16"/>
       <c r="AC104" s="5"/>
@@ -8154,14 +8157,14 @@
         <v>31</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
@@ -8186,14 +8189,14 @@
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
       <c r="X105" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y105" s="10">
         <v>0</v>
       </c>
       <c r="Z105" s="11"/>
       <c r="AA105" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB105" s="16"/>
       <c r="AC105" s="5"/>
@@ -8210,14 +8213,14 @@
         <v>31</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
@@ -8242,14 +8245,14 @@
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
       <c r="X106" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y106" s="10">
         <v>0</v>
       </c>
       <c r="Z106" s="11"/>
       <c r="AA106" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB106" s="16"/>
       <c r="AC106" s="5"/>
@@ -8266,14 +8269,14 @@
         <v>31</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
@@ -8298,14 +8301,14 @@
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
       <c r="X107" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y107" s="10">
         <v>0</v>
       </c>
       <c r="Z107" s="11"/>
       <c r="AA107" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB107" s="16"/>
       <c r="AC107" s="5"/>
@@ -8322,14 +8325,14 @@
         <v>31</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
@@ -8354,14 +8357,14 @@
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
       <c r="X108" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y108" s="10">
         <v>0</v>
       </c>
       <c r="Z108" s="11"/>
       <c r="AA108" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB108" s="16"/>
       <c r="AC108" s="5"/>
@@ -8378,14 +8381,14 @@
         <v>31</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
@@ -8410,14 +8413,14 @@
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
       <c r="X109" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y109" s="10">
         <v>0</v>
       </c>
       <c r="Z109" s="11"/>
       <c r="AA109" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB109" s="16"/>
       <c r="AC109" s="5"/>
@@ -8434,14 +8437,14 @@
         <v>31</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
@@ -8466,14 +8469,14 @@
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
       <c r="X110" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y110" s="10">
         <v>0</v>
       </c>
       <c r="Z110" s="11"/>
       <c r="AA110" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB110" s="16"/>
       <c r="AC110" s="5"/>
@@ -8490,14 +8493,14 @@
         <v>31</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
@@ -8522,14 +8525,14 @@
       <c r="V111" s="4"/>
       <c r="W111" s="4"/>
       <c r="X111" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y111" s="10">
         <v>0</v>
       </c>
       <c r="Z111" s="11"/>
       <c r="AA111" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB111" s="16"/>
       <c r="AC111" s="5"/>
@@ -8546,14 +8549,14 @@
         <v>31</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
@@ -8578,14 +8581,14 @@
       <c r="V112" s="4"/>
       <c r="W112" s="4"/>
       <c r="X112" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y112" s="10">
         <v>0</v>
       </c>
       <c r="Z112" s="11"/>
       <c r="AA112" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB112" s="16"/>
       <c r="AC112" s="5"/>
@@ -8602,14 +8605,14 @@
         <v>31</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
@@ -8634,14 +8637,14 @@
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
       <c r="X113" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y113" s="10">
         <v>0</v>
       </c>
       <c r="Z113" s="11"/>
       <c r="AA113" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB113" s="16"/>
       <c r="AC113" s="5"/>
@@ -8658,14 +8661,14 @@
         <v>31</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
@@ -8690,14 +8693,14 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
       <c r="X114" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y114" s="10">
         <v>0</v>
       </c>
       <c r="Z114" s="11"/>
       <c r="AA114" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB114" s="16"/>
       <c r="AC114" s="5"/>
@@ -8714,14 +8717,14 @@
         <v>31</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>116</v>
@@ -8750,14 +8753,14 @@
       <c r="V115" s="4"/>
       <c r="W115" s="4"/>
       <c r="X115" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y115" s="10">
         <v>0</v>
       </c>
       <c r="Z115" s="11"/>
       <c r="AA115" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB115" s="16"/>
       <c r="AC115" s="5"/>
@@ -8774,14 +8777,14 @@
         <v>31</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>116</v>
@@ -8810,14 +8813,14 @@
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
       <c r="X116" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y116" s="10">
         <v>0</v>
       </c>
       <c r="Z116" s="11"/>
       <c r="AA116" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB116" s="16"/>
       <c r="AC116" s="5"/>
@@ -8834,14 +8837,14 @@
         <v>31</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C117" s="17"/>
       <c r="D117" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>116</v>
@@ -8870,17 +8873,17 @@
       <c r="V117" s="17"/>
       <c r="W117" s="17"/>
       <c r="X117" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y117" s="10">
         <v>0</v>
       </c>
       <c r="Z117" s="11"/>
       <c r="AA117" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB117" s="15" t="s">
         <v>264</v>
-      </c>
-      <c r="AB117" s="15" t="s">
-        <v>265</v>
       </c>
       <c r="AC117" s="17"/>
       <c r="AD117" s="17"/>
@@ -8896,14 +8899,14 @@
         <v>31</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C118" s="17"/>
       <c r="D118" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>116</v>
@@ -8932,14 +8935,14 @@
       <c r="V118" s="17"/>
       <c r="W118" s="17"/>
       <c r="X118" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y118" s="10">
         <v>0</v>
       </c>
       <c r="Z118" s="11"/>
       <c r="AA118" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB118" s="16"/>
       <c r="AC118" s="17"/>
@@ -8956,14 +8959,14 @@
         <v>31</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
@@ -8988,14 +8991,14 @@
       <c r="V119" s="4"/>
       <c r="W119" s="4"/>
       <c r="X119" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y119" s="10">
         <v>0</v>
       </c>
       <c r="Z119" s="11"/>
       <c r="AA119" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB119" s="16"/>
       <c r="AC119" s="5"/>
@@ -9012,14 +9015,14 @@
         <v>31</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
@@ -9044,14 +9047,14 @@
       <c r="V120" s="4"/>
       <c r="W120" s="4"/>
       <c r="X120" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y120" s="10">
         <v>0</v>
       </c>
       <c r="Z120" s="11"/>
       <c r="AA120" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB120" s="16"/>
       <c r="AC120" s="5"/>
@@ -9068,24 +9071,24 @@
         <v>31</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K121" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L121" s="9">
         <v>1515</v>
@@ -9104,17 +9107,17 @@
       <c r="V121" s="4"/>
       <c r="W121" s="4"/>
       <c r="X121" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y121" s="10">
         <v>0</v>
       </c>
       <c r="Z121" s="11"/>
       <c r="AA121" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB121" s="15" t="s">
         <v>230</v>
-      </c>
-      <c r="AB121" s="15" t="s">
-        <v>231</v>
       </c>
       <c r="AC121" s="5"/>
       <c r="AD121" s="5"/>
@@ -9130,21 +9133,21 @@
         <v>31</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K122" s="9" t="s">
         <v>109</v>
@@ -9166,17 +9169,17 @@
       <c r="V122" s="4"/>
       <c r="W122" s="4"/>
       <c r="X122" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y122" s="10">
         <v>0</v>
       </c>
       <c r="Z122" s="11"/>
       <c r="AA122" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB122" s="15" t="s">
         <v>233</v>
-      </c>
-      <c r="AB122" s="15" t="s">
-        <v>234</v>
       </c>
       <c r="AC122" s="5"/>
       <c r="AD122" s="5"/>
@@ -9192,17 +9195,17 @@
         <v>31</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E123" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F123" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>106</v>
@@ -9228,14 +9231,14 @@
       <c r="V123" s="4"/>
       <c r="W123" s="4"/>
       <c r="X123" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y123" s="10">
         <v>0</v>
       </c>
       <c r="Z123" s="11"/>
       <c r="AA123" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB123" s="16"/>
       <c r="AC123" s="5"/>
@@ -9252,17 +9255,17 @@
         <v>31</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E124" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F124" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>106</v>
@@ -9288,17 +9291,17 @@
       <c r="V124" s="4"/>
       <c r="W124" s="4"/>
       <c r="X124" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y124" s="10">
         <v>0</v>
       </c>
       <c r="Z124" s="11"/>
       <c r="AA124" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB124" s="15" t="s">
         <v>184</v>
-      </c>
-      <c r="AB124" s="15" t="s">
-        <v>185</v>
       </c>
       <c r="AC124" s="5"/>
       <c r="AD124" s="5"/>
@@ -9314,17 +9317,17 @@
         <v>31</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E125" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F125" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>106</v>
@@ -9350,14 +9353,14 @@
       <c r="V125" s="4"/>
       <c r="W125" s="4"/>
       <c r="X125" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y125" s="10">
         <v>0</v>
       </c>
       <c r="Z125" s="11"/>
       <c r="AA125" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB125" s="16"/>
       <c r="AC125" s="5"/>
@@ -9374,17 +9377,17 @@
         <v>31</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E126" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F126" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>109</v>
@@ -9410,14 +9413,14 @@
       <c r="V126" s="4"/>
       <c r="W126" s="4"/>
       <c r="X126" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y126" s="10">
         <v>0</v>
       </c>
       <c r="Z126" s="11"/>
       <c r="AA126" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB126" s="16"/>
       <c r="AC126" s="5"/>
@@ -9434,17 +9437,17 @@
         <v>31</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E127" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F127" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>109</v>
@@ -9470,14 +9473,14 @@
       <c r="V127" s="4"/>
       <c r="W127" s="4"/>
       <c r="X127" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y127" s="10">
         <v>0</v>
       </c>
       <c r="Z127" s="11"/>
       <c r="AA127" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB127" s="15"/>
       <c r="AC127" s="5"/>
@@ -9494,17 +9497,17 @@
         <v>31</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>106</v>
@@ -9530,14 +9533,14 @@
       <c r="V128" s="4"/>
       <c r="W128" s="4"/>
       <c r="X128" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y128" s="10">
         <v>0</v>
       </c>
       <c r="Z128" s="11"/>
       <c r="AA128" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB128" s="15"/>
       <c r="AC128" s="5"/>
@@ -9554,17 +9557,17 @@
         <v>31</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>109</v>
@@ -9590,14 +9593,14 @@
       <c r="V129" s="4"/>
       <c r="W129" s="4"/>
       <c r="X129" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y129" s="10">
         <v>0</v>
       </c>
       <c r="Z129" s="11"/>
       <c r="AA129" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB129" s="15"/>
       <c r="AC129" s="5"/>
@@ -9614,17 +9617,17 @@
         <v>31</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>109</v>
@@ -9650,14 +9653,14 @@
       <c r="V130" s="4"/>
       <c r="W130" s="4"/>
       <c r="X130" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y130" s="10">
         <v>0</v>
       </c>
       <c r="Z130" s="11"/>
       <c r="AA130" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB130" s="15"/>
       <c r="AC130" s="5"/>
@@ -9674,14 +9677,14 @@
         <v>31</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
@@ -9706,14 +9709,14 @@
       <c r="V131" s="4"/>
       <c r="W131" s="4"/>
       <c r="X131" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y131" s="10">
         <v>0</v>
       </c>
       <c r="Z131" s="11"/>
       <c r="AA131" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB131" s="16"/>
       <c r="AC131" s="5"/>
@@ -9730,14 +9733,14 @@
         <v>31</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
@@ -9762,14 +9765,14 @@
       <c r="V132" s="4"/>
       <c r="W132" s="4"/>
       <c r="X132" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y132" s="10">
         <v>0</v>
       </c>
       <c r="Z132" s="11"/>
       <c r="AA132" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB132" s="16"/>
       <c r="AC132" s="5"/>
@@ -9786,14 +9789,14 @@
         <v>31</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
@@ -9818,14 +9821,14 @@
       <c r="V133" s="4"/>
       <c r="W133" s="4"/>
       <c r="X133" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y133" s="10">
         <v>0</v>
       </c>
       <c r="Z133" s="11"/>
       <c r="AA133" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB133" s="16"/>
       <c r="AC133" s="5"/>
@@ -9842,14 +9845,14 @@
         <v>31</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
@@ -9874,14 +9877,14 @@
       <c r="V134" s="4"/>
       <c r="W134" s="4"/>
       <c r="X134" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y134" s="10">
         <v>0</v>
       </c>
       <c r="Z134" s="11"/>
       <c r="AA134" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB134" s="16"/>
       <c r="AC134" s="5"/>
@@ -9898,17 +9901,17 @@
         <v>31</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E135" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F135" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>106</v>
@@ -9934,14 +9937,14 @@
       <c r="V135" s="4"/>
       <c r="W135" s="4"/>
       <c r="X135" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y135" s="10">
         <v>0</v>
       </c>
       <c r="Z135" s="11"/>
       <c r="AA135" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB135" s="5"/>
       <c r="AC135" s="5"/>
@@ -9958,17 +9961,17 @@
         <v>31</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E136" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F136" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>109</v>
@@ -9994,14 +9997,14 @@
       <c r="V136" s="4"/>
       <c r="W136" s="4"/>
       <c r="X136" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y136" s="10">
         <v>0</v>
       </c>
       <c r="Z136" s="11"/>
       <c r="AA136" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB136" s="5"/>
       <c r="AC136" s="5"/>
@@ -10018,17 +10021,17 @@
         <v>31</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E137" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F137" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>109</v>
@@ -10054,17 +10057,17 @@
       <c r="V137" s="4"/>
       <c r="W137" s="4"/>
       <c r="X137" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y137" s="10">
         <v>0</v>
       </c>
       <c r="Z137" s="11"/>
       <c r="AA137" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB137" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="AB137" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="AC137" s="5"/>
       <c r="AD137" s="5"/>
@@ -10080,17 +10083,17 @@
         <v>31</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>106</v>
@@ -10116,14 +10119,14 @@
       <c r="V138" s="4"/>
       <c r="W138" s="4"/>
       <c r="X138" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y138" s="10">
         <v>0</v>
       </c>
       <c r="Z138" s="11"/>
       <c r="AA138" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB138" s="5"/>
       <c r="AC138" s="5"/>
@@ -10140,17 +10143,17 @@
         <v>31</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>106</v>
@@ -10176,14 +10179,14 @@
       <c r="V139" s="4"/>
       <c r="W139" s="4"/>
       <c r="X139" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y139" s="10">
         <v>0</v>
       </c>
       <c r="Z139" s="11"/>
       <c r="AA139" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB139" s="5"/>
       <c r="AC139" s="5"/>
@@ -10200,17 +10203,17 @@
         <v>31</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>109</v>
@@ -10236,17 +10239,17 @@
       <c r="V140" s="4"/>
       <c r="W140" s="4"/>
       <c r="X140" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y140" s="10">
         <v>0</v>
       </c>
       <c r="Z140" s="11"/>
       <c r="AA140" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB140" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="AB140" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="AC140" s="5"/>
       <c r="AD140" s="5"/>
@@ -10262,17 +10265,17 @@
         <v>31</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>109</v>
@@ -10298,14 +10301,14 @@
       <c r="V141" s="4"/>
       <c r="W141" s="4"/>
       <c r="X141" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y141" s="10">
         <v>0</v>
       </c>
       <c r="Z141" s="11"/>
       <c r="AA141" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB141" s="5"/>
       <c r="AC141" s="5"/>
@@ -10322,14 +10325,14 @@
         <v>31</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
@@ -10354,14 +10357,14 @@
       <c r="V142" s="4"/>
       <c r="W142" s="4"/>
       <c r="X142" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y142" s="10">
         <v>0</v>
       </c>
       <c r="Z142" s="11"/>
       <c r="AA142" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB142" s="5"/>
       <c r="AC142" s="5"/>
@@ -10378,14 +10381,14 @@
         <v>31</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E143" s="18" t="s">
         <v>303</v>
-      </c>
-      <c r="E143" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
@@ -10394,7 +10397,7 @@
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
       <c r="L143" s="9">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M143" s="9">
         <v>45</v>
@@ -10417,7 +10420,7 @@
       </c>
       <c r="Z143" s="11"/>
       <c r="AA143" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB143" s="5"/>
       <c r="AC143" s="5"/>
@@ -10434,14 +10437,14 @@
         <v>31</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E144" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
@@ -10450,7 +10453,7 @@
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
       <c r="L144" s="9">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M144" s="9">
         <v>45</v>
@@ -10473,7 +10476,7 @@
       </c>
       <c r="Z144" s="11"/>
       <c r="AA144" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB144" s="5"/>
       <c r="AC144" s="5"/>
@@ -10490,14 +10493,14 @@
         <v>31</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E145" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
@@ -10506,10 +10509,10 @@
       <c r="J145" s="9"/>
       <c r="K145" s="9"/>
       <c r="L145" s="9">
-        <v>936</v>
+        <v>278</v>
       </c>
       <c r="M145" s="9">
-        <v>567</v>
+        <v>45</v>
       </c>
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
@@ -10529,7 +10532,7 @@
       </c>
       <c r="Z145" s="11"/>
       <c r="AA145" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB145" s="5"/>
       <c r="AC145" s="5"/>
@@ -10546,14 +10549,14 @@
         <v>31</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E146" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
@@ -10562,7 +10565,7 @@
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
       <c r="L146" s="9">
-        <v>974</v>
+        <v>936</v>
       </c>
       <c r="M146" s="9">
         <v>567</v>
@@ -10585,7 +10588,7 @@
       </c>
       <c r="Z146" s="11"/>
       <c r="AA146" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB146" s="5"/>
       <c r="AC146" s="5"/>
@@ -10599,17 +10602,17 @@
     </row>
     <row r="147" spans="1:36">
       <c r="A147" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E147" s="18" t="s">
         <v>312</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="C147" s="4"/>
-      <c r="D147" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="E147" s="18" t="s">
-        <v>315</v>
       </c>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
@@ -10618,10 +10621,10 @@
       <c r="J147" s="9"/>
       <c r="K147" s="9"/>
       <c r="L147" s="9">
-        <v>54</v>
+        <v>974</v>
       </c>
       <c r="M147" s="9">
-        <v>133</v>
+        <v>567</v>
       </c>
       <c r="N147" s="4"/>
       <c r="O147" s="4"/>
@@ -10632,12 +10635,16 @@
       <c r="T147" s="4"/>
       <c r="U147" s="4"/>
       <c r="V147" s="4"/>
-      <c r="W147" s="9"/>
-      <c r="X147" s="10"/>
-      <c r="Y147" s="10"/>
+      <c r="W147" s="4"/>
+      <c r="X147" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y147" s="10">
+        <v>0</v>
+      </c>
       <c r="Z147" s="11"/>
-      <c r="AA147" s="19" t="s">
-        <v>316</v>
+      <c r="AA147" s="12" t="s">
+        <v>304</v>
       </c>
       <c r="AB147" s="5"/>
       <c r="AC147" s="5"/>
@@ -10651,17 +10658,17 @@
     </row>
     <row r="148" spans="1:36">
       <c r="A148" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="B148" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>314</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E148" s="18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
@@ -10670,7 +10677,7 @@
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
       <c r="L148" s="9">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="M148" s="9">
         <v>133</v>
@@ -10684,12 +10691,12 @@
       <c r="T148" s="4"/>
       <c r="U148" s="4"/>
       <c r="V148" s="4"/>
-      <c r="W148" s="10"/>
+      <c r="W148" s="9"/>
       <c r="X148" s="10"/>
       <c r="Y148" s="10"/>
       <c r="Z148" s="11"/>
       <c r="AA148" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AB148" s="5"/>
       <c r="AC148" s="5"/>
@@ -10703,17 +10710,17 @@
     </row>
     <row r="149" spans="1:36">
       <c r="A149" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E149" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
@@ -10725,7 +10732,7 @@
         <v>204</v>
       </c>
       <c r="M149" s="9">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="N149" s="4"/>
       <c r="O149" s="4"/>
@@ -10741,7 +10748,7 @@
       <c r="Y149" s="10"/>
       <c r="Z149" s="11"/>
       <c r="AA149" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AB149" s="5"/>
       <c r="AC149" s="5"/>
@@ -10755,17 +10762,17 @@
     </row>
     <row r="150" spans="1:36">
       <c r="A150" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>321</v>
+        <v>313</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>320</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E150" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
@@ -10777,7 +10784,7 @@
         <v>204</v>
       </c>
       <c r="M150" s="9">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="N150" s="4"/>
       <c r="O150" s="4"/>
@@ -10788,12 +10795,12 @@
       <c r="T150" s="4"/>
       <c r="U150" s="4"/>
       <c r="V150" s="4"/>
-      <c r="W150" s="9"/>
+      <c r="W150" s="10"/>
       <c r="X150" s="10"/>
       <c r="Y150" s="10"/>
       <c r="Z150" s="11"/>
       <c r="AA150" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AB150" s="5"/>
       <c r="AC150" s="5"/>
@@ -10807,45 +10814,45 @@
     </row>
     <row r="151" spans="1:36">
       <c r="A151" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="B151" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C151" s="4"/>
+      <c r="D151" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="E151" s="18" t="s">
         <v>323</v>
-      </c>
-      <c r="C151" s="20"/>
-      <c r="D151" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="E151" s="18" t="s">
-        <v>324</v>
       </c>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
-      <c r="J151" s="6"/>
-      <c r="K151" s="6"/>
-      <c r="L151" s="6">
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c r="L151" s="9">
         <v>204</v>
       </c>
-      <c r="M151" s="6">
-        <v>271</v>
-      </c>
-      <c r="N151" s="6"/>
-      <c r="O151" s="6"/>
+      <c r="M151" s="9">
+        <v>225</v>
+      </c>
+      <c r="N151" s="4"/>
+      <c r="O151" s="4"/>
       <c r="P151" s="4"/>
       <c r="Q151" s="4"/>
       <c r="R151" s="4"/>
-      <c r="S151" s="6"/>
-      <c r="T151" s="6"/>
-      <c r="U151" s="6"/>
-      <c r="V151" s="6"/>
-      <c r="W151" s="6"/>
-      <c r="X151" s="4"/>
-      <c r="Y151" s="4"/>
-      <c r="Z151" s="4"/>
+      <c r="S151" s="4"/>
+      <c r="T151" s="4"/>
+      <c r="U151" s="4"/>
+      <c r="V151" s="4"/>
+      <c r="W151" s="9"/>
+      <c r="X151" s="10"/>
+      <c r="Y151" s="10"/>
+      <c r="Z151" s="11"/>
       <c r="AA151" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AB151" s="5"/>
       <c r="AC151" s="5"/>
@@ -10859,17 +10866,17 @@
     </row>
     <row r="152" spans="1:36">
       <c r="A152" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C152" s="20"/>
       <c r="D152" s="14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E152" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
@@ -10878,10 +10885,10 @@
       <c r="J152" s="6"/>
       <c r="K152" s="6"/>
       <c r="L152" s="6">
-        <v>354</v>
+        <v>204</v>
       </c>
       <c r="M152" s="6">
-        <v>133</v>
+        <v>271</v>
       </c>
       <c r="N152" s="6"/>
       <c r="O152" s="6"/>
@@ -10897,7 +10904,7 @@
       <c r="Y152" s="4"/>
       <c r="Z152" s="4"/>
       <c r="AA152" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AB152" s="5"/>
       <c r="AC152" s="5"/>
@@ -10911,17 +10918,17 @@
     </row>
     <row r="153" spans="1:36">
       <c r="A153" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C153" s="20"/>
       <c r="D153" s="14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E153" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
@@ -10930,7 +10937,7 @@
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
       <c r="L153" s="6">
-        <v>504</v>
+        <v>354</v>
       </c>
       <c r="M153" s="6">
         <v>133</v>
@@ -10949,7 +10956,7 @@
       <c r="Y153" s="4"/>
       <c r="Z153" s="4"/>
       <c r="AA153" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AB153" s="5"/>
       <c r="AC153" s="5"/>
@@ -10963,17 +10970,17 @@
     </row>
     <row r="154" spans="1:36">
       <c r="A154" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>329</v>
+        <v>313</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="C154" s="20"/>
       <c r="D154" s="14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E154" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
@@ -10982,10 +10989,10 @@
       <c r="J154" s="6"/>
       <c r="K154" s="6"/>
       <c r="L154" s="6">
-        <v>1045</v>
+        <v>504</v>
       </c>
       <c r="M154" s="6">
-        <v>258</v>
+        <v>133</v>
       </c>
       <c r="N154" s="6"/>
       <c r="O154" s="6"/>
@@ -10996,12 +11003,12 @@
       <c r="T154" s="6"/>
       <c r="U154" s="6"/>
       <c r="V154" s="6"/>
-      <c r="W154" s="10"/>
+      <c r="W154" s="6"/>
       <c r="X154" s="4"/>
       <c r="Y154" s="4"/>
       <c r="Z154" s="4"/>
       <c r="AA154" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AB154" s="5"/>
       <c r="AC154" s="5"/>
@@ -11015,17 +11022,17 @@
     </row>
     <row r="155" spans="1:36">
       <c r="A155" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C155" s="20"/>
       <c r="D155" s="14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E155" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
@@ -11037,7 +11044,7 @@
         <v>1045</v>
       </c>
       <c r="M155" s="6">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="N155" s="6"/>
       <c r="O155" s="6"/>
@@ -11053,7 +11060,7 @@
       <c r="Y155" s="4"/>
       <c r="Z155" s="4"/>
       <c r="AA155" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AB155" s="5"/>
       <c r="AC155" s="5"/>
@@ -11067,17 +11074,17 @@
     </row>
     <row r="156" spans="1:36">
       <c r="A156" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C156" s="20"/>
       <c r="D156" s="14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E156" s="18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
@@ -11086,10 +11093,10 @@
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
       <c r="L156" s="6">
-        <v>1315</v>
+        <v>1045</v>
       </c>
       <c r="M156" s="6">
-        <v>451</v>
+        <v>318</v>
       </c>
       <c r="N156" s="6"/>
       <c r="O156" s="6"/>
@@ -11105,7 +11112,7 @@
       <c r="Y156" s="4"/>
       <c r="Z156" s="4"/>
       <c r="AA156" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AB156" s="5"/>
       <c r="AC156" s="5"/>
@@ -11119,17 +11126,17 @@
     </row>
     <row r="157" spans="1:36">
       <c r="A157" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C157" s="20"/>
       <c r="D157" s="14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E157" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
@@ -11138,7 +11145,7 @@
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
       <c r="L157" s="6">
-        <v>1465</v>
+        <v>1315</v>
       </c>
       <c r="M157" s="6">
         <v>451</v>
@@ -11157,7 +11164,7 @@
       <c r="Y157" s="4"/>
       <c r="Z157" s="4"/>
       <c r="AA157" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AB157" s="5"/>
       <c r="AC157" s="5"/>
@@ -11171,17 +11178,17 @@
     </row>
     <row r="158" spans="1:36">
       <c r="A158" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C158" s="20"/>
       <c r="D158" s="14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E158" s="18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
@@ -11190,10 +11197,10 @@
       <c r="J158" s="6"/>
       <c r="K158" s="6"/>
       <c r="L158" s="6">
-        <v>1615</v>
+        <v>1465</v>
       </c>
       <c r="M158" s="6">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="N158" s="6"/>
       <c r="O158" s="6"/>
@@ -11209,7 +11216,7 @@
       <c r="Y158" s="4"/>
       <c r="Z158" s="4"/>
       <c r="AA158" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AB158" s="5"/>
       <c r="AC158" s="5"/>
@@ -11223,17 +11230,17 @@
     </row>
     <row r="159" spans="1:36">
       <c r="A159" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B159" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C159" s="20"/>
+      <c r="D159" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="E159" s="18" t="s">
         <v>339</v>
-      </c>
-      <c r="C159" s="10"/>
-      <c r="D159" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="E159" s="18" t="s">
-        <v>340</v>
       </c>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
@@ -11245,7 +11252,7 @@
         <v>1615</v>
       </c>
       <c r="M159" s="6">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="N159" s="6"/>
       <c r="O159" s="6"/>
@@ -11261,7 +11268,7 @@
       <c r="Y159" s="4"/>
       <c r="Z159" s="4"/>
       <c r="AA159" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AB159" s="5"/>
       <c r="AC159" s="5"/>
@@ -11275,17 +11282,17 @@
     </row>
     <row r="160" spans="1:36">
       <c r="A160" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>341</v>
+        <v>313</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>340</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E160" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
@@ -11294,7 +11301,7 @@
       <c r="J160" s="6"/>
       <c r="K160" s="6"/>
       <c r="L160" s="6">
-        <v>1765</v>
+        <v>1615</v>
       </c>
       <c r="M160" s="6">
         <v>451</v>
@@ -11308,12 +11315,12 @@
       <c r="T160" s="6"/>
       <c r="U160" s="6"/>
       <c r="V160" s="6"/>
-      <c r="W160" s="6"/>
+      <c r="W160" s="10"/>
       <c r="X160" s="4"/>
       <c r="Y160" s="4"/>
       <c r="Z160" s="4"/>
       <c r="AA160" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AB160" s="5"/>
       <c r="AC160" s="5"/>
@@ -11326,19 +11333,31 @@
       <c r="AJ160" s="5"/>
     </row>
     <row r="161" spans="1:36">
-      <c r="A161" s="4"/>
-      <c r="B161" s="6"/>
+      <c r="A161" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="C161" s="10"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
+      <c r="D161" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="E161" s="18" t="s">
+        <v>343</v>
+      </c>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
-      <c r="L161" s="6"/>
-      <c r="M161" s="6"/>
+      <c r="L161" s="6">
+        <v>1765</v>
+      </c>
+      <c r="M161" s="6">
+        <v>451</v>
+      </c>
       <c r="N161" s="6"/>
       <c r="O161" s="6"/>
       <c r="P161" s="4"/>
@@ -11352,7 +11371,9 @@
       <c r="X161" s="4"/>
       <c r="Y161" s="4"/>
       <c r="Z161" s="4"/>
-      <c r="AA161" s="5"/>
+      <c r="AA161" s="19" t="s">
+        <v>317</v>
+      </c>
       <c r="AB161" s="5"/>
       <c r="AC161" s="5"/>
       <c r="AD161" s="5"/>
@@ -11365,8 +11386,8 @@
     </row>
     <row r="162" spans="1:36">
       <c r="A162" s="4"/>
-      <c r="B162" s="21"/>
-      <c r="C162" s="20"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="10"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
@@ -11382,11 +11403,11 @@
       <c r="P162" s="4"/>
       <c r="Q162" s="4"/>
       <c r="R162" s="4"/>
-      <c r="S162" s="21"/>
+      <c r="S162" s="6"/>
       <c r="T162" s="6"/>
       <c r="U162" s="6"/>
       <c r="V162" s="6"/>
-      <c r="W162" s="21"/>
+      <c r="W162" s="6"/>
       <c r="X162" s="4"/>
       <c r="Y162" s="4"/>
       <c r="Z162" s="4"/>
@@ -11420,7 +11441,7 @@
       <c r="P163" s="4"/>
       <c r="Q163" s="4"/>
       <c r="R163" s="4"/>
-      <c r="S163" s="6"/>
+      <c r="S163" s="21"/>
       <c r="T163" s="6"/>
       <c r="U163" s="6"/>
       <c r="V163" s="6"/>
@@ -11515,6 +11536,44 @@
       <c r="AI165" s="5"/>
       <c r="AJ165" s="5"/>
     </row>
+    <row r="166" spans="1:36">
+      <c r="A166" s="4"/>
+      <c r="B166" s="21"/>
+      <c r="C166" s="20"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4"/>
+      <c r="J166" s="6"/>
+      <c r="K166" s="6"/>
+      <c r="L166" s="6"/>
+      <c r="M166" s="6"/>
+      <c r="N166" s="6"/>
+      <c r="O166" s="6"/>
+      <c r="P166" s="4"/>
+      <c r="Q166" s="4"/>
+      <c r="R166" s="4"/>
+      <c r="S166" s="6"/>
+      <c r="T166" s="6"/>
+      <c r="U166" s="6"/>
+      <c r="V166" s="6"/>
+      <c r="W166" s="21"/>
+      <c r="X166" s="4"/>
+      <c r="Y166" s="4"/>
+      <c r="Z166" s="4"/>
+      <c r="AA166" s="5"/>
+      <c r="AB166" s="5"/>
+      <c r="AC166" s="5"/>
+      <c r="AD166" s="5"/>
+      <c r="AE166" s="5"/>
+      <c r="AF166" s="5"/>
+      <c r="AG166" s="5"/>
+      <c r="AH166" s="5"/>
+      <c r="AI166" s="5"/>
+      <c r="AJ166" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11526,19 +11585,19 @@
           <x14:formula1>
             <xm:f>入力規則!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G165 I2:I165</xm:sqref>
+          <xm:sqref>G2:G166 I2:I166</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>入力規則!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K165</xm:sqref>
+          <xm:sqref>K2:K166</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>入力規則!$A$1:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A165</xm:sqref>
+          <xm:sqref>A2:A166</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11559,18 +11618,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>106</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>109</v>
@@ -11584,7 +11643,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>109</v>
@@ -11634,7 +11693,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="18" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
